--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DCAC6-A85D-F748-8847-C1A85E3B96B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4F58C6-B5F8-D244-AB87-23682A0A734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="740" windowWidth="28560" windowHeight="20400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="980" windowWidth="34220" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="177">
   <si>
     <t>WK 1</t>
   </si>
@@ -547,13 +547,37 @@
   </si>
   <si>
     <t>Dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6-4</t>
+  </si>
+  <si>
+    <t>Preston - Phantom</t>
+  </si>
+  <si>
+    <t>Lost 4-6</t>
+  </si>
+  <si>
+    <t>Fred?</t>
+  </si>
+  <si>
+    <t>Ian?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6-3</t>
+  </si>
+  <si>
+    <t>Dwarf - Gadget</t>
+  </si>
+  <si>
+    <t>Lost 3-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +658,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -798,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -883,9 +914,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,6 +959,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1346,11 +1383,11 @@
   </sheetPr>
   <dimension ref="A1:BJ72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1367,9 +1404,9 @@
     <col min="13" max="13" width="6.6640625" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" customWidth="1"/>
     <col min="15" max="16" width="6" customWidth="1"/>
-    <col min="17" max="18" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="20" width="6.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="7.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="6" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="6.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="7.1640625" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="6.83203125" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="23" max="23" width="6.83203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="6.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1383,7 +1420,7 @@
     <col min="40" max="41" width="6.6640625" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="42" max="42" width="6.5" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="43" max="51" width="6.6640625" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="6" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="6" customWidth="1"/>
     <col min="53" max="53" width="9.1640625" customWidth="1"/>
     <col min="54" max="54" width="9.1640625" style="8" customWidth="1"/>
     <col min="57" max="57" width="10.33203125" customWidth="1"/>
@@ -1399,154 +1436,154 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B2" s="47">
+      <c r="B2" s="46">
         <v>44928</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="46">
         <v>44935</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="46">
         <v>44942</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <v>44949</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="46">
         <v>44956</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="46">
         <v>44963</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="46">
         <v>44970</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="46">
         <v>44977</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="46">
         <v>44984</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="46">
         <v>44991</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="46">
         <v>44998</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="46">
         <v>45005</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="46">
         <v>45012</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="46">
         <v>45019</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="46">
         <v>45026</v>
       </c>
-      <c r="Q2" s="47">
+      <c r="Q2" s="46">
         <v>45033</v>
       </c>
-      <c r="R2" s="47">
-        <v>45040</v>
-      </c>
-      <c r="S2" s="47">
-        <v>45047</v>
-      </c>
-      <c r="T2" s="47">
-        <v>45054</v>
-      </c>
-      <c r="U2" s="47">
-        <v>45061</v>
-      </c>
-      <c r="V2" s="47">
+      <c r="R2" s="46">
+        <v>45039</v>
+      </c>
+      <c r="S2" s="46">
+        <v>45046</v>
+      </c>
+      <c r="T2" s="46">
+        <v>45053</v>
+      </c>
+      <c r="U2" s="46">
+        <v>45060</v>
+      </c>
+      <c r="V2" s="46">
         <v>45068</v>
       </c>
-      <c r="W2" s="47">
+      <c r="W2" s="46">
         <v>45075</v>
       </c>
-      <c r="X2" s="47">
+      <c r="X2" s="46">
         <v>45082</v>
       </c>
-      <c r="Y2" s="47">
+      <c r="Y2" s="46">
         <v>45089</v>
       </c>
-      <c r="Z2" s="47">
+      <c r="Z2" s="46">
         <v>45096</v>
       </c>
-      <c r="AA2" s="47">
+      <c r="AA2" s="46">
         <v>45103</v>
       </c>
-      <c r="AB2" s="47">
+      <c r="AB2" s="46">
         <v>45110</v>
       </c>
-      <c r="AC2" s="47">
+      <c r="AC2" s="46">
         <v>45117</v>
       </c>
-      <c r="AD2" s="47">
+      <c r="AD2" s="46">
         <v>45124</v>
       </c>
-      <c r="AE2" s="47">
+      <c r="AE2" s="46">
         <v>45131</v>
       </c>
-      <c r="AF2" s="47">
+      <c r="AF2" s="46">
         <v>45138</v>
       </c>
-      <c r="AG2" s="47">
+      <c r="AG2" s="46">
         <v>45145</v>
       </c>
-      <c r="AH2" s="47">
+      <c r="AH2" s="46">
         <v>45152</v>
       </c>
-      <c r="AI2" s="47">
+      <c r="AI2" s="46">
         <v>45159</v>
       </c>
-      <c r="AJ2" s="47">
+      <c r="AJ2" s="46">
         <v>45166</v>
       </c>
-      <c r="AK2" s="47">
+      <c r="AK2" s="46">
         <v>45173</v>
       </c>
-      <c r="AL2" s="47">
+      <c r="AL2" s="46">
         <v>45180</v>
       </c>
-      <c r="AM2" s="47">
+      <c r="AM2" s="46">
         <v>45187</v>
       </c>
-      <c r="AN2" s="47">
+      <c r="AN2" s="46">
         <v>45194</v>
       </c>
-      <c r="AO2" s="47">
+      <c r="AO2" s="46">
         <v>45201</v>
       </c>
-      <c r="AP2" s="47">
+      <c r="AP2" s="46">
         <v>45208</v>
       </c>
-      <c r="AQ2" s="47">
+      <c r="AQ2" s="46">
         <v>45215</v>
       </c>
-      <c r="AR2" s="47">
+      <c r="AR2" s="46">
         <v>45222</v>
       </c>
-      <c r="AS2" s="47">
+      <c r="AS2" s="46">
         <v>45229</v>
       </c>
-      <c r="AT2" s="47">
+      <c r="AT2" s="46">
         <v>45236</v>
       </c>
-      <c r="AU2" s="47">
+      <c r="AU2" s="46">
         <v>45243</v>
       </c>
-      <c r="AV2" s="47">
+      <c r="AV2" s="46">
         <v>45250</v>
       </c>
-      <c r="AW2" s="47">
+      <c r="AW2" s="46">
         <v>45257</v>
       </c>
-      <c r="AX2" s="47">
+      <c r="AX2" s="46">
         <v>45264</v>
       </c>
-      <c r="AY2" s="47">
+      <c r="AY2" s="46">
         <v>45271</v>
       </c>
     </row>
@@ -1790,7 +1827,7 @@
       <c r="A5" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="18">
@@ -1808,7 +1845,7 @@
       <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="18">
         <v>7</v>
       </c>
@@ -1822,15 +1859,19 @@
       <c r="M5" s="18">
         <v>1</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="49">
         <v>0</v>
       </c>
       <c r="O5" s="18">
         <v>-1</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="P5" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>3</v>
+      </c>
+      <c r="R5" s="51"/>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
@@ -1870,32 +1911,32 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f>COUNT(B5:AY5)</f>
-        <v>12</v>
+        <f t="shared" ref="BC5:BC37" si="0">COUNT(B5:AY5)</f>
+        <v>14</v>
       </c>
       <c r="BD5" s="8">
-        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
-        <v>7</v>
+        <f t="shared" ref="BD5:BD37" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <v>9</v>
       </c>
       <c r="BE5" s="8">
-        <f>COUNTIF($B5:$AY5, "0")</f>
+        <f t="shared" ref="BE5:BE37" si="2">COUNTIF($B5:$AY5, "0")</f>
         <v>3</v>
       </c>
       <c r="BF5" s="8">
-        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
+        <f t="shared" ref="BF5:BF37" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
         <v>2</v>
       </c>
       <c r="BG5" s="8">
-        <f>SUM(BD5*3)+BE5</f>
-        <v>24</v>
+        <f t="shared" ref="BG5:BG37" si="4">SUM(BD5*3)+BE5</f>
+        <v>30</v>
       </c>
       <c r="BH5" s="8">
-        <f>SUM(B5:AY5)</f>
-        <v>18</v>
+        <f t="shared" ref="BH5:BH37" si="5">SUM(B5:AY5)</f>
+        <v>23</v>
       </c>
       <c r="BI5" s="10">
-        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="BI5:BI37" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -1915,13 +1956,13 @@
       <c r="E6" s="31">
         <v>1</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="57">
         <v>1</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
       </c>
-      <c r="H6" s="53"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="31">
         <v>7</v>
       </c>
@@ -1943,9 +1984,13 @@
       <c r="O6" s="31">
         <v>1</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
+      <c r="P6" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="57">
+        <v>3</v>
+      </c>
+      <c r="R6" s="52"/>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
@@ -1983,80 +2028,80 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f>COUNT(B6:AY6)</f>
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="BD6" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="BE6" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="BF6" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="BG6" s="8">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="BH6" s="8">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="BD6" s="8">
-        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
-        <v>6</v>
-      </c>
-      <c r="BE6" s="8">
-        <f>COUNTIF($B6:$AY6, "0")</f>
-        <v>3</v>
-      </c>
-      <c r="BF6" s="8">
-        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="BG6" s="8">
-        <f>SUM(BD6*3)+BE6</f>
-        <v>21</v>
-      </c>
-      <c r="BH6" s="8">
-        <f>SUM(B6:AY6)</f>
-        <v>8</v>
-      </c>
       <c r="BI6" s="10">
-        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.53846153846153844</v>
+        <f t="shared" si="6"/>
+        <v>0.6</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="49">
-        <v>1</v>
+      <c r="C7" s="7">
+        <v>-1</v>
       </c>
       <c r="D7" s="7">
         <v>9</v>
       </c>
-      <c r="E7" s="7">
-        <v>-1</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7">
         <v>-1</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="7">
-        <v>-7</v>
+      <c r="H7" s="53"/>
+      <c r="I7" s="48">
+        <v>7</v>
       </c>
       <c r="J7" s="7">
-        <v>8</v>
-      </c>
-      <c r="K7" s="7"/>
+        <v>-8</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
       <c r="L7" s="7">
         <v>-2</v>
       </c>
-      <c r="M7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="49">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
         <v>0</v>
       </c>
       <c r="O7" s="7">
         <v>1</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="7">
+        <v>3</v>
+      </c>
+      <c r="R7" s="53"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -2094,68 +2139,82 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f>COUNT(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="BD7" s="8">
-        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BE7" s="8">
-        <f>COUNTIF($B7:$AY7, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF7" s="8">
-        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="BG7" s="8">
-        <f>SUM(BD7*3)+BE7</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="BH7" s="8">
-        <f>SUM(B7:AY7)</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="BI7" s="10">
-        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.47222222222222221</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
-        <v>9</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+        <v>-1</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="18">
+        <v>-7</v>
+      </c>
+      <c r="J8" s="18">
+        <v>8</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>2</v>
+      </c>
+      <c r="M8" s="18">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>3</v>
+      </c>
+      <c r="R8" s="51"/>
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
@@ -2193,78 +2252,84 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f>COUNT(B8:AY8)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="BD8" s="8">
-        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BE8" s="8">
-        <f>COUNTIF($B8:$AY8, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF8" s="8">
-        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG8" s="8">
-        <f>SUM(BD8*3)+BE8</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="BH8" s="8">
-        <f>SUM(B8:AY8)</f>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="BI8" s="10">
-        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" si="6"/>
+        <v>0.46153846153846156</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="16">
-        <v>-1</v>
+      <c r="C9" s="50">
+        <v>1</v>
       </c>
       <c r="D9" s="16">
         <v>9</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="16">
+        <v>-1</v>
+      </c>
       <c r="F9" s="16">
         <v>-1</v>
       </c>
       <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="51">
-        <v>7</v>
+      <c r="H9" s="54"/>
+      <c r="I9" s="16">
+        <v>-7</v>
       </c>
       <c r="J9" s="16">
-        <v>-8</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K9" s="16"/>
       <c r="L9" s="16">
         <v>-2</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
+      <c r="M9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="50">
         <v>0</v>
       </c>
       <c r="O9" s="16">
         <v>1</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="P9" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>-3</v>
+      </c>
+      <c r="R9" s="54"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -2302,82 +2367,72 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f>COUNT(B9:AY9)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="BD9" s="8">
-        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="BE9" s="8">
-        <f>COUNTIF($B9:$AY9, "0")</f>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="BF9" s="8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="BG9" s="8">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="BH9" s="8">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="BF9" s="8">
-        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="BG9" s="8">
-        <f>SUM(BD9*3)+BE9</f>
-        <v>15</v>
-      </c>
-      <c r="BH9" s="8">
-        <f>SUM(B9:AY9)</f>
-        <v>6</v>
-      </c>
       <c r="BI9" s="10">
-        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.45454545454545453</v>
+        <f t="shared" si="6"/>
+        <v>0.40476190476190477</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="16">
-        <v>-1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B10" s="61"/>
       <c r="C10" s="16">
         <v>1</v>
       </c>
       <c r="D10" s="16">
         <v>9</v>
       </c>
-      <c r="E10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="16">
         <v>0</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="51">
-        <v>-7</v>
-      </c>
-      <c r="J10" s="16">
-        <v>-8</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="16">
+        <v>7</v>
+      </c>
+      <c r="J10" s="50">
+        <v>8</v>
+      </c>
+      <c r="K10" s="16"/>
       <c r="L10" s="16">
         <v>-2</v>
       </c>
       <c r="M10" s="16">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
         <v>-1</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7">
+        <v>2</v>
+      </c>
       <c r="Q10" s="7"/>
-      <c r="R10" s="16"/>
+      <c r="R10" s="54"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -2403,7 +2458,7 @@
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
+      <c r="AR10" s="61"/>
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
@@ -2415,80 +2470,68 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f>COUNT(B10:AY10)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="BD10" s="8">
-        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="BE10" s="8">
-        <f>COUNTIF($B10:$AY10, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF10" s="8">
-        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="BG10" s="8">
-        <f>SUM(BD10*3)+BE10</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="BH10" s="8">
-        <f>SUM(B10:AY10)</f>
-        <v>-8</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="BI10" s="10">
-        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B11" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="49">
-        <v>-1</v>
+        <v>9</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="7">
-        <v>7</v>
-      </c>
-      <c r="J11" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -2526,70 +2569,80 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f>COUNT(B11:AY11)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="BD11" s="8">
-        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="BE11" s="8">
-        <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF11" s="8">
-        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="BG11" s="8">
-        <f>SUM(BD11*3)+BE11</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="BH11" s="8">
-        <f>SUM(B11:AY11)</f>
-        <v>-9</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="BI11" s="10">
-        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="6"/>
+        <v>0.88888888888888884</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="59"/>
+        <v>65</v>
+      </c>
+      <c r="B12" s="7">
+        <v>-1</v>
+      </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-1</v>
+      </c>
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="54"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="7">
-        <v>7</v>
-      </c>
-      <c r="J12" s="49">
-        <v>8</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7">
-        <v>-2</v>
+        <v>-7</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="48">
+        <v>2</v>
       </c>
       <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
         <v>-1</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -2615,7 +2668,7 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
-      <c r="AR12" s="59"/>
+      <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -2627,61 +2680,65 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f>COUNT(B12:AY12)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="BD12" s="8">
-        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE12" s="8">
-        <f>COUNTIF($B12:$AY12, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF12" s="8">
-        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG12" s="8">
-        <f>SUM(BD12*3)+BE12</f>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="BH12" s="8">
-        <f>SUM(B12:AY12)</f>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>-5</v>
       </c>
       <c r="BI12" s="10">
-        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.61904761904761907</v>
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B13" s="7">
         <v>-1</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7">
         <v>-1</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="7">
-        <v>7</v>
+      <c r="H13" s="53"/>
+      <c r="I13" s="48">
+        <v>-7</v>
       </c>
       <c r="J13" s="7">
-        <v>8</v>
-      </c>
-      <c r="K13" s="49">
+        <v>-8</v>
+      </c>
+      <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="L13" s="7">
@@ -2693,10 +2750,12 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="7">
+        <v>-1</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="53"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -2734,59 +2793,61 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f>COUNT(B13:AY13)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="BD13" s="8">
-        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="BE13" s="8">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="BE13" s="8">
-        <f>COUNTIF($B13:$AY13, "0")</f>
-        <v>3</v>
-      </c>
       <c r="BF13" s="8">
-        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="BG13" s="8">
-        <f>SUM(BD13*3)+BE13</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="BH13" s="8">
-        <f>SUM(B13:AY13)</f>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>-8</v>
       </c>
       <c r="BI13" s="10">
-        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.4</v>
+        <f t="shared" si="6"/>
+        <v>0.38461538461538464</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7">
         <v>-1</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-9</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="F14" s="48">
         <v>-1</v>
       </c>
-      <c r="G14" s="49">
-        <v>0</v>
-      </c>
-      <c r="H14" s="54"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53"/>
       <c r="I14" s="7">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="J14" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
@@ -2795,17 +2856,21 @@
         <v>2</v>
       </c>
       <c r="M14" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="48">
+        <v>-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R14" s="53"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -2843,46 +2908,48 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f>COUNT(B14:AY14)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="BD14" s="8">
-        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="BE14" s="8">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="BE14" s="8">
-        <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>3</v>
-      </c>
       <c r="BF14" s="8">
-        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="BG14" s="8">
-        <f>SUM(BD14*3)+BE14</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="BH14" s="8">
-        <f>SUM(B14:AY14)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-14</v>
       </c>
       <c r="BI14" s="10">
-        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="6"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="7">
+        <v>106</v>
+      </c>
+      <c r="B15" s="48">
         <v>-1</v>
       </c>
       <c r="C15" s="7">
         <v>-1</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>-9</v>
+      </c>
       <c r="E15" s="7">
         <v>1</v>
       </c>
@@ -2892,29 +2959,29 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="7">
-        <v>-7</v>
-      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="7">
         <v>2</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
         <v>-1</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="48">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>3</v>
+      </c>
+      <c r="R15" s="53"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -2952,70 +3019,74 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f>COUNT(B15:AY15)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="BD15" s="8">
-        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="BE15" s="8">
-        <f>COUNTIF($B15:$AY15, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF15" s="8">
-        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="BG15" s="8">
-        <f>SUM(BD15*3)+BE15</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="BH15" s="8">
-        <f>SUM(B15:AY15)</f>
-        <v>-7</v>
+        <f t="shared" si="5"/>
+        <v>-8</v>
       </c>
       <c r="BI15" s="10">
-        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="6"/>
+        <v>0.3888888888888889</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="59">
-        <v>1</v>
-      </c>
-      <c r="C16" s="49">
+        <v>85</v>
+      </c>
+      <c r="B16" s="7">
         <v>-1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
       </c>
       <c r="D16" s="7">
         <v>-9</v>
       </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="54"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="53"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7">
+      <c r="J16" s="48">
         <v>-8</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="7">
-        <v>2</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="Q16" s="7">
+        <v>3</v>
+      </c>
+      <c r="R16" s="53"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -3041,7 +3112,7 @@
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
-      <c r="AR16" s="59"/>
+      <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
@@ -3049,45 +3120,46 @@
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
-      <c r="AZ16" s="5"/>
       <c r="BA16" s="34">
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f>COUNT(B16:AY16)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="BD16" s="8">
-        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE16" s="8">
-        <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF16" s="8">
-        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG16" s="8">
-        <f>SUM(BD16*3)+BE16</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="BH16" s="8">
-        <f>SUM(B16:AY16)</f>
-        <v>-13</v>
+        <f t="shared" si="5"/>
+        <v>-12</v>
       </c>
       <c r="BI16" s="10">
-        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="6"/>
+        <v>0.51851851851851849</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="B17" s="7">
+        <v>-1</v>
+      </c>
       <c r="C17" s="7">
         <v>-1</v>
       </c>
@@ -3099,25 +3171,31 @@
       <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="7">
+        <v>7</v>
+      </c>
       <c r="J17" s="7">
         <v>8</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="49">
+      <c r="K17" s="48">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
       </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="53"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -3155,43 +3233,43 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f>COUNT(B17:AY17)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="BD17" s="8">
-        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE17" s="8">
-        <f>COUNTIF($B17:$AY17, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF17" s="8">
-        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG17" s="8">
-        <f>SUM(BD17*3)+BE17</f>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="BH17" s="8">
-        <f>SUM(B17:AY17)</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="BI17" s="10">
-        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.52380952380952384</v>
+        <f t="shared" si="6"/>
+        <v>0.36363636363636365</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="49">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="7">
+        <v>82</v>
+      </c>
+      <c r="B18" s="58">
+        <v>1</v>
+      </c>
+      <c r="C18" s="48">
         <v>-1</v>
       </c>
       <c r="D18" s="7">
@@ -3201,30 +3279,28 @@
         <v>1</v>
       </c>
       <c r="F18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="54"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
+      <c r="J18" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="7">
         <v>2</v>
       </c>
-      <c r="M18" s="7">
-        <v>-1</v>
-      </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="49">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q18" s="48">
+        <v>-3</v>
+      </c>
+      <c r="R18" s="53"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -3250,7 +3326,7 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
+      <c r="AR18" s="58"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
@@ -3258,65 +3334,64 @@
       <c r="AW18" s="7"/>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
+      <c r="AZ18" s="5"/>
       <c r="BA18" s="34">
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f>COUNT(B18:AY18)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="BD18" s="8">
-        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="BE18" s="8">
-        <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="BF18" s="8">
-        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG18" s="8">
-        <f>SUM(BD18*3)+BE18</f>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="BH18" s="8">
-        <f>SUM(B18:AY18)</f>
-        <v>-9</v>
+        <f t="shared" si="5"/>
+        <v>-18</v>
       </c>
       <c r="BI18" s="10">
-        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.36666666666666664</v>
+        <f t="shared" si="6"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="7">
+        <v>79</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
         <v>-1</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>-1</v>
+      </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="54"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="49">
-        <v>-8</v>
+      <c r="J19" s="7">
+        <v>8</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7">
+      <c r="M19" s="48">
         <v>1</v>
       </c>
       <c r="N19" s="7">
@@ -3326,8 +3401,10 @@
         <v>1</v>
       </c>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="Q19" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R19" s="53"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -3365,31 +3442,31 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f>COUNT(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BD19" s="8">
-        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE19" s="8">
-        <f>COUNTIF($B19:$AY19, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF19" s="8">
-        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG19" s="8">
-        <f>SUM(BD19*3)+BE19</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="BH19" s="8">
-        <f>SUM(B19:AY19)</f>
-        <v>-15</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="BI19" s="10">
-        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
+        <f t="shared" si="6"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="BJ19" s="10"/>
@@ -3403,14 +3480,14 @@
         <v>1</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="49">
+      <c r="E20" s="48">
         <v>1</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="7">
         <v>-7</v>
       </c>
@@ -3420,9 +3497,11 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="53"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -3460,66 +3539,68 @@
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f>COUNT(B20:AY20)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="BD20" s="8">
-        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE20" s="8">
-        <f>COUNTIF($B20:$AY20, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF20" s="8">
-        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="BG20" s="8">
-        <f>SUM(BD20*3)+BE20</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="BH20" s="8">
-        <f>SUM(B20:AY20)</f>
-        <v>-4</v>
+        <f t="shared" si="5"/>
+        <v>-6</v>
       </c>
       <c r="BI20" s="10">
-        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.75</v>
+        <f t="shared" si="6"/>
+        <v>0.6</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="49">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7">
-        <v>-1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="54"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="L21" s="7">
+        <v>2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R21" s="53"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -3557,44 +3638,48 @@
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f>COUNT(B21:AY21)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="BD21" s="8">
-        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE21" s="8">
-        <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF21" s="8">
-        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG21" s="8">
-        <f>SUM(BD21*3)+BE21</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="BH21" s="8">
-        <f>SUM(B21:AY21)</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="BI21" s="10">
-        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
       <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D22" s="48">
+        <v>9</v>
+      </c>
       <c r="E22" s="7">
         <v>-1</v>
       </c>
@@ -3602,21 +3687,17 @@
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="54"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
+      <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="49">
-        <v>-1</v>
-      </c>
+      <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="R22" s="53"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -3654,70 +3735,70 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f>COUNT(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BD22" s="8">
-        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE22" s="8">
-        <f>COUNTIF($B22:$AY22, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF22" s="8">
-        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG22" s="8">
-        <f>SUM(BD22*3)+BE22</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH22" s="8">
-        <f>SUM(B22:AY22)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="BI22" s="10">
-        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
+        <f t="shared" si="6"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
+        <v>74</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="48">
         <v>-1</v>
       </c>
-      <c r="D23" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E23" s="7">
-        <v>-1</v>
-      </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="49">
-        <v>0</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="7">
-        <v>-7</v>
-      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="M23" s="48">
+        <v>-1</v>
+      </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="O23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>3</v>
+      </c>
+      <c r="R23" s="53"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -3755,60 +3836,68 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f>COUNT(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BD23" s="8">
-        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE23" s="8">
-        <f>COUNTIF($B23:$AY23, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF23" s="8">
-        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BG23" s="8">
-        <f>SUM(BD23*3)+BE23</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH23" s="8">
-        <f>SUM(B23:AY23)</f>
-        <v>-16</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="BI23" s="10">
-        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="54"/>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="53"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="O24" s="48">
+        <v>-1</v>
+      </c>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="Q24" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R24" s="53"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -3846,64 +3935,70 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f>COUNT(B24:AY24)</f>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BD24" s="8">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BD24" s="8">
-        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
-        <v>2</v>
-      </c>
       <c r="BE24" s="8">
-        <f>COUNTIF($B24:$AY24, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF24" s="8">
-        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="BG24" s="8">
-        <f>SUM(BD24*3)+BE24</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="BH24" s="8">
-        <f>SUM(B24:AY24)</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>-3</v>
       </c>
       <c r="BI24" s="10">
-        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.3888888888888889</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="48">
+        <v>0</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="7">
+        <v>-7</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7">
-        <v>2</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>-1</v>
-      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="53"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -3941,60 +4036,60 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f>COUNT(B25:AY25)</f>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BD25" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="BE25" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BF25" s="8">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="BD25" s="8">
-        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
-        <v>1</v>
-      </c>
-      <c r="BE25" s="8">
-        <f>COUNTIF($B25:$AY25, "0")</f>
-        <v>2</v>
-      </c>
-      <c r="BF25" s="8">
-        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
-        <v>1</v>
-      </c>
       <c r="BG25" s="8">
-        <f>SUM(BD25*3)+BE25</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="BH25" s="8">
-        <f>SUM(B25:AY25)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>-16</v>
       </c>
       <c r="BI25" s="10">
-        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
+        <v>9</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="54"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7">
-        <v>0</v>
-      </c>
+      <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="R26" s="53"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -4032,66 +4127,60 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f>COUNT(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BD26" s="8">
-        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="BE26" s="8">
-        <f>COUNTIF($B26:$AY26, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="BF26" s="8">
-        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG26" s="8">
-        <f>SUM(BD26*3)+BE26</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="BH26" s="8">
-        <f>SUM(B26:AY26)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="BI26" s="10">
-        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="49">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="54"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="49">
-        <v>-1</v>
-      </c>
+      <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7">
-        <v>-1</v>
-      </c>
+      <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="R27" s="53"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -4129,58 +4218,64 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f>COUNT(B27:AY27)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="BD27" s="8">
-        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE27" s="8">
-        <f>COUNTIF($B27:$AY27, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF27" s="8">
-        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="BG27" s="8">
-        <f>SUM(BD27*3)+BE27</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH27" s="8">
-        <f>SUM(B27:AY27)</f>
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="BI27" s="10">
-        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="54"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="48">
+        <v>-2</v>
+      </c>
+      <c r="M28" s="7">
+        <v>-1</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="Q28" s="7">
+        <v>3</v>
+      </c>
+      <c r="R28" s="53"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -4218,38 +4313,38 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f>COUNT(B28:AY28)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="BD28" s="8">
-        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE28" s="8">
-        <f>COUNTIF($B28:$AY28, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF28" s="8">
-        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="BG28" s="8">
-        <f>SUM(BD28*3)+BE28</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="BH28" s="8">
-        <f>SUM(B28:AY28)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="BI28" s="10">
-        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -4257,23 +4352,25 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="54"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7">
-        <v>0</v>
-      </c>
-      <c r="L29" s="49">
-        <v>-2</v>
-      </c>
+      <c r="J29" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K29" s="48">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7"/>
       <c r="M29" s="7">
         <v>-1</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="P29" s="7">
+        <v>2</v>
+      </c>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="R29" s="53"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -4311,62 +4408,58 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f>COUNT(B29:AY29)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="BD29" s="8">
-        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="BE29" s="8">
-        <f>COUNTIF($B29:$AY29, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF29" s="8">
-        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG29" s="8">
-        <f>SUM(BD29*3)+BE29</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="BH29" s="8">
-        <f>SUM(B29:AY29)</f>
-        <v>-3</v>
+        <f t="shared" si="5"/>
+        <v>-7</v>
       </c>
       <c r="BI29" s="10">
-        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="54"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K30" s="49">
-        <v>0</v>
-      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7">
-        <v>-1</v>
-      </c>
+      <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="R30" s="53"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -4404,32 +4497,32 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f>COUNT(B30:AY30)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BD30" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BE30" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF30" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="8">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BD30" s="8">
-        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="8">
-        <f>COUNTIF($B30:$AY30, "0")</f>
-        <v>1</v>
-      </c>
-      <c r="BF30" s="8">
-        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="BG30" s="8">
-        <f>SUM(BD30*3)+BE30</f>
-        <v>1</v>
-      </c>
       <c r="BH30" s="8">
-        <f>SUM(B30:AY30)</f>
-        <v>-9</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="BI30" s="10">
-        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
@@ -4443,7 +4536,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="54"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -4453,7 +4546,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="R31" s="53"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -4491,31 +4584,31 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f>COUNT(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD31" s="8">
-        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE31" s="8">
-        <f>COUNTIF($B31:$AY31, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF31" s="8">
-        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG31" s="8">
-        <f>SUM(BD31*3)+BE31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH31" s="8">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI31" s="10" t="e">
-        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ31" s="10"/>
@@ -4530,7 +4623,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="54"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -4540,7 +4633,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="R32" s="53"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -4578,31 +4671,31 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f>COUNT(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD32" s="8">
-        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE32" s="8">
-        <f>COUNTIF($B32:$AY32, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF32" s="8">
-        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG32" s="8">
-        <f>SUM(BD32*3)+BE32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH32" s="8">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI32" s="10" t="e">
-        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ32" s="10"/>
@@ -4617,7 +4710,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="54"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -4627,7 +4720,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="R33" s="53"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -4665,31 +4758,31 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f>COUNT(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD33" s="8">
-        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE33" s="8">
-        <f>COUNTIF($B33:$AY33, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF33" s="8">
-        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG33" s="8">
-        <f>SUM(BD33*3)+BE33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH33" s="8">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI33" s="10" t="e">
-        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ33" s="10"/>
@@ -4704,7 +4797,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="54"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -4714,7 +4807,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="R34" s="53"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -4752,38 +4845,38 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f>COUNT(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD34" s="8">
-        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE34" s="8">
-        <f>COUNTIF($B34:$AY34, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF34" s="8">
-        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG34" s="8">
-        <f>SUM(BD34*3)+BE34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH34" s="8">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI34" s="10" t="e">
-        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ34" s="10"/>
     </row>
     <row r="35" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4791,7 +4884,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="54"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -4801,7 +4894,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="53"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -4839,38 +4932,38 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f>COUNT(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD35" s="8">
-        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE35" s="8">
-        <f>COUNTIF($B35:$AY35, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF35" s="8">
-        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG35" s="8">
-        <f>SUM(BD35*3)+BE35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH35" s="8">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI35" s="10" t="e">
-        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ35" s="10"/>
     </row>
     <row r="36" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -4878,7 +4971,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="54"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -4887,8 +4980,10 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="Q36" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R36" s="53"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -4926,32 +5021,32 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f>COUNT(B36:AY36)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="BD36" s="8">
-        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE36" s="8">
-        <f>COUNTIF($B36:$AY36, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF36" s="8">
-        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BG36" s="8">
-        <f>SUM(BD36*3)+BE36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH36" s="8">
-        <f>SUM(B36:AY36)</f>
-        <v>0</v>
-      </c>
-      <c r="BI36" s="10" t="e">
-        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="BI36" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BJ36" s="10"/>
     </row>
@@ -4961,13 +5056,13 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="49">
+      <c r="D37" s="48">
         <v>-9</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="54"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -4977,7 +5072,7 @@
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
+      <c r="R37" s="53"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -5015,31 +5110,31 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f>COUNT(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD37" s="8">
-        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f>COUNTIF($B37:$AY37, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF37" s="8">
-        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f>SUM(BD37*3)+BE37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH37" s="8">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="BI37" s="10">
-        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="10"/>
@@ -5049,203 +5144,203 @@
         <v>43</v>
       </c>
       <c r="B38" s="28">
-        <f t="shared" ref="B38:AD38" si="0">COUNT(B5:B37)</f>
+        <f t="shared" ref="B38:AD38" si="7">COUNT(B5:B37)</f>
         <v>16</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="D38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="F38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="G38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="H38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="L38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="N38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="O38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="P38" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="Q38" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="R38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE38" s="28">
-        <f t="shared" ref="AE38:AY38" si="1">COUNT(AE5:AE37)</f>
+        <f t="shared" ref="AE38:AY38" si="8">COUNT(AE5:AE37)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AV38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BC38" s="8"/>
@@ -5301,16 +5396,20 @@
       <c r="O39" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="8"/>
+      <c r="P39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="R39" s="8"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="41"/>
+      <c r="T39" s="40"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
-      <c r="Z39" s="41"/>
+      <c r="Z39" s="40"/>
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="8"/>
@@ -5348,12 +5447,12 @@
     <row r="40" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="44"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -5411,7 +5510,7 @@
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="46"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -5450,8 +5549,8 @@
       <c r="BJ41" s="10"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -5471,17 +5570,17 @@
       <c r="A43" s="11"/>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="J46" s="45"/>
-      <c r="L46" s="45"/>
+      <c r="J46" s="44"/>
+      <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="L47" s="45"/>
+      <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="J48" s="45"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L49" s="45"/>
+      <c r="L49" s="44"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
@@ -5529,7 +5628,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="44"/>
+      <c r="G57" s="43"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
@@ -5556,9 +5655,9 @@
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="44"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="8"/>
-      <c r="G60" s="44"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
@@ -5611,7 +5710,7 @@
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="44"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -5672,7 +5771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G32"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5705,31 +5804,31 @@
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G23" si="0">SUM(C3*3)+D3</f>
-        <v>4</v>
+        <f t="shared" ref="G3:G35" si="0">SUM(C3*3)+D3</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5747,37 +5846,37 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f>SUM(C4*3)+D4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <f>SUM(C5*3)+D5</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5792,16 +5891,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <f>SUM(C6*3)+D6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5819,13 +5918,13 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <f>SUM(C7*3)+D7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5840,16 +5939,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <f>SUM(C8*3)+D8</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5864,17 +5963,17 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <f>SUM(C9*3)+D9</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5889,16 +5988,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <f>SUM(C10*3)+D10</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5916,13 +6015,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>SUM(C11*3)+D11</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5934,23 +6033,23 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <f>SUM(C12*3)+D12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5965,37 +6064,37 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>SUM(C13*3)+D13</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <f>SUM(C14*3)+D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6013,13 +6112,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f>SUM(C15*3)+D15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6037,14 +6136,14 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f>SUM(C16*3)+D16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6053,23 +6152,23 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f>SUM(C17*3)+D17</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6087,14 +6186,14 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <f>SUM(C18*3)+D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6109,20 +6208,20 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G19">
-        <f>SUM(C19*3)+D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6131,20 +6230,20 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>-2</v>
       </c>
       <c r="G20">
-        <f>SUM(C20*3)+D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -6159,20 +6258,20 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G21">
-        <f>SUM(C21*3)+D21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6181,20 +6280,20 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G22">
-        <f>SUM(C22*3)+D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6212,14 +6311,14 @@
         <v>-8</v>
       </c>
       <c r="G23">
-        <f>SUM(C23*3)+D23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6234,118 +6333,133 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G24">
-        <f>SUM(C24*3)+D24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>112</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>-9</v>
       </c>
       <c r="G25">
-        <f>SUM(C25*3)+D25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G26">
-        <f>SUM(C26*3)+D26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G27">
-        <f>SUM(C27*3)+D27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28">
-        <f>SUM(C28*3)+D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="G29">
-        <f>SUM(C29*3)+D29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G30">
-        <f>SUM(C30*3)+D30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G31">
-        <f>SUM(C31*3)+D31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G32">
-        <f>SUM(C32*3)+D32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G24:G35" si="1">SUM(C33*3)+D33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G32">
-    <sortCondition descending="1" ref="G4:G32"/>
-    <sortCondition descending="1" ref="F4:F32"/>
-    <sortCondition ref="B4:B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G35">
+    <sortCondition descending="1" ref="G3:G35"/>
+    <sortCondition descending="1" ref="F3:F35"/>
+    <sortCondition ref="B3:B35"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6360,10 +6474,10 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC36"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6557,7 +6671,7 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7">
@@ -6611,7 +6725,7 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="29"/>
       <c r="BA3" s="24">
-        <f t="shared" ref="BA3:BA36" si="0">SUM(B3:AY3)</f>
+        <f>SUM(B3:AY3)</f>
         <v>12</v>
       </c>
       <c r="BB3" s="8">
@@ -6623,30 +6737,32 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="7">
+        <v>5</v>
+      </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="7">
+        <v>3</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -6683,28 +6799,30 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="24">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B4:AY4)</f>
+        <v>11</v>
       </c>
       <c r="BB4" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
       <c r="D5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>4</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="54"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -6750,36 +6868,33 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="29"/>
       <c r="BA5" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B5:AY5)</f>
+        <v>8</v>
       </c>
       <c r="BB5" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>6</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
+      <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -6820,38 +6935,37 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="29"/>
       <c r="BA6" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:AY6)</f>
         <v>7</v>
       </c>
       <c r="BB6" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="54"/>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7">
-        <v>2</v>
-      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -6891,46 +7005,51 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="29"/>
       <c r="BA7" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B7:AY7)</f>
+        <v>7</v>
       </c>
       <c r="BB7" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="54"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="33"/>
+      <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -6963,37 +7082,32 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="BC8" s="8">
-        <v>1</v>
+        <f>SUM(B8:AY8)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="54"/>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="53"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
+      <c r="M9" s="7"/>
       <c r="N9" s="7">
         <v>1</v>
       </c>
@@ -7036,13 +7150,19 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="29"/>
       <c r="BA9" s="24">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B9:AY9)</f>
+        <v>6</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7050,19 +7170,23 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7">
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7">
         <v>3</v>
       </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -7100,8 +7224,8 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="24">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B10:AY10)</f>
+        <v>6</v>
       </c>
       <c r="BB10" s="8">
         <v>1</v>
@@ -7121,7 +7245,7 @@
       <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="54"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="7">
         <v>2</v>
       </c>
@@ -7130,7 +7254,9 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7">
+        <v>2</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -7169,8 +7295,8 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="29"/>
       <c r="BA11" s="24">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B11:AY11)</f>
+        <v>6</v>
       </c>
       <c r="BC11" s="8">
         <v>1</v>
@@ -7178,28 +7304,34 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -7236,31 +7368,31 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="24">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B12:AY12)</f>
+        <v>6</v>
       </c>
       <c r="BF12" s="24"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="53"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -7270,7 +7402,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="U13" s="33"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -7303,33 +7435,38 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="29"/>
       <c r="BA13" s="24">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B13:AY13)</f>
+        <v>5</v>
+      </c>
+      <c r="BC13" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>3</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -7367,13 +7504,13 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="24">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B14:AY14)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7381,21 +7518,17 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -7435,33 +7568,36 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="29"/>
       <c r="BA15" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AY15)</f>
         <v>4</v>
+      </c>
+      <c r="BB15" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -7501,29 +7637,29 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="29"/>
       <c r="BA16" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="54"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7">
+        <v>3</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -7565,36 +7701,35 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="29"/>
       <c r="BA17" s="24">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BB17" s="8">
-        <v>1</v>
+        <f>SUM(B17:AY17)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
       <c r="J18" s="7">
         <v>1</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -7634,8 +7769,8 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="24">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B18:AY18)</f>
+        <v>4</v>
       </c>
       <c r="BF18" s="24"/>
     </row>
@@ -7649,7 +7784,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="54"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="7">
         <v>2</v>
       </c>
@@ -7660,7 +7795,9 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -7697,8 +7834,8 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="29"/>
       <c r="BA19" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B19:AY19)</f>
+        <v>3</v>
       </c>
       <c r="BC19" s="8">
         <v>1</v>
@@ -7706,25 +7843,27 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="54"/>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -7764,8 +7903,8 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B20:AY20)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
@@ -7780,7 +7919,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="54"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7">
         <v>1</v>
@@ -7789,7 +7928,9 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -7828,8 +7969,8 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="29"/>
       <c r="BA21" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B21:AY21)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
@@ -7842,7 +7983,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="54"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7">
@@ -7855,7 +7996,9 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -7892,31 +8035,31 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B22:AY22)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="54"/>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="53"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7">
-        <v>1</v>
-      </c>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -7956,23 +8099,21 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="29"/>
       <c r="BA23" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="54"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -7980,7 +8121,9 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="P24" s="7">
+        <v>2</v>
+      </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -8018,21 +8161,23 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="29"/>
       <c r="BA24" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B24:AY24)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="54"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -8078,13 +8223,13 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="29"/>
       <c r="BA25" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B25:AY25)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -8092,7 +8237,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="54"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -8101,7 +8246,9 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -8138,13 +8285,13 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="29"/>
       <c r="BA26" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B26:AY26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8152,7 +8299,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="54"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -8198,13 +8345,13 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="29"/>
       <c r="BA27" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -8212,7 +8359,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="54"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -8258,13 +8405,13 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -8272,7 +8419,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="54"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -8318,13 +8465,13 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="29"/>
       <c r="BA29" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8332,7 +8479,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="54"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -8378,13 +8525,13 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="29"/>
       <c r="BA30" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8392,7 +8539,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="54"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -8438,13 +8585,13 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="29"/>
       <c r="BA31" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -8452,7 +8599,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="54"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -8498,13 +8645,13 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="29"/>
       <c r="BA32" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -8512,7 +8659,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="54"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -8525,7 +8672,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
-      <c r="U33" s="33"/>
+      <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
@@ -8558,13 +8705,13 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="29"/>
       <c r="BA33" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -8572,7 +8719,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="54"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -8585,7 +8732,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
+      <c r="U34" s="33"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -8618,7 +8765,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="29"/>
       <c r="BA34" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -8632,7 +8779,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="54"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -8678,7 +8825,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="29"/>
       <c r="BA35" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -8690,7 +8837,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="54"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -8736,7 +8883,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BA3:BA36" si="0">SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -8802,11 +8949,11 @@
       </c>
       <c r="P38">
         <f>'League Table'!P38</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q38">
         <f>'League Table'!Q38</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <f>'League Table'!R38</f>
@@ -8995,15 +9142,15 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R40">
         <f t="shared" si="1"/>
@@ -9131,10 +9278,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC36">
-    <sortCondition descending="1" ref="BA3:BA36"/>
-    <sortCondition descending="1" ref="BB3:BB36"/>
-    <sortCondition descending="1" ref="BC3:BC36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC35">
+    <sortCondition descending="1" ref="BA3:BA35"/>
+    <sortCondition descending="1" ref="BB3:BB35"/>
+    <sortCondition descending="1" ref="BC3:BC35"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9151,10 +9298,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC16" sqref="BC16"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -9393,36 +9540,40 @@
     </row>
     <row r="5" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="18">
-        <v>3</v>
-      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="18">
-        <v>3</v>
-      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18">
         <v>2</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>3</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -9458,41 +9609,43 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="BA5">
-        <f>SUM(B5:AY5)</f>
-        <v>12</v>
+        <f t="shared" ref="BA5:BA38" si="0">SUM(B5:AY5)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="48">
+        <v>110</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47">
+        <v>3</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47">
         <v>2</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48">
-        <v>4</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48">
-        <v>1</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48">
+      <c r="G6" s="47">
+        <v>1</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="47">
+        <v>3</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47">
         <v>2</v>
       </c>
-      <c r="L6" s="18">
-        <v>1</v>
-      </c>
+      <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
-      <c r="O6" s="18">
-        <v>1</v>
-      </c>
-      <c r="P6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
@@ -9529,8 +9682,8 @@
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="BA6">
-        <f>SUM(B6:AY6)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
@@ -9547,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="54"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="7">
         <v>2</v>
       </c>
@@ -9602,38 +9755,40 @@
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="BA7">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="54"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
       <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="16">
+        <v>1</v>
+      </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -9669,29 +9824,29 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="BA8">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="53"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -9736,34 +9891,34 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="19"/>
       <c r="BA9">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:53" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
       <c r="E10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="54"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="16">
-        <v>1</v>
-      </c>
+      <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
@@ -9803,34 +9958,38 @@
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="BA10">
-        <f>SUM(B10:AY10)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
-        <v>4</v>
-      </c>
-      <c r="K11" s="7"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
+      <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="7">
+        <v>2</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -9866,27 +10025,25 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f>SUM(B11:AY11)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="16">
+      <c r="H12" s="54"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16">
         <v>2</v>
       </c>
-      <c r="J12" s="16"/>
       <c r="K12" s="16">
         <v>1</v>
       </c>
@@ -9894,7 +10051,9 @@
       <c r="M12" s="16"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -9931,13 +10090,13 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f>SUM(B12:AY12)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -9945,18 +10104,18 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="54"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -9994,13 +10153,13 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f>SUM(B13:AY13)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -10008,22 +10167,22 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
         <v>1</v>
       </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -10059,8 +10218,8 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f>SUM(B14:AY14)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
@@ -10075,7 +10234,7 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="54"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7">
         <v>1</v>
@@ -10085,7 +10244,9 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -10122,8 +10283,8 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f>SUM(B15:AY15)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
@@ -10136,7 +10297,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7">
         <v>1</v>
@@ -10148,7 +10309,9 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -10185,32 +10348,34 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f>SUM(B16:AY16)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -10248,13 +10413,13 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f>SUM(B17:AY17)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -10262,17 +10427,19 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -10309,29 +10476,31 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f>SUM(B18:AY18)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -10370,13 +10539,13 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f>SUM(B19:AY19)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -10384,7 +10553,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -10431,13 +10600,13 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -10445,15 +10614,15 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="54"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -10492,29 +10661,29 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="54"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -10553,23 +10722,21 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="54"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -10578,7 +10745,9 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -10614,13 +10783,13 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -10628,11 +10797,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -10675,29 +10844,29 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="54"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -10736,25 +10905,25 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="54"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7">
-        <v>1</v>
-      </c>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -10797,13 +10966,13 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -10811,7 +10980,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="54"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -10820,7 +10989,9 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="7">
+        <v>1</v>
+      </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -10856,13 +11027,13 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f>SUM(B27:AY27)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -10870,9 +11041,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="54"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -10915,13 +11088,13 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f>SUM(B28:AY28)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -10929,7 +11102,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="54"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -10974,13 +11147,13 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10988,7 +11161,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="54"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -11033,13 +11206,13 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -11047,7 +11220,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="54"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -11092,13 +11265,13 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -11106,7 +11279,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="54"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -11151,13 +11324,13 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -11165,7 +11338,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="54"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -11210,7 +11383,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11224,7 +11397,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="54"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -11269,7 +11442,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11283,7 +11456,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="54"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -11328,7 +11501,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11342,7 +11515,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="54"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -11387,7 +11560,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11401,7 +11574,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="54"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -11446,7 +11619,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11458,7 +11631,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="54"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -11503,7 +11676,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" ref="BA5:BA38" si="0">SUM(B38:AY38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11515,7 +11688,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="57"/>
+      <c r="H39" s="56"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -11675,11 +11848,11 @@
       </c>
       <c r="P41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R41" s="8">
         <f t="shared" si="1"/>
@@ -11819,13 +11992,13 @@
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA37">
-    <sortCondition descending="1" ref="BA5:BA37"/>
-    <sortCondition ref="A5:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA38">
+    <sortCondition descending="1" ref="BA5:BA38"/>
+    <sortCondition ref="A5:A38"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11840,8 +12013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12000,16 +12173,19 @@
         <v>119</v>
       </c>
       <c r="I9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>119</v>
       </c>
       <c r="N9" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -12033,16 +12209,16 @@
         <v>131</v>
       </c>
       <c r="I10" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="N10" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -12069,13 +12245,16 @@
         <v>2</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -12102,10 +12281,10 @@
         <v>2</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" s="8">
         <v>2</v>
@@ -12133,10 +12312,10 @@
         <v>118</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N13" s="8">
         <v>2</v>
@@ -12166,10 +12345,10 @@
         <v>148</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -12212,8 +12391,12 @@
       <c r="C16" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="D16" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>172</v>
+      </c>
       <c r="G16" s="32"/>
       <c r="H16" s="8" t="s">
         <v>133</v>
@@ -12222,17 +12405,28 @@
         <v>163</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="G17" s="32"/>
       <c r="H17" s="8" t="s">
         <v>138</v>
@@ -12241,27 +12435,35 @@
         <v>168</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="G18" s="32"/>
       <c r="H18" s="8" t="s">
         <v>121</v>
       </c>
       <c r="K18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -12275,10 +12477,10 @@
       </c>
       <c r="K19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <v>18</v>
       </c>
@@ -12287,12 +12489,15 @@
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="G20" s="32"/>
+      <c r="H20" s="59" t="s">
+        <v>130</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="M20" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -12301,12 +12506,15 @@
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="G21" s="32"/>
+      <c r="H21" s="59" t="s">
+        <v>132</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="M21" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -12315,12 +12523,15 @@
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="G22" s="32"/>
+      <c r="H22" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="K22" s="8"/>
       <c r="M22" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="32">
         <v>21</v>
       </c>
@@ -12334,7 +12545,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
         <v>22</v>
       </c>
@@ -12347,8 +12558,11 @@
       <c r="M24" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="32">
         <v>23</v>
       </c>
@@ -12360,7 +12574,7 @@
       <c r="K25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -12372,7 +12586,7 @@
       <c r="K26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -12384,7 +12598,7 @@
       <c r="K27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <v>26</v>
       </c>
@@ -12396,7 +12610,7 @@
       <c r="K28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="32">
         <v>27</v>
       </c>
@@ -12407,7 +12621,7 @@
       <c r="K29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="32">
         <v>28</v>
       </c>
@@ -12416,7 +12630,7 @@
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="32">
         <v>29</v>
       </c>
@@ -12425,7 +12639,7 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="32">
         <v>30</v>
       </c>
@@ -12607,8 +12821,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H9:I12">
-    <sortCondition descending="1" ref="I9:I12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K9:L17">
+    <sortCondition descending="1" ref="L9:L17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4F58C6-B5F8-D244-AB87-23682A0A734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A3715C-07CF-E34C-B87C-3E78B811F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="980" windowWidth="34220" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="179">
   <si>
     <t>WK 1</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>Lost 3-6</t>
+  </si>
+  <si>
+    <t>Father Ted - Posh</t>
+  </si>
+  <si>
+    <t>Father Ted</t>
   </si>
 </sst>
 </file>
@@ -829,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -966,9 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1384,10 +1387,10 @@
   <dimension ref="A1:BJ72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1872,7 +1875,9 @@
         <v>3</v>
       </c>
       <c r="R5" s="51"/>
-      <c r="S5" s="18"/>
+      <c r="S5" s="18">
+        <v>-2</v>
+      </c>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
@@ -1911,32 +1916,32 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f t="shared" ref="BC5:BC37" si="0">COUNT(B5:AY5)</f>
-        <v>14</v>
+        <f>COUNT(B5:AY5)</f>
+        <v>15</v>
       </c>
       <c r="BD5" s="8">
-        <f t="shared" ref="BD5:BD37" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE5" s="8">
-        <f t="shared" ref="BE5:BE37" si="2">COUNTIF($B5:$AY5, "0")</f>
+        <f>COUNTIF($B5:$AY5, "0")</f>
         <v>3</v>
       </c>
       <c r="BF5" s="8">
-        <f t="shared" ref="BF5:BF37" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
-        <v>2</v>
+        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
+        <v>3</v>
       </c>
       <c r="BG5" s="8">
-        <f t="shared" ref="BG5:BG37" si="4">SUM(BD5*3)+BE5</f>
+        <f>SUM(BD5*3)+BE5</f>
         <v>30</v>
       </c>
       <c r="BH5" s="8">
-        <f t="shared" ref="BH5:BH37" si="5">SUM(B5:AY5)</f>
-        <v>23</v>
+        <f>SUM(B5:AY5)</f>
+        <v>21</v>
       </c>
       <c r="BI5" s="10">
-        <f t="shared" ref="BI5:BI37" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.7142857142857143</v>
+        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -1991,7 +1996,9 @@
         <v>3</v>
       </c>
       <c r="R6" s="52"/>
-      <c r="S6" s="31"/>
+      <c r="S6" s="31">
+        <v>-2</v>
+      </c>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
@@ -2028,49 +2035,51 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNT(B6:AY6)</f>
+        <v>16</v>
       </c>
       <c r="BD6" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
         <v>8</v>
       </c>
       <c r="BE6" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B6:$AY6, "0")</f>
         <v>3</v>
       </c>
       <c r="BF6" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
+        <v>5</v>
       </c>
       <c r="BG6" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD6*3)+BE6</f>
         <v>27</v>
       </c>
       <c r="BH6" s="8">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>SUM(B6:AY6)</f>
+        <v>11</v>
       </c>
       <c r="BI6" s="10">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
+        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
+        <v>0.5625</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
-        <v>-1</v>
+      <c r="C7" s="48">
+        <v>1</v>
       </c>
       <c r="D7" s="7">
         <v>9</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>-1</v>
+      </c>
       <c r="F7" s="7">
         <v>-1</v>
       </c>
@@ -2078,31 +2087,35 @@
         <v>0</v>
       </c>
       <c r="H7" s="53"/>
-      <c r="I7" s="48">
-        <v>7</v>
+      <c r="I7" s="7">
+        <v>-7</v>
       </c>
       <c r="J7" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7">
         <v>-2</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
+      <c r="M7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="48">
         <v>0</v>
       </c>
       <c r="O7" s="7">
         <v>1</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="P7" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q7" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R7" s="53"/>
-      <c r="S7" s="7"/>
+      <c r="S7" s="7">
+        <v>2</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -2139,78 +2152,76 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNT(B7:AY7)</f>
+        <v>15</v>
       </c>
       <c r="BD7" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
+        <v>6</v>
+      </c>
+      <c r="BE7" s="8">
+        <f>COUNTIF($B7:$AY7, "0")</f>
+        <v>2</v>
+      </c>
+      <c r="BF7" s="8">
+        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="BG7" s="8">
+        <f>SUM(BD7*3)+BE7</f>
+        <v>20</v>
+      </c>
+      <c r="BH7" s="8">
+        <f>SUM(B7:AY7)</f>
         <v>5</v>
       </c>
-      <c r="BE7" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="BF7" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BG7" s="8">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="BH7" s="8">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
       <c r="BI7" s="10">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
         <v>-1</v>
       </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18">
+        <v>9</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="18">
-        <v>-7</v>
+      <c r="I8" s="49">
+        <v>7</v>
       </c>
       <c r="J8" s="18">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
       </c>
       <c r="L8" s="18">
-        <v>2</v>
-      </c>
-      <c r="M8" s="18">
-        <v>-1</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="M8" s="18"/>
       <c r="N8" s="18">
         <v>0</v>
       </c>
       <c r="O8" s="18">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="18">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P8" s="18"/>
       <c r="Q8" s="18">
         <v>3</v>
       </c>
@@ -2252,55 +2263,51 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>COUNT(B8:AY8)</f>
+        <v>12</v>
       </c>
       <c r="BD8" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE8" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B8:$AY8, "0")</f>
         <v>3</v>
       </c>
       <c r="BF8" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG8" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD8*3)+BE8</f>
         <v>18</v>
       </c>
       <c r="BH8" s="8">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>SUM(B8:AY8)</f>
+        <v>9</v>
       </c>
       <c r="BI8" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46153846153846156</v>
+        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
+        <v>0.5</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="50">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>9</v>
-      </c>
-      <c r="E9" s="16">
         <v>-1</v>
       </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="16">
         <v>-1</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="50">
         <v>0</v>
       </c>
       <c r="H9" s="54"/>
@@ -2310,27 +2317,31 @@
       <c r="J9" s="16">
         <v>8</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
       <c r="L9" s="16">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M9" s="16">
         <v>-1</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="16">
         <v>0</v>
       </c>
       <c r="O9" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P9" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>3</v>
+      </c>
+      <c r="R9" s="54"/>
+      <c r="S9" s="16">
         <v>-2</v>
       </c>
-      <c r="Q9" s="16">
-        <v>-3</v>
-      </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -2367,48 +2378,52 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B9:AY9)</f>
         <v>14</v>
       </c>
       <c r="BD9" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE9" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B9:$AY9, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF9" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
+        <v>6</v>
       </c>
       <c r="BG9" s="8">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f>SUM(BD9*3)+BE9</f>
+        <v>18</v>
       </c>
       <c r="BH9" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B9:AY9)</f>
         <v>3</v>
       </c>
       <c r="BI9" s="10">
-        <f t="shared" si="6"/>
-        <v>0.40476190476190477</v>
+        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="61"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="16">
+        <v>-1</v>
+      </c>
       <c r="C10" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="16">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="50">
+        <v>-1</v>
+      </c>
       <c r="G10" s="16">
         <v>0</v>
       </c>
@@ -2416,24 +2431,34 @@
       <c r="I10" s="16">
         <v>7</v>
       </c>
-      <c r="J10" s="50">
-        <v>8</v>
-      </c>
-      <c r="K10" s="16"/>
+      <c r="J10" s="16">
+        <v>-8</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
       <c r="L10" s="16">
+        <v>2</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="48">
         <v>-2</v>
       </c>
-      <c r="M10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R10" s="54"/>
+      <c r="S10" s="16">
         <v>2</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -2458,7 +2483,7 @@
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
-      <c r="AR10" s="61"/>
+      <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
@@ -2470,69 +2495,75 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>COUNT(B10:AY10)</f>
+        <v>15</v>
       </c>
       <c r="BD10" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE10" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B10:$AY10, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF10" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
+        <v>7</v>
       </c>
       <c r="BG10" s="8">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f>SUM(BD10*3)+BE10</f>
+        <v>18</v>
       </c>
       <c r="BH10" s="8">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f>SUM(B10:AY10)</f>
+        <v>-12</v>
       </c>
       <c r="BI10" s="10">
-        <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
+        <v>0.4</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B11" s="58"/>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
         <v>9</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="7">
+        <v>7</v>
+      </c>
+      <c r="J11" s="48">
+        <v>8</v>
+      </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>-1</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7">
+        <v>2</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="7"/>
+      <c r="S11" s="48">
+        <v>-2</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -2557,7 +2588,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
+      <c r="AR11" s="58"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -2569,81 +2600,71 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>COUNT(B11:AY11)</f>
+        <v>9</v>
       </c>
       <c r="BD11" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE11" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B11:$AY11, "0")</f>
         <v>1</v>
       </c>
       <c r="BF11" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
+        <v>3</v>
       </c>
       <c r="BG11" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD11*3)+BE11</f>
         <v>16</v>
       </c>
       <c r="BH11" s="8">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>SUM(B11:AY11)</f>
+        <v>22</v>
       </c>
       <c r="BI11" s="10">
-        <f t="shared" si="6"/>
-        <v>0.88888888888888884</v>
+        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
+        <v>0.59259259259259256</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B12" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9</v>
+      </c>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
       </c>
       <c r="H12" s="53"/>
-      <c r="I12" s="7">
-        <v>-7</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="48">
-        <v>2</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="7">
-        <v>2</v>
-      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7">
+        <v>-2</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -2680,65 +2701,61 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNT(B12:AY12)</f>
+        <v>7</v>
       </c>
       <c r="BD12" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
+        <v>5</v>
       </c>
       <c r="BE12" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B12:$AY12, "0")</f>
+        <v>1</v>
       </c>
       <c r="BF12" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG12" s="8">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f>SUM(BD12*3)+BE12</f>
+        <v>16</v>
       </c>
       <c r="BH12" s="8">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <f>SUM(B12:AY12)</f>
+        <v>11</v>
       </c>
       <c r="BI12" s="10">
-        <f t="shared" si="6"/>
-        <v>0.41666666666666669</v>
+        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
+        <v>0.76190476190476186</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B13" s="7">
         <v>-1</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7">
         <v>-1</v>
       </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
       </c>
       <c r="H13" s="53"/>
-      <c r="I13" s="48">
-        <v>-7</v>
+      <c r="I13" s="7">
+        <v>7</v>
       </c>
       <c r="J13" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K13" s="7">
+        <v>8</v>
+      </c>
+      <c r="K13" s="48">
         <v>0</v>
       </c>
       <c r="L13" s="7">
@@ -2750,13 +2767,15 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="53"/>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7">
+        <v>2</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -2793,38 +2812,38 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>COUNT(B13:AY13)</f>
+        <v>12</v>
       </c>
       <c r="BD13" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE13" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B13:$AY13, "0")</f>
         <v>3</v>
       </c>
       <c r="BF13" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
+        <v>5</v>
       </c>
       <c r="BG13" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD13*3)+BE13</f>
         <v>15</v>
       </c>
       <c r="BH13" s="8">
-        <f t="shared" si="5"/>
-        <v>-8</v>
+        <f>SUM(B13:AY13)</f>
+        <v>11</v>
       </c>
       <c r="BI13" s="10">
-        <f t="shared" si="6"/>
-        <v>0.38461538461538464</v>
+        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B14" s="7">
         <v>-1</v>
@@ -2832,11 +2851,11 @@
       <c r="C14" s="7">
         <v>-1</v>
       </c>
-      <c r="D14" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="48">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
         <v>-1</v>
       </c>
       <c r="G14" s="7">
@@ -2844,15 +2863,13 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="7">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
-        <v>-8</v>
-      </c>
+        <v>-7</v>
+      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="48">
         <v>2</v>
       </c>
       <c r="M14" s="7">
@@ -2862,14 +2879,12 @@
         <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="48">
-        <v>-2</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>-3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P14" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="7"/>
       <c r="R14" s="53"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -2908,79 +2923,81 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>COUNT(B14:AY14)</f>
+        <v>12</v>
       </c>
       <c r="BD14" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE14" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B14:$AY14, "0")</f>
         <v>3</v>
       </c>
       <c r="BF14" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
+        <v>5</v>
       </c>
       <c r="BG14" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD14*3)+BE14</f>
         <v>15</v>
       </c>
       <c r="BH14" s="8">
-        <f t="shared" si="5"/>
-        <v>-14</v>
+        <f>SUM(B14:AY14)</f>
+        <v>-5</v>
       </c>
       <c r="BI14" s="10">
-        <f t="shared" si="6"/>
-        <v>0.35714285714285715</v>
+        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="48">
+        <v>97</v>
+      </c>
+      <c r="B15" s="7">
         <v>-1</v>
       </c>
       <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7">
         <v>-1</v>
       </c>
-      <c r="D15" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
       <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="48">
+        <v>-7</v>
+      </c>
+      <c r="J15" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
         <v>-1</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>2</v>
-      </c>
-      <c r="M15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="48">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>3</v>
-      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="53"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -3019,61 +3036,59 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNT(B15:AY15)</f>
+        <v>13</v>
       </c>
       <c r="BD15" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE15" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B15:$AY15, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF15" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
         <v>6</v>
       </c>
       <c r="BG15" s="8">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>SUM(BD15*3)+BE15</f>
+        <v>15</v>
       </c>
       <c r="BH15" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B15:AY15)</f>
         <v>-8</v>
       </c>
       <c r="BI15" s="10">
-        <f t="shared" si="6"/>
-        <v>0.3888888888888889</v>
+        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
+        <v>0.38461538461538464</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="7">
+        <v>79</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
         <v>-1</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>-1</v>
+      </c>
       <c r="G16" s="7">
         <v>0</v>
       </c>
       <c r="H16" s="53"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="48">
-        <v>-8</v>
+      <c r="J16" s="7">
+        <v>8</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7">
+      <c r="M16" s="48">
         <v>1</v>
       </c>
       <c r="N16" s="7">
@@ -3084,10 +3099,12 @@
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R16" s="53"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="7">
+        <v>2</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -3124,47 +3141,51 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B16:AY16)</f>
         <v>9</v>
       </c>
       <c r="BD16" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE16" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B16:$AY16, "0")</f>
         <v>2</v>
       </c>
       <c r="BF16" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG16" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD16*3)+BE16</f>
         <v>14</v>
       </c>
       <c r="BH16" s="8">
-        <f t="shared" si="5"/>
-        <v>-12</v>
+        <f>SUM(B16:AY16)</f>
+        <v>7</v>
       </c>
       <c r="BI16" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
         <v>0.51851851851851849</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="7">
+        <v>106</v>
+      </c>
+      <c r="B17" s="48">
         <v>-1</v>
       </c>
       <c r="C17" s="7">
         <v>-1</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
       <c r="F17" s="7">
         <v>-1</v>
       </c>
@@ -3172,31 +3193,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="53"/>
-      <c r="I17" s="7">
-        <v>7</v>
-      </c>
-      <c r="J17" s="7">
-        <v>8</v>
-      </c>
-      <c r="K17" s="48">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="48">
+        <v>1</v>
+      </c>
       <c r="P17" s="7">
         <v>-2</v>
       </c>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="7">
+        <v>3</v>
+      </c>
       <c r="R17" s="53"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7">
+        <v>-2</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -3233,75 +3254,77 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>COUNT(B17:AY17)</f>
+        <v>13</v>
       </c>
       <c r="BD17" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
+        <v>4</v>
       </c>
       <c r="BE17" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B17:$AY17, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF17" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
+        <v>7</v>
       </c>
       <c r="BG17" s="8">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>SUM(BD17*3)+BE17</f>
+        <v>14</v>
       </c>
       <c r="BH17" s="8">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>SUM(B17:AY17)</f>
+        <v>-10</v>
       </c>
       <c r="BI17" s="10">
-        <f t="shared" si="6"/>
-        <v>0.36363636363636365</v>
+        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
+        <v>0.35897435897435898</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="58">
-        <v>1</v>
-      </c>
-      <c r="C18" s="48">
+        <v>85</v>
+      </c>
+      <c r="B18" s="7">
         <v>-1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
       </c>
       <c r="D18" s="7">
         <v>-9</v>
       </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
       <c r="H18" s="53"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="J18" s="48">
         <v>-8</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="7">
-        <v>2</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
+        <v>3</v>
+      </c>
+      <c r="R18" s="53"/>
+      <c r="S18" s="7">
         <v>-2</v>
       </c>
-      <c r="Q18" s="48">
-        <v>-3</v>
-      </c>
-      <c r="R18" s="53"/>
-      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -3326,7 +3349,7 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
-      <c r="AR18" s="58"/>
+      <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
@@ -3334,78 +3357,73 @@
       <c r="AW18" s="7"/>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
-      <c r="AZ18" s="5"/>
       <c r="BA18" s="34">
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>COUNT(B18:AY18)</f>
+        <v>10</v>
       </c>
       <c r="BD18" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE18" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNTIF($B18:$AY18, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF18" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG18" s="8">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>SUM(BD18*3)+BE18</f>
+        <v>14</v>
       </c>
       <c r="BH18" s="8">
-        <f t="shared" si="5"/>
-        <v>-18</v>
+        <f>SUM(B18:AY18)</f>
+        <v>-14</v>
       </c>
       <c r="BI18" s="10">
-        <f t="shared" si="6"/>
-        <v>0.44444444444444442</v>
+        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="48">
+        <v>1</v>
+      </c>
       <c r="F19" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7">
-        <v>8</v>
-      </c>
+      <c r="I19" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="48">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>1</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>-3</v>
-      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q19" s="7"/>
       <c r="R19" s="53"/>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7">
+        <v>2</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -3442,45 +3460,49 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>COUNT(B19:AY19)</f>
+        <v>6</v>
       </c>
       <c r="BD19" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <v>4</v>
       </c>
       <c r="BE19" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B19:$AY19, "0")</f>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="8">
+        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
         <v>2</v>
       </c>
-      <c r="BF19" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
       <c r="BG19" s="8">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>SUM(BD19*3)+BE19</f>
+        <v>12</v>
       </c>
       <c r="BH19" s="8">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>SUM(B19:AY19)</f>
+        <v>-4</v>
       </c>
       <c r="BI19" s="10">
-        <f t="shared" si="6"/>
-        <v>0.45833333333333331</v>
+        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="48">
+        <v>82</v>
+      </c>
+      <c r="B20" s="58">
+        <v>1</v>
+      </c>
+      <c r="C20" s="48">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E20" s="7">
         <v>1</v>
       </c>
       <c r="F20" s="7">
@@ -3488,19 +3510,23 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
+        <v>-8</v>
+      </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7">
+        <v>2</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7">
         <v>-2</v>
       </c>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="48">
+        <v>-3</v>
+      </c>
       <c r="R20" s="53"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -3527,7 +3553,7 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
+      <c r="AR20" s="58"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -3535,36 +3561,37 @@
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
+      <c r="AZ20" s="5"/>
       <c r="BA20" s="34">
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B20:AY20)</f>
+        <v>9</v>
+      </c>
+      <c r="BD20" s="8">
+        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
+        <v>4</v>
+      </c>
+      <c r="BE20" s="8">
+        <f>COUNTIF($B20:$AY20, "0")</f>
+        <v>0</v>
+      </c>
+      <c r="BF20" s="8">
+        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
         <v>5</v>
       </c>
-      <c r="BD20" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BE20" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BF20" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
       <c r="BG20" s="8">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>SUM(BD20*3)+BE20</f>
+        <v>12</v>
       </c>
       <c r="BH20" s="8">
-        <f t="shared" si="5"/>
-        <v>-6</v>
+        <f>SUM(B20:AY20)</f>
+        <v>-18</v>
       </c>
       <c r="BI20" s="10">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
+        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
@@ -3601,7 +3628,9 @@
         <v>-3</v>
       </c>
       <c r="R21" s="53"/>
-      <c r="S21" s="7"/>
+      <c r="S21" s="7">
+        <v>2</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -3638,48 +3667,44 @@
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>COUNT(B21:AY21)</f>
+        <v>7</v>
       </c>
       <c r="BD21" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
+        <v>3</v>
+      </c>
+      <c r="BE21" s="8">
+        <f>COUNTIF($B21:$AY21, "0")</f>
         <v>2</v>
       </c>
-      <c r="BE21" s="8">
-        <f t="shared" si="2"/>
+      <c r="BF21" s="8">
+        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
         <v>2</v>
       </c>
-      <c r="BF21" s="8">
-        <f t="shared" si="3"/>
+      <c r="BG21" s="8">
+        <f>SUM(BD21*3)+BE21</f>
+        <v>11</v>
+      </c>
+      <c r="BH21" s="8">
+        <f>SUM(B21:AY21)</f>
         <v>2</v>
       </c>
-      <c r="BG21" s="8">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="BH21" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="BI21" s="10">
-        <f t="shared" si="6"/>
-        <v>0.44444444444444442</v>
+        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
+        <v>0.52380952380952384</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D22" s="48">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7">
         <v>-1</v>
       </c>
@@ -3692,13 +3717,21 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="48">
+        <v>-1</v>
+      </c>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="7">
+        <v>-3</v>
+      </c>
       <c r="R22" s="53"/>
-      <c r="S22" s="7"/>
+      <c r="S22" s="7">
+        <v>2</v>
+      </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -3735,71 +3768,73 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNT(B22:AY22)</f>
+        <v>7</v>
       </c>
       <c r="BD22" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <v>3</v>
       </c>
       <c r="BE22" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B22:$AY22, "0")</f>
         <v>1</v>
       </c>
       <c r="BF22" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
+        <v>3</v>
       </c>
       <c r="BG22" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>SUM(BD22*3)+BE22</f>
+        <v>10</v>
       </c>
       <c r="BH22" s="8">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>SUM(B22:AY22)</f>
+        <v>-1</v>
       </c>
       <c r="BI22" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
+        <v>0.47619047619047616</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="48">
+        <v>76</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
         <v>-1</v>
       </c>
+      <c r="D23" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E23" s="7">
+        <v>-1</v>
+      </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="48">
         <v>0</v>
       </c>
       <c r="H23" s="53"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7">
+        <v>-7</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="48">
-        <v>-1</v>
-      </c>
+      <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P23" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>3</v>
-      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="53"/>
-      <c r="S23" s="7"/>
+      <c r="S23" s="48">
+        <v>2</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -3836,44 +3871,48 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>COUNT(B23:AY23)</f>
+        <v>8</v>
       </c>
       <c r="BD23" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
+        <v>3</v>
       </c>
       <c r="BE23" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B23:$AY23, "0")</f>
         <v>1</v>
       </c>
       <c r="BF23" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
         <v>4</v>
       </c>
       <c r="BG23" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>SUM(BD23*3)+BE23</f>
+        <v>10</v>
       </c>
       <c r="BH23" s="8">
-        <f t="shared" si="5"/>
-        <v>-1</v>
+        <f>SUM(B23:AY23)</f>
+        <v>-14</v>
       </c>
       <c r="BI23" s="10">
-        <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
       <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D24" s="48">
+        <v>9</v>
+      </c>
       <c r="E24" s="7">
         <v>-1</v>
       </c>
@@ -3886,17 +3925,11 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7">
-        <v>1</v>
-      </c>
+      <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="48">
-        <v>-1</v>
-      </c>
+      <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q24" s="7"/>
       <c r="R24" s="53"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -3935,71 +3968,73 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>COUNT(B24:AY24)</f>
+        <v>5</v>
       </c>
       <c r="BD24" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE24" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B24:$AY24, "0")</f>
         <v>1</v>
       </c>
       <c r="BF24" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
+        <v>2</v>
       </c>
       <c r="BG24" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD24*3)+BE24</f>
         <v>7</v>
       </c>
       <c r="BH24" s="8">
-        <f t="shared" si="5"/>
-        <v>-3</v>
+        <f>SUM(B24:AY24)</f>
+        <v>8</v>
       </c>
       <c r="BI24" s="10">
-        <f t="shared" si="6"/>
-        <v>0.3888888888888889</v>
+        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
+        <v>74</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="48">
         <v>-1</v>
       </c>
-      <c r="D25" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E25" s="7">
-        <v>-1</v>
-      </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="7">
         <v>0</v>
       </c>
       <c r="H25" s="53"/>
-      <c r="I25" s="7">
-        <v>-7</v>
-      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="48">
+        <v>-1</v>
+      </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="O25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>3</v>
+      </c>
       <c r="R25" s="53"/>
-      <c r="S25" s="7"/>
+      <c r="S25" s="7">
+        <v>-2</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -4036,61 +4071,67 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B25:AY25)</f>
+        <v>8</v>
+      </c>
+      <c r="BD25" s="8">
+        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
+        <v>2</v>
+      </c>
+      <c r="BE25" s="8">
+        <f>COUNTIF($B25:$AY25, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF25" s="8">
+        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="BG25" s="8">
+        <f>SUM(BD25*3)+BE25</f>
         <v>7</v>
       </c>
-      <c r="BD25" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BE25" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BF25" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BG25" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
       <c r="BH25" s="8">
-        <f t="shared" si="5"/>
-        <v>-16</v>
+        <f>SUM(B25:AY25)</f>
+        <v>-3</v>
       </c>
       <c r="BI25" s="10">
-        <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
+        <v>0.29166666666666669</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7">
-        <v>9</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="53"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K26" s="48">
+        <v>0</v>
+      </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7">
+        <v>-1</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="P26" s="7">
+        <v>2</v>
+      </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="53"/>
-      <c r="S26" s="7"/>
+      <c r="S26" s="7">
+        <v>2</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -4127,53 +4168,53 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B26:AY26)</f>
+        <v>5</v>
+      </c>
+      <c r="BD26" s="8">
+        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
         <v>2</v>
       </c>
-      <c r="BD26" s="8">
-        <f t="shared" si="1"/>
+      <c r="BE26" s="8">
+        <f>COUNTIF($B26:$AY26, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF26" s="8">
+        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
         <v>2</v>
       </c>
-      <c r="BE26" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BF26" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="BG26" s="8">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f>SUM(BD26*3)+BE26</f>
+        <v>7</v>
       </c>
       <c r="BH26" s="8">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>SUM(B26:AY26)</f>
+        <v>-5</v>
       </c>
       <c r="BI26" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
+        <v>9</v>
+      </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="53"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -4218,32 +4259,32 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B27:AY27)</f>
         <v>2</v>
       </c>
       <c r="BD27" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
+        <v>2</v>
       </c>
       <c r="BE27" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B27:$AY27, "0")</f>
+        <v>0</v>
       </c>
       <c r="BF27" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG27" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>SUM(BD27*3)+BE27</f>
+        <v>6</v>
       </c>
       <c r="BH27" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>SUM(B27:AY27)</f>
+        <v>10</v>
       </c>
       <c r="BI27" s="10">
-        <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
+        <v>1</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
@@ -4313,65 +4354,63 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B28:AY28)</f>
         <v>4</v>
       </c>
       <c r="BD28" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE28" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B28:$AY28, "0")</f>
         <v>1</v>
       </c>
       <c r="BF28" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
         <v>2</v>
       </c>
       <c r="BG28" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD28*3)+BE28</f>
         <v>4</v>
       </c>
       <c r="BH28" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B28:AY28)</f>
         <v>0</v>
       </c>
       <c r="BI28" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="53"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K29" s="48">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7">
         <v>0</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="7">
-        <v>-1</v>
-      </c>
+      <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="7">
-        <v>2</v>
-      </c>
+      <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="53"/>
-      <c r="S29" s="7"/>
+      <c r="S29" s="7">
+        <v>-2</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -4408,42 +4447,40 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B29:AY29)</f>
+        <v>3</v>
+      </c>
+      <c r="BD29" s="8">
+        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
+        <v>1</v>
+      </c>
+      <c r="BE29" s="8">
+        <f>COUNTIF($B29:$AY29, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF29" s="8">
+        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="BG29" s="8">
+        <f>SUM(BD29*3)+BE29</f>
         <v>4</v>
       </c>
-      <c r="BD29" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE29" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BF29" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="BG29" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
       <c r="BH29" s="8">
-        <f t="shared" si="5"/>
-        <v>-7</v>
+        <f>SUM(B29:AY29)</f>
+        <v>-1</v>
       </c>
       <c r="BI29" s="10">
-        <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -4460,7 +4497,9 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="53"/>
-      <c r="S30" s="7"/>
+      <c r="S30" s="7">
+        <v>2</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -4497,40 +4536,42 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B30:AY30)</f>
         <v>1</v>
       </c>
       <c r="BD30" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE30" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B30:$AY30, "0")</f>
         <v>0</v>
       </c>
       <c r="BF30" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG30" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD30*3)+BE30</f>
         <v>3</v>
       </c>
       <c r="BH30" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>SUM(B30:AY30)</f>
+        <v>2</v>
       </c>
       <c r="BI30" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
         <v>1</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4584,38 +4625,38 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNT(B31:AY31)</f>
+        <v>1</v>
       </c>
       <c r="BD31" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
+        <v>1</v>
       </c>
       <c r="BE31" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B31:$AY31, "0")</f>
         <v>0</v>
       </c>
       <c r="BF31" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(BD31*3)+BE31</f>
+        <v>3</v>
       </c>
       <c r="BH31" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI31" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f>SUM(B31:AY31)</f>
+        <v>1</v>
+      </c>
+      <c r="BI31" s="10">
+        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
+        <v>1</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -4671,38 +4712,38 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B32:AY32)</f>
         <v>0</v>
       </c>
       <c r="BD32" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE32" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B32:$AY32, "0")</f>
         <v>0</v>
       </c>
       <c r="BF32" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG32" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD32*3)+BE32</f>
         <v>0</v>
       </c>
       <c r="BH32" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
       <c r="BI32" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4758,31 +4799,31 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B33:AY33)</f>
         <v>0</v>
       </c>
       <c r="BD33" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE33" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B33:$AY33, "0")</f>
         <v>0</v>
       </c>
       <c r="BF33" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG33" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD33*3)+BE33</f>
         <v>0</v>
       </c>
       <c r="BH33" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
       <c r="BI33" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ33" s="10"/>
@@ -4845,38 +4886,38 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B34:AY34)</f>
         <v>0</v>
       </c>
       <c r="BD34" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE34" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B34:$AY34, "0")</f>
         <v>0</v>
       </c>
       <c r="BF34" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG34" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD34*3)+BE34</f>
         <v>0</v>
       </c>
       <c r="BH34" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
       <c r="BI34" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ34" s="10"/>
     </row>
     <row r="35" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4895,7 +4936,9 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="53"/>
-      <c r="S35" s="7"/>
+      <c r="S35" s="7">
+        <v>-2</v>
+      </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -4932,32 +4975,32 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNT(B35:AY35)</f>
+        <v>1</v>
       </c>
       <c r="BD35" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE35" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B35:$AY35, "0")</f>
         <v>0</v>
       </c>
       <c r="BF35" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG35" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD35*3)+BE35</f>
         <v>0</v>
       </c>
       <c r="BH35" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI35" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f>SUM(B35:AY35)</f>
+        <v>-2</v>
+      </c>
+      <c r="BI35" s="10">
+        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
+        <v>0</v>
       </c>
       <c r="BJ35" s="10"/>
     </row>
@@ -5021,31 +5064,31 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B36:AY36)</f>
         <v>1</v>
       </c>
       <c r="BD36" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE36" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B36:$AY36, "0")</f>
         <v>0</v>
       </c>
       <c r="BF36" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG36" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD36*3)+BE36</f>
         <v>0</v>
       </c>
       <c r="BH36" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B36:AY36)</f>
         <v>-3</v>
       </c>
       <c r="BI36" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
         <v>0</v>
       </c>
       <c r="BJ36" s="10"/>
@@ -5110,31 +5153,31 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B37:AY37)</f>
         <v>1</v>
       </c>
       <c r="BD37" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B37:$AY37, "0")</f>
         <v>0</v>
       </c>
       <c r="BF37" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD37*3)+BE37</f>
         <v>0</v>
       </c>
       <c r="BH37" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B37:AY37)</f>
         <v>-9</v>
       </c>
       <c r="BI37" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
         <v>0</v>
       </c>
       <c r="BJ37" s="10"/>
@@ -5144,203 +5187,203 @@
         <v>43</v>
       </c>
       <c r="B38" s="28">
-        <f t="shared" ref="B38:AD38" si="7">COUNT(B5:B37)</f>
+        <f t="shared" ref="B38:AD38" si="0">COUNT(B5:B37)</f>
         <v>16</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S38" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE38" s="28">
-        <f t="shared" ref="AE38:AY38" si="8">COUNT(AE5:AE37)</f>
+        <f t="shared" ref="AE38:AY38" si="1">COUNT(AE5:AE37)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AX38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AY38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BC38" s="8"/>
@@ -5403,7 +5446,9 @@
         <v>174</v>
       </c>
       <c r="R39" s="8"/>
-      <c r="S39" s="13"/>
+      <c r="S39" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="T39" s="40"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
@@ -5771,7 +5816,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G35"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5828,31 +5873,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(C4*3)+D4</f>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -5870,37 +5915,37 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>SUM(C5*3)+D5</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(C6*3)+D6</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5915,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>SUM(C7*3)+D7</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5942,7 +5987,7 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>SUM(C8*3)+D8</f>
         <v>3</v>
       </c>
     </row>
@@ -5966,7 +6011,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>SUM(C9*3)+D9</f>
         <v>3</v>
       </c>
       <c r="H9" s="24"/>
@@ -5991,7 +6036,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>SUM(C10*3)+D10</f>
         <v>3</v>
       </c>
     </row>
@@ -6015,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>SUM(C11*3)+D11</f>
         <v>3</v>
       </c>
     </row>
@@ -6039,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>SUM(C12*3)+D12</f>
         <v>3</v>
       </c>
       <c r="H12" s="24"/>
@@ -6064,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>SUM(C13*3)+D13</f>
         <v>3</v>
       </c>
     </row>
@@ -6088,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>SUM(C14*3)+D14</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6112,13 +6157,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>SUM(C15*3)+D15</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6136,17 +6181,17 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>SUM(C16*3)+D16</f>
         <v>1</v>
       </c>
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6155,13 +6200,13 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>SUM(C17*3)+D17</f>
         <v>1</v>
       </c>
       <c r="K17" s="37"/>
@@ -6186,7 +6231,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>SUM(C18*3)+D18</f>
         <v>0</v>
       </c>
       <c r="K18" s="37"/>
@@ -6211,7 +6256,7 @@
         <v>-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>SUM(C19*3)+D19</f>
         <v>0</v>
       </c>
       <c r="K19" s="38"/>
@@ -6236,7 +6281,7 @@
         <v>-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f>SUM(C20*3)+D20</f>
         <v>0</v>
       </c>
       <c r="K20" s="37"/>
@@ -6261,7 +6306,7 @@
         <v>-3</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>SUM(C21*3)+D21</f>
         <v>0</v>
       </c>
       <c r="K21" s="37"/>
@@ -6286,7 +6331,7 @@
         <v>-4</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>SUM(C22*3)+D22</f>
         <v>0</v>
       </c>
       <c r="K22" s="37"/>
@@ -6311,7 +6356,7 @@
         <v>-8</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f>SUM(C23*3)+D23</f>
         <v>0</v>
       </c>
       <c r="K23" s="37"/>
@@ -6336,7 +6381,7 @@
         <v>-8</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f>SUM(C24*3)+D24</f>
         <v>0</v>
       </c>
     </row>
@@ -6360,7 +6405,7 @@
         <v>-9</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f>SUM(C25*3)+D25</f>
         <v>0</v>
       </c>
     </row>
@@ -6456,10 +6501,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G35">
-    <sortCondition descending="1" ref="G3:G35"/>
-    <sortCondition descending="1" ref="F3:F35"/>
-    <sortCondition ref="B3:B35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G25">
+    <sortCondition descending="1" ref="G4:G25"/>
+    <sortCondition descending="1" ref="F4:F25"/>
+    <sortCondition ref="B4:B25"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6725,7 +6770,7 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="29"/>
       <c r="BA3" s="24">
-        <f>SUM(B3:AY3)</f>
+        <f t="shared" ref="BA3:BA35" si="0">SUM(B3:AY3)</f>
         <v>12</v>
       </c>
       <c r="BB3" s="8">
@@ -6799,7 +6844,7 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="24">
-        <f>SUM(B4:AY4)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="BB4" s="8">
@@ -6868,7 +6913,7 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="29"/>
       <c r="BA5" s="24">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BB5" s="8">
@@ -6935,7 +6980,7 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="29"/>
       <c r="BA6" s="24">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BB6" s="8">
@@ -7005,7 +7050,7 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="29"/>
       <c r="BA7" s="24">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BB7" s="8">
@@ -7082,7 +7127,7 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="24">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -7150,7 +7195,7 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="29"/>
       <c r="BA9" s="24">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BB9" s="8">
@@ -7224,7 +7269,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="24">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BB10" s="8">
@@ -7295,7 +7340,7 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="29"/>
       <c r="BA11" s="24">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BC11" s="8">
@@ -7368,7 +7413,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="24">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BF12" s="24"/>
@@ -7435,7 +7480,7 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="29"/>
       <c r="BA13" s="24">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BC13" s="8">
@@ -7504,7 +7549,7 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="24">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7568,7 +7613,7 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="29"/>
       <c r="BA15" s="24">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BB15" s="8">
@@ -7637,7 +7682,7 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="29"/>
       <c r="BA16" s="24">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -7701,7 +7746,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="29"/>
       <c r="BA17" s="24">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -7769,7 +7814,7 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="24">
-        <f>SUM(B18:AY18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BF18" s="24"/>
@@ -7834,7 +7879,7 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="29"/>
       <c r="BA19" s="24">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BC19" s="8">
@@ -7903,7 +7948,7 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="24">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -7969,7 +8014,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="29"/>
       <c r="BA21" s="24">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -8035,7 +8080,7 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="24">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -8099,7 +8144,7 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="29"/>
       <c r="BA23" s="24">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -8161,7 +8206,7 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="29"/>
       <c r="BA24" s="24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -8223,7 +8268,7 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="29"/>
       <c r="BA25" s="24">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -8285,7 +8330,7 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="29"/>
       <c r="BA26" s="24">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -8345,7 +8390,7 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="29"/>
       <c r="BA27" s="24">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8405,7 +8450,7 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="24">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8465,7 +8510,7 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="29"/>
       <c r="BA29" s="24">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8525,7 +8570,7 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="29"/>
       <c r="BA30" s="24">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8585,7 +8630,7 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="29"/>
       <c r="BA31" s="24">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8645,7 +8690,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="29"/>
       <c r="BA32" s="24">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8705,7 +8750,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="29"/>
       <c r="BA33" s="24">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8765,7 +8810,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="29"/>
       <c r="BA34" s="24">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8825,7 +8870,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="29"/>
       <c r="BA35" s="24">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8883,7 +8928,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="24">
-        <f t="shared" ref="BA3:BA36" si="0">SUM(B36:AY36)</f>
+        <f t="shared" ref="BA36" si="1">SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -8961,7 +9006,7 @@
       </c>
       <c r="S38">
         <f>'League Table'!S38</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T38">
         <f>'League Table'!T38</f>
@@ -9089,191 +9134,191 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="2">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U40" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA40" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AU40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AV40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9301,7 +9346,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -9609,7 +9654,7 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="BA5">
-        <f t="shared" ref="BA5:BA38" si="0">SUM(B5:AY5)</f>
+        <f>SUM(B5:AY5)</f>
         <v>15</v>
       </c>
     </row>
@@ -9682,7 +9727,7 @@
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="BA6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:AY6)</f>
         <v>13</v>
       </c>
     </row>
@@ -9755,7 +9800,7 @@
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="BA7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:AY7)</f>
         <v>11</v>
       </c>
     </row>
@@ -9790,7 +9835,9 @@
         <v>1</v>
       </c>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="7">
+        <v>1</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -9824,8 +9871,8 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="BA8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B8:AY8)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9891,7 +9938,7 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="19"/>
       <c r="BA9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AY9)</f>
         <v>7</v>
       </c>
     </row>
@@ -9958,7 +10005,7 @@
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="BA10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:AY10)</f>
         <v>7</v>
       </c>
     </row>
@@ -10025,7 +10072,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:AY11)</f>
         <v>6</v>
       </c>
     </row>
@@ -10090,7 +10137,7 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:AY12)</f>
         <v>5</v>
       </c>
     </row>
@@ -10153,13 +10200,13 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AY13)</f>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -10171,20 +10218,22 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
         <v>1</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>1</v>
-      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -10218,36 +10267,36 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AY14)</f>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="53"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -10283,18 +10332,20 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B15:AY15)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="53"/>
@@ -10302,9 +10353,7 @@
       <c r="J16" s="7">
         <v>1</v>
       </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -10348,13 +10397,13 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -10364,19 +10413,19 @@
       <c r="G17" s="7"/>
       <c r="H17" s="53"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7">
-        <v>1</v>
-      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -10413,7 +10462,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AY17)</f>
         <v>3</v>
       </c>
     </row>
@@ -10476,7 +10525,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:AY18)</f>
         <v>2</v>
       </c>
     </row>
@@ -10539,7 +10588,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AY19)</f>
         <v>2</v>
       </c>
     </row>
@@ -10600,7 +10649,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>1</v>
       </c>
     </row>
@@ -10661,7 +10710,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:AY21)</f>
         <v>1</v>
       </c>
     </row>
@@ -10722,7 +10771,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>1</v>
       </c>
     </row>
@@ -10783,7 +10832,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>1</v>
       </c>
     </row>
@@ -10844,7 +10893,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AY24)</f>
         <v>1</v>
       </c>
     </row>
@@ -10905,7 +10954,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AY25)</f>
         <v>1</v>
       </c>
     </row>
@@ -10966,7 +11015,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AY26)</f>
         <v>1</v>
       </c>
     </row>
@@ -11027,7 +11076,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>1</v>
       </c>
     </row>
@@ -11088,7 +11137,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>1</v>
       </c>
     </row>
@@ -11147,7 +11196,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>0</v>
       </c>
     </row>
@@ -11206,7 +11255,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>0</v>
       </c>
     </row>
@@ -11265,7 +11314,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>0</v>
       </c>
     </row>
@@ -11324,7 +11373,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
@@ -11383,7 +11432,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -11442,7 +11491,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -11501,7 +11550,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -11560,7 +11609,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f t="shared" si="0"/>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -11619,7 +11668,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f t="shared" si="0"/>
+        <f>SUM(B37:AY37)</f>
         <v>0</v>
       </c>
     </row>
@@ -11676,7 +11725,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BA5:BA38" si="0">SUM(B38:AY38)</f>
         <v>0</v>
       </c>
     </row>
@@ -11860,7 +11909,7 @@
       </c>
       <c r="S41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T41" s="8">
         <f t="shared" si="1"/>
@@ -11992,13 +12041,13 @@
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA38">
-    <sortCondition descending="1" ref="BA5:BA38"/>
-    <sortCondition ref="A5:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA37">
+    <sortCondition descending="1" ref="BA5:BA37"/>
+    <sortCondition ref="A5:A37"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12014,7 +12063,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12239,10 +12288,10 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>121</v>
@@ -12254,7 +12303,7 @@
         <v>130</v>
       </c>
       <c r="N11" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -12275,7 +12324,7 @@
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I12" s="8">
         <v>2</v>
@@ -12284,10 +12333,10 @@
         <v>127</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -12309,13 +12358,16 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="8" t="s">
-        <v>118</v>
+        <v>133</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>132</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N13" s="8">
         <v>2</v>
@@ -12339,16 +12391,16 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>148</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N14" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -12369,7 +12421,7 @@
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>152</v>
@@ -12399,7 +12451,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>163</v>
@@ -12435,7 +12487,10 @@
         <v>168</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>122</v>
+        <v>133</v>
+      </c>
+      <c r="N17" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -12458,16 +12513,23 @@
       <c r="H18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="M18" s="8" t="s">
-        <v>123</v>
+        <v>168</v>
+      </c>
+      <c r="N18" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <v>17</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32" t="s">
+        <v>145</v>
+      </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -12477,24 +12539,32 @@
       </c>
       <c r="K19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <v>18</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>130</v>
+      </c>
       <c r="G20" s="32"/>
       <c r="H20" s="59" t="s">
         <v>130</v>
       </c>
       <c r="K20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -12511,7 +12581,7 @@
       </c>
       <c r="K21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -12528,7 +12598,7 @@
       </c>
       <c r="K22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -12542,7 +12612,7 @@
       <c r="G23" s="32"/>
       <c r="K23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -12556,10 +12626,7 @@
       <c r="G24" s="32"/>
       <c r="K24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="N24" s="8">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -12572,7 +12639,9 @@
       <c r="E25" s="32"/>
       <c r="G25" s="32"/>
       <c r="K25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="M25" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
@@ -12821,8 +12890,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K9:L17">
-    <sortCondition descending="1" ref="L9:L17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N25">
+    <sortCondition descending="1" ref="N9:N25"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A3715C-07CF-E34C-B87C-3E78B811F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C196F-D005-2E45-9755-956E2CE4FFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="185">
   <si>
     <t>WK 1</t>
   </si>
@@ -577,6 +577,24 @@
   </si>
   <si>
     <t>Father Ted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-0</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>Kermit - ZigZag</t>
+  </si>
+  <si>
+    <t>Lost 0-1</t>
+  </si>
+  <si>
+    <t>Steve P</t>
+  </si>
+  <si>
+    <t>Phantom</t>
   </si>
 </sst>
 </file>
@@ -835,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -972,6 +990,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1387,7 +1408,7 @@
   <dimension ref="A1:BJ72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA37"/>
@@ -1878,7 +1899,9 @@
       <c r="S5" s="18">
         <v>-2</v>
       </c>
-      <c r="T5" s="18"/>
+      <c r="T5" s="18">
+        <v>1</v>
+      </c>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -1916,32 +1939,32 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f>COUNT(B5:AY5)</f>
-        <v>15</v>
+        <f t="shared" ref="BC5:BC37" si="0">COUNT(B5:AY5)</f>
+        <v>16</v>
       </c>
       <c r="BD5" s="8">
-        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
-        <v>9</v>
+        <f t="shared" ref="BD5:BD37" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <v>10</v>
       </c>
       <c r="BE5" s="8">
-        <f>COUNTIF($B5:$AY5, "0")</f>
+        <f t="shared" ref="BE5:BE37" si="2">COUNTIF($B5:$AY5, "0")</f>
         <v>3</v>
       </c>
       <c r="BF5" s="8">
-        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
+        <f t="shared" ref="BF5:BF37" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG5" s="8">
-        <f>SUM(BD5*3)+BE5</f>
-        <v>30</v>
+        <f t="shared" ref="BG5:BG37" si="4">SUM(BD5*3)+BE5</f>
+        <v>33</v>
       </c>
       <c r="BH5" s="8">
-        <f>SUM(B5:AY5)</f>
-        <v>21</v>
+        <f t="shared" ref="BH5:BH37" si="5">SUM(B5:AY5)</f>
+        <v>22</v>
       </c>
       <c r="BI5" s="10">
-        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="BI5:BI37" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.6875</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -1999,7 +2022,9 @@
       <c r="S6" s="31">
         <v>-2</v>
       </c>
-      <c r="T6" s="31"/>
+      <c r="T6" s="31">
+        <v>-1</v>
+      </c>
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
@@ -2035,55 +2060,51 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f>COUNT(B6:AY6)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="BD6" s="8">
-        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE6" s="8">
-        <f>COUNTIF($B6:$AY6, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF6" s="8">
-        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="BG6" s="8">
-        <f>SUM(BD6*3)+BE6</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="BH6" s="8">
-        <f>SUM(B6:AY6)</f>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="BI6" s="10">
-        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.5625</v>
+        <f t="shared" si="6"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="48">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7">
         <v>-1</v>
       </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7">
         <v>-1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="48">
         <v>0</v>
       </c>
       <c r="H7" s="53"/>
@@ -2093,30 +2114,34 @@
       <c r="J7" s="7">
         <v>8</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
       <c r="L7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M7" s="7">
         <v>-1</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="7">
         <v>0</v>
       </c>
       <c r="O7" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R7" s="53"/>
       <c r="S7" s="7">
-        <v>2</v>
-      </c>
-      <c r="T7" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1</v>
+      </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -2152,49 +2177,51 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f>COUNT(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="BD7" s="8">
-        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE7" s="8">
-        <f>COUNTIF($B7:$AY7, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF7" s="8">
-        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="BG7" s="8">
-        <f>SUM(BD7*3)+BE7</f>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="BH7" s="8">
-        <f>SUM(B7:AY7)</f>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BI7" s="10">
-        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="18">
-        <v>-1</v>
+      <c r="C8" s="49">
+        <v>1</v>
       </c>
       <c r="D8" s="18">
         <v>9</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18">
+        <v>-1</v>
+      </c>
       <c r="F8" s="18">
         <v>-1</v>
       </c>
@@ -2202,32 +2229,38 @@
         <v>0</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="49">
-        <v>7</v>
+      <c r="I8" s="18">
+        <v>-7</v>
       </c>
       <c r="J8" s="18">
-        <v>-8</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="18">
         <v>-2</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18">
+      <c r="M8" s="18">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="49">
         <v>0</v>
       </c>
       <c r="O8" s="18">
         <v>1</v>
       </c>
-      <c r="P8" s="18"/>
+      <c r="P8" s="18">
+        <v>-2</v>
+      </c>
       <c r="Q8" s="18">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R8" s="51"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="S8" s="18">
+        <v>2</v>
+      </c>
+      <c r="T8" s="18">
+        <v>-1</v>
+      </c>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
@@ -2263,86 +2296,78 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f>COUNT(B8:AY8)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="BD8" s="8">
-        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="BE8" s="8">
-        <f>COUNTIF($B8:$AY8, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF8" s="8">
-        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="BG8" s="8">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="BH8" s="8">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="BG8" s="8">
-        <f>SUM(BD8*3)+BE8</f>
-        <v>18</v>
-      </c>
-      <c r="BH8" s="8">
-        <f>SUM(B8:AY8)</f>
-        <v>9</v>
-      </c>
       <c r="BI8" s="10">
-        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="16">
-        <v>-1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B9" s="61"/>
       <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16">
+        <v>9</v>
+      </c>
       <c r="E9" s="16"/>
-      <c r="F9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="50">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <v>0</v>
       </c>
       <c r="H9" s="54"/>
       <c r="I9" s="16">
-        <v>-7</v>
-      </c>
-      <c r="J9" s="16">
+        <v>7</v>
+      </c>
+      <c r="J9" s="50">
         <v>8</v>
       </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
+      <c r="K9" s="16"/>
       <c r="L9" s="16">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M9" s="16">
         <v>-1</v>
       </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>-1</v>
-      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="16">
         <v>2</v>
       </c>
-      <c r="Q9" s="16">
-        <v>3</v>
-      </c>
+      <c r="Q9" s="16"/>
       <c r="R9" s="54"/>
-      <c r="S9" s="16">
+      <c r="S9" s="50">
         <v>-2</v>
       </c>
-      <c r="T9" s="16"/>
+      <c r="T9" s="16">
+        <v>1</v>
+      </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
@@ -2366,7 +2391,7 @@
       <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
+      <c r="AR9" s="61"/>
       <c r="AS9" s="16"/>
       <c r="AT9" s="16"/>
       <c r="AU9" s="16"/>
@@ -2378,88 +2403,74 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f>COUNT(B9:AY9)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="BD9" s="8">
-        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="BE9" s="8">
-        <f>COUNTIF($B9:$AY9, "0")</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BF9" s="8">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BF9" s="8">
-        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>6</v>
-      </c>
       <c r="BG9" s="8">
-        <f>SUM(BD9*3)+BE9</f>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="BH9" s="8">
-        <f>SUM(B9:AY9)</f>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="BI9" s="10">
-        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="6"/>
+        <v>0.6333333333333333</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B10" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C10" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10" s="16">
-        <v>-9</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="50">
-        <v>-1</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="16">
-        <v>7</v>
-      </c>
-      <c r="J10" s="16">
-        <v>-8</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>2</v>
-      </c>
-      <c r="M10" s="16">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="48">
-        <v>-2</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>-3</v>
-      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="54"/>
       <c r="S10" s="16">
-        <v>2</v>
-      </c>
-      <c r="T10" s="16"/>
+        <v>-2</v>
+      </c>
+      <c r="T10" s="50">
+        <v>1</v>
+      </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
@@ -2495,75 +2506,81 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f>COUNT(B10:AY10)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="BD10" s="8">
-        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="BE10" s="8">
-        <f>COUNTIF($B10:$AY10, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF10" s="8">
-        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BG10" s="8">
-        <f>SUM(BD10*3)+BE10</f>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="BH10" s="8">
-        <f>SUM(B10:AY10)</f>
-        <v>-12</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="BI10" s="10">
-        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.4</v>
+        <f t="shared" si="6"/>
+        <v>0.79166666666666663</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="58"/>
+        <v>78</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="7">
         <v>9</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>-1</v>
+      </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="7">
+      <c r="I11" s="48">
         <v>7</v>
       </c>
-      <c r="J11" s="48">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7"/>
+      <c r="J11" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
       <c r="L11" s="7">
         <v>-2</v>
       </c>
-      <c r="M11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
+        <v>3</v>
+      </c>
       <c r="R11" s="53"/>
-      <c r="S11" s="48">
-        <v>-2</v>
-      </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -2588,7 +2605,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="58"/>
+      <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -2600,41 +2617,41 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f>COUNT(B11:AY11)</f>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BD11" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="BE11" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="BF11" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="BG11" s="8">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="BH11" s="8">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="BD11" s="8">
-        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
-        <v>5</v>
-      </c>
-      <c r="BE11" s="8">
-        <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>1</v>
-      </c>
-      <c r="BF11" s="8">
-        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>3</v>
-      </c>
-      <c r="BG11" s="8">
-        <f>SUM(BD11*3)+BE11</f>
-        <v>16</v>
-      </c>
-      <c r="BH11" s="8">
-        <f>SUM(B11:AY11)</f>
-        <v>22</v>
-      </c>
       <c r="BI11" s="10">
-        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.59259259259259256</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -2643,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -2652,20 +2669,34 @@
         <v>0</v>
       </c>
       <c r="H12" s="53"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="48">
+        <v>-7</v>
+      </c>
+      <c r="J12" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>-1</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7">
+        <v>1</v>
+      </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -2701,38 +2732,38 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f>COUNT(B12:AY12)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="BD12" s="8">
-        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BE12" s="8">
-        <f>COUNTIF($B12:$AY12, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF12" s="8">
-        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="BG12" s="8">
-        <f>SUM(BD12*3)+BE12</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="BH12" s="8">
-        <f>SUM(B12:AY12)</f>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>-7</v>
       </c>
       <c r="BI12" s="10">
-        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.76190476190476186</v>
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7">
         <v>-1</v>
@@ -2740,9 +2771,11 @@
       <c r="C13" s="7">
         <v>-1</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>-9</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="F13" s="48">
         <v>-1</v>
       </c>
       <c r="G13" s="7">
@@ -2753,30 +2786,36 @@
         <v>7</v>
       </c>
       <c r="J13" s="7">
-        <v>8</v>
-      </c>
-      <c r="K13" s="48">
+        <v>-8</v>
+      </c>
+      <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="L13" s="7">
+        <v>2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="48">
         <v>-2</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="7">
+        <v>-3</v>
+      </c>
       <c r="R13" s="53"/>
       <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="T13" s="7"/>
+      <c r="T13" s="7">
+        <v>-1</v>
+      </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -2812,49 +2851,45 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f>COUNT(B13:AY13)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="BD13" s="8">
-        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="BE13" s="8">
-        <f>COUNTIF($B13:$AY13, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF13" s="8">
-        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG13" s="8">
-        <f>SUM(BD13*3)+BE13</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="BH13" s="8">
-        <f>SUM(B13:AY13)</f>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>-13</v>
       </c>
       <c r="BI13" s="10">
-        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="6"/>
+        <v>0.375</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="7">
-        <v>-1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7">
         <v>-1</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7">
         <v>-1</v>
       </c>
@@ -2862,32 +2897,32 @@
         <v>0</v>
       </c>
       <c r="H14" s="53"/>
-      <c r="I14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="48">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="48">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R14" s="53"/>
+      <c r="S14" s="7">
         <v>2</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -2923,84 +2958,86 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f>COUNT(B14:AY14)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="BD14" s="8">
-        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="BE14" s="8">
-        <f>COUNTIF($B14:$AY14, "0")</f>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="BF14" s="8">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BF14" s="8">
-        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>5</v>
-      </c>
       <c r="BG14" s="8">
-        <f>SUM(BD14*3)+BE14</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="BH14" s="8">
-        <f>SUM(B14:AY14)</f>
-        <v>-5</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="BI14" s="10">
-        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="6"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="7">
+        <v>106</v>
+      </c>
+      <c r="B15" s="48">
         <v>-1</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
         <v>-1</v>
       </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="53"/>
-      <c r="I15" s="48">
-        <v>-7</v>
-      </c>
-      <c r="J15" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="7">
         <v>0</v>
       </c>
       <c r="L15" s="7">
+        <v>2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="48">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
         <v>-2</v>
       </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="7">
+        <v>3</v>
+      </c>
       <c r="R15" s="53"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="S15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1</v>
+      </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
@@ -3036,40 +3073,42 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f>COUNT(B15:AY15)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="BD15" s="8">
-        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="BE15" s="8">
-        <f>COUNTIF($B15:$AY15, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF15" s="8">
-        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="BG15" s="8">
-        <f>SUM(BD15*3)+BE15</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="BH15" s="8">
-        <f>SUM(B15:AY15)</f>
-        <v>-8</v>
+        <f t="shared" si="5"/>
+        <v>-9</v>
       </c>
       <c r="BI15" s="10">
-        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="6"/>
+        <v>0.40476190476190477</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="B16" s="7">
+        <v>-1</v>
+      </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
@@ -3082,30 +3121,36 @@
         <v>0</v>
       </c>
       <c r="H16" s="53"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>7</v>
+      </c>
       <c r="J16" s="7">
         <v>8</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="48">
+      <c r="K16" s="48">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7">
-        <v>-3</v>
-      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="53"/>
       <c r="S16" s="7">
         <v>2</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="48">
+        <v>-1</v>
+      </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
@@ -3141,84 +3186,72 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f>COUNT(B16:AY16)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="BD16" s="8">
-        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE16" s="8">
-        <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF16" s="8">
-        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="BG16" s="8">
-        <f>SUM(BD16*3)+BE16</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="BH16" s="8">
-        <f>SUM(B16:AY16)</f>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="BI16" s="10">
-        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.51851851851851849</v>
+        <f t="shared" si="6"/>
+        <v>0.38461538461538464</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="48">
-        <v>-1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="48">
         <v>1</v>
       </c>
       <c r="F17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="53"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>-7</v>
+      </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7">
-        <v>-1</v>
-      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="48">
-        <v>1</v>
-      </c>
+      <c r="O17" s="7"/>
       <c r="P17" s="7">
         <v>-2</v>
       </c>
-      <c r="Q17" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="53"/>
       <c r="S17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T17" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
@@ -3254,60 +3287,66 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f>COUNT(B17:AY17)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="BD17" s="8">
-        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="BE17" s="8">
-        <f>COUNTIF($B17:$AY17, "0")</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="8">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="BF17" s="8">
-        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>7</v>
-      </c>
       <c r="BG17" s="8">
-        <f>SUM(BD17*3)+BE17</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="BH17" s="8">
-        <f>SUM(B17:AY17)</f>
-        <v>-10</v>
+        <f t="shared" si="5"/>
+        <v>-3</v>
       </c>
       <c r="BI17" s="10">
-        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.35897435897435898</v>
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7">
         <v>-1</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-1</v>
+      </c>
       <c r="G18" s="7">
         <v>0</v>
       </c>
       <c r="H18" s="53"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="48">
-        <v>-8</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="I18" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="48">
+        <v>2</v>
+      </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
@@ -3315,16 +3354,14 @@
         <v>0</v>
       </c>
       <c r="O18" s="7">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7">
-        <v>3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P18" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="53"/>
-      <c r="S18" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -3361,68 +3398,76 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f>COUNT(B18:AY18)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="BD18" s="8">
-        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE18" s="8">
-        <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF18" s="8">
-        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG18" s="8">
-        <f>SUM(BD18*3)+BE18</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="BH18" s="8">
-        <f>SUM(B18:AY18)</f>
-        <v>-14</v>
+        <f t="shared" si="5"/>
+        <v>-5</v>
       </c>
       <c r="BI18" s="10">
-        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B19" s="7">
+        <v>-1</v>
+      </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="48">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7"/>
+      <c r="D19" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
       <c r="H19" s="53"/>
-      <c r="I19" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="48">
+        <v>-8</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q19" s="7"/>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
+        <v>3</v>
+      </c>
       <c r="R19" s="53"/>
       <c r="S19" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -3460,76 +3505,74 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f>COUNT(B19:AY19)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="BD19" s="8">
-        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE19" s="8">
-        <f>COUNTIF($B19:$AY19, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF19" s="8">
-        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="BG19" s="8">
-        <f>SUM(BD19*3)+BE19</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="BH19" s="8">
-        <f>SUM(B19:AY19)</f>
-        <v>-4</v>
+        <f t="shared" si="5"/>
+        <v>-14</v>
       </c>
       <c r="BI19" s="10">
-        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="58">
-        <v>1</v>
-      </c>
-      <c r="C20" s="48">
+        <v>108</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>-1</v>
       </c>
-      <c r="D20" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
       <c r="H20" s="53"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7">
-        <v>-8</v>
-      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="48">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R20" s="53"/>
+      <c r="S20" s="7">
         <v>2</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q20" s="48">
-        <v>-3</v>
-      </c>
-      <c r="R20" s="53"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -3553,7 +3596,7 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
-      <c r="AR20" s="58"/>
+      <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -3561,76 +3604,79 @@
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
-      <c r="AZ20" s="5"/>
       <c r="BA20" s="34">
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f>COUNT(B20:AY20)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="BD20" s="8">
-        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE20" s="8">
-        <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF20" s="8">
-        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="BG20" s="8">
-        <f>SUM(BD20*3)+BE20</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="BH20" s="8">
-        <f>SUM(B20:AY20)</f>
-        <v>-18</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="BI20" s="10">
-        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="6"/>
+        <v>0.54166666666666663</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B21" s="58">
+        <v>1</v>
+      </c>
+      <c r="C21" s="48">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="53"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <v>-8</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7">
         <v>2</v>
       </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P21" s="48">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q21" s="48">
         <v>-3</v>
       </c>
       <c r="R21" s="53"/>
-      <c r="S21" s="7">
-        <v>2</v>
-      </c>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -3655,7 +3701,7 @@
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
+      <c r="AR21" s="58"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -3663,68 +3709,69 @@
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
+      <c r="AZ21" s="5"/>
       <c r="BA21" s="34">
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f>COUNT(B21:AY21)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="BD21" s="8">
-        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="BE21" s="8">
-        <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="BF21" s="8">
-        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG21" s="8">
-        <f>SUM(BD21*3)+BE21</f>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="BH21" s="8">
-        <f>SUM(B21:AY21)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>-18</v>
       </c>
       <c r="BI21" s="10">
-        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.52380952380952384</v>
+        <f t="shared" si="6"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7">
-        <v>-1</v>
-      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="53"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7">
+        <v>2</v>
+      </c>
       <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="48">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
         <v>-1</v>
       </c>
-      <c r="P22" s="7"/>
+      <c r="P22" s="48">
+        <v>2</v>
+      </c>
       <c r="Q22" s="7">
         <v>-3</v>
       </c>
@@ -3732,7 +3779,9 @@
       <c r="S22" s="7">
         <v>2</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7">
+        <v>-1</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -3768,32 +3817,32 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f>COUNT(B22:AY22)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="BD22" s="8">
-        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE22" s="8">
-        <f>COUNTIF($B22:$AY22, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF22" s="8">
-        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG22" s="8">
-        <f>SUM(BD22*3)+BE22</f>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="BH22" s="8">
-        <f>SUM(B22:AY22)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="BI22" s="10">
-        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.47619047619047616</v>
+        <f t="shared" si="6"/>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
@@ -3835,7 +3884,9 @@
       <c r="S23" s="48">
         <v>2</v>
       </c>
-      <c r="T23" s="7"/>
+      <c r="T23" s="7">
+        <v>-1</v>
+      </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -3871,32 +3922,32 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f>COUNT(B23:AY23)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="BD23" s="8">
-        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE23" s="8">
-        <f>COUNTIF($B23:$AY23, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF23" s="8">
-        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG23" s="8">
-        <f>SUM(BD23*3)+BE23</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="BH23" s="8">
-        <f>SUM(B23:AY23)</f>
-        <v>-14</v>
+        <f t="shared" si="5"/>
+        <v>-15</v>
       </c>
       <c r="BI23" s="10">
-        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="6"/>
+        <v>0.37037037037037035</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -3968,31 +4019,31 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f>COUNT(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BD24" s="8">
-        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE24" s="8">
-        <f>COUNTIF($B24:$AY24, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF24" s="8">
-        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG24" s="8">
-        <f>SUM(BD24*3)+BE24</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH24" s="8">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="BI24" s="10">
-        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
+        <f t="shared" si="6"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="BJ24" s="10"/>
@@ -4071,31 +4122,31 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f>COUNT(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BD25" s="8">
-        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE25" s="8">
-        <f>COUNTIF($B25:$AY25, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF25" s="8">
-        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG25" s="8">
-        <f>SUM(BD25*3)+BE25</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH25" s="8">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="BI25" s="10">
-        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
+        <f t="shared" si="6"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="BJ25" s="10"/>
@@ -4168,31 +4219,31 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f>COUNT(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BD26" s="8">
-        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE26" s="8">
-        <f>COUNTIF($B26:$AY26, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF26" s="8">
-        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG26" s="8">
-        <f>SUM(BD26*3)+BE26</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH26" s="8">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="BI26" s="10">
-        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
+        <f t="shared" si="6"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="BJ26" s="10"/>
@@ -4259,31 +4310,31 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f>COUNT(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BD27" s="8">
-        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE27" s="8">
-        <f>COUNTIF($B27:$AY27, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF27" s="8">
-        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG27" s="8">
-        <f>SUM(BD27*3)+BE27</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BH27" s="8">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="BI27" s="10">
-        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BJ27" s="10"/>
@@ -4354,31 +4405,31 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f>COUNT(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BD28" s="8">
-        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE28" s="8">
-        <f>COUNTIF($B28:$AY28, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF28" s="8">
-        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG28" s="8">
-        <f>SUM(BD28*3)+BE28</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH28" s="8">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI28" s="10">
-        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ28" s="10"/>
@@ -4447,40 +4498,42 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f>COUNT(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BD29" s="8">
-        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE29" s="8">
-        <f>COUNTIF($B29:$AY29, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF29" s="8">
-        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG29" s="8">
-        <f>SUM(BD29*3)+BE29</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH29" s="8">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI29" s="10">
-        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -4497,9 +4550,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="53"/>
-      <c r="S30" s="7">
-        <v>2</v>
-      </c>
+      <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -4536,42 +4587,40 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f>COUNT(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD30" s="8">
-        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE30" s="8">
-        <f>COUNTIF($B30:$AY30, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF30" s="8">
-        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG30" s="8">
-        <f>SUM(BD30*3)+BE30</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BH30" s="8">
-        <f>SUM(B30:AY30)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="BI30" s="10">
-        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4588,8 +4637,12 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="53"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
+      <c r="S31" s="7">
+        <v>2</v>
+      </c>
+      <c r="T31" s="7">
+        <v>-1</v>
+      </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
@@ -4625,38 +4678,38 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f>COUNT(B31:AY31)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="BD31" s="8">
-        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE31" s="8">
-        <f>COUNTIF($B31:$AY31, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF31" s="8">
-        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BG31" s="8">
-        <f>SUM(BD31*3)+BE31</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BH31" s="8">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BI31" s="10">
-        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -4712,38 +4765,38 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f>COUNT(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD32" s="8">
-        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE32" s="8">
-        <f>COUNTIF($B32:$AY32, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF32" s="8">
-        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG32" s="8">
-        <f>SUM(BD32*3)+BE32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH32" s="8">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI32" s="10" t="e">
-        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4763,7 +4816,9 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="53"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
+      <c r="T33" s="7">
+        <v>-1</v>
+      </c>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
@@ -4799,38 +4854,38 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f>COUNT(B33:AY33)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="BD33" s="8">
-        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE33" s="8">
-        <f>COUNTIF($B33:$AY33, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF33" s="8">
-        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BG33" s="8">
-        <f>SUM(BD33*3)+BE33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH33" s="8">
-        <f>SUM(B33:AY33)</f>
-        <v>0</v>
-      </c>
-      <c r="BI33" s="10" t="e">
-        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BI33" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BJ33" s="10"/>
     </row>
     <row r="34" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -4850,7 +4905,9 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="53"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
+      <c r="T34" s="7">
+        <v>-1</v>
+      </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -4886,32 +4943,32 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f>COUNT(B34:AY34)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="BD34" s="8">
-        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE34" s="8">
-        <f>COUNTIF($B34:$AY34, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF34" s="8">
-        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BG34" s="8">
-        <f>SUM(BD34*3)+BE34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH34" s="8">
-        <f>SUM(B34:AY34)</f>
-        <v>0</v>
-      </c>
-      <c r="BI34" s="10" t="e">
-        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BI34" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BJ34" s="10"/>
     </row>
@@ -4975,31 +5032,31 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f>COUNT(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD35" s="8">
-        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE35" s="8">
-        <f>COUNTIF($B35:$AY35, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF35" s="8">
-        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG35" s="8">
-        <f>SUM(BD35*3)+BE35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH35" s="8">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="BI35" s="10">
-        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ35" s="10"/>
@@ -5064,31 +5121,31 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f>COUNT(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD36" s="8">
-        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE36" s="8">
-        <f>COUNTIF($B36:$AY36, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF36" s="8">
-        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG36" s="8">
-        <f>SUM(BD36*3)+BE36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH36" s="8">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="BI36" s="10">
-        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ36" s="10"/>
@@ -5153,31 +5210,31 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f>COUNT(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD37" s="8">
-        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f>COUNTIF($B37:$AY37, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF37" s="8">
-        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f>SUM(BD37*3)+BE37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH37" s="8">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="BI37" s="10">
-        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="10"/>
@@ -5187,203 +5244,203 @@
         <v>43</v>
       </c>
       <c r="B38" s="28">
-        <f t="shared" ref="B38:AD38" si="0">COUNT(B5:B37)</f>
+        <f t="shared" ref="B38:AD38" si="7">COUNT(B5:B37)</f>
         <v>16</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="D38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="F38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="G38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="H38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="L38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="N38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="O38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="P38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="Q38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="U38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE38" s="28">
-        <f t="shared" ref="AE38:AY38" si="1">COUNT(AE5:AE37)</f>
+        <f t="shared" ref="AE38:AY38" si="8">COUNT(AE5:AE37)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AV38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BC38" s="8"/>
@@ -5449,7 +5506,9 @@
       <c r="S39" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="T39" s="40"/>
+      <c r="T39" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="X39" s="8"/>
@@ -5816,7 +5875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G25"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5891,7 +5950,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <f>SUM(C4*3)+D4</f>
+        <f t="shared" ref="G4:G29" si="1">SUM(C4*3)+D4</f>
         <v>6</v>
       </c>
     </row>
@@ -5915,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f>SUM(C5*3)+D5</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -5939,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>SUM(C6*3)+D6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -5963,7 +6022,7 @@
         <v>9</v>
       </c>
       <c r="G7">
-        <f>SUM(C7*3)+D7</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -5987,7 +6046,7 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <f>SUM(C8*3)+D8</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6011,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <f>SUM(C9*3)+D9</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H9" s="24"/>
@@ -6036,7 +6095,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>SUM(C10*3)+D10</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6060,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>SUM(C11*3)+D11</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6084,14 +6143,14 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>SUM(C12*3)+D12</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6103,22 +6162,22 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <f>SUM(C13*3)+D13</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6133,32 +6192,32 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>SUM(C14*3)+D14</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <f>SUM(C15*3)+D15</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -6181,14 +6240,14 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f>SUM(C16*3)+D16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -6203,42 +6262,42 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G17">
-        <f>SUM(C17*3)+D17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G18">
-        <f>SUM(C18*3)+D18</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6253,20 +6312,20 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G19">
-        <f>SUM(C19*3)+D19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6275,20 +6334,20 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>-2</v>
       </c>
       <c r="G20">
-        <f>SUM(C20*3)+D20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -6303,17 +6362,17 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G21">
-        <f>SUM(C21*3)+D21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -6328,20 +6387,20 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G22">
-        <f>SUM(C22*3)+D22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6350,20 +6409,20 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G23">
-        <f>SUM(C23*3)+D23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6381,13 +6440,13 @@
         <v>-8</v>
       </c>
       <c r="G24">
-        <f>SUM(C24*3)+D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6402,46 +6461,61 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G25">
-        <f>SUM(C25*3)+D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>112</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>-9</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6501,10 +6575,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G25">
-    <sortCondition descending="1" ref="G4:G25"/>
-    <sortCondition descending="1" ref="F4:F25"/>
-    <sortCondition ref="B4:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G29">
+    <sortCondition descending="1" ref="G4:G29"/>
+    <sortCondition descending="1" ref="F4:F29"/>
+    <sortCondition ref="B4:B29"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6519,10 +6593,10 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC35"/>
+      <selection pane="bottomRight" activeCell="AU8" sqref="AU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6704,39 +6778,37 @@
     </row>
     <row r="3" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7">
+        <v>106</v>
+      </c>
+      <c r="B3" s="7">
         <v>2</v>
       </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="53"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7">
-        <v>4</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>2</v>
-      </c>
-      <c r="O3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>5</v>
+      </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7">
+        <v>3</v>
+      </c>
+      <c r="R3" s="53"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="T3" s="7">
+        <v>3</v>
+      </c>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -6770,45 +6842,46 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="29"/>
       <c r="BA3" s="24">
-        <f t="shared" ref="BA3:BA35" si="0">SUM(B3:AY3)</f>
-        <v>12</v>
+        <f>SUM(B3:AY3)</f>
+        <v>14</v>
       </c>
       <c r="BB3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="7">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
       <c r="H4" s="53"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7">
-        <v>5</v>
-      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>4</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2</v>
+      </c>
+      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7">
-        <v>3</v>
-      </c>
-      <c r="R4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="53"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -6844,27 +6917,26 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="24">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(B4:AY4)</f>
+        <v>12</v>
       </c>
       <c r="BB4" s="8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="BC4" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
+        <v>108</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="53"/>
@@ -6872,14 +6944,20 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="7">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>2</v>
+      </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -6913,8 +6991,8 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="29"/>
       <c r="BA5" s="24">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B5:AY5)</f>
+        <v>10</v>
       </c>
       <c r="BB5" s="8">
         <v>1</v>
@@ -6922,30 +7000,36 @@
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>4</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="53"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>3</v>
+      </c>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="7">
+        <v>3</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -6980,26 +7064,27 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="29"/>
       <c r="BA6" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B6:AY6)</f>
+        <v>9</v>
       </c>
       <c r="BB6" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+        <v>99</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>6</v>
       </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="53"/>
@@ -7007,14 +7092,12 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
+      <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="53"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -7050,8 +7133,8 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="29"/>
       <c r="BA7" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B7:AY7)</f>
+        <v>8</v>
       </c>
       <c r="BB7" s="8">
         <v>1</v>
@@ -7091,9 +7174,11 @@
         <v>1</v>
       </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="53"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>1</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -7127,39 +7212,35 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B8:AY8)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="53"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7">
-        <v>2</v>
-      </c>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="53"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -7195,8 +7276,8 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="29"/>
       <c r="BA9" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B9:AY9)</f>
+        <v>7</v>
       </c>
       <c r="BB9" s="8">
         <v>1</v>
@@ -7207,34 +7288,38 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="53"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
         <v>1</v>
       </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
+      <c r="O10" s="7"/>
       <c r="P10" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="53"/>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -7269,42 +7354,39 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="BB10" s="8">
-        <v>1</v>
+        <f>SUM(B10:AY10)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
       <c r="G11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="7">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <v>2</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7">
-        <v>2</v>
-      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -7340,8 +7422,11 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="29"/>
       <c r="BA11" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:AY11)</f>
         <v>6</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>1</v>
       </c>
       <c r="BC11" s="8">
         <v>1</v>
@@ -7349,7 +7434,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -7357,27 +7442,25 @@
         <v>1</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>1</v>
-      </c>
-      <c r="R12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>2</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -7413,41 +7496,44 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:AY12)</f>
         <v>6</v>
+      </c>
+      <c r="BC12" s="8">
+        <v>1</v>
       </c>
       <c r="BF12" s="24"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="53"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
       <c r="T13" s="7"/>
-      <c r="U13" s="33"/>
+      <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -7480,27 +7566,29 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="29"/>
       <c r="BA13" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AY13)</f>
         <v>5</v>
       </c>
-      <c r="BC13" s="8">
+      <c r="BB13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
       <c r="H14" s="53"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -7509,14 +7597,12 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="53"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="33"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -7549,35 +7635,40 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AY14)</f>
         <v>5</v>
+      </c>
+      <c r="BC14" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="53"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7">
-        <v>3</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="53"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -7613,11 +7704,8 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="29"/>
       <c r="BA15" s="24">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BB15" s="8">
-        <v>1</v>
+        <f>SUM(B15:AY15)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
@@ -7646,7 +7734,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="53"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -7682,7 +7770,7 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="29"/>
       <c r="BA16" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>4</v>
       </c>
     </row>
@@ -7710,7 +7798,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="53"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -7746,7 +7834,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="29"/>
       <c r="BA17" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AY17)</f>
         <v>4</v>
       </c>
     </row>
@@ -7778,7 +7866,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="R18" s="53"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -7814,37 +7902,41 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:AY18)</f>
         <v>4</v>
       </c>
       <c r="BF18" s="24"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="7">
-        <v>2</v>
-      </c>
-      <c r="J19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>1</v>
-      </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="7">
+        <v>1</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -7879,40 +7971,35 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="29"/>
       <c r="BA19" s="24">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BC19" s="8">
-        <v>1</v>
+        <f>SUM(B19:AY19)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+      <c r="R20" s="53"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -7948,8 +8035,11 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>3</v>
+      </c>
+      <c r="BC20" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
@@ -7978,7 +8068,7 @@
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="R21" s="53"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -8014,7 +8104,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="29"/>
       <c r="BA21" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:AY21)</f>
         <v>3</v>
       </c>
     </row>
@@ -8044,7 +8134,7 @@
       <c r="Q22" s="7">
         <v>1</v>
       </c>
-      <c r="R22" s="7"/>
+      <c r="R22" s="53"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -8080,7 +8170,7 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>3</v>
       </c>
     </row>
@@ -8108,9 +8198,11 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="R23" s="53"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
+      <c r="T23" s="7">
+        <v>1</v>
+      </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -8144,13 +8236,13 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="29"/>
       <c r="BA23" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B23:AY23)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -8166,13 +8258,15 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="7">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="7">
         <v>2</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
+      <c r="T24" s="7">
+        <v>1</v>
+      </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -8206,17 +8300,15 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="29"/>
       <c r="BA24" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B24:AY24)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -8230,9 +8322,11 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="P25" s="7">
+        <v>2</v>
+      </c>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="53"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -8268,15 +8362,17 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="29"/>
       <c r="BA25" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B25:AY25)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -8291,12 +8387,12 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7">
-        <v>1</v>
-      </c>
-      <c r="R26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="53"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
+      <c r="T26" s="7">
+        <v>1</v>
+      </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
@@ -8330,13 +8426,13 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="29"/>
       <c r="BA26" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B26:AY26)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8353,8 +8449,10 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="Q27" s="7">
+        <v>1</v>
+      </c>
+      <c r="R27" s="53"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -8390,13 +8488,13 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="29"/>
       <c r="BA27" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B27:AY27)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -8414,8 +8512,10 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="7">
+        <v>1</v>
+      </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -8450,13 +8550,13 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B28:AY28)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -8474,7 +8574,7 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="R29" s="53"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -8510,13 +8610,13 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="29"/>
       <c r="BA29" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8534,7 +8634,7 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="R30" s="53"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -8570,13 +8670,13 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="29"/>
       <c r="BA30" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8594,7 +8694,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="R31" s="53"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -8630,7 +8730,7 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="29"/>
       <c r="BA31" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>0</v>
       </c>
     </row>
@@ -8654,7 +8754,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="R32" s="53"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -8690,7 +8790,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="29"/>
       <c r="BA32" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
@@ -8714,7 +8814,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="R33" s="53"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -8750,7 +8850,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="29"/>
       <c r="BA33" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -8774,7 +8874,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="R34" s="53"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="33"/>
@@ -8810,7 +8910,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="29"/>
       <c r="BA34" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -8834,7 +8934,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="53"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -8870,7 +8970,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="29"/>
       <c r="BA35" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -8892,7 +8992,7 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="R36" s="53"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -8928,7 +9028,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="24">
-        <f t="shared" ref="BA36" si="1">SUM(B36:AY36)</f>
+        <f t="shared" ref="BA3:BA36" si="0">SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -9010,7 +9110,7 @@
       </c>
       <c r="T38">
         <f>'League Table'!T38</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U38" s="32">
         <f>'League Table'!U38</f>
@@ -9134,191 +9234,191 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="2">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="U40" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA40" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9346,7 +9446,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -9621,7 +9721,9 @@
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -9654,8 +9756,8 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="BA5">
-        <f>SUM(B5:AY5)</f>
-        <v>15</v>
+        <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9727,7 +9829,7 @@
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="BA6">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -9800,7 +9902,7 @@
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="BA7">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -9871,7 +9973,7 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="BA8">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -9938,7 +10040,7 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="19"/>
       <c r="BA9">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -10005,7 +10107,7 @@
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="BA10">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -10072,7 +10174,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -10137,7 +10239,7 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10200,7 +10302,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10267,7 +10369,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -10332,7 +10434,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -10397,7 +10499,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -10462,7 +10564,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -10525,7 +10627,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f>SUM(B18:AY18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -10588,7 +10690,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -10649,7 +10751,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10710,7 +10812,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10771,7 +10873,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10832,7 +10934,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10893,7 +10995,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10954,7 +11056,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11015,7 +11117,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11076,7 +11178,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11137,7 +11239,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11196,7 +11298,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11255,7 +11357,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11314,7 +11416,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11373,7 +11475,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11432,7 +11534,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11491,7 +11593,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11550,7 +11652,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11609,7 +11711,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11668,7 +11770,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11725,7 +11827,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" ref="BA5:BA38" si="0">SUM(B38:AY38)</f>
+        <f t="shared" ref="BA38" si="1">SUM(B38:AY38)</f>
         <v>0</v>
       </c>
     </row>
@@ -11840,208 +11942,208 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="1">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="2">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
+        <f t="shared" ref="AI41:AX41" si="3">SUM(AI5:AI39)</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AV41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AX41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="3">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="4">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -12063,7 +12165,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12400,7 +12502,7 @@
         <v>117</v>
       </c>
       <c r="N14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -12537,7 +12639,9 @@
       <c r="H19" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="M19" s="8" t="s">
         <v>122</v>
       </c>
@@ -12571,10 +12675,18 @@
       <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>184</v>
+      </c>
       <c r="G21" s="32"/>
       <c r="H21" s="59" t="s">
         <v>132</v>
@@ -12610,6 +12722,9 @@
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="G23" s="32"/>
+      <c r="H23" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="M23" s="8" t="s">
         <v>148</v>
@@ -12624,6 +12739,9 @@
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="G24" s="32"/>
+      <c r="H24" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="M24" s="8" t="s">
         <v>152</v>
@@ -12653,7 +12771,9 @@
       <c r="E26" s="32"/>
       <c r="G26" s="32"/>
       <c r="K26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="32">
@@ -12665,7 +12785,9 @@
       <c r="E27" s="32"/>
       <c r="G27" s="32"/>
       <c r="K27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="32">

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C196F-D005-2E45-9755-956E2CE4FFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEE4CDE-E658-3C4E-9B9C-BCB1342BDFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="560" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="188">
   <si>
     <t>WK 1</t>
   </si>
@@ -582,9 +582,6 @@
     <t xml:space="preserve"> 1-0</t>
   </si>
   <si>
-    <t>MARK</t>
-  </si>
-  <si>
     <t>Kermit - ZigZag</t>
   </si>
   <si>
@@ -595,6 +592,18 @@
   </si>
   <si>
     <t>Phantom</t>
+  </si>
+  <si>
+    <t>NEWMARK</t>
+  </si>
+  <si>
+    <t>MOO</t>
+  </si>
+  <si>
+    <t>Banksy - Captain Kirk</t>
+  </si>
+  <si>
+    <t>Lost 1-5</t>
   </si>
 </sst>
 </file>
@@ -853,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -990,9 +999,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1407,11 +1413,11 @@
   </sheetPr>
   <dimension ref="A1:BJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA37"/>
+      <selection pane="bottomRight" activeCell="AY43" sqref="AY43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1431,19 +1437,19 @@
     <col min="17" max="18" width="6" customWidth="1" outlineLevel="1"/>
     <col min="19" max="20" width="6.83203125" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="7.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6.83203125" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="23" max="23" width="6.83203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="6.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="27" width="6.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="6.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="31" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="6.5" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="33" max="36" width="6.5" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="6.33203125" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="39" width="6.83203125" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="41" width="6.6640625" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="6.5" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="51" width="6.6640625" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.83203125" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="23" max="23" width="6.83203125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="6.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="27" width="6.5" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="6.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="31" width="6" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="6.5" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="33" max="36" width="6.5" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="6.33203125" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="39" width="6.83203125" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="41" width="6.6640625" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="6.5" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="51" width="6.6640625" style="17" customWidth="1" outlineLevel="1"/>
     <col min="52" max="52" width="6" customWidth="1"/>
     <col min="53" max="53" width="9.1640625" customWidth="1"/>
     <col min="54" max="54" width="9.1640625" style="8" customWidth="1"/>
@@ -1902,7 +1908,9 @@
       <c r="T5" s="18">
         <v>1</v>
       </c>
-      <c r="U5" s="18"/>
+      <c r="U5" s="18">
+        <v>4</v>
+      </c>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
@@ -1939,32 +1947,32 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f t="shared" ref="BC5:BC37" si="0">COUNT(B5:AY5)</f>
-        <v>16</v>
+        <f>COUNT(B5:AY5)</f>
+        <v>17</v>
       </c>
       <c r="BD5" s="8">
-        <f t="shared" ref="BD5:BD37" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
-        <v>10</v>
+        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <v>11</v>
       </c>
       <c r="BE5" s="8">
-        <f t="shared" ref="BE5:BE37" si="2">COUNTIF($B5:$AY5, "0")</f>
+        <f>COUNTIF($B5:$AY5, "0")</f>
         <v>3</v>
       </c>
       <c r="BF5" s="8">
-        <f t="shared" ref="BF5:BF37" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
+        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG5" s="8">
-        <f t="shared" ref="BG5:BG37" si="4">SUM(BD5*3)+BE5</f>
-        <v>33</v>
+        <f>SUM(BD5*3)+BE5</f>
+        <v>36</v>
       </c>
       <c r="BH5" s="8">
-        <f t="shared" ref="BH5:BH37" si="5">SUM(B5:AY5)</f>
-        <v>22</v>
+        <f>SUM(B5:AY5)</f>
+        <v>26</v>
       </c>
       <c r="BI5" s="10">
-        <f t="shared" ref="BI5:BI37" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.6875</v>
+        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -2025,7 +2033,9 @@
       <c r="T6" s="31">
         <v>-1</v>
       </c>
-      <c r="U6" s="31"/>
+      <c r="U6" s="31">
+        <v>-4</v>
+      </c>
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
       <c r="X6" s="31"/>
@@ -2060,89 +2070,81 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>COUNT(B6:AY6)</f>
+        <v>18</v>
       </c>
       <c r="BD6" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
         <v>8</v>
       </c>
       <c r="BE6" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B6:$AY6, "0")</f>
         <v>3</v>
       </c>
       <c r="BF6" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="BG6" s="8">
+        <f>SUM(BD6*3)+BE6</f>
+        <v>27</v>
+      </c>
+      <c r="BH6" s="8">
+        <f>SUM(B6:AY6)</f>
         <v>6</v>
       </c>
-      <c r="BG6" s="8">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="BH6" s="8">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
       <c r="BI6" s="10">
-        <f t="shared" si="6"/>
-        <v>0.52941176470588236</v>
+        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
+        <v>0.5</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="7">
-        <v>-1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B7" s="58"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>9</v>
+      </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="48">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J7" s="7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="48">
         <v>8</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M7" s="7">
         <v>-1</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>-1</v>
-      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
       <c r="P7" s="7">
         <v>2</v>
       </c>
-      <c r="Q7" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="53"/>
-      <c r="S7" s="7">
+      <c r="S7" s="48">
         <v>-2</v>
       </c>
       <c r="T7" s="7">
         <v>1</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="7">
+        <v>4</v>
+      </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -2165,7 +2167,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
+      <c r="AR7" s="58"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
@@ -2177,55 +2179,51 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNT(B7:AY7)</f>
+        <v>11</v>
       </c>
       <c r="BD7" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
+        <v>7</v>
       </c>
       <c r="BE7" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B7:$AY7, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF7" s="8">
+        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
         <v>3</v>
       </c>
-      <c r="BF7" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
       <c r="BG7" s="8">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f>SUM(BD7*3)+BE7</f>
+        <v>22</v>
       </c>
       <c r="BH7" s="8">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>SUM(B7:AY7)</f>
+        <v>27</v>
       </c>
       <c r="BI7" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="49">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>9</v>
-      </c>
-      <c r="E8" s="18">
         <v>-1</v>
       </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="49">
         <v>0</v>
       </c>
       <c r="H8" s="51"/>
@@ -2235,31 +2233,33 @@
       <c r="J8" s="18">
         <v>8</v>
       </c>
-      <c r="K8" s="18"/>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
       <c r="L8" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M8" s="18">
         <v>-1</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="18">
         <v>0</v>
       </c>
       <c r="O8" s="18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P8" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="18">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R8" s="51"/>
       <c r="S8" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T8" s="18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
@@ -2296,79 +2296,89 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>COUNT(B8:AY8)</f>
+        <v>15</v>
       </c>
       <c r="BD8" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE8" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B8:$AY8, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF8" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <v>6</v>
       </c>
       <c r="BG8" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>SUM(BD8*3)+BE8</f>
+        <v>21</v>
       </c>
       <c r="BH8" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B8:AY8)</f>
         <v>4</v>
       </c>
       <c r="BI8" s="10">
-        <f t="shared" si="6"/>
-        <v>0.41666666666666669</v>
+        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="61"/>
+        <v>97</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-1</v>
+      </c>
       <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="D9" s="16">
         <v>9</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
       <c r="G9" s="16">
         <v>0</v>
       </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="16">
-        <v>7</v>
-      </c>
-      <c r="J9" s="50">
-        <v>8</v>
-      </c>
-      <c r="K9" s="16"/>
+      <c r="I9" s="50">
+        <v>-7</v>
+      </c>
+      <c r="J9" s="16">
+        <v>-8</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
       <c r="L9" s="16">
         <v>-2</v>
       </c>
       <c r="M9" s="16">
+        <v>1</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
         <v>-1</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16">
-        <v>2</v>
-      </c>
+      <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="54"/>
-      <c r="S9" s="50">
-        <v>-2</v>
-      </c>
+      <c r="S9" s="16"/>
       <c r="T9" s="16">
         <v>1</v>
       </c>
-      <c r="U9" s="16"/>
+      <c r="U9" s="16">
+        <v>4</v>
+      </c>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
@@ -2391,7 +2401,7 @@
       <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
-      <c r="AR9" s="61"/>
+      <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
       <c r="AT9" s="16"/>
       <c r="AU9" s="16"/>
@@ -2403,75 +2413,93 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>COUNT(B9:AY9)</f>
+        <v>15</v>
       </c>
       <c r="BD9" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE9" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B9:$AY9, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF9" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
+        <v>6</v>
       </c>
       <c r="BG9" s="8">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f>SUM(BD9*3)+BE9</f>
+        <v>21</v>
       </c>
       <c r="BH9" s="8">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>SUM(B9:AY9)</f>
+        <v>-3</v>
       </c>
       <c r="BI9" s="10">
-        <f t="shared" si="6"/>
-        <v>0.6333333333333333</v>
+        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="50">
         <v>1</v>
       </c>
       <c r="D10" s="16">
         <v>9</v>
       </c>
       <c r="E10" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="16">
+        <v>-7</v>
+      </c>
+      <c r="J10" s="16">
+        <v>8</v>
+      </c>
       <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="L10" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="48">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>-3</v>
+      </c>
       <c r="R10" s="54"/>
       <c r="S10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="T10" s="50">
-        <v>1</v>
-      </c>
-      <c r="U10" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="T10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="16">
+        <v>-4</v>
+      </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
@@ -2506,49 +2534,51 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>COUNT(B10:AY10)</f>
+        <v>17</v>
       </c>
       <c r="BD10" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE10" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B10:$AY10, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF10" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
+        <v>9</v>
       </c>
       <c r="BG10" s="8">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f>SUM(BD10*3)+BE10</f>
+        <v>20</v>
       </c>
       <c r="BH10" s="8">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>SUM(B10:AY10)</f>
+        <v>0</v>
       </c>
       <c r="BI10" s="10">
-        <f t="shared" si="6"/>
-        <v>0.79166666666666663</v>
+        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
+        <v>0.39215686274509803</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B11" s="48">
+        <v>-1</v>
       </c>
       <c r="C11" s="7">
         <v>-1</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>-9</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
       <c r="F11" s="7">
         <v>-1</v>
       </c>
@@ -2556,33 +2586,37 @@
         <v>0</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="48">
-        <v>7</v>
-      </c>
-      <c r="J11" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="7">
         <v>0</v>
       </c>
       <c r="L11" s="7">
+        <v>2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="48">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7">
         <v>-2</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7"/>
       <c r="Q11" s="7">
         <v>3</v>
       </c>
       <c r="R11" s="53"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="S11" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7">
+        <v>4</v>
+      </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -2617,41 +2651,41 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNT(B11:AY11)</f>
+        <v>15</v>
       </c>
       <c r="BD11" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
+        <v>6</v>
       </c>
       <c r="BE11" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B11:$AY11, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF11" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
+        <v>7</v>
       </c>
       <c r="BG11" s="8">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f>SUM(BD11*3)+BE11</f>
+        <v>20</v>
       </c>
       <c r="BH11" s="8">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>SUM(B11:AY11)</f>
+        <v>-5</v>
       </c>
       <c r="BI11" s="10">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B12" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -2660,7 +2694,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -2669,32 +2703,20 @@
         <v>0</v>
       </c>
       <c r="H12" s="53"/>
-      <c r="I12" s="48">
-        <v>-7</v>
-      </c>
-      <c r="J12" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>-1</v>
-      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7">
+      <c r="S12" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T12" s="48">
         <v>1</v>
       </c>
       <c r="U12" s="7"/>
@@ -2732,38 +2754,38 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>COUNT(B12:AY12)</f>
+        <v>8</v>
       </c>
       <c r="BD12" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
+        <v>6</v>
       </c>
       <c r="BE12" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B12:$AY12, "0")</f>
+        <v>1</v>
       </c>
       <c r="BF12" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG12" s="8">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f>SUM(BD12*3)+BE12</f>
+        <v>19</v>
       </c>
       <c r="BH12" s="8">
-        <f t="shared" si="5"/>
-        <v>-7</v>
+        <f>SUM(B12:AY12)</f>
+        <v>12</v>
       </c>
       <c r="BI12" s="10">
-        <f t="shared" si="6"/>
-        <v>0.42857142857142855</v>
+        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B13" s="7">
         <v>-1</v>
@@ -2771,11 +2793,9 @@
       <c r="C13" s="7">
         <v>-1</v>
       </c>
-      <c r="D13" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="48">
+      <c r="F13" s="7">
         <v>-1</v>
       </c>
       <c r="G13" s="7">
@@ -2786,13 +2806,13 @@
         <v>7</v>
       </c>
       <c r="J13" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K13" s="7">
+        <v>8</v>
+      </c>
+      <c r="K13" s="48">
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2800,23 +2820,21 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="48">
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
         <v>-2</v>
       </c>
-      <c r="Q13" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="53"/>
       <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="48">
         <v>-1</v>
       </c>
-      <c r="U13" s="7"/>
+      <c r="U13" s="7">
+        <v>4</v>
+      </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -2851,44 +2869,48 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>COUNT(B13:AY13)</f>
+        <v>14</v>
       </c>
       <c r="BD13" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE13" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B13:$AY13, "0")</f>
         <v>3</v>
       </c>
       <c r="BF13" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
+        <v>6</v>
       </c>
       <c r="BG13" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD13*3)+BE13</f>
         <v>18</v>
       </c>
       <c r="BH13" s="8">
-        <f t="shared" si="5"/>
-        <v>-13</v>
+        <f>SUM(B13:AY13)</f>
+        <v>14</v>
       </c>
       <c r="BI13" s="10">
-        <f t="shared" si="6"/>
-        <v>0.375</v>
+        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
       <c r="C14" s="7">
         <v>-1</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>9</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
         <v>-1</v>
@@ -2897,15 +2919,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="53"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="48">
+        <v>7</v>
+      </c>
       <c r="J14" s="7">
-        <v>8</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="48">
-        <v>1</v>
-      </c>
+        <v>-8</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M14" s="7"/>
       <c r="N14" s="7">
         <v>0</v>
       </c>
@@ -2914,15 +2940,11 @@
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R14" s="53"/>
-      <c r="S14" s="7">
-        <v>2</v>
-      </c>
-      <c r="T14" s="7">
-        <v>1</v>
-      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -2958,40 +2980,40 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>COUNT(B14:AY14)</f>
+        <v>12</v>
       </c>
       <c r="BD14" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE14" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B14:$AY14, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF14" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG14" s="8">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f>SUM(BD14*3)+BE14</f>
+        <v>18</v>
       </c>
       <c r="BH14" s="8">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>SUM(B14:AY14)</f>
+        <v>9</v>
       </c>
       <c r="BI14" s="10">
-        <f t="shared" si="6"/>
-        <v>0.56666666666666665</v>
+        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
+        <v>0.5</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="48">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7">
         <v>-1</v>
       </c>
       <c r="C15" s="7">
@@ -3000,18 +3022,20 @@
       <c r="D15" s="7">
         <v>-9</v>
       </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="7"/>
+      <c r="F15" s="48">
         <v>-1</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="53"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="7">
+        <v>7</v>
+      </c>
+      <c r="J15" s="7">
+        <v>-8</v>
+      </c>
       <c r="K15" s="7">
         <v>0</v>
       </c>
@@ -3019,26 +3043,30 @@
         <v>2</v>
       </c>
       <c r="M15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="48">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="48">
         <v>-2</v>
       </c>
       <c r="Q15" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R15" s="53"/>
       <c r="S15" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T15" s="7">
-        <v>1</v>
-      </c>
-      <c r="U15" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>-4</v>
+      </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
@@ -3073,42 +3101,40 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>COUNT(B15:AY15)</f>
+        <v>17</v>
       </c>
       <c r="BD15" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE15" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B15:$AY15, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF15" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
+        <v>9</v>
       </c>
       <c r="BG15" s="8">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f>SUM(BD15*3)+BE15</f>
+        <v>18</v>
       </c>
       <c r="BH15" s="8">
-        <f t="shared" si="5"/>
-        <v>-9</v>
+        <f>SUM(B15:AY15)</f>
+        <v>-17</v>
       </c>
       <c r="BI15" s="10">
-        <f t="shared" si="6"/>
-        <v>0.40476190476190477</v>
+        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
+        <v>0.35294117647058826</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="7">
-        <v>-1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
@@ -3121,37 +3147,35 @@
         <v>0</v>
       </c>
       <c r="H16" s="53"/>
-      <c r="I16" s="7">
-        <v>7</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7">
         <v>8</v>
       </c>
-      <c r="K16" s="48">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="48">
         <v>1</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q16" s="7"/>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>-3</v>
+      </c>
       <c r="R16" s="53"/>
       <c r="S16" s="7">
         <v>2</v>
       </c>
-      <c r="T16" s="48">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="7"/>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7">
+        <v>-4</v>
+      </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -3186,73 +3210,81 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>COUNT(B16:AY16)</f>
+        <v>11</v>
       </c>
       <c r="BD16" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
+        <v>5</v>
+      </c>
+      <c r="BE16" s="8">
+        <f>COUNTIF($B16:$AY16, "0")</f>
+        <v>2</v>
+      </c>
+      <c r="BF16" s="8">
+        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
         <v>4</v>
       </c>
-      <c r="BE16" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="BF16" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
       <c r="BG16" s="8">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f>SUM(BD16*3)+BE16</f>
+        <v>17</v>
       </c>
       <c r="BH16" s="8">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>SUM(B16:AY16)</f>
+        <v>4</v>
       </c>
       <c r="BI16" s="10">
-        <f t="shared" si="6"/>
-        <v>0.38461538461538464</v>
+        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
+        <v>0.51515151515151514</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B17" s="7">
+        <v>-1</v>
+      </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="48">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7"/>
+      <c r="D17" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
       <c r="H17" s="53"/>
-      <c r="I17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="48">
+        <v>-8</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q17" s="7"/>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
+        <v>3</v>
+      </c>
       <c r="R17" s="53"/>
       <c r="S17" s="7">
-        <v>2</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="48">
+        <v>4</v>
+      </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -3287,82 +3319,72 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>COUNT(B17:AY17)</f>
+        <v>11</v>
       </c>
       <c r="BD17" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE17" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNTIF($B17:$AY17, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF17" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG17" s="8">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f>SUM(BD17*3)+BE17</f>
+        <v>17</v>
       </c>
       <c r="BH17" s="8">
-        <f t="shared" si="5"/>
-        <v>-3</v>
+        <f>SUM(B17:AY17)</f>
+        <v>-10</v>
       </c>
       <c r="BI17" s="10">
-        <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
+        <v>0.51515151515151514</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="7">
-        <v>-1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="E18" s="48">
         <v>1</v>
       </c>
       <c r="F18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="53"/>
       <c r="I18" s="7">
         <v>-7</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="48">
-        <v>2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>-1</v>
-      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="53"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
+      <c r="S18" s="7">
+        <v>2</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -3398,60 +3420,66 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNT(B18:AY18)</f>
+        <v>7</v>
       </c>
       <c r="BD18" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
+        <v>5</v>
       </c>
       <c r="BE18" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B18:$AY18, "0")</f>
+        <v>0</v>
       </c>
       <c r="BF18" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
+        <v>2</v>
       </c>
       <c r="BG18" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD18*3)+BE18</f>
         <v>15</v>
       </c>
       <c r="BH18" s="8">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <f>SUM(B18:AY18)</f>
+        <v>-3</v>
       </c>
       <c r="BI18" s="10">
-        <f t="shared" si="6"/>
-        <v>0.41666666666666669</v>
+        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7">
         <v>-1</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-1</v>
+      </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="53"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="48">
-        <v>-8</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="I19" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="48">
+        <v>2</v>
+      </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
@@ -3459,18 +3487,18 @@
         <v>0</v>
       </c>
       <c r="O19" s="7">
-        <v>1</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P19" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="7"/>
       <c r="R19" s="53"/>
-      <c r="S19" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
+      <c r="U19" s="48">
+        <v>-4</v>
+      </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -3505,32 +3533,32 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>COUNT(B19:AY19)</f>
+        <v>13</v>
       </c>
       <c r="BD19" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE19" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B19:$AY19, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF19" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
+        <v>6</v>
       </c>
       <c r="BG19" s="8">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>SUM(BD19*3)+BE19</f>
+        <v>15</v>
       </c>
       <c r="BH19" s="8">
-        <f t="shared" si="5"/>
-        <v>-14</v>
+        <f>SUM(B19:AY19)</f>
+        <v>-9</v>
       </c>
       <c r="BI19" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
+        <v>0.38461538461538464</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
@@ -3573,7 +3601,9 @@
       <c r="T20" s="7">
         <v>1</v>
       </c>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7">
+        <v>-4</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -3608,77 +3638,79 @@
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>COUNT(B20:AY20)</f>
+        <v>9</v>
       </c>
       <c r="BD20" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE20" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B20:$AY20, "0")</f>
         <v>1</v>
       </c>
       <c r="BF20" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG20" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD20*3)+BE20</f>
         <v>13</v>
       </c>
       <c r="BH20" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(B20:AY20)</f>
+        <v>-4</v>
       </c>
       <c r="BI20" s="10">
-        <f t="shared" si="6"/>
-        <v>0.54166666666666663</v>
+        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
+        <v>0.48148148148148145</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="58">
-        <v>1</v>
-      </c>
-      <c r="C21" s="48">
+        <v>76</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
         <v>-1</v>
       </c>
       <c r="D21" s="7">
         <v>-9</v>
       </c>
       <c r="E21" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="48">
+        <v>0</v>
+      </c>
       <c r="H21" s="53"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I21" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="7">
-        <v>2</v>
-      </c>
+      <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q21" s="48">
-        <v>-3</v>
-      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="53"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
+      <c r="S21" s="48">
+        <v>2</v>
+      </c>
+      <c r="T21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="7">
+        <v>4</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -3701,7 +3733,7 @@
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
-      <c r="AR21" s="58"/>
+      <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -3709,79 +3741,80 @@
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
-      <c r="AZ21" s="5"/>
       <c r="BA21" s="34">
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>COUNT(B21:AY21)</f>
+        <v>10</v>
       </c>
       <c r="BD21" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE21" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNTIF($B21:$AY21, "0")</f>
+        <v>1</v>
       </c>
       <c r="BF21" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
         <v>5</v>
       </c>
       <c r="BG21" s="8">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>SUM(BD21*3)+BE21</f>
+        <v>13</v>
       </c>
       <c r="BH21" s="8">
-        <f t="shared" si="5"/>
-        <v>-18</v>
+        <f>SUM(B21:AY21)</f>
+        <v>-11</v>
       </c>
       <c r="BI21" s="10">
-        <f t="shared" si="6"/>
-        <v>0.44444444444444442</v>
+        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
+        <v>0.43333333333333335</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B22" s="58">
+        <v>1</v>
+      </c>
+      <c r="C22" s="48">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="53"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7">
+        <v>-8</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7">
         <v>2</v>
       </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P22" s="48">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="7">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q22" s="48">
         <v>-3</v>
       </c>
       <c r="R22" s="53"/>
-      <c r="S22" s="7">
-        <v>2</v>
-      </c>
-      <c r="T22" s="7">
-        <v>-1</v>
-      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -3805,7 +3838,7 @@
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
+      <c r="AR22" s="58"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
@@ -3813,81 +3846,82 @@
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
+      <c r="AZ22" s="5"/>
       <c r="BA22" s="34">
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>COUNT(B22:AY22)</f>
+        <v>9</v>
       </c>
       <c r="BD22" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <v>4</v>
       </c>
       <c r="BE22" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B22:$AY22, "0")</f>
+        <v>0</v>
       </c>
       <c r="BF22" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
+        <v>5</v>
       </c>
       <c r="BG22" s="8">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>SUM(BD22*3)+BE22</f>
+        <v>12</v>
       </c>
       <c r="BH22" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>SUM(B22:AY22)</f>
+        <v>-18</v>
       </c>
       <c r="BI22" s="10">
-        <f t="shared" si="6"/>
-        <v>0.45833333333333331</v>
+        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E23" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="48">
-        <v>0</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="7">
-        <v>-7</v>
-      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="L23" s="7">
+        <v>2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>-3</v>
+      </c>
       <c r="R23" s="53"/>
-      <c r="S23" s="48">
+      <c r="S23" s="7">
         <v>2</v>
       </c>
       <c r="T23" s="7">
         <v>-1</v>
       </c>
-      <c r="U23" s="7"/>
+      <c r="U23" s="7">
+        <v>-4</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
@@ -3922,69 +3956,71 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B23:AY23)</f>
         <v>9</v>
       </c>
       <c r="BD23" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
         <v>3</v>
       </c>
       <c r="BE23" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B23:$AY23, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF23" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG23" s="8">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>SUM(BD23*3)+BE23</f>
+        <v>11</v>
       </c>
       <c r="BH23" s="8">
-        <f t="shared" si="5"/>
-        <v>-15</v>
+        <f>SUM(B23:AY23)</f>
+        <v>-3</v>
       </c>
       <c r="BI23" s="10">
-        <f t="shared" si="6"/>
-        <v>0.37037037037037035</v>
+        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
+        <v>0.40740740740740738</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="48">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7">
-        <v>-1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="53"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K24" s="48">
+        <v>0</v>
+      </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7">
+        <v>-1</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="P24" s="7">
+        <v>2</v>
+      </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="53"/>
-      <c r="S24" s="7"/>
+      <c r="S24" s="7">
+        <v>2</v>
+      </c>
       <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
+      <c r="U24" s="7">
+        <v>4</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
@@ -4019,48 +4055,52 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNT(B24:AY24)</f>
+        <v>6</v>
       </c>
       <c r="BD24" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
+        <v>3</v>
+      </c>
+      <c r="BE24" s="8">
+        <f>COUNTIF($B24:$AY24, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF24" s="8">
+        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
         <v>2</v>
       </c>
-      <c r="BE24" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BF24" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
       <c r="BG24" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>SUM(BD24*3)+BE24</f>
+        <v>10</v>
       </c>
       <c r="BH24" s="8">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>SUM(B24:AY24)</f>
+        <v>-1</v>
       </c>
       <c r="BI24" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="48">
+        <v>90</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
         <v>-1</v>
       </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
+      <c r="D25" s="48">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7">
         <v>0</v>
       </c>
@@ -4069,23 +4109,13 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="48">
-        <v>-1</v>
-      </c>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P25" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>3</v>
-      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
       <c r="R25" s="53"/>
-      <c r="S25" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -4122,69 +4152,77 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B25:AY25)</f>
+        <v>5</v>
+      </c>
+      <c r="BD25" s="8">
+        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
+        <v>2</v>
+      </c>
+      <c r="BE25" s="8">
+        <f>COUNTIF($B25:$AY25, "0")</f>
+        <v>1</v>
+      </c>
+      <c r="BF25" s="8">
+        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="BG25" s="8">
+        <f>SUM(BD25*3)+BE25</f>
+        <v>7</v>
+      </c>
+      <c r="BH25" s="8">
+        <f>SUM(B25:AY25)</f>
         <v>8</v>
       </c>
-      <c r="BD25" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BE25" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BF25" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="BG25" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="BH25" s="8">
-        <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
       <c r="BI25" s="10">
-        <f t="shared" si="6"/>
-        <v>0.29166666666666669</v>
+        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="E26" s="48">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
       <c r="H26" s="53"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K26" s="48">
-        <v>0</v>
-      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7">
+      <c r="M26" s="48">
         <v>-1</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="7">
+        <v>-1</v>
+      </c>
       <c r="P26" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>3</v>
+      </c>
       <c r="R26" s="53"/>
       <c r="S26" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
+      <c r="U26" s="7">
+        <v>-4</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
@@ -4219,32 +4257,32 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNT(B26:AY26)</f>
+        <v>9</v>
       </c>
       <c r="BD26" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE26" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B26:$AY26, "0")</f>
         <v>1</v>
       </c>
       <c r="BF26" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
+        <v>6</v>
       </c>
       <c r="BG26" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD26*3)+BE26</f>
         <v>7</v>
       </c>
       <c r="BH26" s="8">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <f>SUM(B26:AY26)</f>
+        <v>-7</v>
       </c>
       <c r="BI26" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
+        <v>0.25925925925925924</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
@@ -4310,31 +4348,31 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B27:AY27)</f>
         <v>2</v>
       </c>
       <c r="BD27" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE27" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B27:$AY27, "0")</f>
         <v>0</v>
       </c>
       <c r="BF27" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG27" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD27*3)+BE27</f>
         <v>6</v>
       </c>
       <c r="BH27" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B27:AY27)</f>
         <v>10</v>
       </c>
       <c r="BI27" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
         <v>1</v>
       </c>
       <c r="BJ27" s="10"/>
@@ -4405,31 +4443,31 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B28:AY28)</f>
         <v>4</v>
       </c>
       <c r="BD28" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE28" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B28:$AY28, "0")</f>
         <v>1</v>
       </c>
       <c r="BF28" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
         <v>2</v>
       </c>
       <c r="BG28" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD28*3)+BE28</f>
         <v>4</v>
       </c>
       <c r="BH28" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B28:AY28)</f>
         <v>0</v>
       </c>
       <c r="BI28" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ28" s="10"/>
@@ -4498,42 +4536,40 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B29:AY29)</f>
         <v>3</v>
       </c>
       <c r="BD29" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE29" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B29:$AY29, "0")</f>
         <v>1</v>
       </c>
       <c r="BF29" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG29" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD29*3)+BE29</f>
         <v>4</v>
       </c>
       <c r="BH29" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B29:AY29)</f>
         <v>-1</v>
       </c>
       <c r="BI29" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -4552,7 +4588,9 @@
       <c r="R30" s="53"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
+      <c r="U30" s="7">
+        <v>4</v>
+      </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
@@ -4587,40 +4625,42 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B30:AY30)</f>
         <v>1</v>
       </c>
       <c r="BD30" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE30" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B30:$AY30, "0")</f>
         <v>0</v>
       </c>
       <c r="BF30" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG30" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD30*3)+BE30</f>
         <v>3</v>
       </c>
       <c r="BH30" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>SUM(B30:AY30)</f>
+        <v>4</v>
       </c>
       <c r="BI30" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
         <v>1</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4637,12 +4677,8 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="53"/>
-      <c r="S31" s="7">
-        <v>2</v>
-      </c>
-      <c r="T31" s="7">
-        <v>-1</v>
-      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
@@ -4678,38 +4714,38 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>COUNT(B31:AY31)</f>
+        <v>1</v>
       </c>
       <c r="BD31" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE31" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B31:$AY31, "0")</f>
         <v>0</v>
       </c>
       <c r="BF31" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
+        <v>0</v>
       </c>
       <c r="BG31" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD31*3)+BE31</f>
         <v>3</v>
       </c>
       <c r="BH31" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B31:AY31)</f>
         <v>1</v>
       </c>
       <c r="BI31" s="10">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
+        <v>1</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -4728,8 +4764,12 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="53"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="S32" s="7">
+        <v>2</v>
+      </c>
+      <c r="T32" s="7">
+        <v>-1</v>
+      </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -4765,38 +4805,38 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNT(B32:AY32)</f>
+        <v>2</v>
       </c>
       <c r="BD32" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
+        <v>1</v>
       </c>
       <c r="BE32" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B32:$AY32, "0")</f>
         <v>0</v>
       </c>
       <c r="BF32" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(BD32*3)+BE32</f>
+        <v>3</v>
       </c>
       <c r="BH32" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI32" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f>SUM(B32:AY32)</f>
+        <v>1</v>
+      </c>
+      <c r="BI32" s="10">
+        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
+        <v>0.5</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4854,31 +4894,31 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B33:AY33)</f>
         <v>1</v>
       </c>
       <c r="BD33" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE33" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B33:$AY33, "0")</f>
         <v>0</v>
       </c>
       <c r="BF33" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG33" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD33*3)+BE33</f>
         <v>0</v>
       </c>
       <c r="BH33" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B33:AY33)</f>
         <v>-1</v>
       </c>
       <c r="BI33" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
         <v>0</v>
       </c>
       <c r="BJ33" s="10"/>
@@ -4943,31 +4983,31 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B34:AY34)</f>
         <v>1</v>
       </c>
       <c r="BD34" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE34" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B34:$AY34, "0")</f>
         <v>0</v>
       </c>
       <c r="BF34" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG34" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD34*3)+BE34</f>
         <v>0</v>
       </c>
       <c r="BH34" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B34:AY34)</f>
         <v>-1</v>
       </c>
       <c r="BI34" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
         <v>0</v>
       </c>
       <c r="BJ34" s="10"/>
@@ -5032,31 +5072,31 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B35:AY35)</f>
         <v>1</v>
       </c>
       <c r="BD35" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE35" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B35:$AY35, "0")</f>
         <v>0</v>
       </c>
       <c r="BF35" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG35" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD35*3)+BE35</f>
         <v>0</v>
       </c>
       <c r="BH35" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B35:AY35)</f>
         <v>-2</v>
       </c>
       <c r="BI35" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
         <v>0</v>
       </c>
       <c r="BJ35" s="10"/>
@@ -5086,7 +5126,9 @@
       <c r="R36" s="53"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
+      <c r="U36" s="7">
+        <v>-4</v>
+      </c>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
@@ -5121,31 +5163,31 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNT(B36:AY36)</f>
+        <v>2</v>
       </c>
       <c r="BD36" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE36" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B36:$AY36, "0")</f>
         <v>0</v>
       </c>
       <c r="BF36" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
+        <v>2</v>
       </c>
       <c r="BG36" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD36*3)+BE36</f>
         <v>0</v>
       </c>
       <c r="BH36" s="8">
-        <f t="shared" si="5"/>
-        <v>-3</v>
+        <f>SUM(B36:AY36)</f>
+        <v>-7</v>
       </c>
       <c r="BI36" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
         <v>0</v>
       </c>
       <c r="BJ36" s="10"/>
@@ -5210,31 +5252,31 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B37:AY37)</f>
         <v>1</v>
       </c>
       <c r="BD37" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B37:$AY37, "0")</f>
         <v>0</v>
       </c>
       <c r="BF37" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD37*3)+BE37</f>
         <v>0</v>
       </c>
       <c r="BH37" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B37:AY37)</f>
         <v>-9</v>
       </c>
       <c r="BI37" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
         <v>0</v>
       </c>
       <c r="BJ37" s="10"/>
@@ -5244,203 +5286,203 @@
         <v>43</v>
       </c>
       <c r="B38" s="28">
-        <f t="shared" ref="B38:AD38" si="7">COUNT(B5:B37)</f>
+        <f t="shared" ref="B38:AD38" si="0">COUNT(B5:B37)</f>
         <v>16</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="U38" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD38" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE38" s="28">
-        <f t="shared" ref="AE38:AY38" si="8">COUNT(AE5:AE37)</f>
+        <f t="shared" ref="AE38:AY38" si="1">COUNT(AE5:AE37)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AX38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AY38" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BC38" s="8"/>
@@ -5875,7 +5917,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G29"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5950,7 +5992,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G29" si="1">SUM(C4*3)+D4</f>
+        <f>SUM(C4*3)+D4</f>
         <v>6</v>
       </c>
     </row>
@@ -5974,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>SUM(C5*3)+D5</f>
         <v>4</v>
       </c>
     </row>
@@ -5998,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>SUM(C6*3)+D6</f>
         <v>4</v>
       </c>
     </row>
@@ -6022,7 +6064,7 @@
         <v>9</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>SUM(C7*3)+D7</f>
         <v>3</v>
       </c>
     </row>
@@ -6046,13 +6088,13 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>SUM(C8*3)+D8</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6070,14 +6112,14 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>SUM(C9*3)+D9</f>
         <v>3</v>
       </c>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6092,16 +6134,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>SUM(C10*3)+D10</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6119,13 +6161,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>SUM(C11*3)+D11</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6143,14 +6185,14 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>SUM(C12*3)+D12</f>
         <v>3</v>
       </c>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6162,22 +6204,22 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f>SUM(C13*3)+D13</f>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6192,13 +6234,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f>SUM(C14*3)+D14</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6213,44 +6255,44 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f>SUM(C15*3)+D15</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C16*3)+D16</f>
+        <v>3</v>
       </c>
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6259,20 +6301,20 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>SUM(C17*3)+D17</f>
         <v>1</v>
       </c>
       <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -6287,42 +6329,42 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>SUM(C18*3)+D18</f>
         <v>1</v>
       </c>
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(C19*3)+D19</f>
+        <v>1</v>
       </c>
       <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6337,20 +6379,20 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>SUM(C20*3)+D20</f>
         <v>0</v>
       </c>
       <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6359,20 +6401,20 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>-2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f>SUM(C21*3)+D21</f>
         <v>0</v>
       </c>
       <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -6387,17 +6429,17 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>SUM(C22*3)+D22</f>
         <v>0</v>
       </c>
       <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -6412,20 +6454,20 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f>SUM(C23*3)+D23</f>
         <v>0</v>
       </c>
       <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6434,19 +6476,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>SUM(C24*3)+D24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6464,7 +6506,7 @@
         <v>-8</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f>SUM(C25*3)+D25</f>
         <v>0</v>
       </c>
     </row>
@@ -6488,7 +6530,7 @@
         <v>-9</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f>SUM(C26*3)+D26</f>
         <v>0</v>
       </c>
     </row>
@@ -6497,7 +6539,7 @@
         <v>61</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G4:G29" si="1">SUM(C27*3)+D27</f>
         <v>0</v>
       </c>
     </row>
@@ -6575,10 +6617,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G29">
-    <sortCondition descending="1" ref="G4:G29"/>
-    <sortCondition descending="1" ref="F4:F29"/>
-    <sortCondition ref="B4:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G26">
+    <sortCondition descending="1" ref="G4:G26"/>
+    <sortCondition descending="1" ref="F4:F26"/>
+    <sortCondition ref="B4:B26"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6592,11 +6634,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BF40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU8" sqref="AU8"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6958,7 +7000,9 @@
       <c r="T5" s="7">
         <v>2</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="7">
+        <v>1</v>
+      </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -6992,7 +7036,7 @@
       <c r="AZ5" s="29"/>
       <c r="BA5" s="24">
         <f>SUM(B5:AY5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB5" s="8">
         <v>1</v>
@@ -7073,34 +7117,38 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
       <c r="H7" s="53"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="53"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="7">
+        <v>2</v>
+      </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -7139,46 +7187,39 @@
       <c r="BB7" s="8">
         <v>1</v>
       </c>
+      <c r="BC7" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="53"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="53"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7">
-        <v>1</v>
-      </c>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -7215,34 +7256,49 @@
         <f>SUM(B8:AY8)</f>
         <v>8</v>
       </c>
+      <c r="BB8" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>4</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="53"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="53"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -7277,27 +7333,21 @@
       <c r="AZ9" s="29"/>
       <c r="BA9" s="24">
         <f>SUM(B9:AY9)</f>
-        <v>7</v>
-      </c>
-      <c r="BB9" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="53"/>
@@ -7306,20 +7356,12 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="53"/>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
+      <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -7357,37 +7399,47 @@
         <f>SUM(B10:AY10)</f>
         <v>7</v>
       </c>
+      <c r="BB10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
         <v>2</v>
       </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="53"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7">
-        <v>2</v>
-      </c>
+      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7">
         <v>1</v>
       </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
       <c r="R11" s="53"/>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7">
+        <v>1</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -7423,13 +7475,7 @@
       <c r="AZ11" s="29"/>
       <c r="BA11" s="24">
         <f>SUM(B11:AY11)</f>
-        <v>6</v>
-      </c>
-      <c r="BB11" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
@@ -7710,26 +7756,28 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="53"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -7737,7 +7785,9 @@
       <c r="R16" s="53"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+      <c r="U16" s="7">
+        <v>1</v>
+      </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -7771,17 +7821,19 @@
       <c r="AZ16" s="29"/>
       <c r="BA16" s="24">
         <f>SUM(B16:AY16)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -7789,10 +7841,10 @@
       <c r="H17" s="53"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7">
-        <v>3</v>
-      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -7840,28 +7892,24 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="53"/>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -7977,18 +8025,20 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
       <c r="H20" s="53"/>
-      <c r="I20" s="7">
-        <v>2</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -7996,13 +8046,15 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="53"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -8036,38 +8088,33 @@
       <c r="AZ20" s="29"/>
       <c r="BA20" s="24">
         <f>SUM(B20:AY20)</f>
-        <v>3</v>
-      </c>
-      <c r="BC20" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7">
-        <v>1</v>
-      </c>
+      <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
       <c r="R21" s="53"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -8107,33 +8154,36 @@
         <f>SUM(B21:AY21)</f>
         <v>3</v>
       </c>
+      <c r="BC21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="53"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7">
-        <v>1</v>
-      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
+      <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7">
+        <v>1</v>
+      </c>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="7"/>
       <c r="R22" s="53"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -8176,33 +8226,33 @@
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="53"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
       <c r="R23" s="53"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="7">
-        <v>1</v>
-      </c>
+      <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -9028,7 +9078,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="24">
-        <f t="shared" ref="BA3:BA36" si="0">SUM(B36:AY36)</f>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -9114,7 +9164,7 @@
       </c>
       <c r="U38" s="32">
         <f>'League Table'!U38</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V38">
         <f>'League Table'!V38</f>
@@ -9234,199 +9284,199 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="U40" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA40" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AN40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AO40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AP40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AR40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AS40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC35">
-    <sortCondition descending="1" ref="BA3:BA35"/>
-    <sortCondition descending="1" ref="BB3:BB35"/>
-    <sortCondition descending="1" ref="BC3:BC35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC36">
+    <sortCondition descending="1" ref="BA3:BA36"/>
+    <sortCondition descending="1" ref="BB3:BB36"/>
+    <sortCondition descending="1" ref="BC3:BC36"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9443,10 +9493,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AR5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:BA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -9724,7 +9774,9 @@
       <c r="T5" s="7">
         <v>1</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="7">
+        <v>1</v>
+      </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -9756,48 +9808,50 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="BA5">
-        <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
-        <v>16</v>
+        <f>SUM(B5:AY5)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47">
-        <v>3</v>
-      </c>
-      <c r="E6" s="47">
-        <v>1</v>
-      </c>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="47">
-        <v>2</v>
-      </c>
-      <c r="G6" s="47">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G6" s="47"/>
       <c r="H6" s="55"/>
       <c r="I6" s="47">
+        <v>2</v>
+      </c>
+      <c r="J6" s="47">
         <v>3</v>
       </c>
-      <c r="J6" s="47"/>
       <c r="K6" s="47">
         <v>2</v>
       </c>
       <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="M6" s="18">
+        <v>1</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1</v>
+      </c>
       <c r="O6" s="18"/>
-      <c r="P6" s="18">
-        <v>1</v>
-      </c>
+      <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="U6" s="18">
+        <v>3</v>
+      </c>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
@@ -9829,43 +9883,43 @@
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="BA6">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>SUM(B6:AY6)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
       <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="53"/>
       <c r="I7" s="7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
         <v>3</v>
       </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="7">
         <v>2</v>
       </c>
       <c r="L7" s="16"/>
-      <c r="M7" s="16">
-        <v>1</v>
-      </c>
-      <c r="N7" s="16">
-        <v>1</v>
-      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="P7" s="16">
+        <v>1</v>
+      </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -9902,8 +9956,8 @@
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="BA7">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(B7:AY7)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9973,7 +10027,7 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="BA8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:AY8)</f>
         <v>8</v>
       </c>
     </row>
@@ -10040,7 +10094,7 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="19"/>
       <c r="BA9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AY9)</f>
         <v>7</v>
       </c>
     </row>
@@ -10107,27 +10161,25 @@
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="BA10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:AY10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="53"/>
-      <c r="I11" s="7">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
         <v>2</v>
       </c>
-      <c r="J11" s="7"/>
       <c r="K11" s="7">
         <v>1</v>
       </c>
@@ -10135,14 +10187,16 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7">
+      <c r="P11" s="7">
         <v>2</v>
       </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="U11" s="7">
+        <v>1</v>
+      </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -10174,25 +10228,27 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:AY11)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="54"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16">
+      <c r="I12" s="16">
         <v>2</v>
       </c>
+      <c r="J12" s="16"/>
       <c r="K12" s="16">
         <v>1</v>
       </c>
@@ -10200,10 +10256,10 @@
       <c r="M12" s="16"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="16">
         <v>2</v>
       </c>
-      <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
@@ -10239,8 +10295,8 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B12:AY12)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
@@ -10302,7 +10358,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AY13)</f>
         <v>5</v>
       </c>
     </row>
@@ -10369,7 +10425,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AY14)</f>
         <v>4</v>
       </c>
     </row>
@@ -10434,7 +10490,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AY15)</f>
         <v>4</v>
       </c>
     </row>
@@ -10499,7 +10555,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>3</v>
       </c>
     </row>
@@ -10564,7 +10620,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AY17)</f>
         <v>3</v>
       </c>
     </row>
@@ -10595,7 +10651,9 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+      <c r="U18" s="7">
+        <v>1</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
@@ -10627,8 +10685,8 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B18:AY18)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
@@ -10690,7 +10748,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AY19)</f>
         <v>2</v>
       </c>
     </row>
@@ -10751,7 +10809,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>1</v>
       </c>
     </row>
@@ -10812,7 +10870,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:AY21)</f>
         <v>1</v>
       </c>
     </row>
@@ -10873,7 +10931,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>1</v>
       </c>
     </row>
@@ -10934,7 +10992,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>1</v>
       </c>
     </row>
@@ -10995,7 +11053,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AY24)</f>
         <v>1</v>
       </c>
     </row>
@@ -11056,7 +11114,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AY25)</f>
         <v>1</v>
       </c>
     </row>
@@ -11117,7 +11175,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AY26)</f>
         <v>1</v>
       </c>
     </row>
@@ -11178,7 +11236,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>1</v>
       </c>
     </row>
@@ -11239,7 +11297,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>1</v>
       </c>
     </row>
@@ -11298,7 +11356,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>0</v>
       </c>
     </row>
@@ -11357,7 +11415,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>0</v>
       </c>
     </row>
@@ -11416,7 +11474,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>0</v>
       </c>
     </row>
@@ -11475,7 +11533,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
@@ -11534,7 +11592,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -11593,7 +11651,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -11652,7 +11710,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -11711,7 +11769,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f t="shared" si="0"/>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -11770,7 +11828,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f t="shared" si="0"/>
+        <f>SUM(B37:AY37)</f>
         <v>0</v>
       </c>
     </row>
@@ -11827,7 +11885,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" ref="BA38" si="1">SUM(B38:AY38)</f>
+        <f>SUM(B38:AY38)</f>
         <v>0</v>
       </c>
     </row>
@@ -11942,214 +12000,214 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="2">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="0">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="3">SUM(AI5:AI39)</f>
+        <f t="shared" ref="AI41:AX41" si="1">SUM(AI5:AI39)</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AX41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="4">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="2">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA37">
-    <sortCondition descending="1" ref="BA5:BA37"/>
-    <sortCondition ref="A5:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA38">
+    <sortCondition descending="1" ref="BA5:BA38"/>
+    <sortCondition ref="A5:A38"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12165,7 +12223,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12363,7 +12421,10 @@
         <v>4</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>131</v>
@@ -12396,10 +12457,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>130</v>
@@ -12469,10 +12527,10 @@
         <v>132</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N13" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -12492,14 +12550,17 @@
         <v>119</v>
       </c>
       <c r="G14" s="32"/>
-      <c r="H14" s="8" t="s">
-        <v>118</v>
+      <c r="H14" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>148</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="N14" s="8">
         <v>3</v>
@@ -12523,16 +12584,19 @@
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="8" t="s">
-        <v>122</v>
+        <v>168</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>152</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -12553,13 +12617,13 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>163</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="N16" s="8">
         <v>2</v>
@@ -12583,13 +12647,13 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>168</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="N17" s="8">
         <v>2</v>
@@ -12613,13 +12677,13 @@
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>178</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="N18" s="8">
         <v>2</v>
@@ -12637,13 +12701,16 @@
       <c r="E19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>117</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -12663,12 +12730,14 @@
         <v>130</v>
       </c>
       <c r="G20" s="32"/>
-      <c r="H20" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="M20" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -12676,20 +12745,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="D21" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="E21" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>184</v>
-      </c>
       <c r="G21" s="32"/>
-      <c r="H21" s="59" t="s">
-        <v>132</v>
+      <c r="H21" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="K21" s="8"/>
       <c r="M21" s="8" t="s">
@@ -12700,13 +12769,19 @@
       <c r="A22" s="32">
         <v>20</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>132</v>
+      </c>
       <c r="E22" s="32"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="8" t="s">
-        <v>168</v>
+      <c r="H22" s="59" t="s">
+        <v>130</v>
       </c>
       <c r="K22" s="8"/>
       <c r="M22" s="8" t="s">
@@ -12723,7 +12798,7 @@
       <c r="E23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K23" s="8"/>
       <c r="M23" s="8" t="s">
@@ -12740,7 +12815,7 @@
       <c r="E24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K24" s="8"/>
       <c r="M24" s="8" t="s">
@@ -12772,7 +12847,7 @@
       <c r="G26" s="32"/>
       <c r="K26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -12786,7 +12861,7 @@
       <c r="G27" s="32"/>
       <c r="K27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -13012,8 +13087,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N25">
-    <sortCondition descending="1" ref="N9:N25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N20">
+    <sortCondition descending="1" ref="N9:N20"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEE4CDE-E658-3C4E-9B9C-BCB1342BDFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBFC9E6A-BA8A-4A46-95C4-116ED451BF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="560" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Board Room'!$A$1:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Captains!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'League Table'!$A$3:$BJ$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'League Table'!$A$3:$BJ$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="192">
   <si>
     <t>WK 1</t>
   </si>
@@ -604,6 +604,18 @@
   </si>
   <si>
     <t>Lost 1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9-1</t>
+  </si>
+  <si>
+    <t>Dogger</t>
+  </si>
+  <si>
+    <t>Lost 1-9</t>
   </si>
 </sst>
 </file>
@@ -862,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1000,6 +1012,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,13 +1424,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BJ72"/>
+  <dimension ref="A1:BJ73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY43" sqref="AY43"/>
+      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1911,7 +1924,9 @@
       <c r="U5" s="18">
         <v>4</v>
       </c>
-      <c r="V5" s="18"/>
+      <c r="V5" s="18">
+        <v>-8</v>
+      </c>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
@@ -1948,7 +1963,7 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
         <f>COUNT(B5:AY5)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD5" s="8">
         <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
@@ -1960,7 +1975,7 @@
       </c>
       <c r="BF5" s="8">
         <f>COUNTIF($B5:$AY5, "&lt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG5" s="8">
         <f>SUM(BD5*3)+BE5</f>
@@ -1968,11 +1983,11 @@
       </c>
       <c r="BH5" s="8">
         <f>SUM(B5:AY5)</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BI5" s="10">
         <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.70588235294117652</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -2101,51 +2116,61 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="7">
+        <v>-1</v>
+      </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>9</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="F7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="48">
         <v>0</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="7">
-        <v>7</v>
-      </c>
-      <c r="J7" s="48">
+        <v>-7</v>
+      </c>
+      <c r="J7" s="7">
         <v>8</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
       <c r="L7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M7" s="7">
         <v>-1</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>-1</v>
+      </c>
       <c r="P7" s="7">
         <v>2</v>
       </c>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7">
+        <v>3</v>
+      </c>
       <c r="R7" s="53"/>
-      <c r="S7" s="48">
+      <c r="S7" s="7">
         <v>-2</v>
       </c>
       <c r="T7" s="7">
         <v>1</v>
       </c>
-      <c r="U7" s="7">
-        <v>4</v>
-      </c>
-      <c r="V7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7">
+        <v>8</v>
+      </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
@@ -2167,7 +2192,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
-      <c r="AR7" s="58"/>
+      <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
@@ -2180,7 +2205,7 @@
       </c>
       <c r="BC7" s="8">
         <f>COUNT(B7:AY7)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD7" s="8">
         <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
@@ -2188,29 +2213,29 @@
       </c>
       <c r="BE7" s="8">
         <f>COUNTIF($B7:$AY7, "0")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF7" s="8">
         <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG7" s="8">
         <f>SUM(BD7*3)+BE7</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH7" s="8">
         <f>SUM(B7:AY7)</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="BI7" s="10">
         <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B8" s="18">
         <v>-1</v>
@@ -2218,29 +2243,33 @@
       <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="18">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18">
+        <v>-1</v>
+      </c>
       <c r="F8" s="18">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="18">
+      <c r="I8" s="49">
         <v>-7</v>
       </c>
       <c r="J8" s="18">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
       </c>
       <c r="L8" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M8" s="18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N8" s="18">
         <v>0</v>
@@ -2248,21 +2277,19 @@
       <c r="O8" s="18">
         <v>-1</v>
       </c>
-      <c r="P8" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>3</v>
-      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="51"/>
-      <c r="S8" s="18">
-        <v>-2</v>
-      </c>
+      <c r="S8" s="18"/>
       <c r="T8" s="18">
         <v>1</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
+      <c r="U8" s="18">
+        <v>4</v>
+      </c>
+      <c r="V8" s="18">
+        <v>8</v>
+      </c>
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
@@ -2297,11 +2324,11 @@
       </c>
       <c r="BC8" s="8">
         <f>COUNT(B8:AY8)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD8" s="8">
         <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE8" s="8">
         <f>COUNTIF($B8:$AY8, "0")</f>
@@ -2313,26 +2340,26 @@
       </c>
       <c r="BG8" s="8">
         <f>SUM(BD8*3)+BE8</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BH8" s="8">
         <f>SUM(B8:AY8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI8" s="10">
         <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="50">
         <v>1</v>
       </c>
       <c r="D9" s="16">
@@ -2342,44 +2369,50 @@
         <v>-1</v>
       </c>
       <c r="F9" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="16">
         <v>0</v>
       </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="50">
+      <c r="I9" s="16">
         <v>-7</v>
       </c>
       <c r="J9" s="16">
-        <v>-8</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K9" s="16"/>
       <c r="L9" s="16">
         <v>-2</v>
       </c>
       <c r="M9" s="16">
-        <v>1</v>
-      </c>
-      <c r="N9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="50">
         <v>0</v>
       </c>
       <c r="O9" s="16">
+        <v>1</v>
+      </c>
+      <c r="P9" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>-3</v>
+      </c>
+      <c r="R9" s="54"/>
+      <c r="S9" s="16">
+        <v>2</v>
+      </c>
+      <c r="T9" s="16">
         <v>-1</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16">
-        <v>1</v>
-      </c>
       <c r="U9" s="16">
-        <v>4</v>
-      </c>
-      <c r="V9" s="16"/>
+        <v>-4</v>
+      </c>
+      <c r="V9" s="16">
+        <v>8</v>
+      </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
@@ -2414,49 +2447,49 @@
       </c>
       <c r="BC9" s="8">
         <f>COUNT(B9:AY9)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BD9" s="8">
         <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE9" s="8">
         <f>COUNTIF($B9:$AY9, "0")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF9" s="8">
         <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG9" s="8">
         <f>SUM(BD9*3)+BE9</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BH9" s="8">
         <f>SUM(B9:AY9)</f>
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="BI9" s="10">
         <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="50">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B10" s="50">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="16">
+        <v>-1</v>
       </c>
       <c r="D10" s="16">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E10" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F10" s="16">
         <v>-1</v>
@@ -2465,42 +2498,40 @@
         <v>0</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="16">
-        <v>-7</v>
-      </c>
-      <c r="J10" s="16">
-        <v>8</v>
-      </c>
-      <c r="K10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
       <c r="L10" s="16">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M10" s="16">
         <v>-1</v>
       </c>
-      <c r="N10" s="48">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="48">
         <v>1</v>
       </c>
       <c r="P10" s="7">
         <v>-2</v>
       </c>
       <c r="Q10" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R10" s="54"/>
       <c r="S10" s="16">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T10" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U10" s="16">
-        <v>-4</v>
-      </c>
-      <c r="V10" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="V10" s="16">
+        <v>8</v>
+      </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -2535,11 +2566,11 @@
       </c>
       <c r="BC10" s="8">
         <f>COUNT(B10:AY10)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD10" s="8">
         <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE10" s="8">
         <f>COUNTIF($B10:$AY10, "0")</f>
@@ -2547,68 +2578,60 @@
       </c>
       <c r="BF10" s="8">
         <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG10" s="8">
         <f>SUM(BD10*3)+BE10</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BH10" s="8">
         <f>SUM(B10:AY10)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI10" s="10">
         <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.39215686274509803</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="48">
-        <v>-1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B11" s="58"/>
       <c r="C11" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>-1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7">
+        <v>7</v>
+      </c>
+      <c r="J11" s="48">
+        <v>8</v>
+      </c>
+      <c r="K11" s="7"/>
       <c r="L11" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M11" s="7">
         <v>-1</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="48">
-        <v>1</v>
-      </c>
+      <c r="O11" s="7"/>
       <c r="P11" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="7">
+      <c r="S11" s="48">
         <v>-2</v>
       </c>
       <c r="T11" s="7">
@@ -2639,7 +2662,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
+      <c r="AR11" s="58"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -2652,31 +2675,31 @@
       </c>
       <c r="BC11" s="8">
         <f>COUNT(B11:AY11)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD11" s="8">
         <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE11" s="8">
         <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="8">
         <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG11" s="8">
         <f>SUM(BD11*3)+BE11</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH11" s="8">
         <f>SUM(B11:AY11)</f>
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="BI11" s="10">
         <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
@@ -2720,7 +2743,9 @@
         <v>1</v>
       </c>
       <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="V12" s="48">
+        <v>8</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -2755,11 +2780,11 @@
       </c>
       <c r="BC12" s="8">
         <f>COUNT(B12:AY12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD12" s="8">
         <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE12" s="8">
         <f>COUNTIF($B12:$AY12, "0")</f>
@@ -2771,21 +2796,21 @@
       </c>
       <c r="BG12" s="8">
         <f>SUM(BD12*3)+BE12</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BH12" s="8">
         <f>SUM(B12:AY12)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BI12" s="10">
         <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.79166666666666663</v>
+        <v>0.81481481481481477</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7">
         <v>-1</v>
@@ -2793,9 +2818,11 @@
       <c r="C13" s="7">
         <v>-1</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>-9</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="F13" s="48">
         <v>-1</v>
       </c>
       <c r="G13" s="7">
@@ -2806,36 +2833,42 @@
         <v>7</v>
       </c>
       <c r="J13" s="7">
-        <v>8</v>
-      </c>
-      <c r="K13" s="48">
+        <v>-8</v>
+      </c>
+      <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="L13" s="7">
+        <v>2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="48">
         <v>-2</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="7">
+        <v>-3</v>
+      </c>
       <c r="R13" s="53"/>
       <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="T13" s="48">
+      <c r="T13" s="7">
         <v>-1</v>
       </c>
       <c r="U13" s="7">
-        <v>4</v>
-      </c>
-      <c r="V13" s="7"/>
+        <v>-4</v>
+      </c>
+      <c r="V13" s="7">
+        <v>8</v>
+      </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
@@ -2870,11 +2903,11 @@
       </c>
       <c r="BC13" s="8">
         <f>COUNT(B13:AY13)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BD13" s="8">
         <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE13" s="8">
         <f>COUNTIF($B13:$AY13, "0")</f>
@@ -2882,56 +2915,50 @@
       </c>
       <c r="BF13" s="8">
         <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG13" s="8">
         <f>SUM(BD13*3)+BE13</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BH13" s="8">
         <f>SUM(B13:AY13)</f>
-        <v>14</v>
+        <v>-9</v>
       </c>
       <c r="BI13" s="10">
         <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.42857142857142855</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B14" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="53"/>
-      <c r="I14" s="48">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="7"/>
+      <c r="J14" s="48">
         <v>-8</v>
       </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
       <c r="N14" s="7">
         <v>0</v>
       </c>
@@ -2943,10 +2970,16 @@
         <v>3</v>
       </c>
       <c r="R14" s="53"/>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7">
+        <v>-2</v>
+      </c>
       <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="U14" s="48">
+        <v>4</v>
+      </c>
+      <c r="V14" s="7">
+        <v>8</v>
+      </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2985,11 +3018,11 @@
       </c>
       <c r="BD14" s="8">
         <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE14" s="8">
         <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF14" s="8">
         <f>COUNTIF($B14:$AY14, "&lt;0")</f>
@@ -2997,40 +3030,40 @@
       </c>
       <c r="BG14" s="8">
         <f>SUM(BD14*3)+BE14</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BH14" s="8">
         <f>SUM(B14:AY14)</f>
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="BI14" s="10">
         <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7">
         <v>-1</v>
       </c>
       <c r="D15" s="7">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="48">
+      <c r="F15" s="7">
         <v>-1</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="53"/>
-      <c r="I15" s="7">
+      <c r="I15" s="48">
         <v>7</v>
       </c>
       <c r="J15" s="7">
@@ -3040,33 +3073,23 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>2</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="M15" s="7"/>
       <c r="N15" s="7">
         <v>0</v>
       </c>
       <c r="O15" s="7">
         <v>1</v>
       </c>
-      <c r="P15" s="48">
-        <v>-2</v>
-      </c>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R15" s="53"/>
-      <c r="S15" s="7">
-        <v>2</v>
-      </c>
-      <c r="T15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="7">
-        <v>-4</v>
-      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
@@ -3102,7 +3125,7 @@
       </c>
       <c r="BC15" s="8">
         <f>COUNT(B15:AY15)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BD15" s="8">
         <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
@@ -3114,7 +3137,7 @@
       </c>
       <c r="BF15" s="8">
         <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG15" s="8">
         <f>SUM(BD15*3)+BE15</f>
@@ -3122,19 +3145,21 @@
       </c>
       <c r="BH15" s="8">
         <f>SUM(B15:AY15)</f>
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="BI15" s="10">
         <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.35294117647058826</v>
+        <v>0.5</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="B16" s="7">
+        <v>-1</v>
+      </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
@@ -3147,36 +3172,42 @@
         <v>0</v>
       </c>
       <c r="H16" s="53"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>7</v>
+      </c>
       <c r="J16" s="7">
         <v>8</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="48">
+      <c r="K16" s="48">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7">
-        <v>-3</v>
-      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="53"/>
       <c r="S16" s="7">
         <v>2</v>
       </c>
-      <c r="T16" s="7">
-        <v>1</v>
+      <c r="T16" s="48">
+        <v>-1</v>
       </c>
       <c r="U16" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V16" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="V16" s="7">
+        <v>-8</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -3211,7 +3242,7 @@
       </c>
       <c r="BC16" s="8">
         <f>COUNT(B16:AY16)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD16" s="8">
         <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
@@ -3219,52 +3250,50 @@
       </c>
       <c r="BE16" s="8">
         <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF16" s="8">
         <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG16" s="8">
         <f>SUM(BD16*3)+BE16</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BH16" s="8">
         <f>SUM(B16:AY16)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI16" s="10">
         <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.51515151515151514</v>
+        <v>0.4</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="7">
+        <v>79</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
         <v>-1</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>-1</v>
+      </c>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="48">
-        <v>-8</v>
+      <c r="J17" s="7">
+        <v>8</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7">
+      <c r="M17" s="48">
         <v>1</v>
       </c>
       <c r="N17" s="7">
@@ -3275,17 +3304,21 @@
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R17" s="53"/>
       <c r="S17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="48">
-        <v>4</v>
-      </c>
-      <c r="V17" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V17" s="7">
+        <v>-8</v>
+      </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
@@ -3320,7 +3353,7 @@
       </c>
       <c r="BC17" s="8">
         <f>COUNT(B17:AY17)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD17" s="8">
         <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
@@ -3332,7 +3365,7 @@
       </c>
       <c r="BF17" s="8">
         <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG17" s="8">
         <f>SUM(BD17*3)+BE17</f>
@@ -3340,44 +3373,46 @@
       </c>
       <c r="BH17" s="8">
         <f>SUM(B17:AY17)</f>
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="BI17" s="10">
         <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.51515151515151514</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="48">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7"/>
+      <c r="E18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
       <c r="H18" s="53"/>
-      <c r="I18" s="7">
-        <v>-7</v>
-      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q18" s="7"/>
+      <c r="O18" s="48">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
+        <v>-3</v>
+      </c>
       <c r="R18" s="53"/>
       <c r="S18" s="7">
         <v>2</v>
@@ -3385,8 +3420,12 @@
       <c r="T18" s="7">
         <v>1</v>
       </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="U18" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V18" s="7">
+        <v>8</v>
+      </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
@@ -3421,7 +3460,7 @@
       </c>
       <c r="BC18" s="8">
         <f>COUNT(B18:AY18)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD18" s="8">
         <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
@@ -3429,76 +3468,64 @@
       </c>
       <c r="BE18" s="8">
         <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="8">
         <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG18" s="8">
         <f>SUM(BD18*3)+BE18</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BH18" s="8">
         <f>SUM(B18:AY18)</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="BI18" s="10">
         <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.7142857142857143</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="7">
-        <v>-1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="E19" s="48">
         <v>1</v>
       </c>
       <c r="F19" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="53"/>
       <c r="I19" s="7">
         <v>-7</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="48">
-        <v>2</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>-1</v>
-      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="53"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="48">
-        <v>-4</v>
-      </c>
+      <c r="S19" s="7">
+        <v>2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1</v>
+      </c>
+      <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -3534,19 +3561,19 @@
       </c>
       <c r="BC19" s="8">
         <f>COUNT(B19:AY19)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD19" s="8">
         <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE19" s="8">
         <f>COUNTIF($B19:$AY19, "0")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="8">
         <f>COUNTIF($B19:$AY19, "&lt;0")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG19" s="8">
         <f>SUM(BD19*3)+BE19</f>
@@ -3554,57 +3581,67 @@
       </c>
       <c r="BH19" s="8">
         <f>SUM(B19:AY19)</f>
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="BI19" s="10">
         <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.38461538461538464</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="B20" s="7">
+        <v>-1</v>
+      </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
         <v>-1</v>
       </c>
-      <c r="F20" s="7"/>
       <c r="G20" s="7">
         <v>0</v>
       </c>
       <c r="H20" s="53"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>-7</v>
+      </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="48">
+        <v>2</v>
+      </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="48">
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
         <v>-1</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7">
-        <v>-3</v>
-      </c>
+      <c r="P20" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="53"/>
-      <c r="S20" s="7">
-        <v>2</v>
-      </c>
-      <c r="T20" s="7">
-        <v>1</v>
-      </c>
-      <c r="U20" s="7">
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="48">
         <v>-4</v>
       </c>
-      <c r="V20" s="7"/>
+      <c r="V20" s="7">
+        <v>-8</v>
+      </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
@@ -3639,7 +3676,7 @@
       </c>
       <c r="BC20" s="8">
         <f>COUNT(B20:AY20)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD20" s="8">
         <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
@@ -3647,23 +3684,23 @@
       </c>
       <c r="BE20" s="8">
         <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF20" s="8">
         <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG20" s="8">
         <f>SUM(BD20*3)+BE20</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BH20" s="8">
         <f>SUM(B20:AY20)</f>
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="BI20" s="10">
         <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.48148148148148145</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
@@ -4223,7 +4260,9 @@
       <c r="U26" s="7">
         <v>-4</v>
       </c>
-      <c r="V26" s="7"/>
+      <c r="V26" s="7">
+        <v>-8</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -4258,7 +4297,7 @@
       </c>
       <c r="BC26" s="8">
         <f>COUNT(B26:AY26)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD26" s="8">
         <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
@@ -4270,7 +4309,7 @@
       </c>
       <c r="BF26" s="8">
         <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG26" s="8">
         <f>SUM(BD26*3)+BE26</f>
@@ -4278,11 +4317,11 @@
       </c>
       <c r="BH26" s="8">
         <f>SUM(B26:AY26)</f>
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="BI26" s="10">
         <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.25925925925925924</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
@@ -4379,7 +4418,7 @@
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -4390,26 +4429,24 @@
       <c r="H28" s="53"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="48">
-        <v>-2</v>
-      </c>
-      <c r="M28" s="7">
-        <v>-1</v>
-      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q28" s="7"/>
       <c r="R28" s="53"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
+      <c r="S28" s="7">
+        <v>2</v>
+      </c>
+      <c r="T28" s="7">
+        <v>-1</v>
+      </c>
       <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="V28" s="7">
+        <v>8</v>
+      </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -4444,31 +4481,31 @@
       </c>
       <c r="BC28" s="8">
         <f>COUNT(B28:AY28)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD28" s="8">
         <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE28" s="8">
         <f>COUNTIF($B28:$AY28, "0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="8">
         <f>COUNTIF($B28:$AY28, "&lt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28" s="8">
         <f>SUM(BD28*3)+BE28</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH28" s="8">
         <f>SUM(B28:AY28)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BI28" s="10">
         <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
@@ -4567,7 +4604,7 @@
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -4578,20 +4615,28 @@
       <c r="H30" s="53"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="48">
+        <v>-2</v>
+      </c>
+      <c r="M30" s="7">
+        <v>-1</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="7">
+        <v>3</v>
+      </c>
       <c r="R30" s="53"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="7">
-        <v>4</v>
-      </c>
-      <c r="V30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7">
+        <v>-8</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -4626,7 +4671,7 @@
       </c>
       <c r="BC30" s="8">
         <f>COUNT(B30:AY30)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BD30" s="8">
         <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
@@ -4634,33 +4679,31 @@
       </c>
       <c r="BE30" s="8">
         <f>COUNTIF($B30:$AY30, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="8">
         <f>COUNTIF($B30:$AY30, "&lt;0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG30" s="8">
         <f>SUM(BD30*3)+BE30</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH30" s="8">
         <f>SUM(B30:AY30)</f>
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="BI30" s="10">
         <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
-        <v>1</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4679,7 +4722,9 @@
       <c r="R31" s="53"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
+      <c r="U31" s="7">
+        <v>4</v>
+      </c>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
@@ -4735,7 +4780,7 @@
       </c>
       <c r="BH31" s="8">
         <f>SUM(B31:AY31)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI31" s="10">
         <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
@@ -4745,9 +4790,11 @@
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -4764,14 +4811,12 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="53"/>
-      <c r="S32" s="7">
-        <v>2</v>
-      </c>
-      <c r="T32" s="7">
-        <v>-1</v>
-      </c>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="V32" s="7">
+        <v>-8</v>
+      </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -4826,7 +4871,7 @@
       </c>
       <c r="BH32" s="8">
         <f>SUM(B32:AY32)</f>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="BI32" s="10">
         <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
@@ -5103,7 +5148,7 @@
     </row>
     <row r="36" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5120,16 +5165,14 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q36" s="7"/>
       <c r="R36" s="53"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="48">
+        <v>-8</v>
+      </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -5164,7 +5207,7 @@
       </c>
       <c r="BC36" s="8">
         <f>COUNT(B36:AY36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD36" s="8">
         <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
@@ -5176,7 +5219,7 @@
       </c>
       <c r="BF36" s="8">
         <f>COUNTIF($B36:$AY36, "&lt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG36" s="8">
         <f>SUM(BD36*3)+BE36</f>
@@ -5184,7 +5227,7 @@
       </c>
       <c r="BH36" s="8">
         <f>SUM(B36:AY36)</f>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="BI36" s="10">
         <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
@@ -5281,306 +5324,303 @@
       </c>
       <c r="BJ37" s="10"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R38" s="53"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V38" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="7"/>
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="7"/>
+      <c r="BA38" s="34">
+        <v>34</v>
+      </c>
+      <c r="BC38" s="8">
+        <f>COUNT(B38:AY38)</f>
+        <v>3</v>
+      </c>
+      <c r="BD38" s="8">
+        <f>COUNTIF($B38:$AY38, "&gt;=1")</f>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="8">
+        <f>COUNTIF($B38:$AY38, "0")</f>
+        <v>0</v>
+      </c>
+      <c r="BF38" s="8">
+        <f>COUNTIF($B38:$AY38, "&lt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="BG38" s="8">
+        <f>SUM(BD38*3)+BE38</f>
+        <v>0</v>
+      </c>
+      <c r="BH38" s="8">
+        <f>SUM(B38:AY38)</f>
+        <v>-15</v>
+      </c>
+      <c r="BI38" s="10">
+        <f>SUM(BD38*3+BE38*1)/SUM(BC38*3)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="10"/>
+    </row>
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="28">
-        <f t="shared" ref="B38:AD38" si="0">COUNT(B5:B37)</f>
+      <c r="B39" s="28">
+        <f t="shared" ref="B39:AD39" si="0">COUNT(B5:B38)</f>
         <v>16</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C39" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D39" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E39" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F39" s="28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G39" s="28">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I39" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J39" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K39" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L39" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M39" s="28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N38" s="28">
+      <c r="N39" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O38" s="28">
+      <c r="O39" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P38" s="28">
+      <c r="P39" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q38" s="28">
+      <c r="Q39" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R38" s="28">
+      <c r="R39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S39" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T38" s="28">
+      <c r="T39" s="28">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U38" s="28">
+      <c r="U39" s="28">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="V38" s="28">
+      <c r="V39" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="28">
+        <v>18</v>
+      </c>
+      <c r="W39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X38" s="28">
+      <c r="X39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="28">
+      <c r="Y39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="28">
+      <c r="Z39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="28">
+      <c r="AA39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="28">
+      <c r="AB39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="28">
+      <c r="AC39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="28">
+      <c r="AD39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="28">
-        <f t="shared" ref="AE38:AY38" si="1">COUNT(AE5:AE37)</f>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="28">
+      <c r="AE39" s="28">
+        <f t="shared" ref="AE39:AY39" si="1">COUNT(AE5:AE38)</f>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="28">
+      <c r="AG39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="28">
+      <c r="AH39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="28">
+      <c r="AI39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ38" s="28">
+      <c r="AJ39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="28">
+      <c r="AK39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="28">
+      <c r="AL39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM38" s="28">
+      <c r="AM39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN38" s="28">
+      <c r="AN39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO38" s="28">
+      <c r="AO39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP38" s="28">
+      <c r="AP39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ38" s="28">
+      <c r="AQ39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AR38" s="28">
+      <c r="AR39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS38" s="28">
+      <c r="AS39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT38" s="28">
+      <c r="AT39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU38" s="28">
+      <c r="AU39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV38" s="28">
+      <c r="AV39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AW38" s="28">
+      <c r="AW39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AX38" s="28">
+      <c r="AX39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY38" s="28">
+      <c r="AY39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BC38" s="8"/>
-      <c r="BD38" s="8"/>
-      <c r="BE38" s="8"/>
-      <c r="BF38" s="8"/>
-      <c r="BG38" s="8"/>
-      <c r="BH38" s="8"/>
-      <c r="BI38" s="10"/>
-      <c r="BJ38" s="10"/>
-    </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="R39" s="8"/>
-      <c r="S39" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="8"/>
-      <c r="AO39" s="8"/>
-      <c r="AP39" s="8"/>
-      <c r="AQ39" s="8"/>
-      <c r="AR39" s="8"/>
-      <c r="AS39" s="8"/>
-      <c r="AT39" s="8"/>
-      <c r="AU39" s="8"/>
-      <c r="AV39" s="8"/>
-      <c r="AW39" s="8"/>
-      <c r="AX39" s="8"/>
-      <c r="AY39" s="8"/>
       <c r="BC39" s="8"/>
       <c r="BD39" s="8"/>
       <c r="BE39" s="8"/>
@@ -5591,39 +5631,79 @@
       <c r="BJ39" s="10"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="A40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
+      <c r="S40" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
       <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
       <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
+      <c r="AH40" s="13"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
@@ -5651,21 +5731,37 @@
       <c r="BJ40" s="10"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
@@ -5695,14 +5791,40 @@
       <c r="BJ41" s="10"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
       <c r="Q42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="8"/>
+      <c r="AV42" s="8"/>
+      <c r="AW42" s="8"/>
+      <c r="AX42" s="8"/>
+      <c r="AY42" s="8"/>
       <c r="BC42" s="8"/>
       <c r="BD42" s="8"/>
       <c r="BE42" s="8"/>
@@ -5713,30 +5835,38 @@
       <c r="BJ42" s="10"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-    </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="J46" s="44"/>
-      <c r="L46" s="44"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="BC43" s="8"/>
+      <c r="BD43" s="8"/>
+      <c r="BE43" s="8"/>
+      <c r="BF43" s="8"/>
+      <c r="BG43" s="8"/>
+      <c r="BH43" s="8"/>
+      <c r="BI43" s="10"/>
+      <c r="BJ43" s="10"/>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="J47" s="44"/>
       <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="J48" s="44"/>
+      <c r="L48" s="44"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L49" s="44"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="J49" s="44"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="44"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="8"/>
@@ -5774,7 +5904,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="43"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
@@ -5784,7 +5914,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="G58" s="43"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
@@ -5801,15 +5931,19 @@
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="G60" s="43"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="8"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="8"/>
@@ -5822,9 +5956,6 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="8"/>
@@ -5856,7 +5987,7 @@
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="43"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -5865,7 +5996,7 @@
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -5885,26 +6016,35 @@
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BI37">
-    <sortCondition descending="1" ref="BG5:BG37"/>
-    <sortCondition descending="1" ref="BH5:BH37"/>
-    <sortCondition descending="1" ref="BI5:BI37"/>
-    <sortCondition ref="A5:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BI38">
+    <sortCondition descending="1" ref="BG5:BG38"/>
+    <sortCondition descending="1" ref="BH5:BH38"/>
+    <sortCondition descending="1" ref="BI5:BI38"/>
+    <sortCondition ref="A5:A38"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape"/>
   <ignoredErrors>
-    <ignoredError sqref="BC42 BC38:BH38" formulaRange="1"/>
+    <ignoredError sqref="BC43 BC39:BH39" formulaRange="1"/>
     <ignoredError sqref="BC4:BH4" formulaRange="1" emptyCellReference="1"/>
   </ignoredErrors>
 </worksheet>
@@ -5917,7 +6057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G26"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5925,7 +6065,7 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5948,9 +6088,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>80</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5965,16 +6105,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G35" si="0">SUM(C3*3)+D3</f>
+        <f>SUM(C3*3)+D3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>89</v>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5989,40 +6129,40 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <f>SUM(C4*3)+D4</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
-        <v>110</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f>SUM(C5*3)+D5</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>91</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6044,33 +6184,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>90</v>
+    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f>SUM(C7*3)+D7</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6085,16 +6225,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <f>SUM(C8*3)+D8</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>156</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6109,17 +6249,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <f>SUM(C9*3)+D9</f>
         <v>3</v>
       </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6134,16 +6273,17 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <f>SUM(C10*3)+D10</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6165,9 +6305,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6188,9 +6328,8 @@
         <f>SUM(C12*3)+D12</f>
         <v>3</v>
       </c>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -6213,8 +6352,9 @@
         <f>SUM(C13*3)+D13</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>106</v>
       </c>
@@ -6238,7 +6378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -6262,7 +6402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>85</v>
       </c>
@@ -6285,7 +6425,6 @@
         <f>SUM(C16*3)+D16</f>
         <v>3</v>
       </c>
-      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -6360,7 +6499,7 @@
         <f>SUM(C19*3)+D19</f>
         <v>1</v>
       </c>
-      <c r="K19" s="38"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -6385,7 +6524,7 @@
         <f>SUM(C20*3)+D20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -6485,6 +6624,7 @@
         <f>SUM(C24*3)+D24</f>
         <v>0</v>
       </c>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -6512,7 +6652,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6527,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G26">
         <f>SUM(C26*3)+D26</f>
@@ -6536,10 +6676,25 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>-9</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G4:G29" si="1">SUM(C27*3)+D27</f>
+        <f>SUM(C27*3)+D27</f>
         <v>0</v>
       </c>
     </row>
@@ -6548,7 +6703,7 @@
         <v>75</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f>SUM(C28*3)+D28</f>
         <v>0</v>
       </c>
     </row>
@@ -6557,7 +6712,7 @@
         <v>98</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f>SUM(C29*3)+D29</f>
         <v>0</v>
       </c>
     </row>
@@ -6566,7 +6721,7 @@
         <v>19</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G30:G35" si="0">SUM(C30*3)+D30</f>
         <v>0</v>
       </c>
     </row>
@@ -6617,10 +6772,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G26">
-    <sortCondition descending="1" ref="G4:G26"/>
-    <sortCondition descending="1" ref="F4:F26"/>
-    <sortCondition ref="B4:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G29">
+    <sortCondition descending="1" ref="G3:G29"/>
+    <sortCondition descending="1" ref="F3:F29"/>
+    <sortCondition ref="B3:B29"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6634,7 +6789,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6884,7 +7039,7 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="29"/>
       <c r="BA3" s="24">
-        <f>SUM(B3:AY3)</f>
+        <f t="shared" ref="BA3:BA36" si="0">SUM(B3:AY3)</f>
         <v>14</v>
       </c>
       <c r="BB3" s="8">
@@ -6959,7 +7114,7 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="24">
-        <f>SUM(B4:AY4)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="BB4" s="8">
@@ -7035,7 +7190,7 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="29"/>
       <c r="BA5" s="24">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="BB5" s="8">
@@ -7108,7 +7263,7 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="29"/>
       <c r="BA6" s="24">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="BB6" s="8">
@@ -7181,7 +7336,7 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="29"/>
       <c r="BA7" s="24">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BB7" s="8">
@@ -7253,7 +7408,7 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="24">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BB8" s="8">
@@ -7332,7 +7487,7 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="29"/>
       <c r="BA9" s="24">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -7396,7 +7551,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="24">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BB10" s="8">
@@ -7474,7 +7629,7 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="29"/>
       <c r="BA11" s="24">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -7542,7 +7697,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="24">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BC12" s="8">
@@ -7612,7 +7767,7 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="29"/>
       <c r="BA13" s="24">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BB13" s="8">
@@ -7681,7 +7836,7 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="24">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BC14" s="8">
@@ -7750,7 +7905,7 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="29"/>
       <c r="BA15" s="24">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7820,7 +7975,7 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="29"/>
       <c r="BA16" s="24">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7886,7 +8041,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="29"/>
       <c r="BA17" s="24">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -7950,7 +8105,7 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="24">
-        <f>SUM(B18:AY18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BF18" s="24"/>
@@ -8019,7 +8174,7 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="29"/>
       <c r="BA19" s="24">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -8087,7 +8242,7 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="24">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -8151,7 +8306,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="29"/>
       <c r="BA21" s="24">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BC21" s="8">
@@ -8220,7 +8375,7 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="24">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -8286,7 +8441,7 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="29"/>
       <c r="BA23" s="24">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -8350,7 +8505,7 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="29"/>
       <c r="BA24" s="24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -8412,7 +8567,7 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="29"/>
       <c r="BA25" s="24">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -8476,7 +8631,7 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="29"/>
       <c r="BA26" s="24">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -8538,7 +8693,7 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="29"/>
       <c r="BA27" s="24">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -8600,7 +8755,7 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="24">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -8660,7 +8815,7 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="29"/>
       <c r="BA29" s="24">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8720,7 +8875,7 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="29"/>
       <c r="BA30" s="24">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8780,7 +8935,7 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="29"/>
       <c r="BA31" s="24">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8840,7 +8995,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="29"/>
       <c r="BA32" s="24">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8900,7 +9055,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="29"/>
       <c r="BA33" s="24">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8960,7 +9115,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="29"/>
       <c r="BA34" s="24">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9020,7 +9175,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="29"/>
       <c r="BA35" s="24">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9078,7 +9233,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="24">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9087,191 +9242,191 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <f>'League Table'!B38</f>
+        <f>'League Table'!B39</f>
         <v>16</v>
       </c>
       <c r="C38">
-        <f>'League Table'!C38</f>
+        <f>'League Table'!C39</f>
         <v>20</v>
       </c>
       <c r="D38">
-        <f>'League Table'!D38</f>
+        <f>'League Table'!D39</f>
         <v>15</v>
       </c>
       <c r="E38">
-        <f>'League Table'!E38</f>
+        <f>'League Table'!E39</f>
         <v>13</v>
       </c>
       <c r="F38">
-        <f>'League Table'!F38</f>
+        <f>'League Table'!F39</f>
         <v>17</v>
       </c>
       <c r="G38">
-        <f>'League Table'!G38</f>
+        <f>'League Table'!G39</f>
         <v>18</v>
       </c>
       <c r="H38">
-        <f>'League Table'!H38</f>
+        <f>'League Table'!H39</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>'League Table'!I38</f>
+        <f>'League Table'!I39</f>
         <v>12</v>
       </c>
       <c r="J38">
-        <f>'League Table'!J38</f>
+        <f>'League Table'!J39</f>
         <v>12</v>
       </c>
       <c r="K38">
-        <f>'League Table'!K38</f>
+        <f>'League Table'!K39</f>
         <v>12</v>
       </c>
       <c r="L38">
-        <f>'League Table'!L38</f>
+        <f>'League Table'!L39</f>
         <v>14</v>
       </c>
       <c r="M38">
-        <f>'League Table'!M38</f>
+        <f>'League Table'!M39</f>
         <v>17</v>
       </c>
       <c r="N38">
-        <f>'League Table'!N38</f>
+        <f>'League Table'!N39</f>
         <v>12</v>
       </c>
       <c r="O38">
-        <f>'League Table'!O38</f>
+        <f>'League Table'!O39</f>
         <v>14</v>
       </c>
       <c r="P38">
-        <f>'League Table'!P38</f>
+        <f>'League Table'!P39</f>
         <v>14</v>
       </c>
       <c r="Q38">
-        <f>'League Table'!Q38</f>
+        <f>'League Table'!Q39</f>
         <v>15</v>
       </c>
       <c r="R38">
-        <f>'League Table'!R38</f>
+        <f>'League Table'!R39</f>
         <v>0</v>
       </c>
       <c r="S38">
-        <f>'League Table'!S38</f>
+        <f>'League Table'!S39</f>
         <v>20</v>
       </c>
       <c r="T38">
-        <f>'League Table'!T38</f>
+        <f>'League Table'!T39</f>
         <v>18</v>
       </c>
       <c r="U38" s="32">
-        <f>'League Table'!U38</f>
+        <f>'League Table'!U39</f>
         <v>18</v>
       </c>
       <c r="V38">
-        <f>'League Table'!V38</f>
-        <v>0</v>
+        <f>'League Table'!V39</f>
+        <v>18</v>
       </c>
       <c r="W38">
-        <f>'League Table'!W38</f>
+        <f>'League Table'!W39</f>
         <v>0</v>
       </c>
       <c r="X38">
-        <f>'League Table'!X38</f>
+        <f>'League Table'!X39</f>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f>'League Table'!Y38</f>
+        <f>'League Table'!Y39</f>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f>'League Table'!Z38</f>
+        <f>'League Table'!Z39</f>
         <v>0</v>
       </c>
       <c r="AA38">
-        <f>'League Table'!AA38</f>
+        <f>'League Table'!AA39</f>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f>'League Table'!AB38</f>
+        <f>'League Table'!AB39</f>
         <v>0</v>
       </c>
       <c r="AC38">
-        <f>'League Table'!AC38</f>
+        <f>'League Table'!AC39</f>
         <v>0</v>
       </c>
       <c r="AD38">
-        <f>'League Table'!AD38</f>
+        <f>'League Table'!AD39</f>
         <v>0</v>
       </c>
       <c r="AE38">
-        <f>'League Table'!AE38</f>
+        <f>'League Table'!AE39</f>
         <v>0</v>
       </c>
       <c r="AF38">
-        <f>'League Table'!AF38</f>
+        <f>'League Table'!AF39</f>
         <v>0</v>
       </c>
       <c r="AG38" s="8">
-        <f>'League Table'!AG38</f>
+        <f>'League Table'!AG39</f>
         <v>0</v>
       </c>
       <c r="AH38" s="8">
-        <f>'League Table'!AH38</f>
+        <f>'League Table'!AH39</f>
         <v>0</v>
       </c>
       <c r="AI38" s="8">
-        <f>'League Table'!AI38</f>
+        <f>'League Table'!AI39</f>
         <v>0</v>
       </c>
       <c r="AJ38" s="8">
-        <f>'League Table'!AJ38</f>
+        <f>'League Table'!AJ39</f>
         <v>0</v>
       </c>
       <c r="AK38" s="8">
-        <f>'League Table'!AK38</f>
+        <f>'League Table'!AK39</f>
         <v>0</v>
       </c>
       <c r="AL38" s="8">
-        <f>'League Table'!AL38</f>
+        <f>'League Table'!AL39</f>
         <v>0</v>
       </c>
       <c r="AM38" s="8">
-        <f>'League Table'!AM38</f>
+        <f>'League Table'!AM39</f>
         <v>0</v>
       </c>
       <c r="AN38" s="8">
-        <f>'League Table'!AN38</f>
+        <f>'League Table'!AN39</f>
         <v>0</v>
       </c>
       <c r="AO38" s="8">
-        <f>'League Table'!AO38</f>
+        <f>'League Table'!AO39</f>
         <v>0</v>
       </c>
       <c r="AP38" s="8">
-        <f>'League Table'!AP38</f>
+        <f>'League Table'!AP39</f>
         <v>0</v>
       </c>
       <c r="AQ38" s="8">
-        <f>'League Table'!AQ38</f>
+        <f>'League Table'!AQ39</f>
         <v>0</v>
       </c>
       <c r="AR38" s="8">
-        <f>'League Table'!AZ38</f>
+        <f>'League Table'!AZ39</f>
         <v>0</v>
       </c>
       <c r="AS38" s="8">
-        <f>'League Table'!BA38</f>
+        <f>'League Table'!BA39</f>
         <v>0</v>
       </c>
       <c r="AT38" s="8">
-        <f>'League Table'!BB38</f>
+        <f>'League Table'!BB39</f>
         <v>0</v>
       </c>
       <c r="AU38" s="8">
-        <f>'League Table'!BC38</f>
+        <f>'League Table'!BC39</f>
         <v>0</v>
       </c>
       <c r="AV38" s="8">
-        <f>'League Table'!BD38</f>
+        <f>'League Table'!BD39</f>
         <v>0</v>
       </c>
       <c r="AW38" s="8"/>
@@ -9284,191 +9439,191 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="U40" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA40" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9808,7 +9963,7 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="BA5">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" ref="BA5:BA38" si="0">SUM(B5:AY5)</f>
         <v>17</v>
       </c>
     </row>
@@ -9883,7 +10038,7 @@
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="BA6">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -9956,7 +10111,7 @@
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="BA7">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -10027,7 +10182,7 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="BA8">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -10094,7 +10249,7 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="19"/>
       <c r="BA9">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -10161,7 +10316,7 @@
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="BA10">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -10228,7 +10383,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -10295,7 +10450,7 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -10358,7 +10513,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10425,7 +10580,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -10490,7 +10645,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -10555,7 +10710,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -10620,7 +10775,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -10685,7 +10840,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f>SUM(B18:AY18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -10748,7 +10903,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -10809,7 +10964,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10870,7 +11025,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10931,7 +11086,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10992,7 +11147,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11053,7 +11208,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11114,7 +11269,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11175,7 +11330,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11236,7 +11391,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11297,7 +11452,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11356,7 +11511,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11415,7 +11570,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11474,7 +11629,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11533,7 +11688,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11592,7 +11747,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11651,7 +11806,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11710,7 +11865,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11769,7 +11924,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11828,7 +11983,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11885,7 +12040,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f>SUM(B38:AY38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12000,203 +12155,203 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="0">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="1">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="1">SUM(AI5:AI39)</f>
+        <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AV41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AW41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="2">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="3">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
@@ -12223,7 +12378,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12487,16 +12642,16 @@
         <v>117</v>
       </c>
       <c r="I12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>127</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N12" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -12527,7 +12682,7 @@
         <v>132</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N13" s="8">
         <v>3</v>
@@ -12617,16 +12772,19 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>163</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -12647,13 +12805,13 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>168</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="N17" s="8">
         <v>2</v>
@@ -12677,13 +12835,13 @@
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>178</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="N18" s="8">
         <v>2</v>
@@ -12707,7 +12865,7 @@
         <v>117</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="N19" s="8">
         <v>2</v>
@@ -12760,7 +12918,9 @@
       <c r="H21" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="M21" s="8" t="s">
         <v>127</v>
       </c>
@@ -12792,10 +12952,18 @@
       <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="G23" s="32"/>
       <c r="H23" s="8" t="s">
         <v>182</v>
@@ -12874,7 +13042,9 @@
       <c r="E28" s="32"/>
       <c r="G28" s="32"/>
       <c r="K28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="32">
@@ -13087,8 +13257,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N20">
-    <sortCondition descending="1" ref="N9:N20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N19">
+    <sortCondition descending="1" ref="N9:N19"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBFC9E6A-BA8A-4A46-95C4-116ED451BF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2B4684-417B-3F4A-9AB4-4F2F31C56A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6260" yWindow="3420" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="194">
   <si>
     <t>WK 1</t>
   </si>
@@ -616,6 +616,12 @@
   </si>
   <si>
     <t>Lost 1-9</t>
+  </si>
+  <si>
+    <t>Bruce v Artist</t>
+  </si>
+  <si>
+    <t>Drew 1-1</t>
   </si>
 </sst>
 </file>
@@ -874,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1012,7 +1018,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,7 +1435,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA38"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1927,7 +1932,9 @@
       <c r="V5" s="18">
         <v>-8</v>
       </c>
-      <c r="W5" s="18"/>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
@@ -1963,7 +1970,7 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
         <f>COUNT(B5:AY5)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD5" s="8">
         <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
@@ -1971,7 +1978,7 @@
       </c>
       <c r="BE5" s="8">
         <f>COUNTIF($B5:$AY5, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF5" s="8">
         <f>COUNTIF($B5:$AY5, "&lt;0")</f>
@@ -1979,7 +1986,7 @@
       </c>
       <c r="BG5" s="8">
         <f>SUM(BD5*3)+BE5</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BH5" s="8">
         <f>SUM(B5:AY5)</f>
@@ -1987,7 +1994,7 @@
       </c>
       <c r="BI5" s="10">
         <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.66666666666666663</v>
+        <v>0.64912280701754388</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -2116,7 +2123,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B7" s="7">
         <v>-1</v>
@@ -2124,29 +2131,33 @@
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-1</v>
+      </c>
       <c r="F7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="48">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="53"/>
-      <c r="I7" s="7">
+      <c r="I7" s="48">
         <v>-7</v>
       </c>
       <c r="J7" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M7" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -2154,24 +2165,22 @@
       <c r="O7" s="7">
         <v>-1</v>
       </c>
-      <c r="P7" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>3</v>
-      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="53"/>
-      <c r="S7" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>1</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="7">
+        <v>4</v>
+      </c>
       <c r="V7" s="7">
         <v>8</v>
       </c>
-      <c r="W7" s="7"/>
+      <c r="W7" s="48">
+        <v>0</v>
+      </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -2205,7 +2214,7 @@
       </c>
       <c r="BC7" s="8">
         <f>COUNT(B7:AY7)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD7" s="8">
         <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
@@ -2213,7 +2222,7 @@
       </c>
       <c r="BE7" s="8">
         <f>COUNTIF($B7:$AY7, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="8">
         <f>COUNTIF($B7:$AY7, "&lt;0")</f>
@@ -2221,21 +2230,21 @@
       </c>
       <c r="BG7" s="8">
         <f>SUM(BD7*3)+BE7</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH7" s="8">
         <f>SUM(B7:AY7)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BI7" s="10">
         <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.5</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18">
         <v>-1</v>
@@ -2243,33 +2252,29 @@
       <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
-        <v>9</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="G8" s="49">
         <v>0</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="49">
+      <c r="I8" s="18">
         <v>-7</v>
       </c>
       <c r="J8" s="18">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
       </c>
       <c r="L8" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M8" s="18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="18">
         <v>0</v>
@@ -2277,16 +2282,20 @@
       <c r="O8" s="18">
         <v>-1</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>3</v>
+      </c>
       <c r="R8" s="51"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="18">
+        <v>-2</v>
+      </c>
       <c r="T8" s="18">
         <v>1</v>
       </c>
-      <c r="U8" s="18">
-        <v>4</v>
-      </c>
+      <c r="U8" s="18"/>
       <c r="V8" s="18">
         <v>8</v>
       </c>
@@ -2344,7 +2353,7 @@
       </c>
       <c r="BH8" s="8">
         <f>SUM(B8:AY8)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BI8" s="10">
         <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
@@ -2413,7 +2422,9 @@
       <c r="V9" s="16">
         <v>8</v>
       </c>
-      <c r="W9" s="16"/>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -2447,7 +2458,7 @@
       </c>
       <c r="BC9" s="8">
         <f>COUNT(B9:AY9)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" s="8">
         <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
@@ -2455,7 +2466,7 @@
       </c>
       <c r="BE9" s="8">
         <f>COUNTIF($B9:$AY9, "0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF9" s="8">
         <f>COUNTIF($B9:$AY9, "&lt;0")</f>
@@ -2463,7 +2474,7 @@
       </c>
       <c r="BG9" s="8">
         <f>SUM(BD9*3)+BE9</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BH9" s="8">
         <f>SUM(B9:AY9)</f>
@@ -2471,7 +2482,7 @@
       </c>
       <c r="BI9" s="10">
         <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.42592592592592593</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
@@ -2532,7 +2543,9 @@
       <c r="V10" s="16">
         <v>8</v>
       </c>
-      <c r="W10" s="16"/>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -2566,7 +2579,7 @@
       </c>
       <c r="BC10" s="8">
         <f>COUNT(B10:AY10)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD10" s="8">
         <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
@@ -2574,7 +2587,7 @@
       </c>
       <c r="BE10" s="8">
         <f>COUNTIF($B10:$AY10, "0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF10" s="8">
         <f>COUNTIF($B10:$AY10, "&lt;0")</f>
@@ -2582,7 +2595,7 @@
       </c>
       <c r="BG10" s="8">
         <f>SUM(BD10*3)+BE10</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BH10" s="8">
         <f>SUM(B10:AY10)</f>
@@ -2590,7 +2603,7 @@
       </c>
       <c r="BI10" s="10">
         <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.47916666666666669</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
@@ -2641,7 +2654,9 @@
         <v>4</v>
       </c>
       <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
@@ -2675,7 +2690,7 @@
       </c>
       <c r="BC11" s="8">
         <f>COUNT(B11:AY11)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD11" s="8">
         <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
@@ -2683,7 +2698,7 @@
       </c>
       <c r="BE11" s="8">
         <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF11" s="8">
         <f>COUNTIF($B11:$AY11, "&lt;0")</f>
@@ -2691,7 +2706,7 @@
       </c>
       <c r="BG11" s="8">
         <f>SUM(BD11*3)+BE11</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH11" s="8">
         <f>SUM(B11:AY11)</f>
@@ -2699,7 +2714,7 @@
       </c>
       <c r="BI11" s="10">
         <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.66666666666666663</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
@@ -2746,7 +2761,9 @@
       <c r="V12" s="48">
         <v>8</v>
       </c>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -2780,7 +2797,7 @@
       </c>
       <c r="BC12" s="8">
         <f>COUNT(B12:AY12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD12" s="8">
         <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
@@ -2788,7 +2805,7 @@
       </c>
       <c r="BE12" s="8">
         <f>COUNTIF($B12:$AY12, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12" s="8">
         <f>COUNTIF($B12:$AY12, "&lt;0")</f>
@@ -2796,7 +2813,7 @@
       </c>
       <c r="BG12" s="8">
         <f>SUM(BD12*3)+BE12</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH12" s="8">
         <f>SUM(B12:AY12)</f>
@@ -2804,7 +2821,7 @@
       </c>
       <c r="BI12" s="10">
         <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.81481481481481477</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
@@ -2869,7 +2886,9 @@
       <c r="V13" s="7">
         <v>8</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -2903,7 +2922,7 @@
       </c>
       <c r="BC13" s="8">
         <f>COUNT(B13:AY13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD13" s="8">
         <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
@@ -2911,7 +2930,7 @@
       </c>
       <c r="BE13" s="8">
         <f>COUNTIF($B13:$AY13, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF13" s="8">
         <f>COUNTIF($B13:$AY13, "&lt;0")</f>
@@ -2919,7 +2938,7 @@
       </c>
       <c r="BG13" s="8">
         <f>SUM(BD13*3)+BE13</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BH13" s="8">
         <f>SUM(B13:AY13)</f>
@@ -2927,7 +2946,7 @@
       </c>
       <c r="BI13" s="10">
         <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.38596491228070173</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
@@ -2980,7 +2999,9 @@
       <c r="V14" s="7">
         <v>8</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -3014,7 +3035,7 @@
       </c>
       <c r="BC14" s="8">
         <f>COUNT(B14:AY14)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD14" s="8">
         <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
@@ -3022,7 +3043,7 @@
       </c>
       <c r="BE14" s="8">
         <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF14" s="8">
         <f>COUNTIF($B14:$AY14, "&lt;0")</f>
@@ -3030,7 +3051,7 @@
       </c>
       <c r="BG14" s="8">
         <f>SUM(BD14*3)+BE14</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BH14" s="8">
         <f>SUM(B14:AY14)</f>
@@ -3038,23 +3059,21 @@
       </c>
       <c r="BI14" s="10">
         <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C15" s="7">
         <v>-1</v>
       </c>
-      <c r="D15" s="7">
-        <v>9</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
         <v>-1</v>
@@ -3063,35 +3082,45 @@
         <v>0</v>
       </c>
       <c r="H15" s="53"/>
-      <c r="I15" s="48">
+      <c r="I15" s="7">
         <v>7</v>
       </c>
       <c r="J15" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K15" s="7">
+        <v>8</v>
+      </c>
+      <c r="K15" s="48">
         <v>0</v>
       </c>
       <c r="L15" s="7">
         <v>-2</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <v>3</v>
-      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="53"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="S15" s="7">
+        <v>2</v>
+      </c>
+      <c r="T15" s="48">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>4</v>
+      </c>
+      <c r="V15" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
@@ -3125,7 +3154,7 @@
       </c>
       <c r="BC15" s="8">
         <f>COUNT(B15:AY15)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD15" s="8">
         <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
@@ -3133,37 +3162,39 @@
       </c>
       <c r="BE15" s="8">
         <f>COUNTIF($B15:$AY15, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF15" s="8">
         <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG15" s="8">
         <f>SUM(BD15*3)+BE15</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BH15" s="8">
         <f>SUM(B15:AY15)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI15" s="10">
         <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.5</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>9</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
         <v>-1</v>
@@ -3172,42 +3203,34 @@
         <v>0</v>
       </c>
       <c r="H16" s="53"/>
-      <c r="I16" s="7">
+      <c r="I16" s="48">
         <v>7</v>
       </c>
       <c r="J16" s="7">
-        <v>8</v>
-      </c>
-      <c r="K16" s="48">
+        <v>-8</v>
+      </c>
+      <c r="K16" s="7">
         <v>0</v>
       </c>
       <c r="L16" s="7">
         <v>-2</v>
       </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
+      <c r="M16" s="7"/>
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q16" s="7"/>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>3</v>
+      </c>
       <c r="R16" s="53"/>
-      <c r="S16" s="7">
-        <v>2</v>
-      </c>
-      <c r="T16" s="48">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="7">
-        <v>4</v>
-      </c>
-      <c r="V16" s="7">
-        <v>-8</v>
-      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -3242,7 +3265,7 @@
       </c>
       <c r="BC16" s="8">
         <f>COUNT(B16:AY16)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD16" s="8">
         <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
@@ -3254,7 +3277,7 @@
       </c>
       <c r="BF16" s="8">
         <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG16" s="8">
         <f>SUM(BD16*3)+BE16</f>
@@ -3262,11 +3285,11 @@
       </c>
       <c r="BH16" s="8">
         <f>SUM(B16:AY16)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI16" s="10">
         <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
@@ -3319,7 +3342,9 @@
       <c r="V17" s="7">
         <v>-8</v>
       </c>
-      <c r="W17" s="7"/>
+      <c r="W17" s="48">
+        <v>0</v>
+      </c>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
@@ -3353,7 +3378,7 @@
       </c>
       <c r="BC17" s="8">
         <f>COUNT(B17:AY17)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD17" s="8">
         <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
@@ -3361,7 +3386,7 @@
       </c>
       <c r="BE17" s="8">
         <f>COUNTIF($B17:$AY17, "0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF17" s="8">
         <f>COUNTIF($B17:$AY17, "&lt;0")</f>
@@ -3369,7 +3394,7 @@
       </c>
       <c r="BG17" s="8">
         <f>SUM(BD17*3)+BE17</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BH17" s="8">
         <f>SUM(B17:AY17)</f>
@@ -3377,7 +3402,7 @@
       </c>
       <c r="BI17" s="10">
         <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.47222222222222221</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
@@ -3426,7 +3451,9 @@
       <c r="V18" s="7">
         <v>8</v>
       </c>
-      <c r="W18" s="7"/>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -3460,7 +3487,7 @@
       </c>
       <c r="BC18" s="8">
         <f>COUNT(B18:AY18)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD18" s="8">
         <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
@@ -3468,7 +3495,7 @@
       </c>
       <c r="BE18" s="8">
         <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF18" s="8">
         <f>COUNTIF($B18:$AY18, "&lt;0")</f>
@@ -3476,7 +3503,7 @@
       </c>
       <c r="BG18" s="8">
         <f>SUM(BD18*3)+BE18</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BH18" s="8">
         <f>SUM(B18:AY18)</f>
@@ -3484,7 +3511,7 @@
       </c>
       <c r="BI18" s="10">
         <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.53333333333333333</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
@@ -3527,7 +3554,9 @@
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
@@ -3561,7 +3590,7 @@
       </c>
       <c r="BC19" s="8">
         <f>COUNT(B19:AY19)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD19" s="8">
         <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
@@ -3569,7 +3598,7 @@
       </c>
       <c r="BE19" s="8">
         <f>COUNTIF($B19:$AY19, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="8">
         <f>COUNTIF($B19:$AY19, "&lt;0")</f>
@@ -3577,7 +3606,7 @@
       </c>
       <c r="BG19" s="8">
         <f>SUM(BD19*3)+BE19</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BH19" s="8">
         <f>SUM(B19:AY19)</f>
@@ -3585,7 +3614,7 @@
       </c>
       <c r="BI19" s="10">
         <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
@@ -3642,7 +3671,9 @@
       <c r="V20" s="7">
         <v>-8</v>
       </c>
-      <c r="W20" s="7"/>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -3676,7 +3707,7 @@
       </c>
       <c r="BC20" s="8">
         <f>COUNT(B20:AY20)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD20" s="8">
         <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
@@ -3684,7 +3715,7 @@
       </c>
       <c r="BE20" s="8">
         <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF20" s="8">
         <f>COUNTIF($B20:$AY20, "&lt;0")</f>
@@ -3692,7 +3723,7 @@
       </c>
       <c r="BG20" s="8">
         <f>SUM(BD20*3)+BE20</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BH20" s="8">
         <f>SUM(B20:AY20)</f>
@@ -3700,7 +3731,7 @@
       </c>
       <c r="BI20" s="10">
         <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.35714285714285715</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
@@ -3749,7 +3780,9 @@
         <v>4</v>
       </c>
       <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
@@ -3783,7 +3816,7 @@
       </c>
       <c r="BC21" s="8">
         <f>COUNT(B21:AY21)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD21" s="8">
         <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
@@ -3791,7 +3824,7 @@
       </c>
       <c r="BE21" s="8">
         <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF21" s="8">
         <f>COUNTIF($B21:$AY21, "&lt;0")</f>
@@ -3799,7 +3832,7 @@
       </c>
       <c r="BG21" s="8">
         <f>SUM(BD21*3)+BE21</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BH21" s="8">
         <f>SUM(B21:AY21)</f>
@@ -3807,7 +3840,7 @@
       </c>
       <c r="BI21" s="10">
         <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.43333333333333335</v>
+        <v>0.42424242424242425</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
@@ -3854,7 +3887,9 @@
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
+      <c r="W22" s="7">
+        <v>0</v>
+      </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
@@ -3889,7 +3924,7 @@
       </c>
       <c r="BC22" s="8">
         <f>COUNT(B22:AY22)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" s="8">
         <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
@@ -3897,7 +3932,7 @@
       </c>
       <c r="BE22" s="8">
         <f>COUNTIF($B22:$AY22, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="8">
         <f>COUNTIF($B22:$AY22, "&lt;0")</f>
@@ -3905,7 +3940,7 @@
       </c>
       <c r="BG22" s="8">
         <f>SUM(BD22*3)+BE22</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BH22" s="8">
         <f>SUM(B22:AY22)</f>
@@ -3913,13 +3948,13 @@
       </c>
       <c r="BI22" s="10">
         <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3929,38 +3964,34 @@
       <c r="G23" s="7"/>
       <c r="H23" s="53"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7">
+      <c r="J23" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K23" s="48">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
         <v>2</v>
       </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P23" s="48">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="53"/>
       <c r="S23" s="7">
         <v>2</v>
       </c>
-      <c r="T23" s="7">
-        <v>-1</v>
-      </c>
+      <c r="T23" s="7"/>
       <c r="U23" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
+      <c r="W23" s="7">
+        <v>0</v>
+      </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
@@ -3994,7 +4025,7 @@
       </c>
       <c r="BC23" s="8">
         <f>COUNT(B23:AY23)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD23" s="8">
         <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
@@ -4006,7 +4037,7 @@
       </c>
       <c r="BF23" s="8">
         <f>COUNTIF($B23:$AY23, "&lt;0")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG23" s="8">
         <f>SUM(BD23*3)+BE23</f>
@@ -4014,17 +4045,17 @@
       </c>
       <c r="BH23" s="8">
         <f>SUM(B23:AY23)</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="BI23" s="10">
         <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.40740740740740738</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4034,29 +4065,35 @@
       <c r="G24" s="7"/>
       <c r="H24" s="53"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K24" s="48">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
+        <v>2</v>
+      </c>
       <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
         <v>-1</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7">
+      <c r="P24" s="48">
         <v>2</v>
       </c>
-      <c r="Q24" s="7"/>
+      <c r="Q24" s="7">
+        <v>-3</v>
+      </c>
       <c r="R24" s="53"/>
       <c r="S24" s="7">
         <v>2</v>
       </c>
-      <c r="T24" s="7"/>
+      <c r="T24" s="7">
+        <v>-1</v>
+      </c>
       <c r="U24" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -4093,7 +4130,7 @@
       </c>
       <c r="BC24" s="8">
         <f>COUNT(B24:AY24)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD24" s="8">
         <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
@@ -4101,46 +4138,36 @@
       </c>
       <c r="BE24" s="8">
         <f>COUNTIF($B24:$AY24, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF24" s="8">
         <f>COUNTIF($B24:$AY24, "&lt;0")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG24" s="8">
         <f>SUM(BD24*3)+BE24</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH24" s="8">
         <f>SUM(B24:AY24)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="BI24" s="10">
         <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D25" s="48">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7">
-        <v>-1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
+      <c r="G25" s="7"/>
       <c r="H25" s="53"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -4152,11 +4179,19 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="53"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
+      <c r="S25" s="7">
+        <v>2</v>
+      </c>
+      <c r="T25" s="7">
+        <v>-1</v>
+      </c>
       <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="V25" s="7">
+        <v>8</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
@@ -4190,7 +4225,7 @@
       </c>
       <c r="BC25" s="8">
         <f>COUNT(B25:AY25)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD25" s="8">
         <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
@@ -4202,7 +4237,7 @@
       </c>
       <c r="BF25" s="8">
         <f>COUNTIF($B25:$AY25, "&lt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="8">
         <f>SUM(BD25*3)+BE25</f>
@@ -4210,27 +4245,31 @@
       </c>
       <c r="BH25" s="8">
         <f>SUM(B25:AY25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI25" s="10">
         <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="48">
+        <v>90</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>-1</v>
       </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
+      <c r="D26" s="48">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7">
         <v>0</v>
       </c>
@@ -4239,30 +4278,16 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="48">
-        <v>-1</v>
-      </c>
+      <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P26" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>3</v>
-      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
       <c r="R26" s="53"/>
-      <c r="S26" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V26" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -4297,7 +4322,7 @@
       </c>
       <c r="BC26" s="8">
         <f>COUNT(B26:AY26)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD26" s="8">
         <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
@@ -4309,7 +4334,7 @@
       </c>
       <c r="BF26" s="8">
         <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG26" s="8">
         <f>SUM(BD26*3)+BE26</f>
@@ -4317,43 +4342,59 @@
       </c>
       <c r="BH26" s="8">
         <f>SUM(B26:AY26)</f>
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="BI26" s="10">
         <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.23333333333333334</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="48">
+        <v>-1</v>
+      </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
       <c r="H27" s="53"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="48">
+        <v>-1</v>
+      </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="O27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>3</v>
+      </c>
       <c r="R27" s="53"/>
-      <c r="S27" s="7"/>
+      <c r="S27" s="7">
+        <v>-2</v>
+      </c>
       <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="U27" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V27" s="7">
+        <v>-8</v>
+      </c>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
@@ -4388,7 +4429,7 @@
       </c>
       <c r="BC27" s="8">
         <f>COUNT(B27:AY27)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BD27" s="8">
         <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
@@ -4396,35 +4437,39 @@
       </c>
       <c r="BE27" s="8">
         <f>COUNTIF($B27:$AY27, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="8">
         <f>COUNTIF($B27:$AY27, "&lt;0")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG27" s="8">
         <f>SUM(BD27*3)+BE27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH27" s="8">
         <f>SUM(B27:AY27)</f>
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="BI27" s="10">
         <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
-        <v>1</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7">
+        <v>9</v>
+      </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="53"/>
       <c r="I28" s="7"/>
@@ -4437,16 +4482,10 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="53"/>
-      <c r="S28" s="7">
-        <v>2</v>
-      </c>
-      <c r="T28" s="7">
-        <v>-1</v>
-      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="7">
-        <v>8</v>
-      </c>
+      <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -4481,7 +4520,7 @@
       </c>
       <c r="BC28" s="8">
         <f>COUNT(B28:AY28)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD28" s="8">
         <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
@@ -4493,7 +4532,7 @@
       </c>
       <c r="BF28" s="8">
         <f>COUNTIF($B28:$AY28, "&lt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG28" s="8">
         <f>SUM(BD28*3)+BE28</f>
@@ -4501,22 +4540,20 @@
       </c>
       <c r="BH28" s="8">
         <f>SUM(B28:AY28)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI28" s="10">
         <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -4524,9 +4561,7 @@
       <c r="H29" s="53"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7">
-        <v>0</v>
-      </c>
+      <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -4534,13 +4569,15 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="53"/>
-      <c r="S29" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
+      <c r="U29" s="7">
+        <v>4</v>
+      </c>
       <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
@@ -4574,7 +4611,7 @@
       </c>
       <c r="BC29" s="8">
         <f>COUNT(B29:AY29)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD29" s="8">
         <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
@@ -4586,7 +4623,7 @@
       </c>
       <c r="BF29" s="8">
         <f>COUNTIF($B29:$AY29, "&lt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="8">
         <f>SUM(BD29*3)+BE29</f>
@@ -4594,20 +4631,22 @@
       </c>
       <c r="BH29" s="8">
         <f>SUM(B29:AY29)</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI29" s="10">
         <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -4618,25 +4657,19 @@
       <c r="K30" s="7">
         <v>0</v>
       </c>
-      <c r="L30" s="48">
-        <v>-2</v>
-      </c>
-      <c r="M30" s="7">
-        <v>-1</v>
-      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q30" s="7"/>
       <c r="R30" s="53"/>
-      <c r="S30" s="7"/>
+      <c r="S30" s="7">
+        <v>-2</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7">
-        <v>-8</v>
-      </c>
+      <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -4671,7 +4704,7 @@
       </c>
       <c r="BC30" s="8">
         <f>COUNT(B30:AY30)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD30" s="8">
         <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
@@ -4683,7 +4716,7 @@
       </c>
       <c r="BF30" s="8">
         <f>COUNTIF($B30:$AY30, "&lt;0")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG30" s="8">
         <f>SUM(BD30*3)+BE30</f>
@@ -4691,19 +4724,21 @@
       </c>
       <c r="BH30" s="8">
         <f>SUM(B30:AY30)</f>
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="BI30" s="10">
         <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
-        <v>0.26666666666666666</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4722,11 +4757,13 @@
       <c r="R31" s="53"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="7">
-        <v>4</v>
-      </c>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -4760,7 +4797,7 @@
       </c>
       <c r="BC31" s="8">
         <f>COUNT(B31:AY31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD31" s="8">
         <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
@@ -4768,33 +4805,31 @@
       </c>
       <c r="BE31" s="8">
         <f>COUNTIF($B31:$AY31, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="8">
         <f>COUNTIF($B31:$AY31, "&lt;0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG31" s="8">
         <f>SUM(BD31*3)+BE31</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH31" s="8">
         <f>SUM(B31:AY31)</f>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="BI31" s="10">
         <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
-        <v>1</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -4803,13 +4838,21 @@
       <c r="H32" s="53"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="48">
+        <v>-2</v>
+      </c>
+      <c r="M32" s="7">
+        <v>-1</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
+      <c r="Q32" s="7">
+        <v>3</v>
+      </c>
       <c r="R32" s="53"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -4851,7 +4894,7 @@
       </c>
       <c r="BC32" s="8">
         <f>COUNT(B32:AY32)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BD32" s="8">
         <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
@@ -4859,29 +4902,29 @@
       </c>
       <c r="BE32" s="8">
         <f>COUNTIF($B32:$AY32, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="8">
         <f>COUNTIF($B32:$AY32, "&lt;0")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG32" s="8">
         <f>SUM(BD32*3)+BE32</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH32" s="8">
         <f>SUM(B32:AY32)</f>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="BI32" s="10">
         <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
-        <v>0.5</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4901,12 +4944,14 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="53"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="7">
-        <v>-1</v>
-      </c>
+      <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
+      <c r="V33" s="48">
+        <v>-8</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
@@ -4940,7 +4985,7 @@
       </c>
       <c r="BC33" s="8">
         <f>COUNT(B33:AY33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD33" s="8">
         <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
@@ -4948,7 +4993,7 @@
       </c>
       <c r="BE33" s="8">
         <f>COUNTIF($B33:$AY33, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF33" s="8">
         <f>COUNTIF($B33:$AY33, "&lt;0")</f>
@@ -4956,21 +5001,21 @@
       </c>
       <c r="BG33" s="8">
         <f>SUM(BD33*3)+BE33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH33" s="8">
         <f>SUM(B33:AY33)</f>
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="BI33" s="10">
         <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ33" s="10"/>
     </row>
     <row r="34" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5059,7 +5104,7 @@
     </row>
     <row r="35" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5078,10 +5123,10 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="53"/>
-      <c r="S35" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7">
+        <v>-1</v>
+      </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
@@ -5138,7 +5183,7 @@
       </c>
       <c r="BH35" s="8">
         <f>SUM(B35:AY35)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BI35" s="10">
         <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
@@ -5148,7 +5193,7 @@
     </row>
     <row r="36" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5167,12 +5212,12 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="53"/>
-      <c r="S36" s="7"/>
+      <c r="S36" s="7">
+        <v>-2</v>
+      </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="48">
-        <v>-8</v>
-      </c>
+      <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -5227,7 +5272,7 @@
       </c>
       <c r="BH36" s="8">
         <f>SUM(B36:AY36)</f>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="BI36" s="10">
         <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
@@ -5506,8 +5551,8 @@
         <v>18</v>
       </c>
       <c r="W39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNT(W5:W38)</f>
+        <v>20</v>
       </c>
       <c r="X39" s="28">
         <f t="shared" si="0"/>
@@ -6057,7 +6102,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6089,7 +6134,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B3">
@@ -6108,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <f>SUM(C3*3)+D3</f>
+        <f t="shared" ref="G3:G29" si="0">SUM(C3*3)+D3</f>
         <v>6</v>
       </c>
     </row>
@@ -6210,31 +6255,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f>SUM(C8*3)+D8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6249,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <f>SUM(C9*3)+D9</f>
@@ -6258,7 +6303,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6273,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <f>SUM(C10*3)+D10</f>
@@ -6283,7 +6328,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6298,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <f>SUM(C11*3)+D11</f>
@@ -6307,7 +6352,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6503,32 +6548,32 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="G20">
         <f>SUM(C20*3)+D20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6543,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G21">
         <f>SUM(C21*3)+D21</f>
@@ -6553,10 +6598,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6565,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>-2</v>
@@ -6578,7 +6623,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -6593,7 +6638,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G23">
         <f>SUM(C23*3)+D23</f>
@@ -6603,7 +6648,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -6618,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G24">
         <f>SUM(C24*3)+D24</f>
@@ -6628,10 +6673,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6640,10 +6685,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G25">
         <f>SUM(C25*3)+D25</f>
@@ -6703,7 +6748,7 @@
         <v>75</v>
       </c>
       <c r="G28">
-        <f>SUM(C28*3)+D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6712,7 +6757,7 @@
         <v>98</v>
       </c>
       <c r="G29">
-        <f>SUM(C29*3)+D29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6721,7 +6766,7 @@
         <v>19</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="0">SUM(C30*3)+D30</f>
+        <f t="shared" ref="G30:G35" si="1">SUM(C30*3)+D30</f>
         <v>0</v>
       </c>
     </row>
@@ -6730,7 +6775,7 @@
         <v>77</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6739,7 +6784,7 @@
         <v>84</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6748,7 +6793,7 @@
         <v>101</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6757,7 +6802,7 @@
         <v>20</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6766,16 +6811,16 @@
         <v>100</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G29">
-    <sortCondition descending="1" ref="G3:G29"/>
-    <sortCondition descending="1" ref="F3:F29"/>
-    <sortCondition ref="B3:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G27">
+    <sortCondition descending="1" ref="G4:G27"/>
+    <sortCondition descending="1" ref="F4:F27"/>
+    <sortCondition ref="B4:B27"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6790,7 +6835,7 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3:BC36"/>
@@ -7039,7 +7084,7 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="29"/>
       <c r="BA3" s="24">
-        <f t="shared" ref="BA3:BA36" si="0">SUM(B3:AY3)</f>
+        <f>SUM(B3:AY3)</f>
         <v>14</v>
       </c>
       <c r="BB3" s="8">
@@ -7048,41 +7093,41 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="53"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
+      <c r="K4" s="7"/>
       <c r="L4" s="7">
-        <v>4</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M4" s="7"/>
       <c r="N4" s="7">
-        <v>2</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>3</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="53"/>
-      <c r="S4" s="7"/>
+      <c r="S4" s="7">
+        <v>3</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7">
+        <v>3</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -7114,50 +7159,49 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:AY4)</f>
         <v>12</v>
       </c>
       <c r="BB4" s="8">
-        <v>2</v>
-      </c>
-      <c r="BC4" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
       <c r="H5" s="53"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>4</v>
+      </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>2</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="53"/>
-      <c r="S5" s="7">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7">
-        <v>2</v>
-      </c>
-      <c r="U5" s="7">
-        <v>1</v>
-      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -7190,47 +7234,50 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="29"/>
       <c r="BA5" s="24">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(B5:AY5)</f>
+        <v>12</v>
       </c>
       <c r="BB5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>6</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="53"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
-        <v>3</v>
-      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="53"/>
       <c r="S6" s="7">
-        <v>3</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="7">
+        <v>2</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -7263,11 +7310,11 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="29"/>
       <c r="BA6" s="24">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(B6:AY6)</f>
+        <v>11</v>
       </c>
       <c r="BB6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
@@ -7304,7 +7351,9 @@
       <c r="U7" s="7">
         <v>2</v>
       </c>
-      <c r="V7" s="7"/>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
@@ -7336,8 +7385,8 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="29"/>
       <c r="BA7" s="24">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B7:AY7)</f>
+        <v>9</v>
       </c>
       <c r="BB7" s="8">
         <v>1</v>
@@ -7408,7 +7457,7 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:AY8)</f>
         <v>8</v>
       </c>
       <c r="BB8" s="8">
@@ -7487,7 +7536,7 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="29"/>
       <c r="BA9" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AY9)</f>
         <v>8</v>
       </c>
     </row>
@@ -7551,7 +7600,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:AY10)</f>
         <v>7</v>
       </c>
       <c r="BB10" s="8">
@@ -7629,7 +7678,7 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="29"/>
       <c r="BA11" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:AY11)</f>
         <v>7</v>
       </c>
     </row>
@@ -7697,7 +7746,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:AY12)</f>
         <v>6</v>
       </c>
       <c r="BC12" s="8">
@@ -7707,35 +7756,37 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="53"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="53"/>
-      <c r="S13" s="7">
-        <v>1</v>
-      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="V13" s="7">
+        <v>1</v>
+      </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
@@ -7767,35 +7818,34 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="29"/>
       <c r="BA13" s="24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="BB13" s="8">
-        <v>1</v>
+        <f>SUM(B13:AY13)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="53"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -7803,8 +7853,12 @@
       <c r="R14" s="53"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="7"/>
+      <c r="U14" s="7">
+        <v>1</v>
+      </c>
+      <c r="V14" s="7">
+        <v>1</v>
+      </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -7836,41 +7890,38 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="BC14" s="8">
-        <v>1</v>
+        <f>SUM(B14:AY14)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="53"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="53"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -7905,34 +7956,35 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="29"/>
       <c r="BA15" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AY15)</f>
         <v>5</v>
+      </c>
+      <c r="BB15" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
       <c r="H16" s="53"/>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -7940,9 +7992,7 @@
       <c r="R16" s="53"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7">
-        <v>1</v>
-      </c>
+      <c r="U16" s="33"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -7975,8 +8025,11 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="29"/>
       <c r="BA16" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>5</v>
+      </c>
+      <c r="BC16" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
@@ -8041,7 +8094,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="29"/>
       <c r="BA17" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AY17)</f>
         <v>4</v>
       </c>
     </row>
@@ -8105,7 +8158,7 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:AY18)</f>
         <v>4</v>
       </c>
       <c r="BF18" s="24"/>
@@ -8174,7 +8227,7 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="29"/>
       <c r="BA19" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AY19)</f>
         <v>4</v>
       </c>
     </row>
@@ -8242,13 +8295,13 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -8257,24 +8310,24 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="7">
-        <v>2</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7">
-        <v>1</v>
-      </c>
+      <c r="P21" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="53"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="V21" s="7">
+        <v>2</v>
+      </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
@@ -8306,39 +8359,34 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="29"/>
       <c r="BA21" s="24">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BC21" s="8">
-        <v>1</v>
+        <f>SUM(B21:AY21)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7">
-        <v>1</v>
-      </c>
+      <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
       <c r="R22" s="53"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -8375,36 +8423,39 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>3</v>
+      </c>
+      <c r="BC22" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="53"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7">
-        <v>1</v>
-      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
+      <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="7">
+        <v>1</v>
+      </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="53"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -8441,13 +8492,13 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="29"/>
       <c r="BA23" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -8458,20 +8509,22 @@
       <c r="H24" s="53"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
       <c r="R24" s="53"/>
-      <c r="S24" s="7">
-        <v>2</v>
-      </c>
-      <c r="T24" s="7">
-        <v>1</v>
-      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -8505,13 +8558,13 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="29"/>
       <c r="BA24" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AY24)</f>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -8527,13 +8580,15 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7">
-        <v>2</v>
-      </c>
+      <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="53"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
+      <c r="S25" s="7">
+        <v>2</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1</v>
+      </c>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
@@ -8567,8 +8622,8 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="29"/>
       <c r="BA25" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B25:AY25)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
@@ -8599,7 +8654,9 @@
         <v>1</v>
       </c>
       <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="V26" s="7">
+        <v>1</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -8631,8 +8688,8 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="29"/>
       <c r="BA26" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B26:AY26)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
@@ -8693,7 +8750,7 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="29"/>
       <c r="BA27" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>1</v>
       </c>
     </row>
@@ -8755,7 +8812,7 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>1</v>
       </c>
     </row>
@@ -8783,7 +8840,9 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="V29" s="7">
+        <v>1</v>
+      </c>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -8815,13 +8874,13 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="29"/>
       <c r="BA29" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B29:AY29)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8842,8 +8901,10 @@
       <c r="R30" s="53"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="7">
+        <v>1</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -8875,13 +8936,13 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="29"/>
       <c r="BA30" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B30:AY30)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8935,13 +8996,13 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="29"/>
       <c r="BA31" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -8995,13 +9056,13 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="29"/>
       <c r="BA32" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -9055,13 +9116,13 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="29"/>
       <c r="BA33" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -9082,7 +9143,7 @@
       <c r="R34" s="53"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="33"/>
+      <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -9115,7 +9176,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="29"/>
       <c r="BA34" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -9175,7 +9236,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="29"/>
       <c r="BA35" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -9233,7 +9294,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -9327,7 +9388,7 @@
       </c>
       <c r="W38">
         <f>'League Table'!W39</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X38">
         <f>'League Table'!X39</f>
@@ -9439,191 +9500,191 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="U40" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA40" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AN40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AO40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AP40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AR40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AS40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9648,10 +9709,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:BA38"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:BA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -9932,7 +9993,9 @@
       <c r="U5" s="7">
         <v>1</v>
       </c>
-      <c r="V5" s="7"/>
+      <c r="V5" s="7">
+        <v>3</v>
+      </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
@@ -9963,52 +10026,54 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="BA5">
-        <f t="shared" ref="BA5:BA38" si="0">SUM(B5:AY5)</f>
-        <v>17</v>
+        <f>SUM(B5:AY5)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B6" s="47"/>
-      <c r="C6" s="47">
-        <v>1</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47">
+        <v>3</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
       <c r="F6" s="47">
-        <v>1</v>
-      </c>
-      <c r="G6" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="47">
+        <v>1</v>
+      </c>
       <c r="H6" s="55"/>
       <c r="I6" s="47">
-        <v>2</v>
-      </c>
-      <c r="J6" s="47">
         <v>3</v>
       </c>
+      <c r="J6" s="47"/>
       <c r="K6" s="47">
         <v>2</v>
       </c>
       <c r="L6" s="18"/>
-      <c r="M6" s="18">
-        <v>1</v>
-      </c>
-      <c r="N6" s="18">
-        <v>1</v>
-      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
-      <c r="U6" s="18">
-        <v>3</v>
-      </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
@@ -10038,48 +10103,50 @@
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="BA6">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(B6:AY6)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="53"/>
       <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
         <v>3</v>
       </c>
-      <c r="J7" s="7"/>
       <c r="K7" s="7">
         <v>2</v>
       </c>
       <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="M7" s="16">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
       <c r="O7" s="16"/>
-      <c r="P7" s="16">
-        <v>1</v>
-      </c>
+      <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
+      <c r="U7" s="16">
+        <v>3</v>
+      </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -10111,8 +10178,8 @@
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="BA7">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>SUM(B7:AY7)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10151,7 +10218,9 @@
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="7">
+        <v>4</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -10182,8 +10251,8 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="BA8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B8:AY8)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10249,26 +10318,18 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="19"/>
       <c r="BA9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AY9)</f>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:53" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="53"/>
@@ -10277,16 +10338,26 @@
       <c r="K10" s="7"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
       <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+      <c r="P10" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>1</v>
+      </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="V10" s="16">
+        <v>2</v>
+      </c>
+      <c r="W10" s="16">
+        <v>1</v>
+      </c>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -10316,42 +10387,42 @@
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="BA10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:AY10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="53"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7">
-        <v>2</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7">
-        <v>2</v>
-      </c>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7">
-        <v>1</v>
-      </c>
+      <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -10383,27 +10454,25 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B11:AY11)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="54"/>
-      <c r="I12" s="16">
+      <c r="I12" s="16"/>
+      <c r="J12" s="16">
         <v>2</v>
       </c>
-      <c r="J12" s="16"/>
       <c r="K12" s="16">
         <v>1</v>
       </c>
@@ -10411,14 +10480,16 @@
       <c r="M12" s="16"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="16">
+      <c r="P12" s="7">
         <v>2</v>
       </c>
+      <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
+      <c r="U12" s="16">
+        <v>1</v>
+      </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
@@ -10450,34 +10521,38 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:AY12)</f>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="53"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7">
-        <v>4</v>
-      </c>
-      <c r="K13" s="7"/>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
+      <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="7">
+        <v>2</v>
+      </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -10513,13 +10588,13 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B13:AY13)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -10529,24 +10604,20 @@
       <c r="G14" s="7"/>
       <c r="H14" s="53"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>4</v>
+      </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>1</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7">
-        <v>1</v>
-      </c>
+      <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -10580,13 +10651,13 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B14:AY14)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -10598,20 +10669,22 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7">
         <v>1</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1</v>
-      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -10645,7 +10718,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AY15)</f>
         <v>4</v>
       </c>
     </row>
@@ -10710,7 +10783,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>3</v>
       </c>
     </row>
@@ -10775,7 +10848,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AY17)</f>
         <v>3</v>
       </c>
     </row>
@@ -10840,7 +10913,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:AY18)</f>
         <v>3</v>
       </c>
     </row>
@@ -10903,7 +10976,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AY19)</f>
         <v>2</v>
       </c>
     </row>
@@ -10964,7 +11037,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>1</v>
       </c>
     </row>
@@ -11025,7 +11098,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:AY21)</f>
         <v>1</v>
       </c>
     </row>
@@ -11086,7 +11159,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>1</v>
       </c>
     </row>
@@ -11147,7 +11220,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>1</v>
       </c>
     </row>
@@ -11208,7 +11281,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AY24)</f>
         <v>1</v>
       </c>
     </row>
@@ -11269,7 +11342,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AY25)</f>
         <v>1</v>
       </c>
     </row>
@@ -11330,7 +11403,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AY26)</f>
         <v>1</v>
       </c>
     </row>
@@ -11391,7 +11464,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>1</v>
       </c>
     </row>
@@ -11452,7 +11525,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>1</v>
       </c>
     </row>
@@ -11511,7 +11584,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>0</v>
       </c>
     </row>
@@ -11570,7 +11643,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>0</v>
       </c>
     </row>
@@ -11629,7 +11702,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>0</v>
       </c>
     </row>
@@ -11688,7 +11761,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
@@ -11747,7 +11820,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -11806,7 +11879,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -11865,7 +11938,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -11924,7 +11997,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f t="shared" si="0"/>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -11983,7 +12056,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f t="shared" si="0"/>
+        <f>SUM(B37:AY37)</f>
         <v>0</v>
       </c>
     </row>
@@ -12040,7 +12113,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BA38" si="0">SUM(B38:AY38)</f>
         <v>0</v>
       </c>
     </row>
@@ -12236,11 +12309,11 @@
       </c>
       <c r="V41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X41" s="8">
         <f t="shared" si="1"/>
@@ -12356,13 +12429,13 @@
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA38">
-    <sortCondition descending="1" ref="BA5:BA38"/>
-    <sortCondition ref="A5:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA37">
+    <sortCondition descending="1" ref="BA5:BA37"/>
+    <sortCondition ref="A5:A37"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12378,7 +12451,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12977,10 +13050,18 @@
       <c r="A24" s="32">
         <v>22</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>142</v>
+      </c>
       <c r="G24" s="32"/>
       <c r="H24" s="8" t="s">
         <v>183</v>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2B4684-417B-3F4A-9AB4-4F2F31C56A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA34B2F-81BD-984D-AB06-3F011E19831B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="3420" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6580" yWindow="4900" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="199">
   <si>
     <t>WK 1</t>
   </si>
@@ -622,6 +622,21 @@
   </si>
   <si>
     <t>Drew 1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7-2</t>
+  </si>
+  <si>
+    <t>Phantom v Matt B</t>
+  </si>
+  <si>
+    <t>Lost 2-7</t>
+  </si>
+  <si>
+    <t>ZigZag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-1</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1450,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1545,22 +1560,22 @@
         <v>45060</v>
       </c>
       <c r="V2" s="46">
-        <v>45068</v>
+        <v>45067</v>
       </c>
       <c r="W2" s="46">
-        <v>45075</v>
+        <v>45074</v>
       </c>
       <c r="X2" s="46">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="Y2" s="46">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="Z2" s="46">
-        <v>45096</v>
+        <v>45095</v>
       </c>
       <c r="AA2" s="46">
-        <v>45103</v>
+        <v>45102</v>
       </c>
       <c r="AB2" s="46">
         <v>45110</v>
@@ -1935,7 +1950,9 @@
       <c r="W5" s="18">
         <v>0</v>
       </c>
-      <c r="X5" s="18"/>
+      <c r="X5" s="18">
+        <v>5</v>
+      </c>
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
       <c r="AA5" s="18"/>
@@ -1970,11 +1987,11 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
         <f>COUNT(B5:AY5)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD5" s="8">
         <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE5" s="8">
         <f>COUNTIF($B5:$AY5, "0")</f>
@@ -1986,43 +2003,39 @@
       </c>
       <c r="BG5" s="8">
         <f>SUM(BD5*3)+BE5</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BH5" s="8">
         <f>SUM(B5:AY5)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BI5" s="10">
         <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.64912280701754388</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B6" s="31">
         <v>-1</v>
       </c>
       <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31">
         <v>-1</v>
       </c>
-      <c r="D6" s="31">
-        <v>-9</v>
-      </c>
-      <c r="E6" s="31">
-        <v>1</v>
-      </c>
-      <c r="F6" s="57">
-        <v>1</v>
-      </c>
-      <c r="G6" s="31">
+      <c r="G6" s="57">
         <v>0</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="31">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="J6" s="31">
         <v>8</v>
@@ -2040,12 +2053,12 @@
         <v>0</v>
       </c>
       <c r="O6" s="31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P6" s="31">
         <v>2</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="31">
         <v>3</v>
       </c>
       <c r="R6" s="52"/>
@@ -2053,14 +2066,16 @@
         <v>-2</v>
       </c>
       <c r="T6" s="31">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="31">
-        <v>-4</v>
-      </c>
-      <c r="V6" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31">
+        <v>8</v>
+      </c>
       <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
+      <c r="X6" s="31">
+        <v>5</v>
+      </c>
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
@@ -2093,7 +2108,7 @@
       </c>
       <c r="BC6" s="8">
         <f>COUNT(B6:AY6)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD6" s="8">
         <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
@@ -2105,7 +2120,7 @@
       </c>
       <c r="BF6" s="8">
         <f>COUNTIF($B6:$AY6, "&lt;0")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG6" s="8">
         <f>SUM(BD6*3)+BE6</f>
@@ -2113,22 +2128,22 @@
       </c>
       <c r="BH6" s="8">
         <f>SUM(B6:AY6)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BI6" s="10">
         <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.5</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48">
         <v>1</v>
       </c>
       <c r="D7" s="7">
@@ -2138,50 +2153,56 @@
         <v>-1</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="53"/>
-      <c r="I7" s="48">
+      <c r="I7" s="7">
         <v>-7</v>
       </c>
       <c r="J7" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7">
         <v>-2</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="48">
         <v>0</v>
       </c>
       <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="S7" s="7">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7">
         <v>-1</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
       <c r="U7" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V7" s="7">
         <v>8</v>
       </c>
-      <c r="W7" s="48">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7"/>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>5</v>
+      </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -2214,55 +2235,59 @@
       </c>
       <c r="BC7" s="8">
         <f>COUNT(B7:AY7)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD7" s="8">
         <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE7" s="8">
         <f>COUNTIF($B7:$AY7, "0")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF7" s="8">
         <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG7" s="8">
         <f>SUM(BD7*3)+BE7</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BH7" s="8">
         <f>SUM(B7:AY7)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI7" s="10">
         <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.49019607843137253</v>
+        <v>0.45</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B8" s="18">
         <v>-1</v>
       </c>
       <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="G8" s="49">
+      <c r="D8" s="18">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="18">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="J8" s="18">
         <v>8</v>
@@ -2280,12 +2305,12 @@
         <v>0</v>
       </c>
       <c r="O8" s="18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P8" s="18">
         <v>2</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="49">
         <v>3</v>
       </c>
       <c r="R8" s="51"/>
@@ -2293,14 +2318,16 @@
         <v>-2</v>
       </c>
       <c r="T8" s="18">
-        <v>1</v>
-      </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18">
-        <v>8</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="U8" s="18">
+        <v>-4</v>
+      </c>
+      <c r="V8" s="18"/>
       <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
+      <c r="X8" s="18">
+        <v>-5</v>
+      </c>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
@@ -2333,11 +2360,11 @@
       </c>
       <c r="BC8" s="8">
         <f>COUNT(B8:AY8)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BD8" s="8">
         <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE8" s="8">
         <f>COUNTIF($B8:$AY8, "0")</f>
@@ -2345,30 +2372,30 @@
       </c>
       <c r="BF8" s="8">
         <f>COUNTIF($B8:$AY8, "&lt;0")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG8" s="8">
         <f>SUM(BD8*3)+BE8</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BH8" s="8">
         <f>SUM(B8:AY8)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BI8" s="10">
         <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.5</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="50">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="D9" s="16">
@@ -2378,54 +2405,52 @@
         <v>-1</v>
       </c>
       <c r="F9" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G9" s="16">
         <v>0</v>
       </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="16">
+      <c r="I9" s="50">
         <v>-7</v>
       </c>
       <c r="J9" s="16">
-        <v>8</v>
-      </c>
-      <c r="K9" s="16"/>
+        <v>-8</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
       <c r="L9" s="16">
         <v>-2</v>
       </c>
       <c r="M9" s="16">
+        <v>1</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
         <v>-1</v>
       </c>
-      <c r="N9" s="50">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>1</v>
-      </c>
-      <c r="P9" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>-3</v>
-      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="54"/>
-      <c r="S9" s="16">
-        <v>2</v>
-      </c>
+      <c r="S9" s="16"/>
       <c r="T9" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U9" s="16">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V9" s="16">
         <v>8</v>
       </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16"/>
+      <c r="W9" s="50">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>-5</v>
+      </c>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
@@ -2458,7 +2483,7 @@
       </c>
       <c r="BC9" s="8">
         <f>COUNT(B9:AY9)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD9" s="8">
         <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
@@ -2466,31 +2491,31 @@
       </c>
       <c r="BE9" s="8">
         <f>COUNTIF($B9:$AY9, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF9" s="8">
         <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG9" s="8">
         <f>SUM(BD9*3)+BE9</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH9" s="8">
         <f>SUM(B9:AY9)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="10">
         <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.42105263157894735</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="50">
+        <v>22</v>
+      </c>
+      <c r="B10" s="16">
         <v>-1</v>
       </c>
       <c r="C10" s="16">
@@ -2499,18 +2524,20 @@
       <c r="D10" s="16">
         <v>-9</v>
       </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="16"/>
+      <c r="F10" s="50">
         <v>-1</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="16">
+        <v>7</v>
+      </c>
+      <c r="J10" s="16">
+        <v>-8</v>
+      </c>
       <c r="K10" s="16">
         <v>0</v>
       </c>
@@ -2518,27 +2545,29 @@
         <v>2</v>
       </c>
       <c r="M10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="48">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="48">
         <v>-2</v>
       </c>
       <c r="Q10" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R10" s="54"/>
       <c r="S10" s="16">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T10" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U10" s="16">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V10" s="16">
         <v>8</v>
@@ -2546,7 +2575,9 @@
       <c r="W10" s="16">
         <v>0</v>
       </c>
-      <c r="X10" s="16"/>
+      <c r="X10" s="16">
+        <v>5</v>
+      </c>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
@@ -2579,7 +2610,7 @@
       </c>
       <c r="BC10" s="8">
         <f>COUNT(B10:AY10)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD10" s="8">
         <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
@@ -2587,64 +2618,72 @@
       </c>
       <c r="BE10" s="8">
         <f>COUNTIF($B10:$AY10, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF10" s="8">
         <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG10" s="8">
         <f>SUM(BD10*3)+BE10</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH10" s="8">
         <f>SUM(B10:AY10)</f>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="BI10" s="10">
         <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.47058823529411764</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="58"/>
+        <v>106</v>
+      </c>
+      <c r="B11" s="48">
+        <v>-1</v>
+      </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>-9</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-1</v>
+      </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="7">
-        <v>7</v>
-      </c>
-      <c r="J11" s="48">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
       <c r="L11" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M11" s="7">
         <v>-1</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="48">
+        <v>1</v>
+      </c>
       <c r="P11" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>3</v>
+      </c>
       <c r="R11" s="53"/>
-      <c r="S11" s="48">
+      <c r="S11" s="7">
         <v>-2</v>
       </c>
       <c r="T11" s="7">
@@ -2653,11 +2692,15 @@
       <c r="U11" s="7">
         <v>4</v>
       </c>
-      <c r="V11" s="7"/>
+      <c r="V11" s="7">
+        <v>8</v>
+      </c>
       <c r="W11" s="7">
         <v>0</v>
       </c>
-      <c r="X11" s="7"/>
+      <c r="X11" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -2677,7 +2720,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="58"/>
+      <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -2690,7 +2733,7 @@
       </c>
       <c r="BC11" s="8">
         <f>COUNT(B11:AY11)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BD11" s="8">
         <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
@@ -2698,69 +2741,73 @@
       </c>
       <c r="BE11" s="8">
         <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF11" s="8">
         <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG11" s="8">
         <f>SUM(BD11*3)+BE11</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BH11" s="8">
         <f>SUM(B11:AY11)</f>
-        <v>27</v>
+        <v>-2</v>
       </c>
       <c r="BI11" s="10">
         <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.63888888888888884</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B12" s="58"/>
       <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
       </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7">
         <v>0</v>
       </c>
       <c r="H12" s="53"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="7">
+        <v>7</v>
+      </c>
+      <c r="J12" s="48">
+        <v>8</v>
+      </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>-1</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="7">
+      <c r="S12" s="48">
         <v>-2</v>
       </c>
-      <c r="T12" s="48">
-        <v>1</v>
-      </c>
-      <c r="U12" s="7"/>
-      <c r="V12" s="48">
-        <v>8</v>
-      </c>
+      <c r="T12" s="7">
+        <v>1</v>
+      </c>
+      <c r="U12" s="7">
+        <v>4</v>
+      </c>
+      <c r="V12" s="7"/>
       <c r="W12" s="7">
         <v>0</v>
       </c>
@@ -2784,7 +2831,7 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
+      <c r="AR12" s="58"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -2797,7 +2844,7 @@
       </c>
       <c r="BC12" s="8">
         <f>COUNT(B12:AY12)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD12" s="8">
         <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
@@ -2809,7 +2856,7 @@
       </c>
       <c r="BF12" s="8">
         <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG12" s="8">
         <f>SUM(BD12*3)+BE12</f>
@@ -2817,79 +2864,63 @@
       </c>
       <c r="BH12" s="8">
         <f>SUM(B12:AY12)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="BI12" s="10">
         <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.76666666666666672</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B13" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C13" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="48">
-        <v>-1</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
       </c>
       <c r="H13" s="53"/>
-      <c r="I13" s="7">
-        <v>7</v>
-      </c>
-      <c r="J13" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="48">
-        <v>-2</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>-3</v>
-      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="53"/>
       <c r="S13" s="7">
-        <v>2</v>
-      </c>
-      <c r="T13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V13" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T13" s="48">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="48">
         <v>8</v>
       </c>
       <c r="W13" s="7">
         <v>0</v>
       </c>
-      <c r="X13" s="7"/>
+      <c r="X13" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -2922,87 +2953,95 @@
       </c>
       <c r="BC13" s="8">
         <f>COUNT(B13:AY13)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BD13" s="8">
         <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE13" s="8">
         <f>COUNTIF($B13:$AY13, "0")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF13" s="8">
         <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG13" s="8">
         <f>SUM(BD13*3)+BE13</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH13" s="8">
         <f>SUM(B13:AY13)</f>
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="BI13" s="10">
         <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.38596491228070173</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B14" s="7">
         <v>-1</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-9</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>-1</v>
+      </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="53"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="48">
-        <v>-8</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="I14" s="7">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7">
+        <v>8</v>
+      </c>
+      <c r="K14" s="48">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>-2</v>
+      </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7">
-        <v>3</v>
-      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q14" s="7"/>
       <c r="R14" s="53"/>
       <c r="S14" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T14" s="7"/>
-      <c r="U14" s="48">
+        <v>2</v>
+      </c>
+      <c r="T14" s="48">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="7">
         <v>4</v>
       </c>
       <c r="V14" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="W14" s="7">
         <v>0</v>
       </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7">
+        <v>5</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -3035,7 +3074,7 @@
       </c>
       <c r="BC14" s="8">
         <f>COUNT(B14:AY14)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BD14" s="8">
         <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
@@ -3043,85 +3082,81 @@
       </c>
       <c r="BE14" s="8">
         <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF14" s="8">
         <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG14" s="8">
         <f>SUM(BD14*3)+BE14</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BH14" s="8">
         <f>SUM(B14:AY14)</f>
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="BI14" s="10">
         <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.53846153846153844</v>
+        <v>0.43137254901960786</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7">
         <v>-1</v>
       </c>
       <c r="C15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-9</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="53"/>
-      <c r="I15" s="7">
-        <v>7</v>
-      </c>
-      <c r="J15" s="7">
-        <v>8</v>
-      </c>
-      <c r="K15" s="48">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>-2</v>
-      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="48">
+        <v>-8</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="7">
         <v>1</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q15" s="7"/>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <v>3</v>
+      </c>
       <c r="R15" s="53"/>
       <c r="S15" s="7">
-        <v>2</v>
-      </c>
-      <c r="T15" s="48">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="48">
         <v>4</v>
       </c>
       <c r="V15" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W15" s="7">
         <v>0</v>
       </c>
-      <c r="X15" s="7"/>
+      <c r="X15" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
@@ -3154,85 +3189,79 @@
       </c>
       <c r="BC15" s="8">
         <f>COUNT(B15:AY15)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD15" s="8">
         <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE15" s="8">
         <f>COUNTIF($B15:$AY15, "0")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF15" s="8">
         <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG15" s="8">
         <f>SUM(BD15*3)+BE15</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BH15" s="8">
         <f>SUM(B15:AY15)</f>
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="BI15" s="10">
         <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="48">
+        <v>1</v>
+      </c>
       <c r="F16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="53"/>
-      <c r="I16" s="48">
-        <v>7</v>
-      </c>
-      <c r="J16" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="I16" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
         <v>-2</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="53"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="S16" s="7">
+        <v>2</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="48">
+        <v>5</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -3265,44 +3294,48 @@
       </c>
       <c r="BC16" s="8">
         <f>COUNT(B16:AY16)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD16" s="8">
         <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE16" s="8">
         <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="8">
         <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG16" s="8">
         <f>SUM(BD16*3)+BE16</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BH16" s="8">
         <f>SUM(B16:AY16)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BI16" s="10">
         <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.5</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="7">
+        <v>-1</v>
+      </c>
       <c r="C17" s="7">
         <v>-1</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
       <c r="F17" s="7">
         <v>-1</v>
       </c>
@@ -3310,42 +3343,44 @@
         <v>0</v>
       </c>
       <c r="H17" s="53"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>8</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="48">
+      <c r="I17" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="48">
+        <v>2</v>
+      </c>
+      <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7">
-        <v>-3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="53"/>
-      <c r="S17" s="7">
-        <v>2</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7">
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="48">
         <v>-4</v>
       </c>
       <c r="V17" s="7">
         <v>-8</v>
       </c>
-      <c r="W17" s="48">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7"/>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>5</v>
+      </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -3378,7 +3413,7 @@
       </c>
       <c r="BC17" s="8">
         <f>COUNT(B17:AY17)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD17" s="8">
         <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
@@ -3386,74 +3421,76 @@
       </c>
       <c r="BE17" s="8">
         <f>COUNTIF($B17:$AY17, "0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF17" s="8">
         <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG17" s="8">
         <f>SUM(BD17*3)+BE17</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BH17" s="8">
         <f>SUM(B17:AY17)</f>
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="BI17" s="10">
         <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.46153846153846156</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
       <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
         <v>-1</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="D18" s="7">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
+        <v>-1</v>
+      </c>
       <c r="G18" s="7">
         <v>0</v>
       </c>
       <c r="H18" s="53"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="48">
-        <v>-1</v>
+      <c r="I18" s="48">
+        <v>7</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R18" s="53"/>
-      <c r="S18" s="7">
-        <v>2</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1</v>
-      </c>
-      <c r="U18" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V18" s="7">
-        <v>8</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0</v>
-      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -3487,7 +3524,7 @@
       </c>
       <c r="BC18" s="8">
         <f>COUNT(B18:AY18)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD18" s="8">
         <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
@@ -3495,7 +3532,7 @@
       </c>
       <c r="BE18" s="8">
         <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF18" s="8">
         <f>COUNTIF($B18:$AY18, "&lt;0")</f>
@@ -3503,48 +3540,54 @@
       </c>
       <c r="BG18" s="8">
         <f>SUM(BD18*3)+BE18</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BH18" s="8">
         <f>SUM(B18:AY18)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI18" s="10">
         <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.51515151515151514</v>
+        <v>0.5</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="48">
-        <v>1</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
       <c r="H19" s="53"/>
-      <c r="I19" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>8</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q19" s="7"/>
+      <c r="M19" s="48">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
+        <v>-3</v>
+      </c>
       <c r="R19" s="53"/>
       <c r="S19" s="7">
         <v>2</v>
@@ -3552,12 +3595,18 @@
       <c r="T19" s="7">
         <v>1</v>
       </c>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7"/>
+      <c r="U19" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V19" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W19" s="48">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -3590,7 +3639,7 @@
       </c>
       <c r="BC19" s="8">
         <f>COUNT(B19:AY19)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD19" s="8">
         <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
@@ -3598,78 +3647,70 @@
       </c>
       <c r="BE19" s="8">
         <f>COUNTIF($B19:$AY19, "0")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF19" s="8">
         <f>COUNTIF($B19:$AY19, "&lt;0")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG19" s="8">
         <f>SUM(BD19*3)+BE19</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BH19" s="8">
         <f>SUM(B19:AY19)</f>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="BI19" s="10">
         <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.66666666666666663</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="7">
-        <v>-1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
         <v>-1</v>
       </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7">
         <v>0</v>
       </c>
       <c r="H20" s="53"/>
-      <c r="I20" s="7">
-        <v>-7</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="48">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="48">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R20" s="53"/>
+      <c r="S20" s="7">
         <v>2</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="48">
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
+      <c r="U20" s="7">
         <v>-4</v>
       </c>
       <c r="V20" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W20" s="7">
         <v>0</v>
@@ -3707,75 +3748,67 @@
       </c>
       <c r="BC20" s="8">
         <f>COUNT(B20:AY20)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD20" s="8">
         <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE20" s="8">
         <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF20" s="8">
         <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG20" s="8">
         <f>SUM(BD20*3)+BE20</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BH20" s="8">
         <f>SUM(B20:AY20)</f>
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="BI20" s="10">
         <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.35555555555555557</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
+        <v>83</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K21" s="48">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
         <v>-1</v>
       </c>
-      <c r="D21" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="48">
-        <v>0</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="P21" s="7">
+        <v>2</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="53"/>
-      <c r="S21" s="48">
+      <c r="S21" s="7">
         <v>2</v>
       </c>
-      <c r="T21" s="7">
-        <v>-1</v>
-      </c>
+      <c r="T21" s="7"/>
       <c r="U21" s="7">
         <v>4</v>
       </c>
@@ -3783,7 +3816,9 @@
       <c r="W21" s="7">
         <v>0</v>
       </c>
-      <c r="X21" s="7"/>
+      <c r="X21" s="7">
+        <v>5</v>
+      </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -3816,7 +3851,7 @@
       </c>
       <c r="BC21" s="8">
         <f>COUNT(B21:AY21)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD21" s="8">
         <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
@@ -3828,7 +3863,7 @@
       </c>
       <c r="BF21" s="8">
         <f>COUNTIF($B21:$AY21, "&lt;0")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG21" s="8">
         <f>SUM(BD21*3)+BE21</f>
@@ -3836,61 +3871,65 @@
       </c>
       <c r="BH21" s="8">
         <f>SUM(B21:AY21)</f>
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="BI21" s="10">
         <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.42424242424242425</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="58">
-        <v>1</v>
-      </c>
-      <c r="C22" s="48">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
         <v>-1</v>
       </c>
       <c r="D22" s="7">
         <v>-9</v>
       </c>
       <c r="E22" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="48">
+        <v>0</v>
+      </c>
       <c r="H22" s="53"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I22" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7">
-        <v>2</v>
-      </c>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q22" s="48">
-        <v>-3</v>
-      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
       <c r="R22" s="53"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
+      <c r="S22" s="48">
+        <v>2</v>
+      </c>
+      <c r="T22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="7">
+        <v>4</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7">
         <v>0</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="X22" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -3910,7 +3949,7 @@
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
-      <c r="AR22" s="58"/>
+      <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
@@ -3918,13 +3957,12 @@
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
-      <c r="AZ22" s="5"/>
       <c r="BA22" s="34">
         <v>18</v>
       </c>
       <c r="BC22" s="8">
         <f>COUNT(B22:AY22)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD22" s="8">
         <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
@@ -3932,62 +3970,68 @@
       </c>
       <c r="BE22" s="8">
         <f>COUNTIF($B22:$AY22, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF22" s="8">
         <f>COUNTIF($B22:$AY22, "&lt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG22" s="8">
         <f>SUM(BD22*3)+BE22</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BH22" s="8">
         <f>SUM(B22:AY22)</f>
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="BI22" s="10">
         <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.43333333333333335</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B23" s="58">
+        <v>1</v>
+      </c>
+      <c r="C23" s="48">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="53"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7">
         <v>-8</v>
       </c>
-      <c r="K23" s="48">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
-        <v>-1</v>
-      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <v>2</v>
+      </c>
+      <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>-3</v>
+      </c>
       <c r="R23" s="53"/>
-      <c r="S23" s="7">
-        <v>2</v>
-      </c>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="7">
-        <v>4</v>
-      </c>
+      <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7">
         <v>0</v>
@@ -4012,7 +4056,7 @@
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
+      <c r="AR23" s="58"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -4020,36 +4064,37 @@
       <c r="AW23" s="7"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
+      <c r="AZ23" s="5"/>
       <c r="BA23" s="34">
         <v>19</v>
       </c>
       <c r="BC23" s="8">
         <f>COUNT(B23:AY23)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD23" s="8">
         <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE23" s="8">
         <f>COUNTIF($B23:$AY23, "0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="8">
         <f>COUNTIF($B23:$AY23, "&lt;0")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG23" s="8">
         <f>SUM(BD23*3)+BE23</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BH23" s="8">
         <f>SUM(B23:AY23)</f>
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="BI23" s="10">
         <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.52380952380952384</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -4097,7 +4142,9 @@
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="48">
+        <v>-5</v>
+      </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -4130,7 +4177,7 @@
       </c>
       <c r="BC24" s="8">
         <f>COUNT(B24:AY24)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD24" s="8">
         <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
@@ -4142,7 +4189,7 @@
       </c>
       <c r="BF24" s="8">
         <f>COUNTIF($B24:$AY24, "&lt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG24" s="8">
         <f>SUM(BD24*3)+BE24</f>
@@ -4150,17 +4197,17 @@
       </c>
       <c r="BH24" s="8">
         <f>SUM(B24:AY24)</f>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="BI24" s="10">
         <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
-        <v>0.40740740740740738</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4179,20 +4226,18 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="53"/>
-      <c r="S25" s="7">
-        <v>2</v>
-      </c>
-      <c r="T25" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7">
-        <v>8</v>
-      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7">
+        <v>4</v>
+      </c>
+      <c r="V25" s="7"/>
       <c r="W25" s="7">
         <v>0</v>
       </c>
-      <c r="X25" s="7"/>
+      <c r="X25" s="7">
+        <v>5</v>
+      </c>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -4225,7 +4270,7 @@
       </c>
       <c r="BC25" s="8">
         <f>COUNT(B25:AY25)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD25" s="8">
         <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
@@ -4237,7 +4282,7 @@
       </c>
       <c r="BF25" s="8">
         <f>COUNTIF($B25:$AY25, "&lt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="8">
         <f>SUM(BD25*3)+BE25</f>
@@ -4249,30 +4294,20 @@
       </c>
       <c r="BI25" s="10">
         <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D26" s="48">
-        <v>9</v>
-      </c>
-      <c r="E26" s="7">
-        <v>-1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="53"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -4284,11 +4319,19 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="53"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
+      <c r="S26" s="7">
+        <v>2</v>
+      </c>
+      <c r="T26" s="7">
+        <v>-1</v>
+      </c>
       <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
+      <c r="V26" s="7">
+        <v>8</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
@@ -4322,7 +4365,7 @@
       </c>
       <c r="BC26" s="8">
         <f>COUNT(B26:AY26)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD26" s="8">
         <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
@@ -4334,7 +4377,7 @@
       </c>
       <c r="BF26" s="8">
         <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="8">
         <f>SUM(BD26*3)+BE26</f>
@@ -4342,27 +4385,31 @@
       </c>
       <c r="BH26" s="8">
         <f>SUM(B26:AY26)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI26" s="10">
         <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="48">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
         <v>-1</v>
       </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
+      <c r="D27" s="48">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7">
         <v>0</v>
       </c>
@@ -4371,30 +4418,16 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="48">
-        <v>-1</v>
-      </c>
+      <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P27" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>3</v>
-      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
       <c r="R27" s="53"/>
-      <c r="S27" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V27" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
@@ -4429,7 +4462,7 @@
       </c>
       <c r="BC27" s="8">
         <f>COUNT(B27:AY27)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD27" s="8">
         <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
@@ -4441,7 +4474,7 @@
       </c>
       <c r="BF27" s="8">
         <f>COUNTIF($B27:$AY27, "&lt;0")</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG27" s="8">
         <f>SUM(BD27*3)+BE27</f>
@@ -4449,45 +4482,63 @@
       </c>
       <c r="BH27" s="8">
         <f>SUM(B27:AY27)</f>
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="BI27" s="10">
         <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
-        <v>0.23333333333333334</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7">
-        <v>9</v>
-      </c>
-      <c r="E28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="48">
+        <v>-1</v>
+      </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
       <c r="H28" s="53"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="48">
+        <v>-1</v>
+      </c>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="O28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>3</v>
+      </c>
       <c r="R28" s="53"/>
-      <c r="S28" s="7"/>
+      <c r="S28" s="7">
+        <v>-2</v>
+      </c>
       <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="U28" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V28" s="7">
+        <v>-8</v>
+      </c>
       <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -4520,7 +4571,7 @@
       </c>
       <c r="BC28" s="8">
         <f>COUNT(B28:AY28)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BD28" s="8">
         <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
@@ -4528,35 +4579,39 @@
       </c>
       <c r="BE28" s="8">
         <f>COUNTIF($B28:$AY28, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="8">
         <f>COUNTIF($B28:$AY28, "&lt;0")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BG28" s="8">
         <f>SUM(BD28*3)+BE28</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH28" s="8">
         <f>SUM(B28:AY28)</f>
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="BI28" s="10">
         <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
-        <v>1</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7">
+        <v>9</v>
+      </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="53"/>
       <c r="I29" s="7"/>
@@ -4571,13 +4626,9 @@
       <c r="R29" s="53"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7">
-        <v>4</v>
-      </c>
+      <c r="U29" s="7"/>
       <c r="V29" s="7"/>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
+      <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
@@ -4615,11 +4666,11 @@
       </c>
       <c r="BD29" s="8">
         <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE29" s="8">
         <f>COUNTIF($B29:$AY29, "0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="8">
         <f>COUNTIF($B29:$AY29, "&lt;0")</f>
@@ -4627,15 +4678,15 @@
       </c>
       <c r="BG29" s="8">
         <f>SUM(BD29*3)+BE29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH29" s="8">
         <f>SUM(B29:AY29)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BI29" s="10">
         <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
@@ -4734,11 +4785,9 @@
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4758,13 +4807,15 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7">
+      <c r="V31" s="48">
         <v>-8</v>
       </c>
       <c r="W31" s="7">
         <v>0</v>
       </c>
-      <c r="X31" s="7"/>
+      <c r="X31" s="7">
+        <v>5</v>
+      </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -4817,7 +4868,7 @@
       </c>
       <c r="BH31" s="8">
         <f>SUM(B31:AY31)</f>
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="BI31" s="10">
         <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
@@ -4924,9 +4975,11 @@
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4946,13 +4999,15 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="48">
+      <c r="V33" s="7">
         <v>-8</v>
       </c>
       <c r="W33" s="7">
         <v>0</v>
       </c>
-      <c r="X33" s="7"/>
+      <c r="X33" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
@@ -4985,11 +5040,11 @@
       </c>
       <c r="BC33" s="8">
         <f>COUNT(B33:AY33)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD33" s="8">
         <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE33" s="8">
         <f>COUNTIF($B33:$AY33, "0")</f>
@@ -4997,19 +5052,19 @@
       </c>
       <c r="BF33" s="8">
         <f>COUNTIF($B33:$AY33, "&lt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG33" s="8">
         <f>SUM(BD33*3)+BE33</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH33" s="8">
         <f>SUM(B33:AY33)</f>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="BI33" s="10">
         <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ33" s="10"/>
     </row>
@@ -5556,7 +5611,7 @@
       </c>
       <c r="X39" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y39" s="28">
         <f t="shared" si="0"/>
@@ -5738,7 +5793,12 @@
       <c r="V40" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="X40" s="8"/>
+      <c r="W40" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="X40" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="40"/>
       <c r="AA40" s="13"/>
@@ -6101,8 +6161,8 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G27"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6177,7 +6237,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <f>SUM(C4*3)+D4</f>
+        <f t="shared" ref="G4:G27" si="1">SUM(C4*3)+D4</f>
         <v>6</v>
       </c>
     </row>
@@ -6201,7 +6261,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <f>SUM(C5*3)+D5</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -6225,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>SUM(C6*3)+D6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -6249,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f>SUM(C7*3)+D7</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -6273,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f>SUM(C8*3)+D8</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -6297,7 +6357,7 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <f>SUM(C9*3)+D9</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6321,7 +6381,7 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <f>SUM(C10*3)+D10</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H10" s="24"/>
@@ -6331,7 +6391,7 @@
         <v>156</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6340,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G11">
-        <f>SUM(C11*3)+D11</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6358,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6367,11 +6427,11 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <f>SUM(C12*3)+D12</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6394,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>SUM(C13*3)+D13</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H13" s="24"/>
@@ -6419,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>SUM(C14*3)+D14</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6443,7 +6503,7 @@
         <v>-2</v>
       </c>
       <c r="G15">
-        <f>SUM(C15*3)+D15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6467,7 +6527,7 @@
         <v>-4</v>
       </c>
       <c r="G16">
-        <f>SUM(C16*3)+D16</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6491,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>SUM(C17*3)+D17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K17" s="37"/>
@@ -6516,7 +6576,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <f>SUM(C18*3)+D18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K18" s="37"/>
@@ -6541,7 +6601,7 @@
         <v>-2</v>
       </c>
       <c r="G19">
-        <f>SUM(C19*3)+D19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K19" s="37"/>
@@ -6566,7 +6626,7 @@
         <v>-8</v>
       </c>
       <c r="G20">
-        <f>SUM(C20*3)+D20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K20" s="38"/>
@@ -6591,7 +6651,7 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <f>SUM(C21*3)+D21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="37"/>
@@ -6616,7 +6676,7 @@
         <v>-2</v>
       </c>
       <c r="G22">
-        <f>SUM(C22*3)+D22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="37"/>
@@ -6641,7 +6701,7 @@
         <v>-2</v>
       </c>
       <c r="G23">
-        <f>SUM(C23*3)+D23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="37"/>
@@ -6666,7 +6726,7 @@
         <v>-3</v>
       </c>
       <c r="G24">
-        <f>SUM(C24*3)+D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="37"/>
@@ -6691,7 +6751,7 @@
         <v>-4</v>
       </c>
       <c r="G25">
-        <f>SUM(C25*3)+D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6715,7 +6775,7 @@
         <v>-8</v>
       </c>
       <c r="G26">
-        <f>SUM(C26*3)+D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6739,7 +6799,7 @@
         <v>-9</v>
       </c>
       <c r="G27">
-        <f>SUM(C27*3)+D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6766,7 +6826,7 @@
         <v>19</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="1">SUM(C30*3)+D30</f>
+        <f t="shared" ref="G30:G35" si="2">SUM(C30*3)+D30</f>
         <v>0</v>
       </c>
     </row>
@@ -6775,7 +6835,7 @@
         <v>77</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6784,7 +6844,7 @@
         <v>84</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6793,7 +6853,7 @@
         <v>101</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6802,7 +6862,7 @@
         <v>20</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6811,7 +6871,7 @@
         <v>100</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6838,7 +6898,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC36"/>
+      <selection pane="bottomRight" activeCell="AS24" sqref="AS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7354,7 +7414,9 @@
       <c r="V7" s="7">
         <v>1</v>
       </c>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -7386,7 +7448,7 @@
       <c r="AZ7" s="29"/>
       <c r="BA7" s="24">
         <f>SUM(B7:AY7)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" s="8">
         <v>1</v>
@@ -7397,36 +7459,48 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="53"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="53"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>1</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -7458,51 +7532,38 @@
       <c r="AZ8" s="29"/>
       <c r="BA8" s="24">
         <f>SUM(B8:AY8)</f>
-        <v>8</v>
-      </c>
-      <c r="BB8" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="53"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="53"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7">
-        <v>1</v>
-      </c>
+      <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -7538,6 +7599,9 @@
       <c r="BA9" s="24">
         <f>SUM(B9:AY9)</f>
         <v>8</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -7612,17 +7676,13 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="53"/>
       <c r="I11" s="7"/>
@@ -7630,24 +7690,22 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="7">
-        <v>1</v>
-      </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="V11" s="7">
+        <v>2</v>
+      </c>
+      <c r="W11" s="7">
+        <v>3</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
@@ -7681,10 +7739,13 @@
         <f>SUM(B11:AY11)</f>
         <v>7</v>
       </c>
+      <c r="BB11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -7692,26 +7753,30 @@
         <v>1</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="53"/>
-      <c r="I12" s="7">
-        <v>2</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7">
-        <v>2</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
       <c r="R12" s="53"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -7747,10 +7812,7 @@
       <c r="AZ12" s="29"/>
       <c r="BA12" s="24">
         <f>SUM(B12:AY12)</f>
-        <v>6</v>
-      </c>
-      <c r="BC12" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF12" s="24"/>
     </row>
@@ -7787,7 +7849,9 @@
       <c r="V13" s="7">
         <v>1</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="7">
+        <v>1</v>
+      </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -7819,46 +7883,42 @@
       <c r="AZ13" s="29"/>
       <c r="BA13" s="24">
         <f>SUM(B13:AY13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
       <c r="H14" s="53"/>
       <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7">
+        <v>2</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="53"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7">
-        <v>1</v>
-      </c>
-      <c r="V14" s="7">
-        <v>1</v>
-      </c>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -7893,10 +7953,13 @@
         <f>SUM(B14:AY14)</f>
         <v>6</v>
       </c>
+      <c r="BC14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7905,26 +7968,32 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="53"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
       <c r="M15" s="7">
-        <v>3</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="53"/>
-      <c r="S15" s="7">
-        <v>1</v>
-      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="U15" s="7">
+        <v>1</v>
+      </c>
+      <c r="V15" s="7">
+        <v>1</v>
+      </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
@@ -7957,42 +8026,39 @@
       <c r="AZ15" s="29"/>
       <c r="BA15" s="24">
         <f>SUM(B15:AY15)</f>
-        <v>5</v>
-      </c>
-      <c r="BB15" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="53"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="53"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
       <c r="T16" s="7"/>
-      <c r="U16" s="33"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -8028,30 +8094,30 @@
         <f>SUM(B16:AY16)</f>
         <v>5</v>
       </c>
-      <c r="BC16" s="8">
+      <c r="BB16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
       <c r="H17" s="53"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -8061,7 +8127,7 @@
       <c r="R17" s="53"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="U17" s="33"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -8095,39 +8161,48 @@
       <c r="AZ17" s="29"/>
       <c r="BA17" s="24">
         <f>SUM(B17:AY17)</f>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="BC17" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="53"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="7">
-        <v>3</v>
-      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="53"/>
-      <c r="S18" s="7"/>
+      <c r="S18" s="7">
+        <v>1</v>
+      </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="W18" s="7">
+        <v>1</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -8159,40 +8234,38 @@
       <c r="AZ18" s="29"/>
       <c r="BA18" s="24">
         <f>SUM(B18:AY18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF18" s="24"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="53"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="53"/>
-      <c r="S19" s="7">
-        <v>1</v>
-      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -8233,7 +8306,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -8242,14 +8315,14 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="53"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7">
+        <v>3</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -8257,12 +8330,8 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="53"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7">
-        <v>1</v>
-      </c>
-      <c r="U20" s="7">
-        <v>1</v>
-      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -8301,14 +8370,18 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
       <c r="H21" s="53"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -8317,17 +8390,17 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7">
-        <v>2</v>
-      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="53"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7">
-        <v>2</v>
-      </c>
+      <c r="T21" s="7">
+        <v>1</v>
+      </c>
+      <c r="U21" s="7">
+        <v>1</v>
+      </c>
+      <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
@@ -8694,7 +8767,7 @@
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8711,15 +8784,17 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="53"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
+      <c r="V27" s="7">
+        <v>1</v>
+      </c>
+      <c r="W27" s="7">
+        <v>2</v>
+      </c>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
@@ -8751,12 +8826,12 @@
       <c r="AZ27" s="29"/>
       <c r="BA27" s="24">
         <f>SUM(B27:AY27)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -8775,13 +8850,15 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="53"/>
-      <c r="S28" s="7">
-        <v>1</v>
-      </c>
+      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="7">
+        <v>1</v>
+      </c>
+      <c r="W28" s="7">
+        <v>1</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -8813,12 +8890,12 @@
       <c r="AZ28" s="29"/>
       <c r="BA28" s="24">
         <f>SUM(B28:AY28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -8835,14 +8912,14 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="7">
+        <v>1</v>
+      </c>
       <c r="R29" s="53"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7">
-        <v>1</v>
-      </c>
+      <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -8880,7 +8957,7 @@
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8899,12 +8976,12 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="53"/>
-      <c r="S30" s="7"/>
+      <c r="S30" s="7">
+        <v>1</v>
+      </c>
       <c r="T30" s="7"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="7">
-        <v>1</v>
-      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -9392,7 +9469,7 @@
       </c>
       <c r="X38">
         <f>'League Table'!X39</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y38">
         <f>'League Table'!Y39</f>
@@ -9585,7 +9662,7 @@
       </c>
       <c r="W40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X40">
         <f t="shared" si="0"/>
@@ -9709,10 +9786,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:BA37"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10026,7 +10103,7 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="BA5">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
         <v>20</v>
       </c>
     </row>
@@ -10074,7 +10151,9 @@
       <c r="W6" s="18">
         <v>1</v>
       </c>
-      <c r="X6" s="18"/>
+      <c r="X6" s="18">
+        <v>1</v>
+      </c>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
@@ -10103,8 +10182,8 @@
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="BA6">
-        <f>SUM(B6:AY6)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
@@ -10149,7 +10228,9 @@
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
+      <c r="X7" s="16">
+        <v>1</v>
+      </c>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
@@ -10178,8 +10259,8 @@
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
       <c r="BA7">
-        <f>SUM(B7:AY7)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10251,7 +10332,7 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="BA8">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -10318,7 +10399,7 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="19"/>
       <c r="BA9">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -10387,7 +10468,7 @@
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
       <c r="BA10">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -10454,7 +10535,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -10492,7 +10573,9 @@
       </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="16">
+        <v>3</v>
+      </c>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
@@ -10521,8 +10604,8 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f>SUM(B12:AY12)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
@@ -10588,7 +10671,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -10651,7 +10734,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10718,7 +10801,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -10783,7 +10866,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -10848,7 +10931,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -10884,7 +10967,9 @@
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7">
+        <v>1</v>
+      </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -10913,8 +10998,8 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f>SUM(B18:AY18)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
@@ -10947,7 +11032,9 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -10976,8 +11063,8 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f>SUM(B19:AY19)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
@@ -11037,7 +11124,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11098,7 +11185,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11159,7 +11246,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11220,7 +11307,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11281,7 +11368,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11342,7 +11429,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11403,7 +11490,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11464,7 +11551,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11525,7 +11612,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11584,7 +11671,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11614,7 +11701,9 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
+      <c r="X30" s="7">
+        <v>2</v>
+      </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -11643,8 +11732,8 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f>SUM(B30:AY30)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
@@ -11702,7 +11791,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11761,7 +11850,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11820,7 +11909,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11879,7 +11968,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11938,7 +12027,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11997,7 +12086,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12056,7 +12145,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12113,7 +12202,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" ref="BA38" si="0">SUM(B38:AY38)</f>
+        <f t="shared" ref="BA38" si="1">SUM(B38:AY38)</f>
         <v>0</v>
       </c>
     </row>
@@ -12228,208 +12317,208 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="1">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="2">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
+        <f t="shared" ref="AI41:AX41" si="3">SUM(AI5:AI39)</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AV41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AX41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="3">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="4">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -12451,7 +12540,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12610,7 +12699,7 @@
         <v>119</v>
       </c>
       <c r="I9" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>118</v>
@@ -12622,7 +12711,7 @@
         <v>119</v>
       </c>
       <c r="N9" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -13016,7 +13105,9 @@
       <c r="H22" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="M22" s="8" t="s">
         <v>138</v>
       </c>
@@ -13075,11 +13166,22 @@
       <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="G25" s="32"/>
+      <c r="H25" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="M25" s="8" t="s">
         <v>178</v>
@@ -13112,6 +13214,9 @@
       <c r="M27" s="8" t="s">
         <v>183</v>
       </c>
+      <c r="N27" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
@@ -13136,7 +13241,9 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="K29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="32">

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA34B2F-81BD-984D-AB06-3F011E19831B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1762553B-AADE-6D42-8AD8-EB903519B719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="4900" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1880" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Board Room'!$A$1:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Captains!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'League Table'!$A$3:$BJ$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'League Table'!$A$3:$BJ$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="202">
   <si>
     <t>WK 1</t>
   </si>
@@ -637,6 +637,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 1-1</t>
+  </si>
+  <si>
+    <t>DAY OFF DICKY</t>
+  </si>
+  <si>
+    <t>Flo v Dom</t>
+  </si>
+  <si>
+    <t>DAY OFF DICKIE</t>
   </si>
 </sst>
 </file>
@@ -1444,13 +1453,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BJ73"/>
+  <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
+      <selection pane="bottomRight" activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1578,76 +1587,76 @@
         <v>45102</v>
       </c>
       <c r="AB2" s="46">
-        <v>45110</v>
+        <v>45109</v>
       </c>
       <c r="AC2" s="46">
-        <v>45117</v>
+        <v>45116</v>
       </c>
       <c r="AD2" s="46">
-        <v>45124</v>
+        <v>45123</v>
       </c>
       <c r="AE2" s="46">
-        <v>45131</v>
+        <v>45130</v>
       </c>
       <c r="AF2" s="46">
-        <v>45138</v>
+        <v>45137</v>
       </c>
       <c r="AG2" s="46">
-        <v>45145</v>
+        <v>45144</v>
       </c>
       <c r="AH2" s="46">
-        <v>45152</v>
+        <v>45151</v>
       </c>
       <c r="AI2" s="46">
-        <v>45159</v>
+        <v>45158</v>
       </c>
       <c r="AJ2" s="46">
-        <v>45166</v>
+        <v>45165</v>
       </c>
       <c r="AK2" s="46">
-        <v>45173</v>
+        <v>45172</v>
       </c>
       <c r="AL2" s="46">
-        <v>45180</v>
+        <v>45179</v>
       </c>
       <c r="AM2" s="46">
-        <v>45187</v>
+        <v>45186</v>
       </c>
       <c r="AN2" s="46">
-        <v>45194</v>
+        <v>45193</v>
       </c>
       <c r="AO2" s="46">
-        <v>45201</v>
+        <v>45200</v>
       </c>
       <c r="AP2" s="46">
-        <v>45208</v>
+        <v>45207</v>
       </c>
       <c r="AQ2" s="46">
-        <v>45215</v>
+        <v>45214</v>
       </c>
       <c r="AR2" s="46">
-        <v>45222</v>
+        <v>45221</v>
       </c>
       <c r="AS2" s="46">
-        <v>45229</v>
+        <v>45228</v>
       </c>
       <c r="AT2" s="46">
-        <v>45236</v>
+        <v>45235</v>
       </c>
       <c r="AU2" s="46">
-        <v>45243</v>
+        <v>45242</v>
       </c>
       <c r="AV2" s="46">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="AW2" s="46">
-        <v>45257</v>
+        <v>45256</v>
       </c>
       <c r="AX2" s="46">
-        <v>45264</v>
+        <v>45263</v>
       </c>
       <c r="AY2" s="46">
-        <v>45271</v>
+        <v>45270</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1953,7 +1962,9 @@
       <c r="X5" s="18">
         <v>5</v>
       </c>
-      <c r="Y5" s="18"/>
+      <c r="Y5" s="18">
+        <v>0</v>
+      </c>
       <c r="Z5" s="18"/>
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
@@ -1986,32 +1997,32 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f>COUNT(B5:AY5)</f>
-        <v>20</v>
+        <f t="shared" ref="BC5:BC39" si="0">COUNT(B5:AY5)</f>
+        <v>21</v>
       </c>
       <c r="BD5" s="8">
-        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <f t="shared" ref="BD5:BD39" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
         <v>12</v>
       </c>
       <c r="BE5" s="8">
-        <f>COUNTIF($B5:$AY5, "0")</f>
+        <f t="shared" ref="BE5:BE39" si="2">COUNTIF($B5:$AY5, "0")</f>
+        <v>5</v>
+      </c>
+      <c r="BF5" s="8">
+        <f t="shared" ref="BF5:BF39" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
         <v>4</v>
       </c>
-      <c r="BF5" s="8">
-        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
-        <v>4</v>
-      </c>
       <c r="BG5" s="8">
-        <f>SUM(BD5*3)+BE5</f>
-        <v>40</v>
+        <f t="shared" ref="BG5:BG39" si="4">SUM(BD5*3)+BE5</f>
+        <v>41</v>
       </c>
       <c r="BH5" s="8">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" ref="BH5:BH39" si="5">SUM(B5:AY5)</f>
         <v>23</v>
       </c>
       <c r="BI5" s="10">
-        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="BI5:BI39" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.65079365079365081</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -2076,7 +2087,9 @@
       <c r="X6" s="31">
         <v>5</v>
       </c>
-      <c r="Y6" s="31"/>
+      <c r="Y6" s="31">
+        <v>0</v>
+      </c>
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
       <c r="AB6" s="31"/>
@@ -2107,32 +2120,32 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f>COUNT(B6:AY6)</f>
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BD6" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="BE6" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="BF6" s="8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="BG6" s="8">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="BH6" s="8">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="BD6" s="8">
-        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
-        <v>8</v>
-      </c>
-      <c r="BE6" s="8">
-        <f>COUNTIF($B6:$AY6, "0")</f>
-        <v>3</v>
-      </c>
-      <c r="BF6" s="8">
-        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="BG6" s="8">
-        <f>SUM(BD6*3)+BE6</f>
-        <v>27</v>
-      </c>
-      <c r="BH6" s="8">
-        <f>SUM(B6:AY6)</f>
-        <v>17</v>
-      </c>
       <c r="BI6" s="10">
-        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.52941176470588236</v>
+        <f t="shared" si="6"/>
+        <v>0.51851851851851849</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
@@ -2203,7 +2216,9 @@
       <c r="X7" s="7">
         <v>5</v>
       </c>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
@@ -2234,32 +2249,32 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f>COUNT(B7:AY7)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="BD7" s="8">
-        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE7" s="8">
-        <f>COUNTIF($B7:$AY7, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="BF7" s="8">
-        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="BG7" s="8">
-        <f>SUM(BD7*3)+BE7</f>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="BH7" s="8">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="BI7" s="10">
-        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.45</v>
+        <f t="shared" si="6"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
@@ -2328,7 +2343,9 @@
       <c r="X8" s="18">
         <v>-5</v>
       </c>
-      <c r="Y8" s="18"/>
+      <c r="Y8" s="18">
+        <v>0</v>
+      </c>
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
       <c r="AB8" s="18"/>
@@ -2359,32 +2376,32 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f>COUNT(B8:AY8)</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="BD8" s="8">
-        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE8" s="8">
-        <f>COUNTIF($B8:$AY8, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="BF8" s="8">
-        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="BG8" s="8">
-        <f>SUM(BD8*3)+BE8</f>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="BH8" s="8">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BI8" s="10">
-        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.47368421052631576</v>
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
@@ -2451,7 +2468,9 @@
       <c r="X9" s="16">
         <v>-5</v>
       </c>
-      <c r="Y9" s="16"/>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
@@ -2482,40 +2501,40 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f>COUNT(B9:AY9)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="BD9" s="8">
-        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE9" s="8">
-        <f>COUNTIF($B9:$AY9, "0")</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF9" s="8">
-        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="BG9" s="8">
-        <f>SUM(BD9*3)+BE9</f>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="BH9" s="8">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI9" s="10">
-        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.46296296296296297</v>
+        <f t="shared" si="6"/>
+        <v>0.45614035087719296</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="16">
+        <v>106</v>
+      </c>
+      <c r="B10" s="50">
         <v>-1</v>
       </c>
       <c r="C10" s="16">
@@ -2524,20 +2543,18 @@
       <c r="D10" s="16">
         <v>-9</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="50">
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
         <v>-1</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="16">
-        <v>7</v>
-      </c>
-      <c r="J10" s="16">
-        <v>-8</v>
-      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="16">
         <v>0</v>
       </c>
@@ -2545,29 +2562,27 @@
         <v>2</v>
       </c>
       <c r="M10" s="16">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="48">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7">
         <v>-2</v>
       </c>
       <c r="Q10" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R10" s="54"/>
       <c r="S10" s="16">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T10" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U10" s="16">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V10" s="16">
         <v>8</v>
@@ -2576,9 +2591,11 @@
         <v>0</v>
       </c>
       <c r="X10" s="16">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="16"/>
+        <v>-5</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
@@ -2609,40 +2626,40 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f>COUNT(B10:AY10)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="BD10" s="8">
-        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE10" s="8">
-        <f>COUNTIF($B10:$AY10, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF10" s="8">
-        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG10" s="8">
-        <f>SUM(BD10*3)+BE10</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="BH10" s="8">
-        <f>SUM(B10:AY10)</f>
-        <v>-4</v>
+        <f t="shared" si="5"/>
+        <v>-2</v>
       </c>
       <c r="BI10" s="10">
-        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="6"/>
+        <v>0.43859649122807015</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="48">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7">
         <v>-1</v>
       </c>
       <c r="C11" s="7">
@@ -2651,18 +2668,20 @@
       <c r="D11" s="7">
         <v>-9</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="7"/>
+      <c r="F11" s="48">
         <v>-1</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="7">
+        <v>7</v>
+      </c>
+      <c r="J11" s="7">
+        <v>-8</v>
+      </c>
       <c r="K11" s="7">
         <v>0</v>
       </c>
@@ -2670,27 +2689,29 @@
         <v>2</v>
       </c>
       <c r="M11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="48">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="48">
         <v>-2</v>
       </c>
       <c r="Q11" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R11" s="53"/>
       <c r="S11" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T11" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U11" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V11" s="7">
         <v>8</v>
@@ -2699,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
@@ -2732,32 +2753,32 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f>COUNT(B11:AY11)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="BD11" s="8">
-        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE11" s="8">
-        <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="BF11" s="8">
-        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="BG11" s="8">
-        <f>SUM(BD11*3)+BE11</f>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="BH11" s="8">
-        <f>SUM(B11:AY11)</f>
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>-4</v>
       </c>
       <c r="BI11" s="10">
-        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
@@ -2812,7 +2833,9 @@
         <v>0</v>
       </c>
       <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="7">
+        <v>0</v>
+      </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
@@ -2843,32 +2866,32 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f>COUNT(B12:AY12)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="BD12" s="8">
-        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE12" s="8">
-        <f>COUNTIF($B12:$AY12, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF12" s="8">
-        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG12" s="8">
-        <f>SUM(BD12*3)+BE12</f>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="BH12" s="8">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="BI12" s="10">
-        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.63888888888888884</v>
+        <f t="shared" si="6"/>
+        <v>0.61538461538461542</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
@@ -2921,7 +2944,9 @@
       <c r="X13" s="7">
         <v>-5</v>
       </c>
-      <c r="Y13" s="7"/>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
@@ -2952,32 +2977,32 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f>COUNT(B13:AY13)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="BD13" s="8">
-        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE13" s="8">
-        <f>COUNTIF($B13:$AY13, "0")</f>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="BF13" s="8">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="BF13" s="8">
-        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>2</v>
-      </c>
       <c r="BG13" s="8">
-        <f>SUM(BD13*3)+BE13</f>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="BH13" s="8">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="BI13" s="10">
-        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.69696969696969702</v>
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
@@ -3042,7 +3067,9 @@
       <c r="X14" s="7">
         <v>5</v>
       </c>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -3073,32 +3100,32 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f>COUNT(B14:AY14)</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="BD14" s="8">
-        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE14" s="8">
-        <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF14" s="8">
-        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="BG14" s="8">
-        <f>SUM(BD14*3)+BE14</f>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="BH14" s="8">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="BI14" s="10">
-        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.43137254901960786</v>
+        <f t="shared" si="6"/>
+        <v>0.42592592592592593</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
@@ -3188,31 +3215,31 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f>COUNT(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="BD15" s="8">
-        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE15" s="8">
-        <f>COUNTIF($B15:$AY15, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF15" s="8">
-        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG15" s="8">
-        <f>SUM(BD15*3)+BE15</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="BH15" s="8">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
       <c r="BI15" s="10">
-        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="BJ15" s="10"/>
@@ -3262,7 +3289,9 @@
       <c r="X16" s="48">
         <v>5</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -3293,32 +3322,32 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f>COUNT(B16:AY16)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="BD16" s="8">
-        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE16" s="8">
-        <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF16" s="8">
-        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG16" s="8">
-        <f>SUM(BD16*3)+BE16</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="BH16" s="8">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BI16" s="10">
-        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.70370370370370372</v>
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
@@ -3381,7 +3410,9 @@
       <c r="X17" s="7">
         <v>5</v>
       </c>
-      <c r="Y17" s="7"/>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -3412,48 +3443,44 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f>COUNT(B17:AY17)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="BD17" s="8">
-        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BE17" s="8">
-        <f>COUNTIF($B17:$AY17, "0")</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF17" s="8">
-        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="BG17" s="8">
-        <f>SUM(BD17*3)+BE17</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="BH17" s="8">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="5"/>
         <v>-12</v>
       </c>
       <c r="BI17" s="10">
-        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.39583333333333331</v>
+        <f t="shared" si="6"/>
+        <v>0.39215686274509803</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7">
         <v>-1</v>
       </c>
-      <c r="D18" s="7">
-        <v>9</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7">
         <v>-1</v>
@@ -3462,19 +3489,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="53"/>
-      <c r="I18" s="48">
-        <v>7</v>
-      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M18" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="48">
+        <v>1</v>
+      </c>
       <c r="N18" s="7">
         <v>0</v>
       </c>
@@ -3483,16 +3506,30 @@
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R18" s="53"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
+      <c r="S18" s="7">
+        <v>2</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1</v>
+      </c>
+      <c r="U18" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V18" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W18" s="48">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
@@ -3523,44 +3560,48 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f>COUNT(B18:AY18)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="BD18" s="8">
-        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BE18" s="8">
-        <f>COUNTIF($B18:$AY18, "0")</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="BF18" s="8">
-        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="BG18" s="8">
-        <f>SUM(BD18*3)+BE18</f>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="BH18" s="8">
-        <f>SUM(B18:AY18)</f>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>-9</v>
       </c>
       <c r="BI18" s="10">
-        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.42222222222222222</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
       <c r="C19" s="7">
         <v>-1</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>9</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
         <v>-1</v>
@@ -3569,15 +3610,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="53"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="48">
+        <v>7</v>
+      </c>
       <c r="J19" s="7">
-        <v>8</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="48">
-        <v>1</v>
-      </c>
+        <v>-8</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M19" s="7"/>
       <c r="N19" s="7">
         <v>0</v>
       </c>
@@ -3586,27 +3631,15 @@
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R19" s="53"/>
-      <c r="S19" s="7">
-        <v>2</v>
-      </c>
-      <c r="T19" s="7">
-        <v>1</v>
-      </c>
-      <c r="U19" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V19" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W19" s="48">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <v>-5</v>
-      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -3638,32 +3671,32 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f>COUNT(B19:AY19)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="BD19" s="8">
-        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BE19" s="8">
-        <f>COUNTIF($B19:$AY19, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF19" s="8">
-        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="BG19" s="8">
-        <f>SUM(BD19*3)+BE19</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="BH19" s="8">
-        <f>SUM(B19:AY19)</f>
-        <v>-9</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="BI19" s="10">
-        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
@@ -3716,7 +3749,9 @@
         <v>0</v>
       </c>
       <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="48">
+        <v>0</v>
+      </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -3747,32 +3782,32 @@
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f>COUNT(B20:AY20)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="BD20" s="8">
-        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BE20" s="8">
-        <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF20" s="8">
-        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BG20" s="8">
-        <f>SUM(BD20*3)+BE20</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="BH20" s="8">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BI20" s="10">
-        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.51515151515151514</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
@@ -3819,7 +3854,9 @@
       <c r="X21" s="7">
         <v>5</v>
       </c>
-      <c r="Y21" s="7"/>
+      <c r="Y21" s="48">
+        <v>0</v>
+      </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
@@ -3850,32 +3887,32 @@
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f>COUNT(B21:AY21)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="BD21" s="8">
-        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE21" s="8">
-        <f>COUNTIF($B21:$AY21, "0")</f>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="BF21" s="8">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="BF21" s="8">
-        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
-        <v>2</v>
-      </c>
       <c r="BG21" s="8">
-        <f>SUM(BD21*3)+BE21</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="BH21" s="8">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BI21" s="10">
-        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
@@ -3930,7 +3967,9 @@
       <c r="X22" s="7">
         <v>-5</v>
       </c>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="7">
+        <v>0</v>
+      </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
@@ -3961,32 +4000,32 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f>COUNT(B22:AY22)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="BD22" s="8">
-        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE22" s="8">
-        <f>COUNTIF($B22:$AY22, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="BF22" s="8">
-        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="BG22" s="8">
-        <f>SUM(BD22*3)+BE22</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="BH22" s="8">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="5"/>
         <v>-16</v>
       </c>
       <c r="BI22" s="10">
-        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.3888888888888889</v>
+        <f t="shared" si="6"/>
+        <v>0.38461538461538464</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
@@ -4069,31 +4108,31 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f>COUNT(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BD23" s="8">
-        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE23" s="8">
-        <f>COUNTIF($B23:$AY23, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF23" s="8">
-        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG23" s="8">
-        <f>SUM(BD23*3)+BE23</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="BH23" s="8">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="5"/>
         <v>-18</v>
       </c>
       <c r="BI23" s="10">
-        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
+        <f t="shared" si="6"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="BJ23" s="10"/>
@@ -4176,69 +4215,87 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f>COUNT(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BD24" s="8">
-        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE24" s="8">
-        <f>COUNTIF($B24:$AY24, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF24" s="8">
-        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG24" s="8">
-        <f>SUM(BD24*3)+BE24</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="BH24" s="8">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="5"/>
         <v>-8</v>
       </c>
       <c r="BI24" s="10">
-        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
+        <f t="shared" si="6"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="E25" s="48">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
       <c r="H25" s="53"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="48">
+        <v>-1</v>
+      </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="O25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>3</v>
+      </c>
       <c r="R25" s="53"/>
-      <c r="S25" s="7"/>
+      <c r="S25" s="7">
+        <v>-2</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7">
-        <v>4</v>
-      </c>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7">
-        <v>0</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="V25" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W25" s="7"/>
       <c r="X25" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="7"/>
+        <v>-5</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0</v>
+      </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
@@ -4269,38 +4326,38 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f>COUNT(B25:AY25)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="BD25" s="8">
-        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE25" s="8">
-        <f>COUNTIF($B25:$AY25, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF25" s="8">
-        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG25" s="8">
-        <f>SUM(BD25*3)+BE25</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="BH25" s="8">
-        <f>SUM(B25:AY25)</f>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>-20</v>
       </c>
       <c r="BI25" s="10">
-        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.77777777777777779</v>
+        <f t="shared" si="6"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4319,20 +4376,18 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="53"/>
-      <c r="S26" s="7">
-        <v>2</v>
-      </c>
-      <c r="T26" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7">
-        <v>8</v>
-      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7">
+        <v>4</v>
+      </c>
+      <c r="V26" s="7"/>
       <c r="W26" s="7">
         <v>0</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="7">
+        <v>5</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -4364,55 +4419,45 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f>COUNT(B26:AY26)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="BD26" s="8">
-        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE26" s="8">
-        <f>COUNTIF($B26:$AY26, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF26" s="8">
-        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="BG26" s="8">
-        <f>SUM(BD26*3)+BE26</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH26" s="8">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="BI26" s="10">
-        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.77777777777777779</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="48">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7">
-        <v>-1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="53"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -4424,11 +4469,19 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="53"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
+      <c r="S27" s="7">
+        <v>2</v>
+      </c>
+      <c r="T27" s="7">
+        <v>-1</v>
+      </c>
       <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
+      <c r="V27" s="7">
+        <v>8</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
@@ -4461,48 +4514,52 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f>COUNT(B27:AY27)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="BD27" s="8">
-        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE27" s="8">
-        <f>COUNTIF($B27:$AY27, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF27" s="8">
-        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BG27" s="8">
-        <f>SUM(BD27*3)+BE27</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH27" s="8">
-        <f>SUM(B27:AY27)</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="BI27" s="10">
-        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="48">
+        <v>90</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7">
         <v>-1</v>
       </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
+      <c r="D28" s="48">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7">
         <v>0</v>
       </c>
@@ -4511,34 +4568,18 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="48">
-        <v>-1</v>
-      </c>
+      <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P28" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>3</v>
-      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
       <c r="R28" s="53"/>
-      <c r="S28" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V28" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="7">
-        <v>-5</v>
-      </c>
+      <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -4570,32 +4611,32 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f>COUNT(B28:AY28)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="BD28" s="8">
-        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE28" s="8">
-        <f>COUNTIF($B28:$AY28, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF28" s="8">
-        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BG28" s="8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="BH28" s="8">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="BG28" s="8">
-        <f>SUM(BD28*3)+BE28</f>
-        <v>7</v>
-      </c>
-      <c r="BH28" s="8">
-        <f>SUM(B28:AY28)</f>
-        <v>-20</v>
-      </c>
       <c r="BI28" s="10">
-        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
-        <v>0.21212121212121213</v>
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
@@ -4661,31 +4702,31 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f>COUNT(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BD29" s="8">
-        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE29" s="8">
-        <f>COUNTIF($B29:$AY29, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF29" s="8">
-        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG29" s="8">
-        <f>SUM(BD29*3)+BE29</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BH29" s="8">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="BI29" s="10">
-        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BJ29" s="10"/>
@@ -4754,31 +4795,31 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f>COUNT(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BD30" s="8">
-        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE30" s="8">
-        <f>COUNTIF($B30:$AY30, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF30" s="8">
-        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG30" s="8">
-        <f>SUM(BD30*3)+BE30</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH30" s="8">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI30" s="10">
-        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ30" s="10"/>
@@ -4847,31 +4888,31 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f>COUNT(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BD31" s="8">
-        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE31" s="8">
-        <f>COUNTIF($B31:$AY31, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF31" s="8">
-        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG31" s="8">
-        <f>SUM(BD31*3)+BE31</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH31" s="8">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="BI31" s="10">
-        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ31" s="10"/>
@@ -4944,31 +4985,31 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f>COUNT(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BD32" s="8">
-        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE32" s="8">
-        <f>COUNTIF($B32:$AY32, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF32" s="8">
-        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG32" s="8">
-        <f>SUM(BD32*3)+BE32</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH32" s="8">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="5"/>
         <v>-8</v>
       </c>
       <c r="BI32" s="10">
-        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
+        <f t="shared" si="6"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="BJ32" s="10"/>
@@ -5039,38 +5080,38 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f>COUNT(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BD33" s="8">
-        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE33" s="8">
-        <f>COUNTIF($B33:$AY33, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF33" s="8">
-        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BG33" s="8">
-        <f>SUM(BD33*3)+BE33</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH33" s="8">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="5"/>
         <v>-12</v>
       </c>
       <c r="BI33" s="10">
-        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ33" s="10"/>
     </row>
     <row r="34" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5090,14 +5131,14 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="53"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="7">
-        <v>-1</v>
-      </c>
+      <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
+      <c r="Y34" s="7">
+        <v>0</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
@@ -5128,38 +5169,38 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f>COUNT(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD34" s="8">
-        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE34" s="8">
-        <f>COUNTIF($B34:$AY34, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF34" s="8">
-        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="BG34" s="8">
-        <f>SUM(BD34*3)+BE34</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="BH34" s="8">
-        <f>SUM(B34:AY34)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="BI34" s="10">
-        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ34" s="10"/>
     </row>
     <row r="35" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5178,15 +5219,17 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="53"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7">
-        <v>-1</v>
-      </c>
+      <c r="S35" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
+      <c r="Y35" s="7">
+        <v>0</v>
+      </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -5217,38 +5260,38 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f>COUNT(B35:AY35)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="BD35" s="8">
-        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE35" s="8">
-        <f>COUNTIF($B35:$AY35, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF35" s="8">
-        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG35" s="8">
-        <f>SUM(BD35*3)+BE35</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="BH35" s="8">
-        <f>SUM(B35:AY35)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-2</v>
       </c>
       <c r="BI35" s="10">
-        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ35" s="10"/>
     </row>
     <row r="36" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5267,10 +5310,10 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="53"/>
-      <c r="S36" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7">
+        <v>-1</v>
+      </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -5306,44 +5349,42 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f>COUNT(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD36" s="8">
-        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE36" s="8">
-        <f>COUNTIF($B36:$AY36, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF36" s="8">
-        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG36" s="8">
-        <f>SUM(BD36*3)+BE36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH36" s="8">
-        <f>SUM(B36:AY36)</f>
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="BI36" s="10">
-        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ36" s="10"/>
     </row>
     <row r="37" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="48">
-        <v>-9</v>
-      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -5359,7 +5400,9 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="53"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
+      <c r="T37" s="7">
+        <v>-1</v>
+      </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -5395,42 +5438,44 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f>COUNT(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD37" s="8">
-        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f>COUNTIF($B37:$AY37, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF37" s="8">
-        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f>SUM(BD37*3)+BE37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH37" s="8">
-        <f>SUM(B37:AY37)</f>
-        <v>-9</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="BI37" s="10">
-        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="10"/>
     </row>
     <row r="38" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="D38" s="48">
+        <v>-9</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -5443,18 +5488,12 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
-      <c r="Q38" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q38" s="7"/>
       <c r="R38" s="53"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
-      <c r="U38" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V38" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -5488,344 +5527,332 @@
         <v>34</v>
       </c>
       <c r="BC38" s="8">
-        <f>COUNT(B38:AY38)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BD38" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF38" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BG38" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH38" s="8">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="BI38" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="10"/>
+    </row>
+    <row r="39" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R39" s="53"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V39" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7"/>
+      <c r="BA39" s="34">
+        <v>35</v>
+      </c>
+      <c r="BC39" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BD38" s="8">
-        <f>COUNTIF($B38:$AY38, "&gt;=1")</f>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="8">
-        <f>COUNTIF($B38:$AY38, "0")</f>
-        <v>0</v>
-      </c>
-      <c r="BF38" s="8">
-        <f>COUNTIF($B38:$AY38, "&lt;0")</f>
+      <c r="BD39" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF39" s="8">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BG38" s="8">
-        <f>SUM(BD38*3)+BE38</f>
-        <v>0</v>
-      </c>
-      <c r="BH38" s="8">
-        <f>SUM(B38:AY38)</f>
+      <c r="BG39" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH39" s="8">
+        <f t="shared" si="5"/>
         <v>-15</v>
       </c>
-      <c r="BI38" s="10">
-        <f>SUM(BD38*3+BE38*1)/SUM(BC38*3)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="10"/>
-    </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
+      <c r="BI39" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="10"/>
+    </row>
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="28">
-        <f t="shared" ref="B39:AD39" si="0">COUNT(B5:B38)</f>
+      <c r="B40" s="28">
+        <f t="shared" ref="B40:AD40" si="7">COUNT(B5:B39)</f>
         <v>16</v>
       </c>
-      <c r="C39" s="28">
-        <f t="shared" si="0"/>
+      <c r="C40" s="28">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="D39" s="28">
-        <f t="shared" si="0"/>
+      <c r="D40" s="28">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="E39" s="28">
-        <f t="shared" si="0"/>
+      <c r="E40" s="28">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="F39" s="28">
-        <f t="shared" si="0"/>
+      <c r="F40" s="28">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="G39" s="28">
-        <f t="shared" si="0"/>
+      <c r="G40" s="28">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="H39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="28">
-        <f t="shared" si="0"/>
+      <c r="H40" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="28">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="J39" s="28">
-        <f t="shared" si="0"/>
+      <c r="J40" s="28">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="K39" s="28">
-        <f t="shared" si="0"/>
+      <c r="K40" s="28">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="L39" s="28">
-        <f t="shared" si="0"/>
+      <c r="L40" s="28">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M39" s="28">
-        <f t="shared" si="0"/>
+      <c r="M40" s="28">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="N39" s="28">
-        <f t="shared" si="0"/>
+      <c r="N40" s="28">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O39" s="28">
-        <f t="shared" si="0"/>
+      <c r="O40" s="28">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="P39" s="28">
-        <f t="shared" si="0"/>
+      <c r="P40" s="28">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="Q39" s="28">
-        <f t="shared" si="0"/>
+      <c r="Q40" s="28">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="R39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="28">
-        <f t="shared" si="0"/>
+      <c r="R40" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="28">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="T39" s="28">
-        <f t="shared" si="0"/>
+      <c r="T40" s="28">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="U39" s="28">
-        <f t="shared" si="0"/>
+      <c r="U40" s="28">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="V39" s="28">
-        <f t="shared" si="0"/>
+      <c r="V40" s="28">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="W39" s="28">
-        <f>COUNT(W5:W38)</f>
+      <c r="W40" s="28">
+        <f>COUNT(W5:W39)</f>
         <v>20</v>
       </c>
-      <c r="X39" s="28">
-        <f t="shared" si="0"/>
+      <c r="X40" s="28">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="Y39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="28">
-        <f t="shared" ref="AE39:AY39" si="1">COUNT(AE5:AE38)</f>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AN39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AR39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AS39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AT39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AX39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AY39" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="8"/>
-      <c r="BD39" s="8"/>
-      <c r="BE39" s="8"/>
-      <c r="BF39" s="8"/>
-      <c r="BG39" s="8"/>
-      <c r="BH39" s="8"/>
-      <c r="BI39" s="10"/>
-      <c r="BJ39" s="10"/>
-    </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="R40" s="8"/>
-      <c r="S40" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="W40" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="X40" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="8"/>
-      <c r="AQ40" s="8"/>
-      <c r="AR40" s="8"/>
-      <c r="AS40" s="8"/>
-      <c r="AT40" s="8"/>
-      <c r="AU40" s="8"/>
-      <c r="AV40" s="8"/>
-      <c r="AW40" s="8"/>
-      <c r="AX40" s="8"/>
-      <c r="AY40" s="8"/>
+      <c r="Y40" s="28">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="Z40" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="28">
+        <f t="shared" ref="AE40:AY40" si="8">COUNT(AE5:AE39)</f>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="BC40" s="8"/>
       <c r="BD40" s="8"/>
       <c r="BE40" s="8"/>
@@ -5836,39 +5863,84 @@
       <c r="BJ40" s="10"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="A41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="X41" s="8"/>
+      <c r="S41" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
       <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
       <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
+      <c r="AH41" s="13"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
@@ -5896,21 +5968,37 @@
       <c r="BJ41" s="10"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
@@ -5940,14 +6028,40 @@
       <c r="BJ42" s="10"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
       <c r="Q43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
+      <c r="AY43" s="8"/>
       <c r="BC43" s="8"/>
       <c r="BD43" s="8"/>
       <c r="BE43" s="8"/>
@@ -5958,30 +6072,38 @@
       <c r="BJ43" s="10"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-    </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="J47" s="44"/>
-      <c r="L47" s="44"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="BC44" s="8"/>
+      <c r="BD44" s="8"/>
+      <c r="BE44" s="8"/>
+      <c r="BF44" s="8"/>
+      <c r="BG44" s="8"/>
+      <c r="BH44" s="8"/>
+      <c r="BI44" s="10"/>
+      <c r="BJ44" s="10"/>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="J48" s="44"/>
       <c r="L48" s="44"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J49" s="44"/>
+      <c r="L49" s="44"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L50" s="44"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="J50" s="44"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="44"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
@@ -6019,7 +6141,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="43"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
@@ -6029,7 +6151,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="G59" s="43"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
@@ -6046,15 +6168,19 @@
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="43"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="G61" s="43"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="8"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="8"/>
@@ -6067,9 +6193,6 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="8"/>
@@ -6101,7 +6224,7 @@
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="43"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -6110,7 +6233,7 @@
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -6130,26 +6253,35 @@
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BI38">
-    <sortCondition descending="1" ref="BG5:BG38"/>
-    <sortCondition descending="1" ref="BH5:BH38"/>
-    <sortCondition descending="1" ref="BI5:BI38"/>
-    <sortCondition ref="A5:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BI39">
+    <sortCondition descending="1" ref="BG5:BG39"/>
+    <sortCondition descending="1" ref="BH5:BH39"/>
+    <sortCondition descending="1" ref="BI5:BI39"/>
+    <sortCondition ref="A5:A39"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape"/>
   <ignoredErrors>
-    <ignoredError sqref="BC43 BC39:BH39" formulaRange="1"/>
+    <ignoredError sqref="BC44 BC40:BH40" formulaRange="1"/>
     <ignoredError sqref="BC4:BH4" formulaRange="1" emptyCellReference="1"/>
   </ignoredErrors>
 </worksheet>
@@ -6161,8 +6293,8 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6243,10 +6375,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -6258,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -6267,31 +6399,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -6315,7 +6447,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -6339,31 +6471,31 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6378,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -6388,10 +6520,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6400,10 +6532,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -6412,34 +6544,34 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6461,7 +6593,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -6476,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
@@ -6485,7 +6617,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6500,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
@@ -6536,13 +6668,13 @@
         <v>83</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -6552,7 +6684,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="37"/>
     </row>
@@ -6583,7 +6715,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -6598,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
@@ -6608,7 +6740,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -6623,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
@@ -6633,26 +6765,26 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="37"/>
     </row>
@@ -6895,10 +7027,10 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS24" sqref="AS24"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7080,15 +7212,13 @@
     </row>
     <row r="3" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -7097,25 +7227,31 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="7">
-        <v>5</v>
-      </c>
+      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>2</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7">
         <v>3</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7">
-        <v>3</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="Y3" s="7">
+        <v>3</v>
+      </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
@@ -7145,52 +7281,52 @@
       <c r="AZ3" s="29"/>
       <c r="BA3" s="24">
         <f>SUM(B3:AY3)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="53"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7">
+        <v>5</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7">
         <v>3</v>
       </c>
-      <c r="Q4" s="7"/>
       <c r="R4" s="53"/>
-      <c r="S4" s="7">
+      <c r="S4" s="7"/>
+      <c r="T4" s="7">
         <v>3</v>
       </c>
-      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7">
-        <v>3</v>
-      </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="7">
+        <v>1</v>
+      </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
@@ -7220,50 +7356,52 @@
       <c r="AZ4" s="29"/>
       <c r="BA4" s="24">
         <f>SUM(B4:AY4)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BB4" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="53"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="7">
-        <v>4</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <v>2</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>3</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="53"/>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7">
+        <v>3</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5" s="7">
+        <v>3</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -7295,50 +7433,51 @@
       <c r="AZ5" s="29"/>
       <c r="BA5" s="24">
         <f>SUM(B5:AY5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB5" s="8">
-        <v>2</v>
-      </c>
-      <c r="BC5" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>6</v>
-      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
       <c r="H6" s="53"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>4</v>
+      </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="53"/>
-      <c r="S6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
-        <v>2</v>
-      </c>
-      <c r="U6" s="7">
-        <v>1</v>
-      </c>
-      <c r="V6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -7371,9 +7510,12 @@
       <c r="AZ6" s="29"/>
       <c r="BA6" s="24">
         <f>SUM(B6:AY6)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB6" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7411,14 +7553,16 @@
       <c r="U7" s="7">
         <v>2</v>
       </c>
-      <c r="V7" s="7">
-        <v>1</v>
-      </c>
+      <c r="V7" s="7"/>
       <c r="W7" s="7">
         <v>1</v>
       </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
@@ -7448,7 +7592,7 @@
       <c r="AZ7" s="29"/>
       <c r="BA7" s="24">
         <f>SUM(B7:AY7)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB7" s="8">
         <v>1</v>
@@ -7497,11 +7641,13 @@
         <v>1</v>
       </c>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7">
-        <v>1</v>
-      </c>
-      <c r="X8" s="7"/>
+      <c r="V8" s="7">
+        <v>1</v>
+      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -7532,7 +7678,7 @@
       <c r="AZ8" s="29"/>
       <c r="BA8" s="24">
         <f>SUM(B8:AY8)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
@@ -7700,13 +7846,13 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7">
         <v>2</v>
       </c>
-      <c r="W11" s="7">
+      <c r="X11" s="7">
         <v>3</v>
       </c>
-      <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -7846,13 +7992,13 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="7">
-        <v>1</v>
-      </c>
+      <c r="V13" s="7"/>
       <c r="W13" s="7">
         <v>1</v>
       </c>
-      <c r="X13" s="7"/>
+      <c r="X13" s="7">
+        <v>1</v>
+      </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -7991,10 +8137,10 @@
       <c r="U15" s="7">
         <v>1</v>
       </c>
-      <c r="V15" s="7">
-        <v>1</v>
-      </c>
-      <c r="W15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7">
+        <v>1</v>
+      </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
@@ -8031,22 +8177,24 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="53"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
+      <c r="M16" s="7"/>
       <c r="N16" s="7">
         <v>1</v>
       </c>
@@ -8061,8 +8209,12 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="X16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>1</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -8092,42 +8244,39 @@
       <c r="AZ16" s="29"/>
       <c r="BA16" s="24">
         <f>SUM(B16:AY16)</f>
-        <v>5</v>
-      </c>
-      <c r="BB16" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="53"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="53"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7">
+        <v>1</v>
+      </c>
       <c r="T17" s="7"/>
-      <c r="U17" s="33"/>
+      <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -8163,46 +8312,42 @@
         <f>SUM(B17:AY17)</f>
         <v>5</v>
       </c>
-      <c r="BC17" s="8">
+      <c r="BB17" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
       <c r="H18" s="53"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="53"/>
-      <c r="S18" s="7">
-        <v>1</v>
-      </c>
+      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+      <c r="U18" s="33"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="7">
-        <v>1</v>
-      </c>
+      <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -8236,18 +8381,17 @@
         <f>SUM(B18:AY18)</f>
         <v>5</v>
       </c>
+      <c r="BC18" s="8">
+        <v>1</v>
+      </c>
       <c r="BF18" s="24"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -8255,9 +8399,7 @@
       <c r="H19" s="53"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -8265,10 +8407,16 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="53"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="7">
+        <v>2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1</v>
+      </c>
       <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="V19" s="7">
+        <v>2</v>
+      </c>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
@@ -8301,12 +8449,12 @@
       <c r="AZ19" s="29"/>
       <c r="BA19" s="24">
         <f>SUM(B19:AY19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -8315,14 +8463,14 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
       <c r="H20" s="53"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7">
-        <v>3</v>
-      </c>
+      <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -8330,12 +8478,18 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="53"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="7">
+        <v>1</v>
+      </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -8365,27 +8519,29 @@
       <c r="AZ20" s="29"/>
       <c r="BA20" s="24">
         <f>SUM(B20:AY20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="53"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -8394,12 +8550,8 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="53"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7">
-        <v>1</v>
-      </c>
-      <c r="U21" s="7">
-        <v>1</v>
-      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -8438,28 +8590,28 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="7">
-        <v>2</v>
-      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7">
+        <v>3</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="7"/>
       <c r="R22" s="53"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -8497,10 +8649,7 @@
       <c r="AZ22" s="29"/>
       <c r="BA22" s="24">
         <f>SUM(B22:AY22)</f>
-        <v>3</v>
-      </c>
-      <c r="BC22" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
@@ -8533,7 +8682,9 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="V23" s="7">
+        <v>1</v>
+      </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
@@ -8566,7 +8717,7 @@
       <c r="AZ23" s="29"/>
       <c r="BA23" s="24">
         <f>SUM(B23:AY23)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
@@ -8599,7 +8750,9 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="V24" s="7">
+        <v>1</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -8632,14 +8785,16 @@
       <c r="AZ24" s="29"/>
       <c r="BA24" s="24">
         <f>SUM(B24:AY24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -8656,15 +8811,17 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="53"/>
-      <c r="S25" s="7">
-        <v>2</v>
-      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7">
         <v>1</v>
       </c>
       <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="V25" s="7">
+        <v>1</v>
+      </c>
+      <c r="W25" s="7">
+        <v>1</v>
+      </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
@@ -8696,23 +8853,23 @@
       <c r="AZ25" s="29"/>
       <c r="BA25" s="24">
         <f>SUM(B25:AY25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="53"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7">
+        <v>2</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -8720,16 +8877,14 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
       <c r="R26" s="53"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7">
-        <v>1</v>
-      </c>
+      <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="7">
-        <v>1</v>
-      </c>
+      <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -8764,6 +8919,9 @@
         <f>SUM(B26:AY26)</f>
         <v>3</v>
       </c>
+      <c r="BC26" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
@@ -8789,13 +8947,13 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="7">
-        <v>1</v>
-      </c>
+      <c r="V27" s="7"/>
       <c r="W27" s="7">
+        <v>1</v>
+      </c>
+      <c r="X27" s="7">
         <v>2</v>
       </c>
-      <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -8853,13 +9011,13 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="33"/>
-      <c r="V28" s="7">
-        <v>1</v>
-      </c>
+      <c r="V28" s="7"/>
       <c r="W28" s="7">
         <v>1</v>
       </c>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7">
+        <v>1</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -8895,7 +9053,7 @@
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -8912,9 +9070,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q29" s="7"/>
       <c r="R29" s="53"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -8922,7 +9078,9 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
+      <c r="Y29" s="7">
+        <v>2</v>
+      </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -8952,12 +9110,12 @@
       <c r="AZ29" s="29"/>
       <c r="BA29" s="24">
         <f>SUM(B29:AY29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8974,11 +9132,11 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="7">
+        <v>1</v>
+      </c>
       <c r="R30" s="53"/>
-      <c r="S30" s="7">
-        <v>1</v>
-      </c>
+      <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -9019,7 +9177,7 @@
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -9038,7 +9196,9 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="53"/>
-      <c r="S31" s="7"/>
+      <c r="S31" s="7">
+        <v>1</v>
+      </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -9074,7 +9234,7 @@
       <c r="AZ31" s="29"/>
       <c r="BA31" s="24">
         <f>SUM(B31:AY31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.2">
@@ -9371,7 +9531,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="24">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" ref="BA35:BA36" si="0">SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -9380,191 +9540,191 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <f>'League Table'!B39</f>
+        <f>'League Table'!B40</f>
         <v>16</v>
       </c>
       <c r="C38">
-        <f>'League Table'!C39</f>
+        <f>'League Table'!C40</f>
         <v>20</v>
       </c>
       <c r="D38">
-        <f>'League Table'!D39</f>
+        <f>'League Table'!D40</f>
         <v>15</v>
       </c>
       <c r="E38">
-        <f>'League Table'!E39</f>
+        <f>'League Table'!E40</f>
         <v>13</v>
       </c>
       <c r="F38">
-        <f>'League Table'!F39</f>
+        <f>'League Table'!F40</f>
         <v>17</v>
       </c>
       <c r="G38">
-        <f>'League Table'!G39</f>
+        <f>'League Table'!G40</f>
         <v>18</v>
       </c>
       <c r="H38">
-        <f>'League Table'!H39</f>
+        <f>'League Table'!H40</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>'League Table'!I39</f>
+        <f>'League Table'!I40</f>
         <v>12</v>
       </c>
       <c r="J38">
-        <f>'League Table'!J39</f>
+        <f>'League Table'!J40</f>
         <v>12</v>
       </c>
       <c r="K38">
-        <f>'League Table'!K39</f>
+        <f>'League Table'!K40</f>
         <v>12</v>
       </c>
       <c r="L38">
-        <f>'League Table'!L39</f>
+        <f>'League Table'!L40</f>
         <v>14</v>
       </c>
       <c r="M38">
-        <f>'League Table'!M39</f>
+        <f>'League Table'!M40</f>
         <v>17</v>
       </c>
       <c r="N38">
-        <f>'League Table'!N39</f>
+        <f>'League Table'!N40</f>
         <v>12</v>
       </c>
       <c r="O38">
-        <f>'League Table'!O39</f>
+        <f>'League Table'!O40</f>
         <v>14</v>
       </c>
       <c r="P38">
-        <f>'League Table'!P39</f>
+        <f>'League Table'!P40</f>
         <v>14</v>
       </c>
       <c r="Q38">
-        <f>'League Table'!Q39</f>
+        <f>'League Table'!Q40</f>
         <v>15</v>
       </c>
       <c r="R38">
-        <f>'League Table'!R39</f>
+        <f>'League Table'!R40</f>
         <v>0</v>
       </c>
       <c r="S38">
-        <f>'League Table'!S39</f>
+        <f>'League Table'!S40</f>
         <v>20</v>
       </c>
       <c r="T38">
-        <f>'League Table'!T39</f>
+        <f>'League Table'!T40</f>
         <v>18</v>
       </c>
       <c r="U38" s="32">
-        <f>'League Table'!U39</f>
+        <f>'League Table'!U40</f>
         <v>18</v>
       </c>
       <c r="V38">
-        <f>'League Table'!V39</f>
+        <f>'League Table'!V40</f>
         <v>18</v>
       </c>
       <c r="W38">
-        <f>'League Table'!W39</f>
+        <f>'League Table'!W40</f>
         <v>20</v>
       </c>
       <c r="X38">
-        <f>'League Table'!X39</f>
+        <f>'League Table'!X40</f>
         <v>20</v>
       </c>
       <c r="Y38">
-        <f>'League Table'!Y39</f>
-        <v>0</v>
+        <f>'League Table'!Y40</f>
+        <v>18</v>
       </c>
       <c r="Z38">
-        <f>'League Table'!Z39</f>
+        <f>'League Table'!Z40</f>
         <v>0</v>
       </c>
       <c r="AA38">
-        <f>'League Table'!AA39</f>
+        <f>'League Table'!AA40</f>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f>'League Table'!AB39</f>
+        <f>'League Table'!AB40</f>
         <v>0</v>
       </c>
       <c r="AC38">
-        <f>'League Table'!AC39</f>
+        <f>'League Table'!AC40</f>
         <v>0</v>
       </c>
       <c r="AD38">
-        <f>'League Table'!AD39</f>
+        <f>'League Table'!AD40</f>
         <v>0</v>
       </c>
       <c r="AE38">
-        <f>'League Table'!AE39</f>
+        <f>'League Table'!AE40</f>
         <v>0</v>
       </c>
       <c r="AF38">
-        <f>'League Table'!AF39</f>
+        <f>'League Table'!AF40</f>
         <v>0</v>
       </c>
       <c r="AG38" s="8">
-        <f>'League Table'!AG39</f>
+        <f>'League Table'!AG40</f>
         <v>0</v>
       </c>
       <c r="AH38" s="8">
-        <f>'League Table'!AH39</f>
+        <f>'League Table'!AH40</f>
         <v>0</v>
       </c>
       <c r="AI38" s="8">
-        <f>'League Table'!AI39</f>
+        <f>'League Table'!AI40</f>
         <v>0</v>
       </c>
       <c r="AJ38" s="8">
-        <f>'League Table'!AJ39</f>
+        <f>'League Table'!AJ40</f>
         <v>0</v>
       </c>
       <c r="AK38" s="8">
-        <f>'League Table'!AK39</f>
+        <f>'League Table'!AK40</f>
         <v>0</v>
       </c>
       <c r="AL38" s="8">
-        <f>'League Table'!AL39</f>
+        <f>'League Table'!AL40</f>
         <v>0</v>
       </c>
       <c r="AM38" s="8">
-        <f>'League Table'!AM39</f>
+        <f>'League Table'!AM40</f>
         <v>0</v>
       </c>
       <c r="AN38" s="8">
-        <f>'League Table'!AN39</f>
+        <f>'League Table'!AN40</f>
         <v>0</v>
       </c>
       <c r="AO38" s="8">
-        <f>'League Table'!AO39</f>
+        <f>'League Table'!AO40</f>
         <v>0</v>
       </c>
       <c r="AP38" s="8">
-        <f>'League Table'!AP39</f>
+        <f>'League Table'!AP40</f>
         <v>0</v>
       </c>
       <c r="AQ38" s="8">
-        <f>'League Table'!AQ39</f>
+        <f>'League Table'!AQ40</f>
         <v>0</v>
       </c>
       <c r="AR38" s="8">
-        <f>'League Table'!AZ39</f>
+        <f>'League Table'!AZ40</f>
         <v>0</v>
       </c>
       <c r="AS38" s="8">
-        <f>'League Table'!BA39</f>
+        <f>'League Table'!BA40</f>
         <v>0</v>
       </c>
       <c r="AT38" s="8">
-        <f>'League Table'!BB39</f>
+        <f>'League Table'!BB40</f>
         <v>0</v>
       </c>
       <c r="AU38" s="8">
-        <f>'League Table'!BC39</f>
+        <f>'League Table'!BC40</f>
         <v>0</v>
       </c>
       <c r="AV38" s="8">
-        <f>'League Table'!BD39</f>
+        <f>'League Table'!BD40</f>
         <v>0</v>
       </c>
       <c r="AW38" s="8"/>
@@ -9577,199 +9737,199 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="U40" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="X40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA40" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC36">
-    <sortCondition descending="1" ref="BA3:BA36"/>
-    <sortCondition descending="1" ref="BB3:BB36"/>
-    <sortCondition descending="1" ref="BC3:BC36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC35">
+    <sortCondition descending="1" ref="BA3:BA35"/>
+    <sortCondition descending="1" ref="BB3:BB35"/>
+    <sortCondition descending="1" ref="BC3:BC35"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9786,10 +9946,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10075,7 +10235,9 @@
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="7">
+        <v>1</v>
+      </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -10104,7 +10266,7 @@
       <c r="AY5" s="7"/>
       <c r="BA5">
         <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10231,7 +10393,9 @@
       <c r="X7" s="16">
         <v>1</v>
       </c>
-      <c r="Y7" s="16"/>
+      <c r="Y7" s="16">
+        <v>1</v>
+      </c>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
@@ -10260,7 +10424,7 @@
       <c r="AY7" s="16"/>
       <c r="BA7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12410,7 +12574,7 @@
       </c>
       <c r="Y41" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z41" s="8">
         <f t="shared" si="2"/>
@@ -12518,7 +12682,7 @@
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -12540,7 +12704,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13191,10 +13355,18 @@
       <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>142</v>
+      </c>
       <c r="G26" s="32"/>
       <c r="K26" s="8"/>
       <c r="M26" s="8" t="s">

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240E228-32C8-5643-A15C-28FE1C039B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE30F3FC-8625-984C-8F88-292ED9D8F302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="740" windowWidth="31900" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="1060" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="209">
   <si>
     <t>WK 1</t>
   </si>
@@ -660,17 +660,20 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Preston - Carlos</t>
-  </si>
-  <si>
     <t>Posh</t>
+  </si>
+  <si>
+    <t>Gadget v Wilson</t>
+  </si>
+  <si>
+    <t>Preston v Carlos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +761,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -953,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1098,6 +1108,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1512,10 +1538,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2028,7 +2054,7 @@
       <c r="AB5" s="18">
         <v>1</v>
       </c>
-      <c r="AC5" s="18"/>
+      <c r="AC5" s="64"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
@@ -2057,31 +2083,31 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f t="shared" ref="BC5:BC39" si="0">COUNT(B5:AY5)</f>
+        <f>COUNT(B5:AY5)</f>
         <v>23</v>
       </c>
       <c r="BD5" s="8">
-        <f t="shared" ref="BD5:BD39" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
         <v>13</v>
       </c>
       <c r="BE5" s="8">
-        <f t="shared" ref="BE5:BE39" si="2">COUNTIF($B5:$AY5, "0")</f>
+        <f>COUNTIF($B5:$AY5, "0")</f>
         <v>5</v>
       </c>
       <c r="BF5" s="8">
-        <f t="shared" ref="BF5:BF39" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
+        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
         <v>5</v>
       </c>
       <c r="BG5" s="8">
-        <f t="shared" ref="BG5:BG39" si="4">SUM(BD5*3)+BE5</f>
+        <f>SUM(BD5*3)+BE5</f>
         <v>44</v>
       </c>
       <c r="BH5" s="8">
-        <f t="shared" ref="BH5:BH39" si="5">SUM(B5:AY5)</f>
+        <f>SUM(B5:AY5)</f>
         <v>22</v>
       </c>
       <c r="BI5" s="10">
-        <f t="shared" ref="BI5:BI39" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
         <v>0.6376811594202898</v>
       </c>
       <c r="BJ5" s="10"/>
@@ -2161,8 +2187,10 @@
       <c r="AB6" s="30">
         <v>1</v>
       </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="55">
+        <v>0</v>
+      </c>
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
@@ -2188,38 +2216,38 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>COUNT(B6:AY6)</f>
+        <v>23</v>
       </c>
       <c r="BD6" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
         <v>10</v>
       </c>
       <c r="BE6" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B6:$AY6, "0")</f>
+        <v>5</v>
+      </c>
+      <c r="BF6" s="8">
+        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="BG6" s="8">
+        <f>SUM(BD6*3)+BE6</f>
+        <v>35</v>
+      </c>
+      <c r="BH6" s="8">
+        <f>SUM(B6:AY6)</f>
         <v>4</v>
       </c>
-      <c r="BF6" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="BG6" s="8">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="BH6" s="8">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="BI6" s="10">
-        <f t="shared" si="6"/>
-        <v>0.51515151515151514</v>
+        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
+        <v>0.50724637681159424</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7">
         <v>-1</v>
@@ -2227,33 +2255,29 @@
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>-1</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="G7" s="46">
         <v>0</v>
       </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="46">
+      <c r="I7" s="7">
         <v>-7</v>
       </c>
       <c r="J7" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -2261,37 +2285,41 @@
       <c r="O7" s="7">
         <v>-1</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>3</v>
+      </c>
       <c r="R7" s="51"/>
-      <c r="S7" s="7"/>
+      <c r="S7" s="7">
+        <v>-2</v>
+      </c>
       <c r="T7" s="7">
         <v>1</v>
       </c>
-      <c r="U7" s="7">
-        <v>4</v>
-      </c>
+      <c r="U7" s="7"/>
       <c r="V7" s="7">
         <v>8</v>
       </c>
-      <c r="W7" s="46">
-        <v>0</v>
-      </c>
+      <c r="W7" s="7"/>
       <c r="X7" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
       </c>
-      <c r="Z7" s="7">
-        <v>2</v>
+      <c r="Z7" s="46">
+        <v>-2</v>
       </c>
       <c r="AA7" s="51"/>
       <c r="AB7" s="7">
         <v>1</v>
       </c>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -2317,51 +2345,55 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B7:AY7)</f>
         <v>21</v>
       </c>
       <c r="BD7" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE7" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B7:$AY7, "0")</f>
         <v>5</v>
       </c>
       <c r="BF7" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
         <v>7</v>
       </c>
       <c r="BG7" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD7*3)+BE7</f>
         <v>32</v>
       </c>
       <c r="BH7" s="8">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>SUM(B7:AY7)</f>
+        <v>16</v>
       </c>
       <c r="BI7" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
         <v>0.50793650793650791</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="47">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18">
         <v>-1</v>
       </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
       <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="49"/>
@@ -2371,54 +2403,58 @@
       <c r="J8" s="18">
         <v>8</v>
       </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M8" s="18">
         <v>-1</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="47">
         <v>0</v>
       </c>
       <c r="O8" s="18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P8" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q8" s="18">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R8" s="49"/>
       <c r="S8" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T8" s="18">
-        <v>1</v>
-      </c>
-      <c r="U8" s="18"/>
+        <v>-1</v>
+      </c>
+      <c r="U8" s="18">
+        <v>-4</v>
+      </c>
       <c r="V8" s="18">
         <v>8</v>
       </c>
-      <c r="W8" s="18"/>
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
       <c r="X8" s="18">
         <v>5</v>
       </c>
       <c r="Y8" s="18">
         <v>0</v>
       </c>
-      <c r="Z8" s="47">
+      <c r="Z8" s="18">
         <v>-2</v>
       </c>
       <c r="AA8" s="49"/>
       <c r="AB8" s="18">
         <v>1</v>
       </c>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="47">
+        <v>0</v>
+      </c>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
@@ -2444,43 +2480,43 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>COUNT(B8:AY8)</f>
+        <v>24</v>
       </c>
       <c r="BD8" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE8" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF($B8:$AY8, "0")</f>
+        <v>5</v>
       </c>
       <c r="BF8" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <v>10</v>
       </c>
       <c r="BG8" s="8">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f>SUM(BD8*3)+BE8</f>
+        <v>32</v>
       </c>
       <c r="BH8" s="8">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>SUM(B8:AY8)</f>
+        <v>12</v>
       </c>
       <c r="BI8" s="10">
-        <f t="shared" si="6"/>
-        <v>0.51666666666666672</v>
+        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="48">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="D9" s="16">
@@ -2490,67 +2526,63 @@
         <v>-1</v>
       </c>
       <c r="F9" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G9" s="16">
         <v>0</v>
       </c>
       <c r="H9" s="52"/>
-      <c r="I9" s="16">
+      <c r="I9" s="48">
         <v>-7</v>
       </c>
       <c r="J9" s="16">
-        <v>8</v>
-      </c>
-      <c r="K9" s="16"/>
+        <v>-8</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
       <c r="L9" s="16">
         <v>-2</v>
       </c>
       <c r="M9" s="16">
+        <v>1</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
         <v>-1</v>
       </c>
-      <c r="N9" s="48">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>1</v>
-      </c>
-      <c r="P9" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>-3</v>
-      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="52"/>
-      <c r="S9" s="16">
-        <v>2</v>
-      </c>
+      <c r="S9" s="16"/>
       <c r="T9" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U9" s="16">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V9" s="16">
         <v>8</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="48">
         <v>0</v>
       </c>
       <c r="X9" s="16">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y9" s="16">
         <v>0</v>
       </c>
       <c r="Z9" s="16">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="52"/>
       <c r="AB9" s="16">
         <v>1</v>
       </c>
-      <c r="AC9" s="16"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
@@ -2577,52 +2609,48 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>COUNT(B9:AY9)</f>
+        <v>21</v>
       </c>
       <c r="BD9" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE9" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF($B9:$AY9, "0")</f>
+        <v>5</v>
       </c>
       <c r="BF9" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
+        <v>7</v>
       </c>
       <c r="BG9" s="8">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f>SUM(BD9*3)+BE9</f>
+        <v>32</v>
       </c>
       <c r="BH9" s="8">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>SUM(B9:AY9)</f>
+        <v>3</v>
       </c>
       <c r="BI9" s="10">
-        <f t="shared" si="6"/>
-        <v>0.44927536231884058</v>
+        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
+        <v>0.50793650793650791</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="16">
-        <v>-1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B10" s="68"/>
       <c r="C10" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10" s="16">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="48">
-        <v>-1</v>
-      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="16">
         <v>0</v>
       </c>
@@ -2630,59 +2658,51 @@
       <c r="I10" s="16">
         <v>7</v>
       </c>
-      <c r="J10" s="16">
-        <v>-8</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
+      <c r="J10" s="48">
+        <v>8</v>
+      </c>
+      <c r="K10" s="16"/>
       <c r="L10" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7">
         <v>2</v>
       </c>
-      <c r="M10" s="16">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="46">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="48">
         <v>-2</v>
       </c>
-      <c r="Q10" s="7">
-        <v>-3</v>
-      </c>
-      <c r="R10" s="52"/>
-      <c r="S10" s="16">
+      <c r="T10" s="16">
+        <v>1</v>
+      </c>
+      <c r="U10" s="16">
+        <v>4</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="48">
         <v>2</v>
       </c>
-      <c r="T10" s="16">
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="16">
         <v>-1</v>
       </c>
-      <c r="U10" s="16">
-        <v>-4</v>
-      </c>
-      <c r="V10" s="16">
-        <v>8</v>
-      </c>
-      <c r="W10" s="16">
-        <v>0</v>
-      </c>
-      <c r="X10" s="16">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="48">
-        <v>-1</v>
-      </c>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="16">
+        <v>0</v>
+      </c>
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
@@ -2696,7 +2716,7 @@
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
+      <c r="AR10" s="68"/>
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
@@ -2708,98 +2728,98 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>COUNT(B10:AY10)</f>
+        <v>16</v>
       </c>
       <c r="BD10" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
         <v>8</v>
       </c>
       <c r="BE10" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B10:$AY10, "0")</f>
         <v>4</v>
       </c>
       <c r="BF10" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG10" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD10*3)+BE10</f>
         <v>28</v>
       </c>
       <c r="BH10" s="8">
-        <f t="shared" si="5"/>
-        <v>-3</v>
+        <f>SUM(B10:AY10)</f>
+        <v>28</v>
       </c>
       <c r="BI10" s="10">
-        <f t="shared" si="6"/>
-        <v>0.42424242424242425</v>
+        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="56"/>
+        <v>99</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
         <v>9</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="7">
-        <v>7</v>
-      </c>
-      <c r="J11" s="46">
-        <v>8</v>
-      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M11" s="7">
-        <v>-1</v>
-      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7">
-        <v>2</v>
-      </c>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="51"/>
-      <c r="S11" s="46">
+      <c r="S11" s="7">
         <v>-2</v>
       </c>
-      <c r="T11" s="7">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7">
-        <v>4</v>
-      </c>
-      <c r="V11" s="7"/>
+      <c r="T11" s="46">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="46">
+        <v>8</v>
+      </c>
       <c r="W11" s="7">
         <v>0</v>
       </c>
-      <c r="X11" s="7"/>
+      <c r="X11" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y11" s="7">
         <v>0</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11" s="7">
         <v>2</v>
       </c>
       <c r="AA11" s="51"/>
       <c r="AB11" s="7">
         <v>-1</v>
       </c>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="7">
+        <v>0</v>
+      </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
@@ -2813,7 +2833,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="56"/>
+      <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -2825,95 +2845,111 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B11:AY11)</f>
         <v>15</v>
       </c>
       <c r="BD11" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
         <v>8</v>
       </c>
       <c r="BE11" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B11:$AY11, "0")</f>
+        <v>4</v>
+      </c>
+      <c r="BF11" s="8">
+        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
         <v>3</v>
       </c>
-      <c r="BF11" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="BG11" s="8">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f>SUM(BD11*3)+BE11</f>
+        <v>28</v>
       </c>
       <c r="BH11" s="8">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f>SUM(B11:AY11)</f>
+        <v>16</v>
       </c>
       <c r="BI11" s="10">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
+        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
+        <v>0.62222222222222223</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="7">
-        <v>9</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
+        <v>-9</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="46">
+        <v>-1</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="I12" s="7">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="46">
+        <v>-2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>-3</v>
+      </c>
       <c r="R12" s="51"/>
       <c r="S12" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T12" s="46">
-        <v>1</v>
-      </c>
-      <c r="U12" s="7"/>
-      <c r="V12" s="46">
+        <v>2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V12" s="7">
         <v>8</v>
       </c>
       <c r="W12" s="7">
         <v>0</v>
       </c>
       <c r="X12" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Y12" s="7"/>
       <c r="Z12" s="7">
         <v>2</v>
       </c>
       <c r="AA12" s="51"/>
-      <c r="AB12" s="7">
+      <c r="AB12" s="46">
         <v>-1</v>
       </c>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="66"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
@@ -2940,32 +2976,32 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>COUNT(B12:AY12)</f>
+        <v>22</v>
       </c>
       <c r="BD12" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
         <v>8</v>
       </c>
       <c r="BE12" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B12:$AY12, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF12" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
+        <v>10</v>
       </c>
       <c r="BG12" s="8">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f>SUM(BD12*3)+BE12</f>
+        <v>28</v>
       </c>
       <c r="BH12" s="8">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>SUM(B12:AY12)</f>
+        <v>-3</v>
       </c>
       <c r="BI12" s="10">
-        <f t="shared" si="6"/>
-        <v>0.6428571428571429</v>
+        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
+        <v>0.42424242424242425</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
@@ -3038,7 +3074,7 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="51"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
+      <c r="AC13" s="66"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -3065,31 +3101,31 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B13:AY13)</f>
         <v>19</v>
       </c>
       <c r="BD13" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
         <v>7</v>
       </c>
       <c r="BE13" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B13:$AY13, "0")</f>
         <v>4</v>
       </c>
       <c r="BF13" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
         <v>8</v>
       </c>
       <c r="BG13" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD13*3)+BE13</f>
         <v>25</v>
       </c>
       <c r="BH13" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B13:AY13)</f>
         <v>-2</v>
       </c>
       <c r="BI13" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
         <v>0.43859649122807015</v>
       </c>
       <c r="BJ13" s="10"/>
@@ -3161,8 +3197,10 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="51"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
@@ -3188,32 +3226,32 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>COUNT(B14:AY14)</f>
+        <v>19</v>
       </c>
       <c r="BD14" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE14" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>COUNTIF($B14:$AY14, "0")</f>
+        <v>6</v>
       </c>
       <c r="BF14" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
         <v>7</v>
       </c>
       <c r="BG14" s="8">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f>SUM(BD14*3)+BE14</f>
+        <v>24</v>
       </c>
       <c r="BH14" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B14:AY14)</f>
         <v>11</v>
       </c>
       <c r="BI14" s="10">
-        <f t="shared" si="6"/>
-        <v>0.42592592592592593</v>
+        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
+        <v>0.42105263157894735</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
@@ -3284,8 +3322,10 @@
       </c>
       <c r="AA15" s="51"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
@@ -3311,32 +3351,32 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>COUNT(B15:AY15)</f>
+        <v>19</v>
       </c>
       <c r="BD15" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE15" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>COUNTIF($B15:$AY15, "0")</f>
+        <v>6</v>
       </c>
       <c r="BF15" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
         <v>7</v>
       </c>
       <c r="BG15" s="8">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f>SUM(BD15*3)+BE15</f>
+        <v>24</v>
       </c>
       <c r="BH15" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B15:AY15)</f>
         <v>-10</v>
       </c>
       <c r="BI15" s="10">
-        <f t="shared" si="6"/>
-        <v>0.42592592592592593</v>
+        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
+        <v>0.42105263157894735</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
@@ -3397,8 +3437,10 @@
       <c r="AB16" s="46">
         <v>1</v>
       </c>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
@@ -3424,32 +3466,32 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>COUNT(B16:AY16)</f>
+        <v>14</v>
       </c>
       <c r="BD16" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE16" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B16:$AY16, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF16" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
         <v>4</v>
       </c>
       <c r="BG16" s="8">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f>SUM(BD16*3)+BE16</f>
+        <v>22</v>
       </c>
       <c r="BH16" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B16:AY16)</f>
         <v>10</v>
       </c>
       <c r="BI16" s="10">
-        <f t="shared" si="6"/>
-        <v>0.53846153846153844</v>
+        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
+        <v>0.52380952380952384</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
@@ -3510,8 +3552,10 @@
       <c r="AB17" s="7">
         <v>1</v>
       </c>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="7">
+        <v>0</v>
+      </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
@@ -3537,32 +3581,32 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>COUNT(B17:AY17)</f>
+        <v>14</v>
       </c>
       <c r="BD17" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE17" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B17:$AY17, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF17" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
         <v>4</v>
       </c>
       <c r="BG17" s="8">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f>SUM(BD17*3)+BE17</f>
+        <v>22</v>
       </c>
       <c r="BH17" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B17:AY17)</f>
         <v>5</v>
       </c>
       <c r="BI17" s="10">
-        <f t="shared" si="6"/>
-        <v>0.53846153846153844</v>
+        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
+        <v>0.52380952380952384</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
@@ -3627,8 +3671,10 @@
       </c>
       <c r="AA18" s="51"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
@@ -3654,32 +3700,32 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNT(B18:AY18)</f>
+        <v>16</v>
       </c>
       <c r="BD18" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE18" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B18:$AY18, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF18" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
         <v>6</v>
       </c>
       <c r="BG18" s="8">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f>SUM(BD18*3)+BE18</f>
+        <v>22</v>
       </c>
       <c r="BH18" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B18:AY18)</f>
         <v>-9</v>
       </c>
       <c r="BI18" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
@@ -3736,7 +3782,7 @@
       <c r="AB19" s="7">
         <v>-1</v>
       </c>
-      <c r="AC19" s="7"/>
+      <c r="AC19" s="66"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
@@ -3763,31 +3809,31 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B19:AY19)</f>
         <v>11</v>
       </c>
       <c r="BD19" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE19" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B19:$AY19, "0")</f>
         <v>2</v>
       </c>
       <c r="BF19" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG19" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD19*3)+BE19</f>
         <v>20</v>
       </c>
       <c r="BH19" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B19:AY19)</f>
         <v>1</v>
       </c>
       <c r="BI19" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
         <v>0.60606060606060608</v>
       </c>
       <c r="BJ19" s="10"/>
@@ -3855,8 +3901,10 @@
       <c r="AB20" s="7">
         <v>-1</v>
       </c>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="7">
+        <v>0</v>
+      </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -3882,32 +3930,32 @@
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>COUNT(B20:AY20)</f>
+        <v>17</v>
       </c>
       <c r="BD20" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE20" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF($B20:$AY20, "0")</f>
+        <v>5</v>
       </c>
       <c r="BF20" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
         <v>7</v>
       </c>
       <c r="BG20" s="8">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f>SUM(BD20*3)+BE20</f>
+        <v>20</v>
       </c>
       <c r="BH20" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B20:AY20)</f>
         <v>-10</v>
       </c>
       <c r="BI20" s="10">
-        <f t="shared" si="6"/>
-        <v>0.39583333333333331</v>
+        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
+        <v>0.39215686274509803</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
@@ -3964,8 +4012,10 @@
       <c r="AB21" s="7">
         <v>-1</v>
       </c>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="7">
+        <v>0</v>
+      </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
@@ -3991,32 +4041,32 @@
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>COUNT(B21:AY21)</f>
+        <v>12</v>
       </c>
       <c r="BD21" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE21" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B21:$AY21, "0")</f>
+        <v>4</v>
+      </c>
+      <c r="BF21" s="8">
+        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
         <v>3</v>
       </c>
-      <c r="BF21" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
       <c r="BG21" s="8">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f>SUM(BD21*3)+BE21</f>
+        <v>19</v>
       </c>
       <c r="BH21" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B21:AY21)</f>
         <v>5</v>
       </c>
       <c r="BI21" s="10">
-        <f t="shared" si="6"/>
-        <v>0.54545454545454541</v>
+        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
+        <v>0.52777777777777779</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
@@ -4075,8 +4125,10 @@
       <c r="AB22" s="7">
         <v>1</v>
       </c>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="7">
+        <v>0</v>
+      </c>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
@@ -4103,32 +4155,32 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNT(B22:AY22)</f>
+        <v>13</v>
       </c>
       <c r="BD22" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
         <v>5</v>
       </c>
       <c r="BE22" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B22:$AY22, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF22" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
         <v>6</v>
       </c>
       <c r="BG22" s="8">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f>SUM(BD22*3)+BE22</f>
+        <v>17</v>
       </c>
       <c r="BH22" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B22:AY22)</f>
         <v>-19</v>
       </c>
       <c r="BI22" s="10">
-        <f t="shared" si="6"/>
-        <v>0.44444444444444442</v>
+        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
+        <v>0.4358974358974359</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
@@ -4193,8 +4245,10 @@
       <c r="AB23" s="7">
         <v>-1</v>
       </c>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="7">
+        <v>0</v>
+      </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
@@ -4220,31 +4274,31 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNT(B23:AY23)</f>
+        <v>16</v>
       </c>
       <c r="BD23" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE23" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTIF($B23:$AY23, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF23" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
         <v>8</v>
       </c>
       <c r="BG23" s="8">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f>SUM(BD23*3)+BE23</f>
+        <v>16</v>
       </c>
       <c r="BH23" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B23:AY23)</f>
         <v>-19</v>
       </c>
       <c r="BI23" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ23" s="10"/>
@@ -4302,8 +4356,10 @@
       </c>
       <c r="AA24" s="51"/>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="7">
+        <v>0</v>
+      </c>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
@@ -4329,92 +4385,78 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>COUNT(B24:AY24)</f>
+        <v>12</v>
       </c>
       <c r="BD24" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE24" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B24:$AY24, "0")</f>
+        <v>3</v>
       </c>
       <c r="BF24" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
         <v>5</v>
       </c>
       <c r="BG24" s="8">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>SUM(BD24*3)+BE24</f>
+        <v>15</v>
       </c>
       <c r="BH24" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B24:AY24)</f>
         <v>-6</v>
       </c>
       <c r="BI24" s="10">
-        <f t="shared" si="6"/>
-        <v>0.42424242424242425</v>
+        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="46">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="51"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="46">
-        <v>-1</v>
-      </c>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P25" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>3</v>
-      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
       <c r="R25" s="51"/>
-      <c r="S25" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V25" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W25" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
       <c r="X25" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA25" s="51"/>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="7">
+        <v>0</v>
+      </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
@@ -4440,38 +4482,38 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNT(B25:AY25)</f>
+        <v>5</v>
       </c>
       <c r="BD25" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE25" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B25:$AY25, "0")</f>
         <v>2</v>
       </c>
       <c r="BF25" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="BG25" s="8">
+        <f>SUM(BD25*3)+BE25</f>
         <v>8</v>
       </c>
-      <c r="BG25" s="8">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
       <c r="BH25" s="8">
-        <f t="shared" si="5"/>
-        <v>-20</v>
+        <f>SUM(B25:AY25)</f>
+        <v>7</v>
       </c>
       <c r="BI25" s="10">
-        <f t="shared" si="6"/>
-        <v>0.22222222222222221</v>
+        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4490,26 +4532,28 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="51"/>
-      <c r="S26" s="7">
-        <v>2</v>
-      </c>
-      <c r="T26" s="7">
-        <v>-1</v>
-      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="7">
-        <v>8</v>
+      <c r="V26" s="46">
+        <v>-8</v>
       </c>
       <c r="W26" s="7">
         <v>0</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="7">
+        <v>5</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="51"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
+      <c r="AB26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
@@ -4535,52 +4579,48 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>COUNT(B26:AY26)</f>
+        <v>5</v>
       </c>
       <c r="BD26" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE26" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B26:$AY26, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF26" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG26" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>SUM(BD26*3)+BE26</f>
+        <v>8</v>
       </c>
       <c r="BH26" s="8">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>SUM(B26:AY26)</f>
+        <v>-2</v>
       </c>
       <c r="BI26" s="10">
-        <f t="shared" si="6"/>
-        <v>0.58333333333333337</v>
+        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7">
+        <v>74</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="46">
         <v>-1</v>
       </c>
-      <c r="D27" s="46">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
       <c r="G27" s="7">
         <v>0</v>
       </c>
@@ -4589,23 +4629,41 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="46">
+        <v>-1</v>
+      </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="O27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>3</v>
+      </c>
       <c r="R27" s="51"/>
-      <c r="S27" s="7"/>
+      <c r="S27" s="7">
+        <v>-2</v>
+      </c>
       <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="U27" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V27" s="7">
+        <v>-8</v>
+      </c>
       <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
+      <c r="X27" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>0</v>
+      </c>
       <c r="Z27" s="7"/>
       <c r="AA27" s="51"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
+      <c r="AC27" s="66"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
@@ -4632,38 +4690,38 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNT(B27:AY27)</f>
+        <v>12</v>
       </c>
       <c r="BD27" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE27" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>COUNTIF($B27:$AY27, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF27" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
+        <v>8</v>
       </c>
       <c r="BG27" s="8">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>SUM(BD27*3)+BE27</f>
+        <v>8</v>
       </c>
       <c r="BH27" s="8">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>SUM(B27:AY27)</f>
+        <v>-20</v>
       </c>
       <c r="BI27" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -4682,25 +4740,25 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="51"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7">
-        <v>4</v>
-      </c>
-      <c r="V28" s="7"/>
+      <c r="S28" s="7">
+        <v>2</v>
+      </c>
+      <c r="T28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7">
+        <v>8</v>
+      </c>
       <c r="W28" s="7">
         <v>0</v>
       </c>
-      <c r="X28" s="7">
-        <v>5</v>
-      </c>
+      <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="51"/>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
+      <c r="AC28" s="66"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
@@ -4727,45 +4785,55 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B28:AY28)</f>
         <v>4</v>
       </c>
       <c r="BD28" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE28" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B28:$AY28, "0")</f>
         <v>1</v>
       </c>
       <c r="BF28" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG28" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD28*3)+BE28</f>
         <v>7</v>
       </c>
       <c r="BH28" s="8">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f>SUM(B28:AY28)</f>
+        <v>9</v>
       </c>
       <c r="BI28" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="46">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7">
+        <v>-1</v>
+      </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="51"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -4780,22 +4848,14 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="46">
-        <v>-8</v>
-      </c>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7">
-        <v>5</v>
-      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="51"/>
-      <c r="AB29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="66"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
@@ -4822,32 +4882,32 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>COUNT(B29:AY29)</f>
+        <v>5</v>
       </c>
       <c r="BD29" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE29" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B29:$AY29, "0")</f>
         <v>1</v>
       </c>
       <c r="BF29" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
+        <v>2</v>
       </c>
       <c r="BG29" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD29*3)+BE29</f>
         <v>7</v>
       </c>
       <c r="BH29" s="8">
-        <f t="shared" si="5"/>
-        <v>-2</v>
+        <f>SUM(B29:AY29)</f>
+        <v>8</v>
       </c>
       <c r="BI29" s="10">
-        <f t="shared" si="6"/>
-        <v>0.58333333333333337</v>
+        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
@@ -4886,7 +4946,7 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="51"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
+      <c r="AC30" s="66"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
@@ -4913,31 +4973,31 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B30:AY30)</f>
         <v>2</v>
       </c>
       <c r="BD30" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE30" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B30:$AY30, "0")</f>
         <v>0</v>
       </c>
       <c r="BF30" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG30" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD30*3)+BE30</f>
         <v>6</v>
       </c>
       <c r="BH30" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B30:AY30)</f>
         <v>10</v>
       </c>
       <c r="BI30" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
         <v>1</v>
       </c>
       <c r="BJ30" s="10"/>
@@ -4979,7 +5039,7 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="51"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
+      <c r="AC31" s="66"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
@@ -5006,31 +5066,31 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B31:AY31)</f>
         <v>3</v>
       </c>
       <c r="BD31" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE31" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B31:$AY31, "0")</f>
         <v>1</v>
       </c>
       <c r="BF31" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG31" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD31*3)+BE31</f>
         <v>4</v>
       </c>
       <c r="BH31" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B31:AY31)</f>
         <v>-1</v>
       </c>
       <c r="BI31" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ31" s="10"/>
@@ -5076,7 +5136,7 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="51"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
+      <c r="AC32" s="66"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
@@ -5103,31 +5163,31 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B32:AY32)</f>
         <v>5</v>
       </c>
       <c r="BD32" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE32" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B32:$AY32, "0")</f>
         <v>1</v>
       </c>
       <c r="BF32" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG32" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD32*3)+BE32</f>
         <v>4</v>
       </c>
       <c r="BH32" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B32:AY32)</f>
         <v>-8</v>
       </c>
       <c r="BI32" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="BJ32" s="10"/>
@@ -5173,7 +5233,7 @@
       </c>
       <c r="AA33" s="51"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
+      <c r="AC33" s="66"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
@@ -5200,31 +5260,31 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B33:AY33)</f>
         <v>5</v>
       </c>
       <c r="BD33" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE33" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B33:$AY33, "0")</f>
         <v>1</v>
       </c>
       <c r="BF33" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG33" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD33*3)+BE33</f>
         <v>4</v>
       </c>
       <c r="BH33" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B33:AY33)</f>
         <v>-14</v>
       </c>
       <c r="BI33" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="BJ33" s="10"/>
@@ -5262,7 +5322,7 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="51"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
+      <c r="AC34" s="66"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
@@ -5289,31 +5349,31 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B34:AY34)</f>
         <v>1</v>
       </c>
       <c r="BD34" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE34" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B34:$AY34, "0")</f>
         <v>1</v>
       </c>
       <c r="BF34" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG34" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD34*3)+BE34</f>
         <v>1</v>
       </c>
       <c r="BH34" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
       <c r="BI34" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ34" s="10"/>
@@ -5353,7 +5413,7 @@
       <c r="Z35" s="7"/>
       <c r="AA35" s="51"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
+      <c r="AC35" s="66"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
@@ -5380,38 +5440,38 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B35:AY35)</f>
         <v>2</v>
       </c>
       <c r="BD35" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE35" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B35:$AY35, "0")</f>
         <v>1</v>
       </c>
       <c r="BF35" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG35" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD35*3)+BE35</f>
         <v>1</v>
       </c>
       <c r="BH35" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B35:AY35)</f>
         <v>-2</v>
       </c>
       <c r="BI35" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="BJ35" s="10"/>
     </row>
     <row r="36" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5428,22 +5488,28 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
+      <c r="Q36" s="7">
+        <v>-3</v>
+      </c>
       <c r="R36" s="51"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V36" s="7">
+        <v>-8</v>
+      </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="51"/>
       <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="7">
+        <v>0</v>
+      </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
@@ -5469,38 +5535,38 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNT(B36:AY36)</f>
+        <v>4</v>
       </c>
       <c r="BD36" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE36" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNTIF($B36:$AY36, "0")</f>
+        <v>1</v>
       </c>
       <c r="BF36" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
+        <v>3</v>
       </c>
       <c r="BG36" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(BD36*3)+BE36</f>
+        <v>1</v>
       </c>
       <c r="BH36" s="8">
-        <f t="shared" si="5"/>
-        <v>-1</v>
+        <f>SUM(B36:AY36)</f>
+        <v>-15</v>
       </c>
       <c r="BI36" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="BJ36" s="10"/>
     </row>
     <row r="37" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -5531,7 +5597,7 @@
       <c r="Z37" s="7"/>
       <c r="AA37" s="51"/>
       <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
+      <c r="AC37" s="66"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
@@ -5558,44 +5624,42 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B37:AY37)</f>
         <v>1</v>
       </c>
       <c r="BD37" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B37:$AY37, "0")</f>
         <v>0</v>
       </c>
       <c r="BF37" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD37*3)+BE37</f>
         <v>0</v>
       </c>
       <c r="BH37" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B37:AY37)</f>
         <v>-1</v>
       </c>
       <c r="BI37" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
         <v>0</v>
       </c>
       <c r="BJ37" s="10"/>
     </row>
     <row r="38" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="46">
-        <v>-9</v>
-      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -5611,7 +5675,9 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="51"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="T38" s="7">
+        <v>-1</v>
+      </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -5620,7 +5686,7 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="51"/>
       <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
+      <c r="AC38" s="66"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
@@ -5647,42 +5713,44 @@
         <v>34</v>
       </c>
       <c r="BC38" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B38:AY38)</f>
         <v>1</v>
       </c>
       <c r="BD38" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B38:$AY38, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE38" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B38:$AY38, "0")</f>
         <v>0</v>
       </c>
       <c r="BF38" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B38:$AY38, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG38" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD38*3)+BE38</f>
         <v>0</v>
       </c>
       <c r="BH38" s="8">
-        <f t="shared" si="5"/>
-        <v>-9</v>
+        <f>SUM(B38:AY38)</f>
+        <v>-1</v>
       </c>
       <c r="BI38" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD38*3+BE38*1)/SUM(BC38*3)</f>
         <v>0</v>
       </c>
       <c r="BJ38" s="10"/>
     </row>
     <row r="39" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="D39" s="46">
+        <v>-9</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -5695,25 +5763,19 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
-      <c r="Q39" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q39" s="7"/>
       <c r="R39" s="51"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V39" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="51"/>
       <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
+      <c r="AC39" s="66"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
@@ -5740,31 +5802,31 @@
         <v>35</v>
       </c>
       <c r="BC39" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>COUNT(B39:AY39)</f>
+        <v>1</v>
       </c>
       <c r="BD39" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B39:$AY39, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE39" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B39:$AY39, "0")</f>
         <v>0</v>
       </c>
       <c r="BF39" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B39:$AY39, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG39" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD39*3)+BE39</f>
         <v>0</v>
       </c>
       <c r="BH39" s="8">
-        <f t="shared" si="5"/>
-        <v>-15</v>
+        <f>SUM(B39:AY39)</f>
+        <v>-9</v>
       </c>
       <c r="BI39" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD39*3+BE39*1)/SUM(BC39*3)</f>
         <v>0</v>
       </c>
       <c r="BJ39" s="10"/>
@@ -5774,87 +5836,87 @@
         <v>43</v>
       </c>
       <c r="B40" s="27">
-        <f t="shared" ref="B40:AD40" si="7">COUNT(B5:B39)</f>
+        <f t="shared" ref="B40:AD40" si="0">COUNT(B5:B39)</f>
         <v>16</v>
       </c>
       <c r="C40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="T40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="U40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="V40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="W40" s="27">
@@ -5862,115 +5924,115 @@
         <v>20</v>
       </c>
       <c r="X40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="Z40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AA40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AC40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD40" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="AE40" s="27">
-        <f t="shared" ref="AE40:AY40" si="8">COUNT(AE5:AE39)</f>
+        <f t="shared" ref="AE40:AY40" si="1">COUNT(AE5:AE39)</f>
         <v>0</v>
       </c>
       <c r="AF40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AX40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AY40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BC40" s="8"/>
@@ -6062,7 +6124,9 @@
         <v>114</v>
       </c>
       <c r="AC41" s="8"/>
-      <c r="AD41" s="13"/>
+      <c r="AD41" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="AE41" s="13"/>
       <c r="AF41" s="13"/>
       <c r="AG41" s="8"/>
@@ -6420,7 +6484,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6459,7 +6523,7 @@
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B3" s="63">
         <v>3</v>
@@ -6468,46 +6532,46 @@
         <v>2</v>
       </c>
       <c r="D3" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="63">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G3" s="63">
-        <f t="shared" ref="G3:G29" si="0">SUM(C3*3)+D3</f>
-        <v>6</v>
+        <f>SUM(C3*3)+D3</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4">
+        <v>89</v>
+      </c>
+      <c r="B4" s="69">
+        <v>3</v>
+      </c>
+      <c r="C4" s="69">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G27" si="1">SUM(C4*3)+D4</f>
+      <c r="D4" s="69">
+        <v>0</v>
+      </c>
+      <c r="E4" s="69">
+        <v>1</v>
+      </c>
+      <c r="F4" s="69">
+        <v>10</v>
+      </c>
+      <c r="G4" s="69">
+        <f>SUM(C4*3)+D4</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6525,13 +6589,13 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>SUM(C5*3)+D5</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B6" s="63">
         <v>2</v>
@@ -6546,64 +6610,64 @@
         <v>0</v>
       </c>
       <c r="F6" s="63">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(C6*3)+D6</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7">
+        <v>111</v>
+      </c>
+      <c r="B7" s="69">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="69">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+      <c r="D7" s="69">
+        <v>0</v>
+      </c>
+      <c r="E7" s="69">
+        <v>0</v>
+      </c>
+      <c r="F7" s="69">
+        <v>6</v>
+      </c>
+      <c r="G7" s="69">
+        <f>SUM(C7*3)+D7</f>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUM(C8*3)+D8</f>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6618,16 +6682,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>SUM(C9*3)+D9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -6645,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>SUM(C10*3)+D10</f>
         <v>4</v>
       </c>
       <c r="H10" s="23"/>
@@ -6670,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>SUM(C11*3)+D11</f>
         <v>4</v>
       </c>
     </row>
@@ -6694,7 +6758,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>SUM(C12*3)+D12</f>
         <v>3</v>
       </c>
     </row>
@@ -6718,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f>SUM(C13*3)+D13</f>
         <v>3</v>
       </c>
       <c r="H13" s="23"/>
@@ -6743,7 +6807,7 @@
         <v>-2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f>SUM(C14*3)+D14</f>
         <v>3</v>
       </c>
     </row>
@@ -6767,7 +6831,7 @@
         <v>-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f>SUM(C15*3)+D15</f>
         <v>3</v>
       </c>
     </row>
@@ -6791,7 +6855,7 @@
         <v>-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f>SUM(C16*3)+D16</f>
         <v>3</v>
       </c>
     </row>
@@ -6815,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>SUM(C17*3)+D17</f>
         <v>2</v>
       </c>
       <c r="K17" s="36"/>
@@ -6840,7 +6904,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>SUM(C18*3)+D18</f>
         <v>1</v>
       </c>
       <c r="K18" s="36"/>
@@ -6865,7 +6929,7 @@
         <v>-1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f>SUM(C19*3)+D19</f>
         <v>1</v>
       </c>
       <c r="K19" s="36"/>
@@ -6890,7 +6954,7 @@
         <v>-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>SUM(C20*3)+D20</f>
         <v>1</v>
       </c>
       <c r="K20" s="37"/>
@@ -6915,7 +6979,7 @@
         <v>-8</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f>SUM(C21*3)+D21</f>
         <v>1</v>
       </c>
       <c r="K21" s="36"/>
@@ -6940,7 +7004,7 @@
         <v>-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>SUM(C22*3)+D22</f>
         <v>0</v>
       </c>
       <c r="K22" s="36"/>
@@ -6965,7 +7029,7 @@
         <v>-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f>SUM(C23*3)+D23</f>
         <v>0</v>
       </c>
       <c r="K23" s="36"/>
@@ -6990,7 +7054,7 @@
         <v>-4</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>SUM(C24*3)+D24</f>
         <v>0</v>
       </c>
       <c r="K24" s="36"/>
@@ -7015,7 +7079,7 @@
         <v>-4</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f>SUM(C25*3)+D25</f>
         <v>0</v>
       </c>
     </row>
@@ -7039,7 +7103,7 @@
         <v>-8</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f>SUM(C26*3)+D26</f>
         <v>0</v>
       </c>
     </row>
@@ -7063,7 +7127,7 @@
         <v>-9</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f>SUM(C27*3)+D27</f>
         <v>0</v>
       </c>
     </row>
@@ -7072,7 +7136,7 @@
         <v>75</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G29" si="0">SUM(C28*3)+D28</f>
         <v>0</v>
       </c>
     </row>
@@ -7090,7 +7154,7 @@
         <v>19</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="2">SUM(C30*3)+D30</f>
+        <f t="shared" ref="G30:G35" si="1">SUM(C30*3)+D30</f>
         <v>0</v>
       </c>
     </row>
@@ -7099,7 +7163,7 @@
         <v>77</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7108,7 +7172,7 @@
         <v>84</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7117,7 +7181,7 @@
         <v>101</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7126,7 +7190,7 @@
         <v>20</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7135,16 +7199,16 @@
         <v>100</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G27">
-    <sortCondition descending="1" ref="G4:G27"/>
-    <sortCondition descending="1" ref="F4:F27"/>
-    <sortCondition ref="B4:B27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G27">
+    <sortCondition descending="1" ref="G3:G27"/>
+    <sortCondition descending="1" ref="F3:F27"/>
+    <sortCondition ref="B3:B27"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7414,7 +7478,7 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="28"/>
       <c r="BA3" s="23">
-        <f>SUM(B3:AY3)</f>
+        <f t="shared" ref="BA3:BA35" si="0">SUM(B3:AY3)</f>
         <v>18</v>
       </c>
       <c r="BB3" s="8">
@@ -7489,7 +7553,7 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="28"/>
       <c r="BA4" s="23">
-        <f>SUM(B4:AY4)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="BB4" s="8">
@@ -7566,7 +7630,7 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="28"/>
       <c r="BA5" s="23">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="BB5" s="8">
@@ -7643,7 +7707,7 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="28"/>
       <c r="BA6" s="23">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="BB6" s="8">
@@ -7725,7 +7789,7 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="28"/>
       <c r="BA7" s="23">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="BB7" s="8">
@@ -7813,7 +7877,7 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="28"/>
       <c r="BA8" s="23">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -7889,7 +7953,7 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="28"/>
       <c r="BA9" s="23">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BC9" s="8">
@@ -7958,7 +8022,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="28"/>
       <c r="BA10" s="23">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BB10" s="8">
@@ -8035,7 +8099,7 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="28"/>
       <c r="BA11" s="23">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BC11" s="8">
@@ -8102,7 +8166,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="28"/>
       <c r="BA12" s="23">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BB12" s="8">
@@ -8175,7 +8239,7 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BB13" s="8">
@@ -8248,7 +8312,7 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="28"/>
       <c r="BA14" s="23">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BC14" s="8">
@@ -8321,7 +8385,7 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="28"/>
       <c r="BA15" s="23">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -8393,7 +8457,7 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="23">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -8461,7 +8525,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="28"/>
       <c r="BA17" s="23">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -8527,7 +8591,7 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="28"/>
       <c r="BA18" s="23">
-        <f>SUM(B18:AY18)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BB18" s="8">
@@ -8597,7 +8661,7 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="28"/>
       <c r="BA19" s="23">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BC19" s="8">
@@ -8666,7 +8730,7 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="28"/>
       <c r="BA20" s="23">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -8736,7 +8800,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="28"/>
       <c r="BA21" s="23">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -8806,7 +8870,7 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="28"/>
       <c r="BA22" s="23">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -8876,7 +8940,7 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="28"/>
       <c r="BA23" s="23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -8942,7 +9006,7 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="28"/>
       <c r="BA24" s="23">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -9010,7 +9074,7 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="23">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -9076,7 +9140,7 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="23">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -9140,7 +9204,7 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="28"/>
       <c r="BA27" s="23">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BC27" s="8">
@@ -9209,7 +9273,7 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="28"/>
       <c r="BA28" s="23">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9271,7 +9335,7 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="28"/>
       <c r="BA29" s="23">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -9333,7 +9397,7 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="28"/>
       <c r="BA30" s="23">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9395,7 +9459,7 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="28"/>
       <c r="BA31" s="23">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9455,7 +9519,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="28"/>
       <c r="BA32" s="23">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9515,7 +9579,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="28"/>
       <c r="BA33" s="23">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9575,7 +9639,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="28"/>
       <c r="BA34" s="23">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9635,7 +9699,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="28"/>
       <c r="BA35" s="23">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9693,7 +9757,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="23">
-        <f t="shared" ref="BA36" si="0">SUM(B36:AY36)</f>
+        <f t="shared" ref="BA36" si="1">SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -9815,7 +9879,7 @@
       </c>
       <c r="AD38">
         <f>'League Table'!AD40</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE38">
         <f>'League Table'!AE40</f>
@@ -9899,191 +9963,191 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="2">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="X40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AC40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AR40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AU40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AV40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10108,10 +10172,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
+      <selection pane="bottomRight" activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10427,7 +10491,7 @@
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="BA5">
-        <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
+        <f>SUM(B5:AY5)</f>
         <v>21</v>
       </c>
     </row>
@@ -10508,7 +10572,7 @@
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="BA6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:AY6)</f>
         <v>17</v>
       </c>
     </row>
@@ -10564,7 +10628,9 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="7">
+        <v>1</v>
+      </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -10587,8 +10653,8 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="BA7">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(B7:AY7)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10639,7 +10705,9 @@
       </c>
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
+      <c r="AD8" s="18">
+        <v>1</v>
+      </c>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
@@ -10662,8 +10730,8 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
       <c r="BA8">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(B8:AY8)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
@@ -10735,7 +10803,7 @@
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="BA9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AY9)</f>
         <v>11</v>
       </c>
     </row>
@@ -10806,28 +10874,28 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="BA10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:AY10)</f>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="51"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -10850,7 +10918,9 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
+      <c r="AD11" s="7">
+        <v>1</v>
+      </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
@@ -10873,28 +10943,28 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B11:AY11)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="16">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
       <c r="H12" s="52"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -10940,7 +11010,7 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:AY12)</f>
         <v>7</v>
       </c>
     </row>
@@ -11007,13 +11077,13 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AY13)</f>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -11022,38 +11092,38 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7">
-        <v>1</v>
-      </c>
+      <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="7">
+        <v>1</v>
+      </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7">
+        <v>1</v>
+      </c>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
+      <c r="AD14" s="7">
+        <v>1</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
@@ -11076,13 +11146,13 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AY14)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -11092,27 +11162,33 @@
       <c r="G15" s="7"/>
       <c r="H15" s="51"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7">
-        <v>4</v>
-      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
       <c r="O15" s="7">
         <v>1</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
+      <c r="Z15" s="7">
+        <v>1</v>
+      </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
@@ -11139,13 +11215,13 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AY15)</f>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -11154,30 +11230,26 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7">
+        <v>4</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7">
-        <v>1</v>
-      </c>
+      <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="7">
-        <v>1</v>
-      </c>
+      <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -11206,35 +11278,33 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B16:AY16)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7">
-        <v>1</v>
-      </c>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -11242,13 +11312,17 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
+      <c r="AD17" s="7">
+        <v>1</v>
+      </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
@@ -11271,18 +11345,20 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B17:AY17)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="51"/>
@@ -11290,9 +11366,7 @@
       <c r="J18" s="7">
         <v>1</v>
       </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -11336,33 +11410,35 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:AY18)</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="P19" s="7">
+        <v>1</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -11370,9 +11446,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7">
-        <v>1</v>
-      </c>
+      <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -11401,7 +11475,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AY19)</f>
         <v>3</v>
       </c>
     </row>
@@ -11462,13 +11536,13 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -11482,12 +11556,12 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -11500,7 +11574,9 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
+      <c r="AD21" s="7">
+        <v>1</v>
+      </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
@@ -11523,13 +11599,13 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B21:AY21)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -11584,13 +11660,13 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -11645,13 +11721,13 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -11665,12 +11741,12 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -11706,13 +11782,13 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AY24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -11722,16 +11798,16 @@
       <c r="G25" s="7"/>
       <c r="H25" s="51"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -11767,25 +11843,25 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AY25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="51"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -11828,13 +11904,13 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AY26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -11889,19 +11965,21 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="51"/>
       <c r="I28" s="7"/>
@@ -11912,9 +11990,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -11950,7 +12026,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>1</v>
       </c>
     </row>
@@ -12011,7 +12087,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>1</v>
       </c>
     </row>
@@ -12070,7 +12146,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>0</v>
       </c>
     </row>
@@ -12129,7 +12205,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>0</v>
       </c>
     </row>
@@ -12188,7 +12264,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
@@ -12247,7 +12323,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -12306,7 +12382,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -12365,7 +12441,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -12424,7 +12500,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f t="shared" si="0"/>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -12483,7 +12559,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f t="shared" si="0"/>
+        <f>SUM(B37:AY37)</f>
         <v>0</v>
       </c>
     </row>
@@ -12540,7 +12616,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" ref="BA38" si="1">SUM(B38:AY38)</f>
+        <f t="shared" ref="BA38" si="0">SUM(B38:AY38)</f>
         <v>0</v>
       </c>
     </row>
@@ -12655,208 +12731,208 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="2">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="1">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V41" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AE41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="8">
+        <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="8">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="8">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="8">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I41" s="8">
+      <c r="AP41" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="8">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="R41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="T41" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="V41" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="W41" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="X41" s="8">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Y41" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Z41" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AA41" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="3">SUM(AI5:AI39)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AP41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AR41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AS41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AU41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AW41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX41" s="8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="4">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="3">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -12878,7 +12954,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13557,7 +13633,7 @@
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K26" s="8"/>
       <c r="M26" s="8" t="s">
@@ -13607,13 +13683,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>197</v>
@@ -13627,7 +13703,9 @@
       <c r="A30" s="31">
         <v>28</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="31" t="s">
+        <v>145</v>
+      </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -13639,10 +13717,18 @@
       <c r="A31" s="31">
         <v>29</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="B31" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="31">

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE30F3FC-8625-984C-8F88-292ED9D8F302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889D800B-C925-5E48-B448-606E5F05FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1060" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="540" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="211">
   <si>
     <t>WK 1</t>
   </si>
@@ -667,6 +667,12 @@
   </si>
   <si>
     <t>Preston v Carlos</t>
+  </si>
+  <si>
+    <t>Captain Kirk - Bruce</t>
+  </si>
+  <si>
+    <t>Matt B</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,6 +800,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1123,7 +1135,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1538,10 +1555,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA39"/>
+      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2056,7 +2073,9 @@
       </c>
       <c r="AC5" s="64"/>
       <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
+      <c r="AE5" s="70">
+        <v>-4</v>
+      </c>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -2084,7 +2103,7 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
         <f>COUNT(B5:AY5)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD5" s="8">
         <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
@@ -2096,7 +2115,7 @@
       </c>
       <c r="BF5" s="8">
         <f>COUNTIF($B5:$AY5, "&lt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG5" s="8">
         <f>SUM(BD5*3)+BE5</f>
@@ -2104,39 +2123,35 @@
       </c>
       <c r="BH5" s="8">
         <f>SUM(B5:AY5)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BI5" s="10">
         <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.6376811594202898</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B6" s="30">
         <v>-1</v>
       </c>
       <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30">
         <v>-1</v>
       </c>
-      <c r="D6" s="30">
-        <v>-9</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="55">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="G6" s="55">
         <v>0</v>
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="30">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="J6" s="30">
         <v>8</v>
@@ -2154,12 +2169,12 @@
         <v>0</v>
       </c>
       <c r="O6" s="30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P6" s="30">
         <v>2</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="30">
         <v>3</v>
       </c>
       <c r="R6" s="50"/>
@@ -2167,31 +2182,33 @@
         <v>-2</v>
       </c>
       <c r="T6" s="30">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="30">
-        <v>-4</v>
-      </c>
-      <c r="V6" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30">
+        <v>8</v>
+      </c>
       <c r="W6" s="30"/>
       <c r="X6" s="30">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="30">
         <v>0</v>
       </c>
-      <c r="Z6" s="30">
-        <v>2</v>
+      <c r="Z6" s="55">
+        <v>-2</v>
       </c>
       <c r="AA6" s="50"/>
       <c r="AB6" s="30">
         <v>1</v>
       </c>
       <c r="AC6" s="65"/>
-      <c r="AD6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="30"/>
+      <c r="AD6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="30">
+        <v>4</v>
+      </c>
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
@@ -2217,7 +2234,7 @@
       </c>
       <c r="BC6" s="8">
         <f>COUNT(B6:AY6)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD6" s="8">
         <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
@@ -2229,7 +2246,7 @@
       </c>
       <c r="BF6" s="8">
         <f>COUNTIF($B6:$AY6, "&lt;0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG6" s="8">
         <f>SUM(BD6*3)+BE6</f>
@@ -2237,30 +2254,34 @@
       </c>
       <c r="BH6" s="8">
         <f>SUM(B6:AY6)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BI6" s="10">
         <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.50724637681159424</v>
+        <v>0.53030303030303028</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="46">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7">
         <v>-1</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
       <c r="F7" s="7">
         <v>-1</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="51"/>
@@ -2270,46 +2291,48 @@
       <c r="J7" s="7">
         <v>8</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M7" s="7">
         <v>-1</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="46">
         <v>0</v>
       </c>
       <c r="O7" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q7" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R7" s="51"/>
       <c r="S7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T7" s="7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="U7" s="7">
+        <v>-4</v>
+      </c>
       <c r="V7" s="7">
         <v>8</v>
       </c>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
       <c r="X7" s="7">
         <v>5</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="Z7" s="7">
         <v>-2</v>
       </c>
       <c r="AA7" s="51"/>
@@ -2317,10 +2340,12 @@
         <v>1</v>
       </c>
       <c r="AC7" s="66"/>
-      <c r="AD7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7"/>
+      <c r="AD7" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>4</v>
+      </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
@@ -2346,11 +2371,11 @@
       </c>
       <c r="BC7" s="8">
         <f>COUNT(B7:AY7)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BD7" s="8">
         <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE7" s="8">
         <f>COUNTIF($B7:$AY7, "0")</f>
@@ -2358,11 +2383,11 @@
       </c>
       <c r="BF7" s="8">
         <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BG7" s="8">
         <f>SUM(BD7*3)+BE7</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BH7" s="8">
         <f>SUM(B7:AY7)</f>
@@ -2370,18 +2395,18 @@
       </c>
       <c r="BI7" s="10">
         <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.50793650793650791</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="47">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="18">
         <v>1</v>
       </c>
       <c r="D8" s="18">
@@ -2391,71 +2416,67 @@
         <v>-1</v>
       </c>
       <c r="F8" s="18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="49"/>
-      <c r="I8" s="18">
+      <c r="I8" s="47">
         <v>-7</v>
       </c>
       <c r="J8" s="18">
-        <v>8</v>
-      </c>
-      <c r="K8" s="18"/>
+        <v>-8</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
       <c r="L8" s="18">
         <v>-2</v>
       </c>
       <c r="M8" s="18">
+        <v>1</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
         <v>-1</v>
       </c>
-      <c r="N8" s="47">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <v>1</v>
-      </c>
-      <c r="P8" s="18">
-        <v>-2</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>-3</v>
-      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="49"/>
-      <c r="S8" s="18">
-        <v>2</v>
-      </c>
+      <c r="S8" s="18"/>
       <c r="T8" s="18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U8" s="18">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V8" s="18">
         <v>8</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="47">
         <v>0</v>
       </c>
       <c r="X8" s="18">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y8" s="18">
         <v>0</v>
       </c>
       <c r="Z8" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="49"/>
       <c r="AB8" s="18">
         <v>1</v>
       </c>
       <c r="AC8" s="64"/>
-      <c r="AD8" s="47">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="47">
+        <v>4</v>
+      </c>
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
       <c r="AH8" s="18"/>
@@ -2481,11 +2502,11 @@
       </c>
       <c r="BC8" s="8">
         <f>COUNT(B8:AY8)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD8" s="8">
         <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE8" s="8">
         <f>COUNTIF($B8:$AY8, "0")</f>
@@ -2493,82 +2514,84 @@
       </c>
       <c r="BF8" s="8">
         <f>COUNTIF($B8:$AY8, "&lt;0")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BG8" s="8">
         <f>SUM(BD8*3)+BE8</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BH8" s="8">
         <f>SUM(B8:AY8)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BI8" s="10">
         <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.53030303030303028</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B9" s="16">
         <v>-1</v>
       </c>
       <c r="C9" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="16">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="16">
+        <v>7</v>
+      </c>
+      <c r="J9" s="16">
+        <v>8</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2</v>
+      </c>
+      <c r="M9" s="16">
         <v>-1</v>
       </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="48">
-        <v>-7</v>
-      </c>
-      <c r="J9" s="16">
-        <v>-8</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1</v>
+      </c>
+      <c r="P9" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>3</v>
+      </c>
+      <c r="R9" s="52"/>
+      <c r="S9" s="16">
         <v>-2</v>
       </c>
-      <c r="M9" s="16">
-        <v>1</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
+      <c r="T9" s="16">
         <v>-1</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16">
-        <v>1</v>
-      </c>
       <c r="U9" s="16">
-        <v>4</v>
-      </c>
-      <c r="V9" s="16">
-        <v>8</v>
-      </c>
-      <c r="W9" s="48">
-        <v>0</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
       <c r="X9" s="16">
         <v>-5</v>
       </c>
@@ -2583,7 +2606,9 @@
         <v>1</v>
       </c>
       <c r="AC9" s="67"/>
-      <c r="AD9" s="16"/>
+      <c r="AD9" s="48">
+        <v>0</v>
+      </c>
       <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
@@ -2610,11 +2635,11 @@
       </c>
       <c r="BC9" s="8">
         <f>COUNT(B9:AY9)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD9" s="8">
         <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE9" s="8">
         <f>COUNTIF($B9:$AY9, "0")</f>
@@ -2622,19 +2647,19 @@
       </c>
       <c r="BF9" s="8">
         <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG9" s="8">
         <f>SUM(BD9*3)+BE9</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BH9" s="8">
         <f>SUM(B9:AY9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI9" s="10">
         <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.50793650793650791</v>
+        <v>0.50724637681159424</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
@@ -2703,7 +2728,9 @@
       <c r="AD10" s="16">
         <v>0</v>
       </c>
-      <c r="AE10" s="16"/>
+      <c r="AE10" s="16">
+        <v>4</v>
+      </c>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="16"/>
@@ -2729,11 +2756,11 @@
       </c>
       <c r="BC10" s="8">
         <f>COUNT(B10:AY10)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD10" s="8">
         <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE10" s="8">
         <f>COUNTIF($B10:$AY10, "0")</f>
@@ -2745,15 +2772,15 @@
       </c>
       <c r="BG10" s="8">
         <f>SUM(BD10*3)+BE10</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BH10" s="8">
         <f>SUM(B10:AY10)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BI10" s="10">
         <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.60784313725490191</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
@@ -2820,7 +2847,9 @@
       <c r="AD11" s="7">
         <v>0</v>
       </c>
-      <c r="AE11" s="7"/>
+      <c r="AE11" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
@@ -2846,7 +2875,7 @@
       </c>
       <c r="BC11" s="8">
         <f>COUNT(B11:AY11)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD11" s="8">
         <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
@@ -2858,7 +2887,7 @@
       </c>
       <c r="BF11" s="8">
         <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG11" s="8">
         <f>SUM(BD11*3)+BE11</f>
@@ -2866,11 +2895,11 @@
       </c>
       <c r="BH11" s="8">
         <f>SUM(B11:AY11)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BI11" s="10">
         <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.62222222222222223</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
@@ -2951,7 +2980,9 @@
       </c>
       <c r="AC12" s="66"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
@@ -2977,7 +3008,7 @@
       </c>
       <c r="BC12" s="8">
         <f>COUNT(B12:AY12)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD12" s="8">
         <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
@@ -2989,7 +3020,7 @@
       </c>
       <c r="BF12" s="8">
         <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG12" s="8">
         <f>SUM(BD12*3)+BE12</f>
@@ -2997,30 +3028,26 @@
       </c>
       <c r="BH12" s="8">
         <f>SUM(B12:AY12)</f>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="BI12" s="10">
         <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.42424242424242425</v>
+        <v>0.40579710144927539</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="46">
+        <v>107</v>
+      </c>
+      <c r="B13" s="7">
         <v>-1</v>
       </c>
       <c r="C13" s="7">
         <v>-1</v>
       </c>
-      <c r="D13" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7">
         <v>-1</v>
       </c>
@@ -3028,45 +3055,47 @@
         <v>0</v>
       </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7">
+      <c r="I13" s="7">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7">
+        <v>8</v>
+      </c>
+      <c r="K13" s="46">
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="46">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7"/>
       <c r="P13" s="7">
         <v>-2</v>
       </c>
-      <c r="Q13" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="51"/>
       <c r="S13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T13" s="7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="T13" s="46">
+        <v>-1</v>
       </c>
       <c r="U13" s="7">
         <v>4</v>
       </c>
       <c r="V13" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="W13" s="7">
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
@@ -3075,8 +3104,12 @@
       <c r="AA13" s="51"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="66"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>4</v>
+      </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
@@ -3102,7 +3135,7 @@
       </c>
       <c r="BC13" s="8">
         <f>COUNT(B13:AY13)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD13" s="8">
         <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
@@ -3110,38 +3143,42 @@
       </c>
       <c r="BE13" s="8">
         <f>COUNTIF($B13:$AY13, "0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF13" s="8">
         <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG13" s="8">
         <f>SUM(BD13*3)+BE13</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BH13" s="8">
         <f>SUM(B13:AY13)</f>
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="BI13" s="10">
         <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.43859649122807015</v>
+        <v>0.45</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="7">
+        <v>106</v>
+      </c>
+      <c r="B14" s="46">
         <v>-1</v>
       </c>
       <c r="C14" s="7">
         <v>-1</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
       <c r="F14" s="7">
         <v>-1</v>
       </c>
@@ -3149,47 +3186,45 @@
         <v>0</v>
       </c>
       <c r="H14" s="51"/>
-      <c r="I14" s="7">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
-        <v>8</v>
-      </c>
-      <c r="K14" s="46">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
         <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="46">
+        <v>1</v>
+      </c>
       <c r="P14" s="7">
         <v>-2</v>
       </c>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="7">
+        <v>3</v>
+      </c>
       <c r="R14" s="51"/>
       <c r="S14" s="7">
-        <v>2</v>
-      </c>
-      <c r="T14" s="46">
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1</v>
       </c>
       <c r="U14" s="7">
         <v>4</v>
       </c>
       <c r="V14" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W14" s="7">
         <v>0</v>
       </c>
       <c r="X14" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y14" s="7">
         <v>0</v>
@@ -3198,9 +3233,7 @@
       <c r="AA14" s="51"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="66"/>
-      <c r="AD14" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
@@ -3231,27 +3264,27 @@
       </c>
       <c r="BD14" s="8">
         <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE14" s="8">
         <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF14" s="8">
         <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG14" s="8">
         <f>SUM(BD14*3)+BE14</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH14" s="8">
         <f>SUM(B14:AY14)</f>
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="BI14" s="10">
         <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.42105263157894735</v>
+        <v>0.43859649122807015</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
@@ -3326,7 +3359,9 @@
       <c r="AD15" s="7">
         <v>0</v>
       </c>
-      <c r="AE15" s="7"/>
+      <c r="AE15" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
@@ -3352,7 +3387,7 @@
       </c>
       <c r="BC15" s="8">
         <f>COUNT(B15:AY15)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD15" s="8">
         <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
@@ -3364,7 +3399,7 @@
       </c>
       <c r="BF15" s="8">
         <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG15" s="8">
         <f>SUM(BD15*3)+BE15</f>
@@ -3372,27 +3407,23 @@
       </c>
       <c r="BH15" s="8">
         <f>SUM(B15:AY15)</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="BI15" s="10">
         <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.42105263157894735</v>
+        <v>0.4</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
-      <c r="D16" s="7">
-        <v>9</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
         <v>-1</v>
@@ -3401,19 +3432,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="51"/>
-      <c r="I16" s="46">
-        <v>7</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M16" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="46">
+        <v>1</v>
+      </c>
       <c r="N16" s="7">
         <v>0</v>
       </c>
@@ -3422,26 +3449,42 @@
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R16" s="51"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="S16" s="7">
+        <v>2</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V16" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W16" s="46">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="51"/>
-      <c r="AB16" s="46">
-        <v>1</v>
+      <c r="AB16" s="7">
+        <v>-1</v>
       </c>
       <c r="AC16" s="66"/>
       <c r="AD16" s="7">
         <v>0</v>
       </c>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7">
+        <v>4</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
@@ -3467,7 +3510,7 @@
       </c>
       <c r="BC16" s="8">
         <f>COUNT(B16:AY16)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BD16" s="8">
         <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
@@ -3475,81 +3518,81 @@
       </c>
       <c r="BE16" s="8">
         <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF16" s="8">
         <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG16" s="8">
         <f>SUM(BD16*3)+BE16</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH16" s="8">
         <f>SUM(B16:AY16)</f>
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="BI16" s="10">
         <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.52380952380952384</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
       <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
         <v>-1</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="D17" s="7">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
+        <v>-1</v>
+      </c>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="46">
-        <v>-1</v>
+      <c r="I17" s="46">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R17" s="51"/>
-      <c r="S17" s="7">
-        <v>2</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V17" s="7">
-        <v>8</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0</v>
-      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="46">
-        <v>0</v>
-      </c>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="51"/>
-      <c r="AB17" s="7">
+      <c r="AB17" s="46">
         <v>1</v>
       </c>
       <c r="AC17" s="66"/>
@@ -3602,7 +3645,7 @@
       </c>
       <c r="BH17" s="8">
         <f>SUM(B17:AY17)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BI17" s="10">
         <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
@@ -3612,70 +3655,64 @@
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-9</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="51"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="46">
+      <c r="J18" s="7">
         <v>-8</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="46">
+        <v>0</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7">
-        <v>3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="51"/>
       <c r="S18" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T18" s="7"/>
-      <c r="U18" s="46">
+      <c r="U18" s="7">
         <v>4</v>
       </c>
-      <c r="V18" s="7">
-        <v>8</v>
-      </c>
+      <c r="V18" s="7"/>
       <c r="W18" s="7">
         <v>0</v>
       </c>
       <c r="X18" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y18" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y18" s="46">
+        <v>0</v>
+      </c>
       <c r="Z18" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="51"/>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="7">
+        <v>-1</v>
+      </c>
       <c r="AC18" s="66"/>
       <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="7">
+        <v>4</v>
+      </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
@@ -3701,7 +3738,7 @@
       </c>
       <c r="BC18" s="8">
         <f>COUNT(B18:AY18)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BD18" s="8">
         <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
@@ -3713,7 +3750,7 @@
       </c>
       <c r="BF18" s="8">
         <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG18" s="8">
         <f>SUM(BD18*3)+BE18</f>
@@ -3721,44 +3758,46 @@
       </c>
       <c r="BH18" s="8">
         <f>SUM(B18:AY18)</f>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="BI18" s="10">
         <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.45833333333333331</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="46">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7"/>
+      <c r="E19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="7">
-        <v>-7</v>
-      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q19" s="7"/>
+      <c r="O19" s="46">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
+        <v>-3</v>
+      </c>
       <c r="R19" s="51"/>
       <c r="S19" s="7">
         <v>2</v>
@@ -3766,24 +3805,28 @@
       <c r="T19" s="7">
         <v>1</v>
       </c>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="U19" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V19" s="7">
+        <v>8</v>
+      </c>
       <c r="W19" s="7">
         <v>0</v>
       </c>
-      <c r="X19" s="46">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="7">
+      <c r="X19" s="7"/>
+      <c r="Y19" s="46">
         <v>0</v>
       </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="51"/>
       <c r="AB19" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="66"/>
-      <c r="AD19" s="7"/>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
@@ -3810,7 +3853,7 @@
       </c>
       <c r="BC19" s="8">
         <f>COUNT(B19:AY19)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD19" s="8">
         <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
@@ -3818,50 +3861,52 @@
       </c>
       <c r="BE19" s="8">
         <f>COUNTIF($B19:$AY19, "0")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF19" s="8">
         <f>COUNTIF($B19:$AY19, "&lt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG19" s="8">
         <f>SUM(BD19*3)+BE19</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH19" s="8">
         <f>SUM(B19:AY19)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BI19" s="10">
         <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.60606060606060608</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B20" s="7">
+        <v>-1</v>
+      </c>
       <c r="C20" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>-9</v>
+      </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7">
         <v>0</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7">
-        <v>8</v>
+      <c r="J20" s="46">
+        <v>-8</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="46">
+      <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
@@ -3872,40 +3917,38 @@
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R20" s="51"/>
       <c r="S20" s="7">
-        <v>2</v>
-      </c>
-      <c r="T20" s="7">
-        <v>1</v>
-      </c>
-      <c r="U20" s="7">
-        <v>-4</v>
+        <v>-2</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="46">
+        <v>4</v>
       </c>
       <c r="V20" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W20" s="46">
+        <v>8</v>
+      </c>
+      <c r="W20" s="7">
         <v>0</v>
       </c>
       <c r="X20" s="7">
         <v>-5</v>
       </c>
-      <c r="Y20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA20" s="51"/>
-      <c r="AB20" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AB20" s="7"/>
       <c r="AC20" s="66"/>
       <c r="AD20" s="7">
         <v>0</v>
       </c>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="46">
+        <v>-4</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
@@ -3935,11 +3978,11 @@
       </c>
       <c r="BD20" s="8">
         <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE20" s="8">
         <f>COUNTIF($B20:$AY20, "0")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF20" s="8">
         <f>COUNTIF($B20:$AY20, "&lt;0")</f>
@@ -3947,76 +3990,76 @@
       </c>
       <c r="BG20" s="8">
         <f>SUM(BD20*3)+BE20</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH20" s="8">
         <f>SUM(B20:AY20)</f>
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="BI20" s="10">
         <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.39215686274509803</v>
+        <v>0.43137254901960786</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="46">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K21" s="46">
-        <v>0</v>
-      </c>
+      <c r="I21" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="7">
-        <v>-1</v>
-      </c>
+      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="51"/>
       <c r="S21" s="7">
         <v>2</v>
       </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7">
-        <v>4</v>
-      </c>
+      <c r="T21" s="7">
+        <v>1</v>
+      </c>
+      <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7">
         <v>0</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="46">
         <v>5</v>
       </c>
-      <c r="Y21" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7"/>
       <c r="AA21" s="51"/>
       <c r="AB21" s="7">
         <v>-1</v>
       </c>
       <c r="AC21" s="66"/>
-      <c r="AD21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
@@ -4046,90 +4089,98 @@
       </c>
       <c r="BD21" s="8">
         <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE21" s="8">
         <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF21" s="8">
         <f>COUNTIF($B21:$AY21, "&lt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG21" s="8">
         <f>SUM(BD21*3)+BE21</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BH21" s="8">
         <f>SUM(B21:AY21)</f>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="BI21" s="10">
         <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.52777777777777779</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="56">
-        <v>1</v>
-      </c>
-      <c r="C22" s="46">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
         <v>-1</v>
       </c>
       <c r="D22" s="7">
         <v>-9</v>
       </c>
       <c r="E22" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="46">
+        <v>0</v>
+      </c>
       <c r="H22" s="51"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I22" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7">
-        <v>2</v>
-      </c>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q22" s="46">
-        <v>-3</v>
-      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
       <c r="R22" s="51"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
+      <c r="S22" s="46">
+        <v>2</v>
+      </c>
+      <c r="T22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="7">
+        <v>4</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7">
         <v>0</v>
       </c>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
+      <c r="X22" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>0</v>
+      </c>
       <c r="Z22" s="7">
         <v>-2</v>
       </c>
       <c r="AA22" s="51"/>
       <c r="AB22" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22" s="66"/>
       <c r="AD22" s="7">
         <v>0</v>
       </c>
-      <c r="AE22" s="7"/>
+      <c r="AE22" s="7">
+        <v>4</v>
+      </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
@@ -4142,7 +4193,7 @@
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
-      <c r="AR22" s="56"/>
+      <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
@@ -4150,13 +4201,12 @@
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
-      <c r="AZ22" s="5"/>
       <c r="BA22" s="33">
         <v>18</v>
       </c>
       <c r="BC22" s="8">
         <f>COUNT(B22:AY22)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BD22" s="8">
         <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
@@ -4164,92 +4214,88 @@
       </c>
       <c r="BE22" s="8">
         <f>COUNTIF($B22:$AY22, "0")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF22" s="8">
         <f>COUNTIF($B22:$AY22, "&lt;0")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG22" s="8">
         <f>SUM(BD22*3)+BE22</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BH22" s="8">
         <f>SUM(B22:AY22)</f>
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="BI22" s="10">
         <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.4358974358974359</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
+        <v>82</v>
+      </c>
+      <c r="B23" s="56">
+        <v>1</v>
+      </c>
+      <c r="C23" s="46">
         <v>-1</v>
       </c>
       <c r="D23" s="7">
         <v>-9</v>
       </c>
       <c r="E23" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="46">
-        <v>0</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="51"/>
-      <c r="I23" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7">
+        <v>-8</v>
+      </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7">
+        <v>2</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="P23" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q23" s="46">
+        <v>-3</v>
+      </c>
       <c r="R23" s="51"/>
-      <c r="S23" s="46">
-        <v>2</v>
-      </c>
-      <c r="T23" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U23" s="7">
-        <v>4</v>
-      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7">
         <v>0</v>
       </c>
-      <c r="X23" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>0</v>
-      </c>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
       <c r="Z23" s="7">
         <v>-2</v>
       </c>
       <c r="AA23" s="51"/>
       <c r="AB23" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="66"/>
       <c r="AD23" s="7">
         <v>0</v>
       </c>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
@@ -4262,7 +4308,7 @@
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
+      <c r="AR23" s="56"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -4270,36 +4316,37 @@
       <c r="AW23" s="7"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
+      <c r="AZ23" s="5"/>
       <c r="BA23" s="33">
         <v>19</v>
       </c>
       <c r="BC23" s="8">
         <f>COUNT(B23:AY23)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD23" s="8">
         <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE23" s="8">
         <f>COUNTIF($B23:$AY23, "0")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF23" s="8">
         <f>COUNTIF($B23:$AY23, "&lt;0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG23" s="8">
         <f>SUM(BD23*3)+BE23</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BH23" s="8">
         <f>SUM(B23:AY23)</f>
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="BI23" s="10">
         <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.40476190476190477</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -4457,7 +4504,9 @@
       <c r="AD25" s="7">
         <v>0</v>
       </c>
-      <c r="AE25" s="7"/>
+      <c r="AE25" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
@@ -4483,7 +4532,7 @@
       </c>
       <c r="BC25" s="8">
         <f>COUNT(B25:AY25)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD25" s="8">
         <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
@@ -4495,7 +4544,7 @@
       </c>
       <c r="BF25" s="8">
         <f>COUNTIF($B25:$AY25, "&lt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG25" s="8">
         <f>SUM(BD25*3)+BE25</f>
@@ -4503,11 +4552,11 @@
       </c>
       <c r="BH25" s="8">
         <f>SUM(B25:AY25)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI25" s="10">
         <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.53333333333333333</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
@@ -4554,7 +4603,9 @@
       <c r="AD26" s="7">
         <v>0</v>
       </c>
-      <c r="AE26" s="7"/>
+      <c r="AE26" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
@@ -4580,7 +4631,7 @@
       </c>
       <c r="BC26" s="8">
         <f>COUNT(B26:AY26)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" s="8">
         <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
@@ -4592,7 +4643,7 @@
       </c>
       <c r="BF26" s="8">
         <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG26" s="8">
         <f>SUM(BD26*3)+BE26</f>
@@ -4600,11 +4651,11 @@
       </c>
       <c r="BH26" s="8">
         <f>SUM(B26:AY26)</f>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="BI26" s="10">
         <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.53333333333333333</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
@@ -4913,17 +4964,15 @@
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <v>9</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="51"/>
       <c r="I30" s="7"/>
@@ -4939,16 +4988,26 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
+      <c r="V30" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
+      <c r="Z30" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA30" s="51"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="66"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="7">
+        <v>4</v>
+      </c>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
@@ -4974,7 +5033,7 @@
       </c>
       <c r="BC30" s="8">
         <f>COUNT(B30:AY30)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BD30" s="8">
         <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
@@ -4982,44 +5041,44 @@
       </c>
       <c r="BE30" s="8">
         <f>COUNTIF($B30:$AY30, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="8">
         <f>COUNTIF($B30:$AY30, "&lt;0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG30" s="8">
         <f>SUM(BD30*3)+BE30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH30" s="8">
         <f>SUM(B30:AY30)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="BI30" s="10">
         <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
-        <v>1</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7">
+        <v>9</v>
+      </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="51"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
+      <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -5027,9 +5086,7 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="51"/>
-      <c r="S31" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -5067,40 +5124,42 @@
       </c>
       <c r="BC31" s="8">
         <f>COUNT(B31:AY31)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD31" s="8">
         <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE31" s="8">
         <f>COUNTIF($B31:$AY31, "0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF31" s="8">
         <f>COUNTIF($B31:$AY31, "&lt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="8">
         <f>SUM(BD31*3)+BE31</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH31" s="8">
         <f>SUM(B31:AY31)</f>
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI31" s="10">
         <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
-        <v>0.44444444444444442</v>
+        <v>1</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -5111,25 +5170,19 @@
       <c r="K32" s="7">
         <v>0</v>
       </c>
-      <c r="L32" s="46">
-        <v>-2</v>
-      </c>
-      <c r="M32" s="7">
-        <v>-1</v>
-      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q32" s="7"/>
       <c r="R32" s="51"/>
-      <c r="S32" s="7"/>
+      <c r="S32" s="7">
+        <v>-2</v>
+      </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="7">
-        <v>-8</v>
-      </c>
+      <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -5164,7 +5217,7 @@
       </c>
       <c r="BC32" s="8">
         <f>COUNT(B32:AY32)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD32" s="8">
         <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
@@ -5176,7 +5229,7 @@
       </c>
       <c r="BF32" s="8">
         <f>COUNTIF($B32:$AY32, "&lt;0")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG32" s="8">
         <f>SUM(BD32*3)+BE32</f>
@@ -5184,21 +5237,19 @@
       </c>
       <c r="BH32" s="8">
         <f>SUM(B32:AY32)</f>
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="BI32" s="10">
         <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
-        <v>0.26666666666666666</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -5207,13 +5258,21 @@
       <c r="H33" s="51"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="46">
+        <v>-2</v>
+      </c>
+      <c r="M33" s="7">
+        <v>-1</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="Q33" s="7">
+        <v>3</v>
+      </c>
       <c r="R33" s="51"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -5221,16 +5280,10 @@
       <c r="V33" s="7">
         <v>-8</v>
       </c>
-      <c r="W33" s="7">
-        <v>0</v>
-      </c>
-      <c r="X33" s="7">
-        <v>-5</v>
-      </c>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
-      <c r="Z33" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z33" s="7"/>
       <c r="AA33" s="51"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="66"/>
@@ -5281,7 +5334,7 @@
       </c>
       <c r="BH33" s="8">
         <f>SUM(B33:AY33)</f>
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="BI33" s="10">
         <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
@@ -5953,7 +6006,7 @@
       </c>
       <c r="AE40" s="27">
         <f t="shared" ref="AE40:AY40" si="1">COUNT(AE5:AE39)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF40" s="27">
         <f t="shared" si="1"/>
@@ -6127,7 +6180,9 @@
       <c r="AD41" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="AE41" s="13"/>
+      <c r="AE41" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="AF41" s="13"/>
       <c r="AG41" s="8"/>
       <c r="AH41" s="13"/>
@@ -6484,7 +6539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6549,22 +6604,22 @@
       <c r="A4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="69">
-        <v>2</v>
-      </c>
-      <c r="D4" s="69">
-        <v>0</v>
-      </c>
-      <c r="E4" s="69">
-        <v>1</v>
-      </c>
-      <c r="F4" s="69">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4">
         <f>SUM(C4*3)+D4</f>
         <v>6</v>
       </c>
@@ -6621,22 +6676,22 @@
       <c r="A7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="69">
-        <v>2</v>
-      </c>
-      <c r="C7" s="69">
-        <v>2</v>
-      </c>
-      <c r="D7" s="69">
-        <v>0</v>
-      </c>
-      <c r="E7" s="69">
-        <v>0</v>
-      </c>
-      <c r="F7" s="69">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7">
         <f>SUM(C7*3)+D7</f>
         <v>6</v>
       </c>
@@ -6740,34 +6795,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="G12">
         <f>SUM(C12*3)+D12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6776,10 +6831,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <f>SUM(C13*3)+D13</f>
@@ -6789,7 +6844,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -6804,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f>SUM(C14*3)+D14</f>
@@ -6813,7 +6868,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6828,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G15">
         <f>SUM(C15*3)+D15</f>
@@ -6837,7 +6892,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -6852,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G16">
         <f>SUM(C16*3)+D16</f>
@@ -6861,32 +6916,32 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="G17">
         <f>SUM(C17*3)+D17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -6895,23 +6950,23 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>SUM(C18*3)+D18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -6936,7 +6991,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -6951,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G20">
         <f>SUM(C20*3)+D20</f>
@@ -6961,7 +7016,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -6976,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="G21">
         <f>SUM(C21*3)+D21</f>
@@ -7136,7 +7191,7 @@
         <v>75</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G3:G29" si="0">SUM(C28*3)+D28</f>
+        <f t="shared" ref="G28:G29" si="0">SUM(C28*3)+D28</f>
         <v>0</v>
       </c>
     </row>
@@ -7223,10 +7278,10 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="AU22" sqref="AU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7453,8 +7508,10 @@
       <c r="AB3" s="7">
         <v>1</v>
       </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="7">
+        <v>1</v>
+      </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -7478,11 +7535,14 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="28"/>
       <c r="BA3" s="23">
-        <f t="shared" ref="BA3:BA35" si="0">SUM(B3:AY3)</f>
-        <v>18</v>
+        <f>SUM(B3:AY3)</f>
+        <v>19</v>
       </c>
       <c r="BB3" s="8">
         <v>3</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
@@ -7528,7 +7588,7 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="51"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="AC4" s="69"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -7553,7 +7613,7 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="28"/>
       <c r="BA4" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:AY4)</f>
         <v>15</v>
       </c>
       <c r="BB4" s="8">
@@ -7605,7 +7665,7 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="51"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="69"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
@@ -7630,7 +7690,7 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="28"/>
       <c r="BA5" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:AY5)</f>
         <v>13</v>
       </c>
       <c r="BB5" s="8">
@@ -7682,7 +7742,7 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="51"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="69"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
@@ -7707,7 +7767,7 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="28"/>
       <c r="BA6" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:AY6)</f>
         <v>13</v>
       </c>
       <c r="BB6" s="8">
@@ -7764,9 +7824,11 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="51"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="69"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
+      <c r="AE7" s="7">
+        <v>2</v>
+      </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
@@ -7789,14 +7851,14 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="28"/>
       <c r="BA7" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(B7:AY7)</f>
+        <v>13</v>
       </c>
       <c r="BB7" s="8">
         <v>1</v>
       </c>
       <c r="BC7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
@@ -7852,7 +7914,7 @@
       <c r="AB8" s="7">
         <v>1</v>
       </c>
-      <c r="AC8" s="7"/>
+      <c r="AC8" s="69"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -7877,60 +7939,60 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="28"/>
       <c r="BA8" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:AY8)</f>
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="51"/>
-      <c r="S9" s="7">
-        <v>1</v>
-      </c>
+      <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="U9" s="7">
+        <v>1</v>
+      </c>
       <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7">
         <v>2</v>
       </c>
       <c r="AA9" s="51"/>
-      <c r="AB9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="69"/>
       <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
+      <c r="AE9" s="7">
+        <v>2</v>
+      </c>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
@@ -7953,28 +8015,26 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="28"/>
       <c r="BA9" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AY9)</f>
         <v>10</v>
       </c>
       <c r="BC9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>6</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="51"/>
       <c r="I10" s="7"/>
@@ -7982,22 +8042,34 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
       <c r="R10" s="51"/>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
+      <c r="Z10" s="7">
+        <v>2</v>
+      </c>
       <c r="AA10" s="51"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
+      <c r="AB10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="69"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
@@ -8022,37 +8094,35 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="28"/>
       <c r="BA10" s="23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="BB10" s="8">
+        <f>SUM(B10:AY10)</f>
+        <v>10</v>
+      </c>
+      <c r="BC10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -8060,22 +8130,18 @@
       <c r="R11" s="51"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7">
-        <v>1</v>
-      </c>
+      <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="7">
-        <v>1</v>
-      </c>
+      <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="51"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="7">
+        <v>1</v>
+      </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
@@ -8099,8 +8165,11 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="28"/>
       <c r="BA11" s="23">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B11:AY11)</f>
+        <v>9</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>1</v>
       </c>
       <c r="BC11" s="8">
         <v>1</v>
@@ -8108,17 +8177,13 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>4</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="51"/>
       <c r="I12" s="7"/>
@@ -8128,22 +8193,30 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="51"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
+      <c r="W12" s="7">
+        <v>2</v>
+      </c>
+      <c r="X12" s="7">
+        <v>3</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="51"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="69"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="7">
+        <v>1</v>
+      </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
@@ -8166,26 +8239,27 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="28"/>
       <c r="BA12" s="23">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B12:AY12)</f>
+        <v>8</v>
       </c>
       <c r="BB12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="8">
         <v>1</v>
       </c>
       <c r="BF12" s="23"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="51"/>
       <c r="I13" s="7"/>
@@ -8195,26 +8269,20 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>2</v>
-      </c>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="51"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="7">
-        <v>2</v>
-      </c>
-      <c r="X13" s="7">
-        <v>3</v>
-      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="51"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
+      <c r="AC13" s="69"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -8239,10 +8307,13 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AY13)</f>
         <v>7</v>
       </c>
       <c r="BB13" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="8">
         <v>1</v>
       </c>
     </row>
@@ -8287,7 +8358,7 @@
       <c r="AB14" s="7">
         <v>1</v>
       </c>
-      <c r="AC14" s="7"/>
+      <c r="AC14" s="69"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
@@ -8312,7 +8383,7 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="28"/>
       <c r="BA14" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AY14)</f>
         <v>7</v>
       </c>
       <c r="BC14" s="8">
@@ -8360,7 +8431,7 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="51"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
+      <c r="AC15" s="69"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
@@ -8385,7 +8456,7 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="28"/>
       <c r="BA15" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AY15)</f>
         <v>7</v>
       </c>
     </row>
@@ -8432,9 +8503,11 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="51"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
+      <c r="AC16" s="69"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7">
+        <v>1</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
@@ -8457,17 +8530,15 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B16:AY16)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -8477,32 +8548,34 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
         <v>3</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="51"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7">
+        <v>1</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="51"/>
-      <c r="AB17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="69"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="7">
+        <v>1</v>
+      </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
@@ -8525,15 +8598,20 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="28"/>
       <c r="BA17" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AY17)</f>
         <v>6</v>
+      </c>
+      <c r="BB17" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -8543,30 +8621,30 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
+      <c r="L18" s="7">
         <v>3</v>
       </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="51"/>
-      <c r="S18" s="7">
-        <v>1</v>
-      </c>
+      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7">
+        <v>1</v>
+      </c>
       <c r="AA18" s="51"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
+      <c r="AB18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="69"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
@@ -8591,25 +8669,20 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="28"/>
       <c r="BA18" s="23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="BB18" s="8">
-        <v>1</v>
+        <f>SUM(B18:AY18)</f>
+        <v>6</v>
       </c>
       <c r="BF18" s="23"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7">
@@ -8627,18 +8700,26 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="51"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="32"/>
+      <c r="T19" s="7">
+        <v>1</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1</v>
+      </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="7">
+        <v>1</v>
+      </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="51"/>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
+      <c r="AC19" s="69"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
+      <c r="AE19" s="7">
+        <v>1</v>
+      </c>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
@@ -8661,23 +8742,26 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="28"/>
       <c r="BA19" s="23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="BC19" s="8">
-        <v>1</v>
+        <f>SUM(B19:AY19)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
       <c r="H20" s="51"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -8689,23 +8773,17 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="51"/>
-      <c r="S20" s="7">
-        <v>2</v>
-      </c>
-      <c r="T20" s="7">
-        <v>1</v>
-      </c>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7">
-        <v>2</v>
-      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="51"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
+      <c r="AC20" s="69"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
@@ -8730,24 +8808,23 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="28"/>
       <c r="BA20" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>5</v>
+      </c>
+      <c r="BC20" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="51"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -8759,23 +8836,23 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="51"/>
-      <c r="S21" s="7"/>
+      <c r="S21" s="7">
+        <v>2</v>
+      </c>
       <c r="T21" s="7">
         <v>1</v>
       </c>
-      <c r="U21" s="7">
-        <v>1</v>
-      </c>
-      <c r="V21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7">
+        <v>2</v>
+      </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="7">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="51"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
+      <c r="AC21" s="69"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
@@ -8800,7 +8877,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="28"/>
       <c r="BA21" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:AY21)</f>
         <v>5</v>
       </c>
     </row>
@@ -8845,7 +8922,7 @@
       </c>
       <c r="AA22" s="51"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
+      <c r="AC22" s="69"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
@@ -8870,7 +8947,7 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="28"/>
       <c r="BA22" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>5</v>
       </c>
     </row>
@@ -8915,7 +8992,7 @@
       </c>
       <c r="AA23" s="51"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
+      <c r="AC23" s="69"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
@@ -8940,7 +9017,7 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="28"/>
       <c r="BA23" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>5</v>
       </c>
     </row>
@@ -8981,9 +9058,11 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="51"/>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
+      <c r="AC24" s="69"/>
       <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
+      <c r="AE24" s="7">
+        <v>1</v>
+      </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
@@ -9006,13 +9085,13 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="28"/>
       <c r="BA24" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B24:AY24)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9023,34 +9102,34 @@
       <c r="H25" s="51"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7">
-        <v>1</v>
-      </c>
+      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="51"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7">
-        <v>1</v>
-      </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7">
+        <v>1</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
+      <c r="Z25" s="7">
+        <v>1</v>
+      </c>
       <c r="AA25" s="51"/>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="7">
+        <v>1</v>
+      </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
@@ -9074,13 +9153,16 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AY25)</f>
         <v>4</v>
+      </c>
+      <c r="BC25" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -9091,31 +9173,33 @@
       <c r="H26" s="51"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
       <c r="R26" s="51"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7">
-        <v>1</v>
-      </c>
-      <c r="X26" s="7">
-        <v>2</v>
-      </c>
+      <c r="V26" s="7">
+        <v>1</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="51"/>
-      <c r="AB26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="69"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
@@ -9140,13 +9224,13 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AY26)</f>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9155,9 +9239,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="51"/>
-      <c r="I27" s="7">
-        <v>2</v>
-      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -9165,21 +9247,25 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="51"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
+      <c r="W27" s="7">
+        <v>1</v>
+      </c>
+      <c r="X27" s="7">
+        <v>2</v>
+      </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="51"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="69"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
@@ -9204,16 +9290,13 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="28"/>
       <c r="BA27" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BC27" s="8">
-        <v>1</v>
+        <f>SUM(B27:AY27)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9222,7 +9305,9 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="7">
+        <v>2</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -9230,25 +9315,21 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
       <c r="R28" s="51"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="32"/>
+      <c r="U28" s="7"/>
       <c r="V28" s="7"/>
-      <c r="W28" s="7">
-        <v>1</v>
-      </c>
-      <c r="X28" s="7">
-        <v>1</v>
-      </c>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="51"/>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
+      <c r="AC28" s="69"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
@@ -9273,13 +9354,16 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="28"/>
       <c r="BA28" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>3</v>
+      </c>
+      <c r="BC28" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -9296,7 +9380,9 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="7">
+        <v>1</v>
+      </c>
       <c r="R29" s="51"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -9304,14 +9390,14 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="51"/>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="7">
+        <v>1</v>
+      </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
@@ -9335,13 +9421,16 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="28"/>
       <c r="BA29" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B29:AY29)</f>
+        <v>2</v>
+      </c>
+      <c r="BC29" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -9358,9 +9447,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q30" s="7"/>
       <c r="R30" s="51"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -9368,11 +9455,13 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
+      <c r="Y30" s="7">
+        <v>2</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="51"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
+      <c r="AC30" s="69"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
@@ -9397,8 +9486,8 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="28"/>
       <c r="BA30" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B30:AY30)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.2">
@@ -9434,7 +9523,7 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="51"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
+      <c r="AC31" s="69"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
@@ -9459,7 +9548,7 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="28"/>
       <c r="BA31" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>1</v>
       </c>
     </row>
@@ -9494,7 +9583,7 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="51"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
+      <c r="AC32" s="69"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
@@ -9519,7 +9608,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="28"/>
       <c r="BA32" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
@@ -9554,7 +9643,7 @@
       <c r="Z33" s="7"/>
       <c r="AA33" s="51"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
+      <c r="AC33" s="69"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
@@ -9579,7 +9668,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="28"/>
       <c r="BA33" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -9614,7 +9703,7 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="51"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
+      <c r="AC34" s="69"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
@@ -9639,7 +9728,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="28"/>
       <c r="BA34" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -9674,7 +9763,7 @@
       <c r="Z35" s="7"/>
       <c r="AA35" s="51"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
+      <c r="AC35" s="69"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
@@ -9699,7 +9788,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="28"/>
       <c r="BA35" s="23">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -9732,7 +9821,7 @@
       <c r="Z36" s="7"/>
       <c r="AA36" s="51"/>
       <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
+      <c r="AC36" s="69"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
@@ -9757,7 +9846,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="23">
-        <f t="shared" ref="BA36" si="1">SUM(B36:AY36)</f>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -9883,7 +9972,7 @@
       </c>
       <c r="AE38">
         <f>'League Table'!AE40</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF38">
         <f>'League Table'!AF40</f>
@@ -9963,199 +10052,199 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="2">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="X40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AC40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD40" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="AE40" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="AF40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AN40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AO40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AP40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AR40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AS40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC35">
-    <sortCondition descending="1" ref="BA3:BA35"/>
-    <sortCondition descending="1" ref="BB3:BB35"/>
-    <sortCondition descending="1" ref="BC3:BC35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC36">
+    <sortCondition descending="1" ref="BA3:BA36"/>
+    <sortCondition descending="1" ref="BB3:BB36"/>
+    <sortCondition descending="1" ref="BC3:BC36"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10172,10 +10261,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:BA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10497,60 +10586,62 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45">
-        <v>3</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
+      <c r="C6" s="45">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="45">
-        <v>2</v>
-      </c>
-      <c r="G6" s="45">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G6" s="45"/>
       <c r="H6" s="53"/>
       <c r="I6" s="45">
+        <v>2</v>
+      </c>
+      <c r="J6" s="45">
         <v>3</v>
       </c>
-      <c r="J6" s="45"/>
       <c r="K6" s="59">
         <v>2</v>
       </c>
       <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="M6" s="16">
+        <v>1</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1</v>
+      </c>
       <c r="O6" s="16"/>
-      <c r="P6" s="16">
-        <v>1</v>
-      </c>
+      <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16">
-        <v>1</v>
-      </c>
-      <c r="W6" s="16">
-        <v>1</v>
-      </c>
+      <c r="U6" s="16">
+        <v>3</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
       <c r="X6" s="16">
         <v>1</v>
       </c>
-      <c r="Y6" s="16"/>
+      <c r="Y6" s="16">
+        <v>1</v>
+      </c>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="16">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
+      <c r="AD6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>2</v>
+      </c>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -10573,64 +10664,64 @@
       <c r="AY6" s="16"/>
       <c r="BA6">
         <f>SUM(B6:AY6)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
       <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="51"/>
       <c r="I7" s="7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
         <v>3</v>
       </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="60">
         <v>2</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7">
-        <v>3</v>
-      </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
       <c r="X7" s="7">
         <v>1</v>
       </c>
-      <c r="Y7" s="7">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="7">
+        <v>1</v>
+      </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -10781,7 +10872,9 @@
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
+      <c r="AE9" s="16">
+        <v>1</v>
+      </c>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -10804,7 +10897,7 @@
       <c r="AY9" s="16"/>
       <c r="BA9">
         <f>SUM(B9:AY9)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
@@ -11221,26 +11314,26 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7">
-        <v>4</v>
-      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
+      <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -11249,14 +11342,20 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+      <c r="X16" s="7">
+        <v>1</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
+      <c r="AD16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>1</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
@@ -11284,26 +11383,26 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
+        <v>4</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -11312,17 +11411,13 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7">
-        <v>1</v>
-      </c>
+      <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
-      <c r="AD17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
@@ -11346,7 +11441,7 @@
       <c r="AY17" s="7"/>
       <c r="BA17">
         <f>SUM(B17:AY17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
@@ -11481,7 +11576,7 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -11495,7 +11590,9 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -11505,16 +11602,16 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="7">
-        <v>2</v>
-      </c>
+      <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="7">
+        <v>1</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
@@ -11542,7 +11639,7 @@
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -11559,24 +11656,22 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="7">
+        <v>2</v>
+      </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
-      <c r="AD21" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
@@ -11605,13 +11700,15 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="51"/>
       <c r="I22" s="7"/>
@@ -11619,9 +11716,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -11638,7 +11733,9 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
+      <c r="AE22" s="7">
+        <v>1</v>
+      </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
@@ -11661,12 +11758,12 @@
       <c r="AY22" s="7"/>
       <c r="BA22">
         <f>SUM(B22:AY22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -11680,12 +11777,12 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -11698,7 +11795,9 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
+      <c r="AD23" s="7">
+        <v>1</v>
+      </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
@@ -11722,12 +11821,12 @@
       <c r="AY23" s="7"/>
       <c r="BA23">
         <f>SUM(B23:AY23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -11788,7 +11887,7 @@
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -11802,12 +11901,12 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -11849,7 +11948,7 @@
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -11859,16 +11958,16 @@
       <c r="G26" s="7"/>
       <c r="H26" s="51"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7">
-        <v>1</v>
-      </c>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -11910,19 +12009,19 @@
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="51"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -11971,7 +12070,7 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -12848,7 +12947,7 @@
       </c>
       <c r="AE41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="1"/>
@@ -12932,7 +13031,7 @@
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -12954,7 +13053,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13146,10 +13245,10 @@
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>121</v>
@@ -13161,7 +13260,7 @@
         <v>130</v>
       </c>
       <c r="N10" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -13182,13 +13281,16 @@
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I11" s="8">
         <v>4</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>119</v>
+        <v>152</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>131</v>
@@ -13221,7 +13323,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>117</v>
@@ -13255,7 +13357,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>121</v>
@@ -13288,7 +13390,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>132</v>
@@ -13321,7 +13423,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>168</v>
@@ -13535,7 +13637,10 @@
         <v>183</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>122</v>
+        <v>152</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -13562,7 +13667,7 @@
         <v>203</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -13587,7 +13692,7 @@
       </c>
       <c r="K24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -13612,7 +13717,7 @@
       </c>
       <c r="K25" s="8"/>
       <c r="M25" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -13637,7 +13742,7 @@
       </c>
       <c r="K26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -13657,6 +13762,9 @@
         <v>130</v>
       </c>
       <c r="G27" s="31"/>
+      <c r="H27" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="M27" s="8" t="s">
         <v>178</v>
@@ -13729,15 +13837,26 @@
       <c r="E31" s="31" t="s">
         <v>142</v>
       </c>
+      <c r="M31" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="31">
         <v>30</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="B32" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
@@ -13912,8 +14031,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N30">
-    <sortCondition descending="1" ref="N9:N30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N26">
+    <sortCondition descending="1" ref="N9:N26"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889D800B-C925-5E48-B448-606E5F05FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0BC8D4-1008-9449-B7B1-B569B0D44266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="540" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="1560" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="216">
   <si>
     <t>WK 1</t>
   </si>
@@ -673,6 +673,21 @@
   </si>
   <si>
     <t>Matt B</t>
+  </si>
+  <si>
+    <t>Flo - Ian</t>
+  </si>
+  <si>
+    <t>Flo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-0</t>
+  </si>
+  <si>
+    <t>Banksy - Posh</t>
+  </si>
+  <si>
+    <t>Lost 0-5</t>
   </si>
 </sst>
 </file>
@@ -1138,9 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,10 +1568,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2073,11 +2086,15 @@
       </c>
       <c r="AC5" s="64"/>
       <c r="AD5" s="18"/>
-      <c r="AE5" s="70">
+      <c r="AE5" s="18">
         <v>-4</v>
       </c>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
+      <c r="AF5" s="47">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>5</v>
+      </c>
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
@@ -2103,11 +2120,11 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
         <f>COUNT(B5:AY5)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD5" s="8">
         <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BE5" s="8">
         <f>COUNTIF($B5:$AY5, "0")</f>
@@ -2119,21 +2136,21 @@
       </c>
       <c r="BG5" s="8">
         <f>SUM(BD5*3)+BE5</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BH5" s="8">
         <f>SUM(B5:AY5)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BI5" s="10">
         <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.61111111111111116</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B6" s="30">
         <v>-1</v>
@@ -2141,29 +2158,33 @@
       <c r="C6" s="30">
         <v>1</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="30">
+        <v>9</v>
+      </c>
+      <c r="E6" s="30">
+        <v>-1</v>
+      </c>
       <c r="F6" s="30">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="55">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
         <v>0</v>
       </c>
       <c r="H6" s="50"/>
-      <c r="I6" s="30">
+      <c r="I6" s="55">
         <v>-7</v>
       </c>
       <c r="J6" s="30">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="K6" s="30">
         <v>0</v>
       </c>
       <c r="L6" s="30">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M6" s="30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N6" s="30">
         <v>0</v>
@@ -2171,46 +2192,46 @@
       <c r="O6" s="30">
         <v>-1</v>
       </c>
-      <c r="P6" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>3</v>
-      </c>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="50"/>
-      <c r="S6" s="30">
-        <v>-2</v>
-      </c>
+      <c r="S6" s="30"/>
       <c r="T6" s="30">
         <v>1</v>
       </c>
-      <c r="U6" s="30"/>
+      <c r="U6" s="30">
+        <v>4</v>
+      </c>
       <c r="V6" s="30">
         <v>8</v>
       </c>
-      <c r="W6" s="30"/>
+      <c r="W6" s="55">
+        <v>0</v>
+      </c>
       <c r="X6" s="30">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y6" s="30">
         <v>0</v>
       </c>
-      <c r="Z6" s="55">
-        <v>-2</v>
+      <c r="Z6" s="30">
+        <v>2</v>
       </c>
       <c r="AA6" s="50"/>
       <c r="AB6" s="30">
         <v>1</v>
       </c>
       <c r="AC6" s="65"/>
-      <c r="AD6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="30">
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="55">
         <v>4</v>
       </c>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
+      <c r="AF6" s="30">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="30">
+        <v>5</v>
+      </c>
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30"/>
@@ -2234,11 +2255,11 @@
       </c>
       <c r="BC6" s="8">
         <f>COUNT(B6:AY6)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD6" s="8">
         <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BE6" s="8">
         <f>COUNTIF($B6:$AY6, "0")</f>
@@ -2250,15 +2271,15 @@
       </c>
       <c r="BG6" s="8">
         <f>SUM(BD6*3)+BE6</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BH6" s="8">
         <f>SUM(B6:AY6)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BI6" s="10">
         <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.53030303030303028</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
@@ -2346,8 +2367,12 @@
       <c r="AE7" s="7">
         <v>4</v>
       </c>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
+      <c r="AF7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>-5</v>
+      </c>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
@@ -2371,11 +2396,11 @@
       </c>
       <c r="BC7" s="8">
         <f>COUNT(B7:AY7)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD7" s="8">
         <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BE7" s="8">
         <f>COUNTIF($B7:$AY7, "0")</f>
@@ -2383,25 +2408,25 @@
       </c>
       <c r="BF7" s="8">
         <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG7" s="8">
         <f>SUM(BD7*3)+BE7</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BH7" s="8">
         <f>SUM(B7:AY7)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BI7" s="10">
         <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.46913580246913578</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18">
         <v>-1</v>
@@ -2409,33 +2434,29 @@
       <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
-        <v>9</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="G8" s="47">
         <v>0</v>
       </c>
       <c r="H8" s="49"/>
-      <c r="I8" s="47">
+      <c r="I8" s="18">
         <v>-7</v>
       </c>
       <c r="J8" s="18">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
       </c>
       <c r="L8" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M8" s="18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="18">
         <v>0</v>
@@ -2443,42 +2464,50 @@
       <c r="O8" s="18">
         <v>-1</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>3</v>
+      </c>
       <c r="R8" s="49"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="18">
+        <v>-2</v>
+      </c>
       <c r="T8" s="18">
         <v>1</v>
       </c>
-      <c r="U8" s="18">
-        <v>4</v>
-      </c>
+      <c r="U8" s="18"/>
       <c r="V8" s="18">
         <v>8</v>
       </c>
-      <c r="W8" s="47">
-        <v>0</v>
-      </c>
+      <c r="W8" s="18"/>
       <c r="X8" s="18">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="18">
         <v>0</v>
       </c>
-      <c r="Z8" s="18">
-        <v>2</v>
+      <c r="Z8" s="47">
+        <v>-2</v>
       </c>
       <c r="AA8" s="49"/>
       <c r="AB8" s="18">
         <v>1</v>
       </c>
       <c r="AC8" s="64"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="47">
+      <c r="AD8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
         <v>4</v>
       </c>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
+      <c r="AF8" s="18">
+        <v>-2</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>-5</v>
+      </c>
       <c r="AH8" s="18"/>
       <c r="AI8" s="18"/>
       <c r="AJ8" s="18"/>
@@ -2502,7 +2531,7 @@
       </c>
       <c r="BC8" s="8">
         <f>COUNT(B8:AY8)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD8" s="8">
         <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
@@ -2514,7 +2543,7 @@
       </c>
       <c r="BF8" s="8">
         <f>COUNTIF($B8:$AY8, "&lt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG8" s="8">
         <f>SUM(BD8*3)+BE8</f>
@@ -2522,11 +2551,11 @@
       </c>
       <c r="BH8" s="8">
         <f>SUM(B8:AY8)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI8" s="10">
         <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.53030303030303028</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
@@ -2611,7 +2640,9 @@
       </c>
       <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
+      <c r="AG9" s="16">
+        <v>-5</v>
+      </c>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
@@ -2635,7 +2666,7 @@
       </c>
       <c r="BC9" s="8">
         <f>COUNT(B9:AY9)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD9" s="8">
         <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
@@ -2647,7 +2678,7 @@
       </c>
       <c r="BF9" s="8">
         <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG9" s="8">
         <f>SUM(BD9*3)+BE9</f>
@@ -2655,11 +2686,11 @@
       </c>
       <c r="BH9" s="8">
         <f>SUM(B9:AY9)</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BI9" s="10">
         <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.50724637681159424</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
@@ -2731,8 +2762,12 @@
       <c r="AE10" s="16">
         <v>4</v>
       </c>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
+      <c r="AF10" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>-5</v>
+      </c>
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
@@ -2756,7 +2791,7 @@
       </c>
       <c r="BC10" s="8">
         <f>COUNT(B10:AY10)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD10" s="8">
         <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
@@ -2768,7 +2803,7 @@
       </c>
       <c r="BF10" s="8">
         <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG10" s="8">
         <f>SUM(BD10*3)+BE10</f>
@@ -2776,11 +2811,11 @@
       </c>
       <c r="BH10" s="8">
         <f>SUM(B10:AY10)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="BI10" s="10">
         <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.60784313725490191</v>
+        <v>0.54385964912280704</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
@@ -2850,8 +2885,12 @@
       <c r="AE11" s="7">
         <v>-4</v>
       </c>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
+      <c r="AF11" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>5</v>
+      </c>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
@@ -2875,11 +2914,11 @@
       </c>
       <c r="BC11" s="8">
         <f>COUNT(B11:AY11)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD11" s="8">
         <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE11" s="8">
         <f>COUNTIF($B11:$AY11, "0")</f>
@@ -2887,25 +2926,25 @@
       </c>
       <c r="BF11" s="8">
         <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG11" s="8">
         <f>SUM(BD11*3)+BE11</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BH11" s="8">
         <f>SUM(B11:AY11)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI11" s="10">
         <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B12" s="7">
         <v>-1</v>
@@ -2913,11 +2952,9 @@
       <c r="C12" s="7">
         <v>-1</v>
       </c>
-      <c r="D12" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="46">
+      <c r="F12" s="7">
         <v>-1</v>
       </c>
       <c r="G12" s="7">
@@ -2928,13 +2965,13 @@
         <v>7</v>
       </c>
       <c r="J12" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K12" s="7">
+        <v>8</v>
+      </c>
+      <c r="K12" s="46">
         <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2942,27 +2979,23 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
-      <c r="P12" s="46">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
         <v>-2</v>
       </c>
-      <c r="Q12" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q12" s="7"/>
       <c r="R12" s="51"/>
       <c r="S12" s="7">
         <v>2</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="46">
         <v>-1</v>
       </c>
       <c r="U12" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V12" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="W12" s="7">
         <v>0</v>
@@ -2970,21 +3003,23 @@
       <c r="X12" s="7">
         <v>5</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="51"/>
-      <c r="AB12" s="46">
-        <v>-1</v>
-      </c>
+      <c r="AB12" s="7"/>
       <c r="AC12" s="66"/>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
       <c r="AE12" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
+      <c r="AG12" s="7">
+        <v>5</v>
+      </c>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
@@ -3008,7 +3043,7 @@
       </c>
       <c r="BC12" s="8">
         <f>COUNT(B12:AY12)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD12" s="8">
         <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
@@ -3016,33 +3051,31 @@
       </c>
       <c r="BE12" s="8">
         <f>COUNTIF($B12:$AY12, "0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF12" s="8">
         <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BG12" s="8">
         <f>SUM(BD12*3)+BE12</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BH12" s="8">
         <f>SUM(B12:AY12)</f>
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="BI12" s="10">
         <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.40579710144927539</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="7">
-        <v>-1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="7">
         <v>-1</v>
       </c>
@@ -3055,54 +3088,52 @@
         <v>0</v>
       </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="7">
-        <v>7</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7">
         <v>8</v>
       </c>
-      <c r="K13" s="46">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="46">
         <v>1</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q13" s="7"/>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
+        <v>-3</v>
+      </c>
       <c r="R13" s="51"/>
       <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="T13" s="46">
-        <v>-1</v>
+      <c r="T13" s="7">
+        <v>1</v>
       </c>
       <c r="U13" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V13" s="7">
         <v>-8</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="46">
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="51"/>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="7">
+        <v>-1</v>
+      </c>
       <c r="AC13" s="66"/>
       <c r="AD13" s="7">
         <v>0</v>
@@ -3110,8 +3141,12 @@
       <c r="AE13" s="7">
         <v>4</v>
       </c>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
+      <c r="AF13" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>5</v>
+      </c>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
@@ -3139,11 +3174,11 @@
       </c>
       <c r="BD13" s="8">
         <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE13" s="8">
         <f>COUNTIF($B13:$AY13, "0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF13" s="8">
         <f>COUNTIF($B13:$AY13, "&lt;0")</f>
@@ -3151,23 +3186,23 @@
       </c>
       <c r="BG13" s="8">
         <f>SUM(BD13*3)+BE13</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BH13" s="8">
         <f>SUM(B13:AY13)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BI13" s="10">
         <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.45</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="46">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7">
         <v>-1</v>
       </c>
       <c r="C14" s="7">
@@ -3176,18 +3211,20 @@
       <c r="D14" s="7">
         <v>-9</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="7"/>
+      <c r="F14" s="46">
         <v>-1</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="51"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="7">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-8</v>
+      </c>
       <c r="K14" s="7">
         <v>0</v>
       </c>
@@ -3195,27 +3232,29 @@
         <v>2</v>
       </c>
       <c r="M14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="46">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="46">
         <v>-2</v>
       </c>
       <c r="Q14" s="7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R14" s="51"/>
       <c r="S14" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T14" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U14" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V14" s="7">
         <v>8</v>
@@ -3224,19 +3263,25 @@
         <v>0</v>
       </c>
       <c r="X14" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7">
+        <v>2</v>
+      </c>
       <c r="AA14" s="51"/>
-      <c r="AB14" s="7"/>
+      <c r="AB14" s="46">
+        <v>-1</v>
+      </c>
       <c r="AC14" s="66"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
+      <c r="AG14" s="7">
+        <v>-5</v>
+      </c>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
@@ -3260,11 +3305,11 @@
       </c>
       <c r="BC14" s="8">
         <f>COUNT(B14:AY14)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BD14" s="8">
         <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE14" s="8">
         <f>COUNTIF($B14:$AY14, "0")</f>
@@ -3272,19 +3317,19 @@
       </c>
       <c r="BF14" s="8">
         <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BG14" s="8">
         <f>SUM(BD14*3)+BE14</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BH14" s="8">
         <f>SUM(B14:AY14)</f>
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="BI14" s="10">
         <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.43859649122807015</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
@@ -3362,8 +3407,12 @@
       <c r="AE15" s="7">
         <v>-4</v>
       </c>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
+      <c r="AF15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="46">
+        <v>-5</v>
+      </c>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
@@ -3387,11 +3436,11 @@
       </c>
       <c r="BC15" s="8">
         <f>COUNT(B15:AY15)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD15" s="8">
         <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE15" s="8">
         <f>COUNTIF($B15:$AY15, "0")</f>
@@ -3399,32 +3448,38 @@
       </c>
       <c r="BF15" s="8">
         <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG15" s="8">
         <f>SUM(BD15*3)+BE15</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BH15" s="8">
         <f>SUM(B15:AY15)</f>
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="BI15" s="10">
         <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.4</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="B16" s="46">
+        <v>-1</v>
+      </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="7">
         <v>-1</v>
       </c>
@@ -3433,38 +3488,40 @@
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7">
-        <v>8</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="46">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="46">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q16" s="7">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="R16" s="51"/>
       <c r="S16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T16" s="7">
         <v>1</v>
       </c>
       <c r="U16" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V16" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W16" s="46">
+        <v>8</v>
+      </c>
+      <c r="W16" s="7">
         <v>0</v>
       </c>
       <c r="X16" s="7">
@@ -3475,16 +3532,10 @@
       </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="51"/>
-      <c r="AB16" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AB16" s="7"/>
       <c r="AC16" s="66"/>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>4</v>
-      </c>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
@@ -3510,68 +3561,62 @@
       </c>
       <c r="BC16" s="8">
         <f>COUNT(B16:AY16)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD16" s="8">
         <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE16" s="8">
         <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF16" s="8">
         <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG16" s="8">
         <f>SUM(BD16*3)+BE16</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BH16" s="8">
         <f>SUM(B16:AY16)</f>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="BI16" s="10">
         <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.42592592592592593</v>
+        <v>0.43859649122807015</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B17" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C17" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="46">
-        <v>7</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="I17" s="7"/>
+      <c r="J17" s="46">
         <v>-8</v>
       </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
       <c r="N17" s="7">
         <v>0</v>
       </c>
@@ -3583,25 +3628,39 @@
         <v>3</v>
       </c>
       <c r="R17" s="51"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7">
+        <v>-2</v>
+      </c>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="U17" s="46">
+        <v>4</v>
+      </c>
+      <c r="V17" s="7">
+        <v>8</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
+      <c r="Z17" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA17" s="51"/>
-      <c r="AB17" s="46">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="66"/>
       <c r="AD17" s="7">
         <v>0</v>
       </c>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="46">
+        <v>-4</v>
+      </c>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
+      <c r="AG17" s="7">
+        <v>5</v>
+      </c>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
@@ -3625,11 +3684,11 @@
       </c>
       <c r="BC17" s="8">
         <f>COUNT(B17:AY17)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BD17" s="8">
         <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE17" s="8">
         <f>COUNTIF($B17:$AY17, "0")</f>
@@ -3637,83 +3696,87 @@
       </c>
       <c r="BF17" s="8">
         <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG17" s="8">
         <f>SUM(BD17*3)+BE17</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BH17" s="8">
         <f>SUM(B17:AY17)</f>
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="BI17" s="10">
         <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.52380952380952384</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="46">
+        <v>7</v>
+      </c>
       <c r="J18" s="7">
         <v>-8</v>
       </c>
-      <c r="K18" s="46">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="7"/>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
+        <v>3</v>
+      </c>
       <c r="R18" s="51"/>
-      <c r="S18" s="7">
-        <v>2</v>
-      </c>
+      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7">
-        <v>4</v>
-      </c>
+      <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="7">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>2</v>
-      </c>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="51"/>
-      <c r="AB18" s="7">
-        <v>-1</v>
+      <c r="AB18" s="46">
+        <v>1</v>
       </c>
       <c r="AC18" s="66"/>
       <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
@@ -3738,7 +3801,7 @@
       </c>
       <c r="BC18" s="8">
         <f>COUNT(B18:AY18)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD18" s="8">
         <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
@@ -3750,7 +3813,7 @@
       </c>
       <c r="BF18" s="8">
         <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG18" s="8">
         <f>SUM(BD18*3)+BE18</f>
@@ -3758,11 +3821,11 @@
       </c>
       <c r="BH18" s="8">
         <f>SUM(B18:AY18)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI18" s="10">
         <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.5641025641025641</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
@@ -3883,74 +3946,70 @@
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-9</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="51"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="46">
+      <c r="J20" s="7">
         <v>-8</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="46">
+        <v>0</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>1</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7">
-        <v>3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="51"/>
       <c r="S20" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T20" s="7"/>
-      <c r="U20" s="46">
+      <c r="U20" s="7">
         <v>4</v>
       </c>
-      <c r="V20" s="7">
-        <v>8</v>
-      </c>
+      <c r="V20" s="7"/>
       <c r="W20" s="7">
         <v>0</v>
       </c>
       <c r="X20" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y20" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y20" s="46">
+        <v>0</v>
+      </c>
       <c r="Z20" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="51"/>
-      <c r="AB20" s="7"/>
+      <c r="AB20" s="7">
+        <v>-1</v>
+      </c>
       <c r="AC20" s="66"/>
       <c r="AD20" s="7">
         <v>0</v>
       </c>
-      <c r="AE20" s="46">
-        <v>-4</v>
-      </c>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
+      <c r="AE20" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="46">
+        <v>-2</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>-5</v>
+      </c>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
@@ -3974,7 +4033,7 @@
       </c>
       <c r="BC20" s="8">
         <f>COUNT(B20:AY20)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD20" s="8">
         <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
@@ -3986,7 +4045,7 @@
       </c>
       <c r="BF20" s="8">
         <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG20" s="8">
         <f>SUM(BD20*3)+BE20</f>
@@ -3994,30 +4053,36 @@
       </c>
       <c r="BH20" s="8">
         <f>SUM(B20:AY20)</f>
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="BI20" s="10">
         <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.43137254901960786</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="46">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>-1</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="46">
+        <v>0</v>
+      </c>
       <c r="H21" s="51"/>
       <c r="I21" s="7">
         <v>-7</v>
@@ -4028,40 +4093,46 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7">
-        <v>-2</v>
-      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="51"/>
-      <c r="S21" s="7">
+      <c r="S21" s="46">
         <v>2</v>
       </c>
       <c r="T21" s="7">
-        <v>1</v>
-      </c>
-      <c r="U21" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="U21" s="7">
+        <v>4</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7">
         <v>0</v>
       </c>
-      <c r="X21" s="46">
-        <v>5</v>
+      <c r="X21" s="7">
+        <v>-5</v>
       </c>
       <c r="Y21" s="7">
         <v>0</v>
       </c>
-      <c r="Z21" s="7"/>
+      <c r="Z21" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA21" s="51"/>
       <c r="AB21" s="7">
         <v>-1</v>
       </c>
       <c r="AC21" s="66"/>
-      <c r="AD21" s="7"/>
+      <c r="AD21" s="7">
+        <v>0</v>
+      </c>
       <c r="AE21" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
+      <c r="AG21" s="46">
+        <v>5</v>
+      </c>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
@@ -4085,7 +4156,7 @@
       </c>
       <c r="BC21" s="8">
         <f>COUNT(B21:AY21)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BD21" s="8">
         <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
@@ -4093,48 +4164,42 @@
       </c>
       <c r="BE21" s="8">
         <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF21" s="8">
         <f>COUNTIF($B21:$AY21, "&lt;0")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG21" s="8">
         <f>SUM(BD21*3)+BE21</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH21" s="8">
         <f>SUM(B21:AY21)</f>
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="BI21" s="10">
         <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E22" s="7">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="46">
+        <v>1</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="46">
-        <v>0</v>
-      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="51"/>
       <c r="I22" s="7">
         <v>-7</v>
@@ -4145,41 +4210,37 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="51"/>
-      <c r="S22" s="46">
+      <c r="S22" s="7">
         <v>2</v>
       </c>
       <c r="T22" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U22" s="7">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7">
         <v>0</v>
       </c>
-      <c r="X22" s="7">
-        <v>-5</v>
+      <c r="X22" s="46">
+        <v>5</v>
       </c>
       <c r="Y22" s="7">
         <v>0</v>
       </c>
-      <c r="Z22" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z22" s="7"/>
       <c r="AA22" s="51"/>
       <c r="AB22" s="7">
         <v>-1</v>
       </c>
       <c r="AC22" s="66"/>
-      <c r="AD22" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD22" s="7"/>
       <c r="AE22" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
@@ -4206,31 +4267,31 @@
       </c>
       <c r="BC22" s="8">
         <f>COUNT(B22:AY22)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BD22" s="8">
         <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE22" s="8">
         <f>COUNTIF($B22:$AY22, "0")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF22" s="8">
         <f>COUNTIF($B22:$AY22, "&lt;0")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG22" s="8">
         <f>SUM(BD22*3)+BE22</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BH22" s="8">
         <f>SUM(B22:AY22)</f>
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="BI22" s="10">
         <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.37254901960784315</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
@@ -4296,7 +4357,9 @@
       <c r="AE23" s="7">
         <v>-4</v>
       </c>
-      <c r="AF23" s="7"/>
+      <c r="AF23" s="7">
+        <v>2</v>
+      </c>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
@@ -4322,11 +4385,11 @@
       </c>
       <c r="BC23" s="8">
         <f>COUNT(B23:AY23)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD23" s="8">
         <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE23" s="8">
         <f>COUNTIF($B23:$AY23, "0")</f>
@@ -4338,15 +4401,15 @@
       </c>
       <c r="BG23" s="8">
         <f>SUM(BD23*3)+BE23</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BH23" s="8">
         <f>SUM(B23:AY23)</f>
-        <v>-23</v>
+        <v>-21</v>
       </c>
       <c r="BI23" s="10">
         <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.40476190476190477</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -4606,7 +4669,9 @@
       <c r="AE26" s="7">
         <v>-4</v>
       </c>
-      <c r="AF26" s="7"/>
+      <c r="AF26" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
@@ -4631,7 +4696,7 @@
       </c>
       <c r="BC26" s="8">
         <f>COUNT(B26:AY26)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD26" s="8">
         <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
@@ -4643,7 +4708,7 @@
       </c>
       <c r="BF26" s="8">
         <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG26" s="8">
         <f>SUM(BD26*3)+BE26</f>
@@ -4651,11 +4716,11 @@
       </c>
       <c r="BH26" s="8">
         <f>SUM(B26:AY26)</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="BI26" s="10">
         <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
@@ -6010,11 +6075,11 @@
       </c>
       <c r="AF40" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG40" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH40" s="27">
         <f t="shared" si="1"/>
@@ -6183,8 +6248,12 @@
       <c r="AE41" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="8"/>
+      <c r="AF41" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG41" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="AH41" s="13"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
@@ -6539,7 +6608,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6578,7 +6647,7 @@
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="63">
         <v>3</v>
@@ -6593,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="63">
         <f>SUM(C3*3)+D3</f>
@@ -6602,58 +6671,58 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="B4" s="70">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
+      <c r="C4" s="70">
+        <v>2</v>
+      </c>
+      <c r="D4" s="70">
+        <v>1</v>
+      </c>
+      <c r="E4" s="70">
+        <v>0</v>
+      </c>
+      <c r="F4" s="70">
+        <v>4</v>
+      </c>
+      <c r="G4" s="70">
         <f>SUM(C4*3)+D4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>SUM(C5*3)+D5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B6" s="63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="63">
         <v>2</v>
@@ -6662,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="63">
         <f>SUM(C6*3)+D6</f>
@@ -6674,88 +6743,88 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
+        <v>99</v>
+      </c>
+      <c r="B7" s="70">
+        <v>2</v>
+      </c>
+      <c r="C7" s="70">
+        <v>2</v>
+      </c>
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="E7" s="70">
+        <v>0</v>
+      </c>
+      <c r="F7" s="70">
+        <v>9</v>
+      </c>
+      <c r="G7" s="70">
         <f>SUM(C7*3)+D7</f>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <f>SUM(C8*3)+D8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <f>SUM(C9*3)+D9</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6765,7 +6834,7 @@
       </c>
       <c r="G10">
         <f>SUM(C10*3)+D10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -6868,7 +6937,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6883,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G15">
         <f>SUM(C15*3)+D15</f>
@@ -6892,10 +6961,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6904,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="G16">
         <f>SUM(C16*3)+D16</f>
@@ -6944,7 +7013,7 @@
         <v>83</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6953,10 +7022,10 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G18">
         <f>SUM(C18*3)+D18</f>
@@ -7278,10 +7347,10 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU22" sqref="AU22"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7622,44 +7691,44 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
       <c r="H5" s="51"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
       <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
       <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="51"/>
-      <c r="S5" s="7">
-        <v>3</v>
-      </c>
+      <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7">
         <v>1</v>
       </c>
-      <c r="W5" s="7">
-        <v>3</v>
-      </c>
+      <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -7668,7 +7737,9 @@
       <c r="AC5" s="69"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
+      <c r="AF5" s="7">
+        <v>1</v>
+      </c>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
@@ -7691,23 +7762,26 @@
       <c r="AZ5" s="28"/>
       <c r="BA5" s="23">
         <f>SUM(B5:AY5)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB5" s="8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="BC5" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="7">
         <v>2</v>
       </c>
@@ -7715,16 +7789,12 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>4</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -7732,21 +7802,31 @@
       <c r="R6" s="51"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="U6" s="7">
+        <v>2</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="51"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="69"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="7">
+        <v>2</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
+      <c r="AG6" s="7">
+        <v>1</v>
+      </c>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -7768,67 +7848,63 @@
       <c r="AZ6" s="28"/>
       <c r="BA6" s="23">
         <f>SUM(B6:AY6)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="51"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7">
-        <v>2</v>
-      </c>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>3</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="51"/>
-      <c r="S7" s="7"/>
+      <c r="S7" s="7">
+        <v>3</v>
+      </c>
       <c r="T7" s="7"/>
-      <c r="U7" s="7">
-        <v>2</v>
-      </c>
-      <c r="V7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
       <c r="W7" s="7">
-        <v>1</v>
-      </c>
-      <c r="X7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="51"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="69"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="7">
-        <v>2</v>
-      </c>
+      <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
@@ -7855,61 +7931,52 @@
         <v>13</v>
       </c>
       <c r="BB7" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="51"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
+      <c r="M8" s="7"/>
       <c r="N8" s="7">
         <v>1</v>
       </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
+      <c r="O8" s="7"/>
       <c r="P8" s="7">
         <v>1</v>
       </c>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
       <c r="R8" s="51"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7">
-        <v>1</v>
-      </c>
+      <c r="S8" s="7">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7">
-        <v>1</v>
-      </c>
+      <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="7">
-        <v>1</v>
-      </c>
+      <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="7">
+        <v>2</v>
+      </c>
       <c r="AA8" s="51"/>
       <c r="AB8" s="7">
         <v>1</v>
@@ -7917,7 +7984,9 @@
       <c r="AC8" s="69"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="7">
+        <v>3</v>
+      </c>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
@@ -7940,61 +8009,75 @@
       <c r="AZ8" s="28"/>
       <c r="BA8" s="23">
         <f>SUM(B8:AY8)</f>
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7"/>
       <c r="M9" s="7">
         <v>1</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="51"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7">
-        <v>1</v>
-      </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7">
-        <v>1</v>
-      </c>
-      <c r="X9" s="7"/>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="51"/>
-      <c r="AB9" s="7"/>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
       <c r="AC9" s="69"/>
       <c r="AD9" s="7"/>
-      <c r="AE9" s="7">
-        <v>2</v>
-      </c>
+      <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
+      <c r="AG9" s="7">
+        <v>1</v>
+      </c>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
@@ -8016,64 +8099,59 @@
       <c r="AZ9" s="28"/>
       <c r="BA9" s="23">
         <f>SUM(B9:AY9)</f>
-        <v>10</v>
-      </c>
-      <c r="BC9" s="8">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
       <c r="H10" s="51"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="51"/>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7">
+        <v>1</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="7"/>
       <c r="AA10" s="51"/>
-      <c r="AB10" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB10" s="7"/>
       <c r="AC10" s="69"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
+      <c r="AE10" s="7">
+        <v>1</v>
+      </c>
       <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
+      <c r="AG10" s="7">
+        <v>4</v>
+      </c>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -8097,32 +8175,34 @@
         <f>SUM(B10:AY10)</f>
         <v>10</v>
       </c>
-      <c r="BC10" s="8">
+      <c r="BB10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -8130,19 +8210,25 @@
       <c r="R11" s="51"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="U11" s="7">
+        <v>1</v>
+      </c>
       <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="W11" s="7">
+        <v>1</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="7">
+        <v>2</v>
+      </c>
       <c r="AA11" s="51"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="69"/>
-      <c r="AD11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7">
+        <v>2</v>
+      </c>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
@@ -8166,22 +8252,25 @@
       <c r="AZ11" s="28"/>
       <c r="BA11" s="23">
         <f>SUM(B11:AY11)</f>
-        <v>9</v>
-      </c>
-      <c r="BB11" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -8193,30 +8282,24 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7">
-        <v>2</v>
-      </c>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="51"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7">
-        <v>2</v>
-      </c>
-      <c r="X12" s="7">
-        <v>3</v>
-      </c>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="51"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="69"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
@@ -8240,26 +8323,25 @@
       <c r="AZ12" s="28"/>
       <c r="BA12" s="23">
         <f>SUM(B12:AY12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB12" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="8">
         <v>1</v>
       </c>
       <c r="BF12" s="23"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7">
-        <v>4</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="51"/>
       <c r="I13" s="7"/>
@@ -8269,22 +8351,30 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="7">
+        <v>2</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="51"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
+      <c r="W13" s="7">
+        <v>2</v>
+      </c>
+      <c r="X13" s="7">
+        <v>3</v>
+      </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="51"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="69"/>
       <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
+      <c r="AE13" s="7">
+        <v>1</v>
+      </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
@@ -8308,41 +8398,34 @@
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
         <f>SUM(B13:AY13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB13" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7">
-        <v>2</v>
-      </c>
+      <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="51"/>
@@ -8355,9 +8438,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="51"/>
-      <c r="AB14" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB14" s="7"/>
       <c r="AC14" s="69"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -8386,51 +8467,54 @@
         <f>SUM(B14:AY14)</f>
         <v>7</v>
       </c>
+      <c r="BB14" s="8">
+        <v>1</v>
+      </c>
       <c r="BC14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7"/>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
       <c r="H15" s="51"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
+      <c r="O15" s="7">
+        <v>2</v>
+      </c>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="51"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7">
-        <v>1</v>
-      </c>
-      <c r="X15" s="7">
-        <v>1</v>
-      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="51"/>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
       <c r="AC15" s="69"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -8459,55 +8543,54 @@
         <f>SUM(B15:AY15)</f>
         <v>7</v>
       </c>
+      <c r="BC15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="51"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="51"/>
-      <c r="S16" s="7">
-        <v>1</v>
-      </c>
+      <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
       <c r="X16" s="7">
         <v>1</v>
       </c>
-      <c r="Y16" s="7">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="51"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="69"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
@@ -8536,22 +8619,24 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="51"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
+      <c r="M17" s="7"/>
       <c r="N17" s="7">
         <v>1</v>
       </c>
@@ -8566,8 +8651,12 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>1</v>
+      </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="51"/>
       <c r="AB17" s="7"/>
@@ -8599,10 +8688,7 @@
       <c r="AZ17" s="28"/>
       <c r="BA17" s="23">
         <f>SUM(B17:AY17)</f>
-        <v>6</v>
-      </c>
-      <c r="BB17" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
@@ -8647,7 +8733,9 @@
       <c r="AC18" s="69"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
+      <c r="AF18" s="7">
+        <v>1</v>
+      </c>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
@@ -8670,48 +8758,44 @@
       <c r="AZ18" s="28"/>
       <c r="BA18" s="23">
         <f>SUM(B18:AY18)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF18" s="23"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="51"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="51"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7">
-        <v>1</v>
-      </c>
-      <c r="U19" s="7">
-        <v>1</v>
-      </c>
+      <c r="S19" s="7">
+        <v>1</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="51"/>
       <c r="AB19" s="7"/>
@@ -8744,6 +8828,9 @@
       <c r="BA19" s="23">
         <f>SUM(B19:AY19)</f>
         <v>6</v>
+      </c>
+      <c r="BB19" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
@@ -9846,7 +9933,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="23">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" ref="BA3:BA36" si="0">SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -9976,11 +10063,11 @@
       </c>
       <c r="AF38">
         <f>'League Table'!AF40</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG38" s="8">
         <f>'League Table'!AG40</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH38" s="8">
         <f>'League Table'!AH40</f>
@@ -10052,199 +10139,199 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="X40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AC40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AE40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AF40" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="AG40" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="AH40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC36">
-    <sortCondition descending="1" ref="BA3:BA36"/>
-    <sortCondition descending="1" ref="BB3:BB36"/>
-    <sortCondition descending="1" ref="BC3:BC36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC35">
+    <sortCondition descending="1" ref="BA3:BA35"/>
+    <sortCondition descending="1" ref="BB3:BB35"/>
+    <sortCondition descending="1" ref="BC3:BC35"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10261,7 +10348,7 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A5" sqref="A5:BA37"/>
@@ -10503,53 +10590,49 @@
     </row>
     <row r="5" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="C5" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="18">
-        <v>4</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18"/>
       <c r="H5" s="49"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="18">
+        <v>2</v>
+      </c>
+      <c r="J5" s="18">
+        <v>3</v>
+      </c>
       <c r="K5" s="18">
         <v>2</v>
       </c>
-      <c r="L5" s="18">
-        <v>1</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18">
-        <v>1</v>
-      </c>
-      <c r="P5" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>3</v>
-      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18">
+        <v>1</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="18">
-        <v>1</v>
-      </c>
+      <c r="T5" s="18"/>
       <c r="U5" s="18">
-        <v>1</v>
-      </c>
-      <c r="V5" s="18">
         <v>3</v>
       </c>
+      <c r="V5" s="18"/>
       <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
+      <c r="X5" s="18">
+        <v>1</v>
+      </c>
       <c r="Y5" s="18">
         <v>1</v>
       </c>
@@ -10557,10 +10640,18 @@
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
+      <c r="AD5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>3</v>
+      </c>
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
@@ -10581,54 +10672,58 @@
       <c r="AY5" s="18"/>
       <c r="BA5">
         <f>SUM(B5:AY5)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45">
-        <v>1</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B6" s="45">
+        <v>2</v>
+      </c>
+      <c r="C6" s="45"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45"/>
+      <c r="E6" s="45">
+        <v>4</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45">
+        <v>1</v>
+      </c>
       <c r="H6" s="53"/>
-      <c r="I6" s="45">
-        <v>2</v>
-      </c>
-      <c r="J6" s="45">
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="59">
+        <v>2</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="16">
         <v>3</v>
       </c>
-      <c r="K6" s="59">
-        <v>2</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16">
-        <v>1</v>
-      </c>
-      <c r="N6" s="16">
-        <v>1</v>
-      </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
+      <c r="T6" s="16">
+        <v>1</v>
+      </c>
       <c r="U6" s="16">
+        <v>1</v>
+      </c>
+      <c r="V6" s="16">
         <v>3</v>
       </c>
-      <c r="V6" s="16"/>
       <c r="W6" s="16"/>
-      <c r="X6" s="16">
-        <v>1</v>
-      </c>
+      <c r="X6" s="16"/>
       <c r="Y6" s="16">
         <v>1</v>
       </c>
@@ -10636,12 +10731,8 @@
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="16">
-        <v>2</v>
-      </c>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -10664,7 +10755,7 @@
       <c r="AY6" s="16"/>
       <c r="BA6">
         <f>SUM(B6:AY6)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
@@ -10723,8 +10814,12 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
+      <c r="AF7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>2</v>
+      </c>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
@@ -10745,7 +10840,7 @@
       <c r="AY7" s="7"/>
       <c r="BA7">
         <f>SUM(B7:AY7)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12951,11 +13046,11 @@
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="1"/>
@@ -13031,7 +13126,7 @@
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -13052,8 +13147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13217,7 +13312,7 @@
       <c r="K9" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>3</v>
       </c>
       <c r="M9" s="8" t="s">
@@ -13253,7 +13348,7 @@
       <c r="K10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>2</v>
       </c>
       <c r="M10" s="8" t="s">
@@ -13284,19 +13379,19 @@
         <v>131</v>
       </c>
       <c r="I11" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>2</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>131</v>
       </c>
       <c r="N11" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -13323,7 +13418,10 @@
         <v>3</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>117</v>
@@ -13351,14 +13449,15 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="8" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="I13" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>127</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
         <v>121</v>
       </c>
@@ -13383,20 +13482,21 @@
         <v>119</v>
       </c>
       <c r="G14" s="31"/>
-      <c r="H14" s="57" t="s">
-        <v>132</v>
+      <c r="H14" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="I14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L14" s="8"/>
       <c r="M14" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N14" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -13416,17 +13516,18 @@
         <v>142</v>
       </c>
       <c r="G15" s="31"/>
-      <c r="H15" s="8" t="s">
-        <v>168</v>
+      <c r="H15" s="57" t="s">
+        <v>132</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>148</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="L15" s="8"/>
       <c r="M15" s="8" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="N15" s="8">
         <v>3</v>
@@ -13450,16 +13551,17 @@
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="8" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>163</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="L16" s="8"/>
       <c r="M16" s="8" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="N16" s="8">
         <v>3</v>
@@ -13483,14 +13585,15 @@
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>168</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
         <v>118</v>
       </c>
@@ -13516,19 +13619,20 @@
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="8">
-        <v>2</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="N18" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -13546,13 +13650,14 @@
         <v>118</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>117</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
         <v>133</v>
       </c>
       <c r="N19" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -13576,10 +13681,11 @@
         <v>122</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="N20" s="8">
         <v>2</v>
@@ -13608,8 +13714,9 @@
       <c r="K21" s="8" t="s">
         <v>190</v>
       </c>
+      <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N21" s="8">
         <v>2</v>
@@ -13636,6 +13743,7 @@
       <c r="K22" s="8" t="s">
         <v>183</v>
       </c>
+      <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
         <v>152</v>
       </c>
@@ -13666,8 +13774,12 @@
       <c r="K23" s="8" t="s">
         <v>203</v>
       </c>
+      <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>122</v>
+        <v>203</v>
+      </c>
+      <c r="N23" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -13690,9 +13802,12 @@
       <c r="H24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K24" s="8"/>
+      <c r="K24" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -13717,7 +13832,7 @@
       </c>
       <c r="K25" s="8"/>
       <c r="M25" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -13742,7 +13857,7 @@
       </c>
       <c r="K26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -13767,7 +13882,7 @@
       </c>
       <c r="K27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -13781,9 +13896,12 @@
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="G28" s="31"/>
+      <c r="H28" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="M28" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -13804,7 +13922,7 @@
       </c>
       <c r="K29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -13818,7 +13936,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="M30" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -13857,24 +13975,43 @@
       <c r="E32" s="31" t="s">
         <v>210</v>
       </c>
+      <c r="M32" s="8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
         <v>31</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="B33" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
         <v>32</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="31">
@@ -14031,8 +14168,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N26">
-    <sortCondition descending="1" ref="N9:N26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N23">
+    <sortCondition descending="1" ref="N9:N23"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0BC8D4-1008-9449-B7B1-B569B0D44266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083BDA5-6D30-7F4F-B79E-AD16E981A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1560" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="218">
   <si>
     <t>WK 1</t>
   </si>
@@ -688,12 +688,21 @@
   </si>
   <si>
     <t>Lost 0-5</t>
+  </si>
+  <si>
+    <t>Vince - Artist</t>
+  </si>
+  <si>
+    <t>Matt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,7 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1068,9 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1147,13 +1153,13 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,10 +1574,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA5" sqref="BA5:BA39"/>
+      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1620,154 +1626,154 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B2" s="44">
+      <c r="B2" s="43">
         <v>44928</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="43">
         <v>44935</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="43">
         <v>44942</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="43">
         <v>44949</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="43">
         <v>44956</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="43">
         <v>44963</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="43">
         <v>44970</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="43">
         <v>44977</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="43">
         <v>44984</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="43">
         <v>44991</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="43">
         <v>44998</v>
       </c>
-      <c r="M2" s="44">
+      <c r="M2" s="43">
         <v>45005</v>
       </c>
-      <c r="N2" s="44">
+      <c r="N2" s="43">
         <v>45012</v>
       </c>
-      <c r="O2" s="44">
+      <c r="O2" s="43">
         <v>45019</v>
       </c>
-      <c r="P2" s="44">
+      <c r="P2" s="43">
         <v>45026</v>
       </c>
-      <c r="Q2" s="44">
+      <c r="Q2" s="43">
         <v>45033</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="43">
         <v>45039</v>
       </c>
-      <c r="S2" s="44">
+      <c r="S2" s="43">
         <v>45046</v>
       </c>
-      <c r="T2" s="44">
+      <c r="T2" s="43">
         <v>45053</v>
       </c>
-      <c r="U2" s="44">
+      <c r="U2" s="43">
         <v>45060</v>
       </c>
-      <c r="V2" s="44">
+      <c r="V2" s="43">
         <v>45067</v>
       </c>
-      <c r="W2" s="44">
+      <c r="W2" s="43">
         <v>45074</v>
       </c>
-      <c r="X2" s="44">
+      <c r="X2" s="43">
         <v>45081</v>
       </c>
-      <c r="Y2" s="44">
+      <c r="Y2" s="43">
         <v>45088</v>
       </c>
-      <c r="Z2" s="44">
+      <c r="Z2" s="43">
         <v>45095</v>
       </c>
-      <c r="AA2" s="44">
+      <c r="AA2" s="43">
         <v>45102</v>
       </c>
-      <c r="AB2" s="44">
+      <c r="AB2" s="43">
         <v>45109</v>
       </c>
-      <c r="AC2" s="44">
+      <c r="AC2" s="43">
         <v>45116</v>
       </c>
-      <c r="AD2" s="44">
+      <c r="AD2" s="43">
         <v>45123</v>
       </c>
-      <c r="AE2" s="44">
+      <c r="AE2" s="43">
         <v>45130</v>
       </c>
-      <c r="AF2" s="44">
+      <c r="AF2" s="43">
         <v>45137</v>
       </c>
-      <c r="AG2" s="44">
+      <c r="AG2" s="43">
         <v>45144</v>
       </c>
-      <c r="AH2" s="44">
+      <c r="AH2" s="43">
         <v>45151</v>
       </c>
-      <c r="AI2" s="44">
+      <c r="AI2" s="43">
         <v>45158</v>
       </c>
-      <c r="AJ2" s="44">
+      <c r="AJ2" s="43">
         <v>45165</v>
       </c>
-      <c r="AK2" s="44">
+      <c r="AK2" s="43">
         <v>45172</v>
       </c>
-      <c r="AL2" s="44">
+      <c r="AL2" s="43">
         <v>45179</v>
       </c>
-      <c r="AM2" s="44">
+      <c r="AM2" s="43">
         <v>45186</v>
       </c>
-      <c r="AN2" s="44">
+      <c r="AN2" s="43">
         <v>45193</v>
       </c>
-      <c r="AO2" s="44">
+      <c r="AO2" s="43">
         <v>45200</v>
       </c>
-      <c r="AP2" s="44">
+      <c r="AP2" s="43">
         <v>45207</v>
       </c>
-      <c r="AQ2" s="44">
+      <c r="AQ2" s="43">
         <v>45214</v>
       </c>
-      <c r="AR2" s="44">
+      <c r="AR2" s="43">
         <v>45221</v>
       </c>
-      <c r="AS2" s="44">
+      <c r="AS2" s="43">
         <v>45228</v>
       </c>
-      <c r="AT2" s="44">
+      <c r="AT2" s="43">
         <v>45235</v>
       </c>
-      <c r="AU2" s="44">
+      <c r="AU2" s="43">
         <v>45242</v>
       </c>
-      <c r="AV2" s="44">
+      <c r="AV2" s="43">
         <v>45249</v>
       </c>
-      <c r="AW2" s="44">
+      <c r="AW2" s="43">
         <v>45256</v>
       </c>
-      <c r="AX2" s="44">
+      <c r="AX2" s="43">
         <v>45263</v>
       </c>
-      <c r="AY2" s="44">
+      <c r="AY2" s="43">
         <v>45270</v>
       </c>
     </row>
@@ -2011,7 +2017,7 @@
       <c r="A5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>1</v>
       </c>
       <c r="C5" s="18">
@@ -2029,7 +2035,7 @@
       <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="49"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="18">
         <v>7</v>
       </c>
@@ -2043,7 +2049,7 @@
       <c r="M5" s="18">
         <v>1</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="46">
         <v>0</v>
       </c>
       <c r="O5" s="18">
@@ -2055,7 +2061,7 @@
       <c r="Q5" s="18">
         <v>3</v>
       </c>
-      <c r="R5" s="49"/>
+      <c r="R5" s="48"/>
       <c r="S5" s="18">
         <v>-2</v>
       </c>
@@ -2080,22 +2086,24 @@
       <c r="Z5" s="18">
         <v>-2</v>
       </c>
-      <c r="AA5" s="49"/>
+      <c r="AA5" s="48"/>
       <c r="AB5" s="18">
         <v>1</v>
       </c>
-      <c r="AC5" s="64"/>
+      <c r="AC5" s="63"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="18">
         <v>-4</v>
       </c>
-      <c r="AF5" s="47">
+      <c r="AF5" s="46">
         <v>2</v>
       </c>
       <c r="AG5" s="18">
         <v>5</v>
       </c>
-      <c r="AH5" s="18"/>
+      <c r="AH5" s="18">
+        <v>2</v>
+      </c>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
@@ -2119,43 +2127,43 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f>COUNT(B5:AY5)</f>
-        <v>26</v>
+        <f t="shared" ref="BC5:BC39" si="0">COUNT(B5:AY5)</f>
+        <v>27</v>
       </c>
       <c r="BD5" s="8">
-        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
-        <v>15</v>
+        <f t="shared" ref="BD5:BD39" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <v>16</v>
       </c>
       <c r="BE5" s="8">
-        <f>COUNTIF($B5:$AY5, "0")</f>
+        <f t="shared" ref="BE5:BE39" si="2">COUNTIF($B5:$AY5, "0")</f>
         <v>5</v>
       </c>
       <c r="BF5" s="8">
-        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
+        <f t="shared" ref="BF5:BF39" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
         <v>6</v>
       </c>
       <c r="BG5" s="8">
-        <f>SUM(BD5*3)+BE5</f>
-        <v>50</v>
+        <f t="shared" ref="BG5:BG39" si="4">SUM(BD5*3)+BE5</f>
+        <v>53</v>
       </c>
       <c r="BH5" s="8">
-        <f>SUM(B5:AY5)</f>
-        <v>25</v>
+        <f t="shared" ref="BH5:BH39" si="5">SUM(B5:AY5)</f>
+        <v>27</v>
       </c>
       <c r="BI5" s="10">
-        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.64102564102564108</v>
+        <f t="shared" ref="BI5:BI39" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <v>0.65432098765432101</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" s="30">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" s="54">
         <v>1</v>
       </c>
       <c r="D6" s="30">
@@ -2165,74 +2173,82 @@
         <v>-1</v>
       </c>
       <c r="F6" s="30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="30">
         <v>0</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="55">
+      <c r="H6" s="49"/>
+      <c r="I6" s="30">
         <v>-7</v>
       </c>
       <c r="J6" s="30">
-        <v>-8</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K6" s="30"/>
       <c r="L6" s="30">
         <v>-2</v>
       </c>
       <c r="M6" s="30">
-        <v>1</v>
-      </c>
-      <c r="N6" s="30">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="54">
         <v>0</v>
       </c>
       <c r="O6" s="30">
+        <v>1</v>
+      </c>
+      <c r="P6" s="30">
+        <v>-2</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>-3</v>
+      </c>
+      <c r="R6" s="49"/>
+      <c r="S6" s="30">
+        <v>2</v>
+      </c>
+      <c r="T6" s="30">
         <v>-1</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30">
-        <v>1</v>
-      </c>
       <c r="U6" s="30">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V6" s="30">
         <v>8</v>
       </c>
-      <c r="W6" s="55">
+      <c r="W6" s="30">
         <v>0</v>
       </c>
       <c r="X6" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>-2</v>
+      </c>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="54">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="30">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="30">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="30">
         <v>-5</v>
       </c>
-      <c r="Y6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="30">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="55">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="30">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="30">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="30"/>
+      <c r="AH6" s="30">
+        <v>2</v>
+      </c>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30"/>
       <c r="AK6" s="30"/>
@@ -2254,43 +2270,43 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f>COUNT(B6:AY6)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="BD6" s="8">
-        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="BE6" s="8">
-        <f>COUNTIF($B6:$AY6, "0")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BF6" s="8">
-        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="BG6" s="8">
-        <f>SUM(BD6*3)+BE6</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="BH6" s="8">
-        <f>SUM(B6:AY6)</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="BI6" s="10">
-        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.56944444444444442</v>
+        <f t="shared" si="6"/>
+        <v>0.48809523809523808</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>91</v>
+      <c r="A7" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="46">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7">
@@ -2300,80 +2316,76 @@
         <v>-1</v>
       </c>
       <c r="F7" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="7">
+      <c r="H7" s="50"/>
+      <c r="I7" s="45">
         <v>-7</v>
       </c>
       <c r="J7" s="7">
-        <v>8</v>
-      </c>
-      <c r="K7" s="7"/>
+        <v>-8</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
       <c r="L7" s="7">
         <v>-2</v>
       </c>
       <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
         <v>-1</v>
       </c>
-      <c r="N7" s="46">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>-3</v>
-      </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="7">
-        <v>2</v>
-      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U7" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V7" s="7">
         <v>8</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="45">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7">
         <v>5</v>
       </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
+      <c r="AH7" s="7">
         <v>-2</v>
       </c>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>-5</v>
-      </c>
-      <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
@@ -2395,32 +2407,32 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f>COUNT(B7:AY7)</f>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="BD7" s="8">
-        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="BE7" s="8">
-        <f>COUNTIF($B7:$AY7, "0")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BF7" s="8">
-        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG7" s="8">
-        <f>SUM(BD7*3)+BE7</f>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="BH7" s="8">
-        <f>SUM(B7:AY7)</f>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="BI7" s="10">
-        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.46913580246913578</v>
+        <f t="shared" si="6"/>
+        <v>0.54666666666666663</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
@@ -2439,10 +2451,10 @@
       <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="G8" s="47">
-        <v>0</v>
-      </c>
-      <c r="H8" s="49"/>
+      <c r="G8" s="46">
+        <v>0</v>
+      </c>
+      <c r="H8" s="48"/>
       <c r="I8" s="18">
         <v>-7</v>
       </c>
@@ -2470,7 +2482,7 @@
       <c r="Q8" s="18">
         <v>3</v>
       </c>
-      <c r="R8" s="49"/>
+      <c r="R8" s="48"/>
       <c r="S8" s="18">
         <v>-2</v>
       </c>
@@ -2488,14 +2500,14 @@
       <c r="Y8" s="18">
         <v>0</v>
       </c>
-      <c r="Z8" s="47">
+      <c r="Z8" s="46">
         <v>-2</v>
       </c>
-      <c r="AA8" s="49"/>
+      <c r="AA8" s="48"/>
       <c r="AB8" s="18">
         <v>1</v>
       </c>
-      <c r="AC8" s="64"/>
+      <c r="AC8" s="63"/>
       <c r="AD8" s="18">
         <v>0</v>
       </c>
@@ -2508,7 +2520,9 @@
       <c r="AG8" s="18">
         <v>-5</v>
       </c>
-      <c r="AH8" s="18"/>
+      <c r="AH8" s="46">
+        <v>-2</v>
+      </c>
       <c r="AI8" s="18"/>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
@@ -2530,32 +2544,32 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f>COUNT(B8:AY8)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="BD8" s="8">
-        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BE8" s="8">
-        <f>COUNTIF($B8:$AY8, "0")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BF8" s="8">
-        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BG8" s="8">
-        <f>SUM(BD8*3)+BE8</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="BH8" s="8">
-        <f>SUM(B8:AY8)</f>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="BI8" s="10">
-        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.4861111111111111</v>
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
@@ -2575,13 +2589,13 @@
       <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <v>1</v>
       </c>
       <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="16">
         <v>7</v>
       </c>
@@ -2606,10 +2620,10 @@
       <c r="P9" s="16">
         <v>2</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="47">
         <v>3</v>
       </c>
-      <c r="R9" s="52"/>
+      <c r="R9" s="51"/>
       <c r="S9" s="16">
         <v>-2</v>
       </c>
@@ -2630,12 +2644,12 @@
       <c r="Z9" s="16">
         <v>2</v>
       </c>
-      <c r="AA9" s="52"/>
+      <c r="AA9" s="51"/>
       <c r="AB9" s="16">
         <v>1</v>
       </c>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="48">
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="47">
         <v>0</v>
       </c>
       <c r="AE9" s="16"/>
@@ -2665,110 +2679,110 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f>COUNT(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BD9" s="8">
-        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BE9" s="8">
-        <f>COUNTIF($B9:$AY9, "0")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BF9" s="8">
-        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="BG9" s="8">
-        <f>SUM(BD9*3)+BE9</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="BH9" s="8">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI9" s="10">
-        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
+        <f t="shared" si="6"/>
         <v>0.4861111111111111</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="68"/>
+        <v>99</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
       <c r="D10" s="16">
         <v>9</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
       <c r="G10" s="16">
         <v>0</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="16">
-        <v>7</v>
-      </c>
-      <c r="J10" s="48">
-        <v>8</v>
-      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="M10" s="16">
-        <v>-1</v>
-      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7">
-        <v>2</v>
-      </c>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="48">
+      <c r="R10" s="51"/>
+      <c r="S10" s="16">
         <v>-2</v>
       </c>
-      <c r="T10" s="16">
-        <v>1</v>
-      </c>
-      <c r="U10" s="16">
-        <v>4</v>
-      </c>
-      <c r="V10" s="16"/>
+      <c r="T10" s="47">
+        <v>1</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="47">
+        <v>8</v>
+      </c>
       <c r="W10" s="16">
         <v>0</v>
       </c>
-      <c r="X10" s="16"/>
+      <c r="X10" s="16">
+        <v>-5</v>
+      </c>
       <c r="Y10" s="16">
         <v>0</v>
       </c>
-      <c r="Z10" s="48">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="52"/>
+      <c r="Z10" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="51"/>
       <c r="AB10" s="16">
         <v>-1</v>
       </c>
-      <c r="AC10" s="67"/>
+      <c r="AC10" s="66"/>
       <c r="AD10" s="16">
         <v>0</v>
       </c>
       <c r="AE10" s="16">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF10" s="16">
         <v>-2</v>
       </c>
       <c r="AG10" s="16">
-        <v>-5</v>
-      </c>
-      <c r="AH10" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="AH10" s="16">
+        <v>2</v>
+      </c>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
@@ -2778,7 +2792,7 @@
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
-      <c r="AR10" s="68"/>
+      <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
@@ -2790,79 +2804,85 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f>COUNT(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="BD10" s="8">
-        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="BE10" s="8">
-        <f>COUNTIF($B10:$AY10, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF10" s="8">
-        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG10" s="8">
-        <f>SUM(BD10*3)+BE10</f>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>34</v>
       </c>
       <c r="BH10" s="8">
-        <f>SUM(B10:AY10)</f>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="BI10" s="10">
-        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.54385964912280704</v>
+        <f t="shared" si="6"/>
+        <v>0.59649122807017541</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <v>8</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="M11" s="45">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="51"/>
+      <c r="Q11" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R11" s="50"/>
       <c r="S11" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T11" s="46">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="46">
-        <v>8</v>
-      </c>
-      <c r="W11" s="7">
+        <v>2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V11" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W11" s="45">
         <v>0</v>
       </c>
       <c r="X11" s="7">
@@ -2871,27 +2891,27 @@
       <c r="Y11" s="7">
         <v>0</v>
       </c>
-      <c r="Z11" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="51"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="7">
         <v>-1</v>
       </c>
-      <c r="AC11" s="66"/>
+      <c r="AC11" s="65"/>
       <c r="AD11" s="7">
         <v>0</v>
       </c>
       <c r="AE11" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AF11" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="7">
         <v>5</v>
       </c>
-      <c r="AH11" s="7"/>
+      <c r="AH11" s="45">
+        <v>2</v>
+      </c>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
@@ -2913,112 +2933,108 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f>COUNT(B11:AY11)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="BD11" s="8">
-        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE11" s="8">
-        <f>COUNTIF($B11:$AY11, "0")</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BF11" s="8">
-        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="BG11" s="8">
-        <f>SUM(BD11*3)+BE11</f>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="BH11" s="8">
-        <f>SUM(B11:AY11)</f>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="BI11" s="10">
-        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.57407407407407407</v>
+        <f t="shared" si="6"/>
+        <v>0.50793650793650791</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="7">
-        <v>-1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B12" s="55"/>
       <c r="C12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="51"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="7">
         <v>7</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="45">
         <v>8</v>
       </c>
-      <c r="K12" s="46">
-        <v>0</v>
-      </c>
+      <c r="K12" s="7"/>
       <c r="L12" s="7">
         <v>-2</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="45">
         <v>-2</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="7">
-        <v>2</v>
-      </c>
-      <c r="T12" s="46">
-        <v>-1</v>
+      <c r="T12" s="7">
+        <v>1</v>
       </c>
       <c r="U12" s="7">
         <v>4</v>
       </c>
-      <c r="V12" s="7">
-        <v>-8</v>
-      </c>
+      <c r="V12" s="7"/>
       <c r="W12" s="7">
         <v>0</v>
       </c>
-      <c r="X12" s="7">
-        <v>5</v>
-      </c>
+      <c r="X12" s="7"/>
       <c r="Y12" s="7">
         <v>0</v>
       </c>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="66"/>
+      <c r="Z12" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AC12" s="65"/>
       <c r="AD12" s="7">
         <v>0</v>
       </c>
       <c r="AE12" s="7">
         <v>4</v>
       </c>
-      <c r="AF12" s="7"/>
+      <c r="AF12" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG12" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
@@ -3030,7 +3046,7 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
+      <c r="AR12" s="55"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -3042,40 +3058,42 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f>COUNT(B12:AY12)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="BD12" s="8">
-        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="BE12" s="8">
-        <f>COUNTIF($B12:$AY12, "0")</f>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="BF12" s="8">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="BF12" s="8">
-        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>7</v>
-      </c>
       <c r="BG12" s="8">
-        <f>SUM(BD12*3)+BE12</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
       <c r="BH12" s="8">
-        <f>SUM(B12:AY12)</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="BI12" s="10">
-        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.47619047619047616</v>
+        <f t="shared" si="6"/>
+        <v>0.54385964912280704</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="B13" s="7">
+        <v>-1</v>
+      </c>
       <c r="C13" s="7">
         <v>-1</v>
       </c>
@@ -3087,67 +3105,69 @@
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="7">
+        <v>7</v>
+      </c>
       <c r="J13" s="7">
         <v>8</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="46">
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7">
-        <v>-3</v>
-      </c>
-      <c r="R13" s="51"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="50"/>
       <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="T13" s="7">
-        <v>1</v>
+      <c r="T13" s="45">
+        <v>-1</v>
       </c>
       <c r="U13" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V13" s="7">
         <v>-8</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13" s="7">
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
       </c>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AC13" s="66"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="65"/>
       <c r="AD13" s="7">
         <v>0</v>
       </c>
       <c r="AE13" s="7">
         <v>4</v>
       </c>
-      <c r="AF13" s="7">
-        <v>2</v>
-      </c>
+      <c r="AF13" s="7"/>
       <c r="AG13" s="7">
         <v>5</v>
       </c>
-      <c r="AH13" s="7"/>
+      <c r="AH13" s="7">
+        <v>-2</v>
+      </c>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
@@ -3169,32 +3189,32 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f>COUNT(B13:AY13)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="BD13" s="8">
-        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE13" s="8">
-        <f>COUNTIF($B13:$AY13, "0")</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="BF13" s="8">
-        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG13" s="8">
-        <f>SUM(BD13*3)+BE13</f>
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="BH13" s="8">
-        <f>SUM(B13:AY13)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="BI13" s="10">
-        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.48333333333333334</v>
+        <f t="shared" si="6"/>
+        <v>0.45454545454545453</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
@@ -3212,13 +3232,13 @@
         <v>-9</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>-1</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="51"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="7">
         <v>7</v>
       </c>
@@ -3240,13 +3260,13 @@
       <c r="O14" s="7">
         <v>1</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="45">
         <v>-2</v>
       </c>
       <c r="Q14" s="7">
         <v>-3</v>
       </c>
-      <c r="R14" s="51"/>
+      <c r="R14" s="50"/>
       <c r="S14" s="7">
         <v>2</v>
       </c>
@@ -3269,11 +3289,11 @@
       <c r="Z14" s="7">
         <v>2</v>
       </c>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="46">
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="45">
         <v>-1</v>
       </c>
-      <c r="AC14" s="66"/>
+      <c r="AC14" s="65"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7">
         <v>-4</v>
@@ -3282,7 +3302,9 @@
       <c r="AG14" s="7">
         <v>-5</v>
       </c>
-      <c r="AH14" s="7"/>
+      <c r="AH14" s="7">
+        <v>-2</v>
+      </c>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
@@ -3304,32 +3326,32 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f>COUNT(B14:AY14)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="BD14" s="8">
-        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE14" s="8">
-        <f>COUNTIF($B14:$AY14, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF14" s="8">
-        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="BG14" s="8">
-        <f>SUM(BD14*3)+BE14</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="BH14" s="8">
-        <f>SUM(B14:AY14)</f>
-        <v>-12</v>
+        <f t="shared" si="5"/>
+        <v>-14</v>
       </c>
       <c r="BI14" s="10">
-        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.3888888888888889</v>
+        <f t="shared" si="6"/>
+        <v>0.37333333333333335</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
@@ -3353,7 +3375,7 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="7">
         <v>-7</v>
       </c>
@@ -3361,7 +3383,7 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="45">
         <v>2</v>
       </c>
       <c r="M15" s="7">
@@ -3377,10 +3399,10 @@
         <v>2</v>
       </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="51"/>
+      <c r="R15" s="50"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="46">
+      <c r="U15" s="45">
         <v>-4</v>
       </c>
       <c r="V15" s="7">
@@ -3398,9 +3420,9 @@
       <c r="Z15" s="7">
         <v>2</v>
       </c>
-      <c r="AA15" s="51"/>
+      <c r="AA15" s="50"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="66"/>
+      <c r="AC15" s="65"/>
       <c r="AD15" s="7">
         <v>0</v>
       </c>
@@ -3410,10 +3432,12 @@
       <c r="AF15" s="7">
         <v>2</v>
       </c>
-      <c r="AG15" s="46">
+      <c r="AG15" s="45">
         <v>-5</v>
       </c>
-      <c r="AH15" s="7"/>
+      <c r="AH15" s="7">
+        <v>-2</v>
+      </c>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
@@ -3435,110 +3459,104 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f>COUNT(B15:AY15)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="BD15" s="8">
-        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE15" s="8">
-        <f>COUNTIF($B15:$AY15, "0")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BF15" s="8">
-        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BG15" s="8">
-        <f>SUM(BD15*3)+BE15</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="BH15" s="8">
-        <f>SUM(B15:AY15)</f>
-        <v>-17</v>
+        <f t="shared" si="5"/>
+        <v>-19</v>
       </c>
       <c r="BI15" s="10">
-        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.40909090909090912</v>
+        <f t="shared" si="6"/>
+        <v>0.39130434782608697</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="46">
-        <v>-1</v>
+        <v>78</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
       </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
       <c r="D16" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="7">
         <v>-1</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="45">
+        <v>7</v>
+      </c>
+      <c r="J16" s="7">
+        <v>-8</v>
+      </c>
       <c r="K16" s="7">
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>2</v>
-      </c>
-      <c r="M16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="46">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7">
         <v>-2</v>
       </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7">
         <v>3</v>
       </c>
-      <c r="R16" s="51"/>
-      <c r="S16" s="7">
+      <c r="R16" s="50"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7">
         <v>-2</v>
       </c>
-      <c r="T16" s="7">
-        <v>1</v>
-      </c>
-      <c r="U16" s="7">
-        <v>4</v>
-      </c>
-      <c r="V16" s="7">
-        <v>8</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
+      <c r="AH16" s="7">
+        <v>2</v>
+      </c>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
@@ -3560,79 +3578,87 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f>COUNT(B16:AY16)</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="BD16" s="8">
-        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE16" s="8">
-        <f>COUNTIF($B16:$AY16, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF16" s="8">
-        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG16" s="8">
-        <f>SUM(BD16*3)+BE16</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="BH16" s="8">
-        <f>SUM(B16:AY16)</f>
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="BI16" s="10">
-        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.43859649122807015</v>
+        <f t="shared" si="6"/>
+        <v>0.52083333333333337</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="7">
+        <v>106</v>
+      </c>
+      <c r="B17" s="45">
         <v>-1</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="7">
         <v>-9</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-1</v>
+      </c>
       <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="H17" s="51"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="46">
-        <v>-8</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>2</v>
+      </c>
       <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="45">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q17" s="7">
         <v>3</v>
       </c>
-      <c r="R17" s="51"/>
+      <c r="R17" s="50"/>
       <c r="S17" s="7">
         <v>-2</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="46">
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7">
         <v>4</v>
       </c>
       <c r="V17" s="7">
@@ -3644,23 +3670,17 @@
       <c r="X17" s="7">
         <v>-5</v>
       </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AA17" s="51"/>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="50"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="46">
-        <v>-4</v>
-      </c>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="7">
-        <v>5</v>
-      </c>
+      <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
@@ -3683,69 +3703,63 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f>COUNT(B17:AY17)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="BD17" s="8">
-        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE17" s="8">
-        <f>COUNTIF($B17:$AY17, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF17" s="8">
-        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG17" s="8">
-        <f>SUM(BD17*3)+BE17</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="BH17" s="8">
-        <f>SUM(B17:AY17)</f>
-        <v>-8</v>
+        <f t="shared" si="5"/>
+        <v>-2</v>
       </c>
       <c r="BI17" s="10">
-        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.46296296296296297</v>
+        <f t="shared" si="6"/>
+        <v>0.43859649122807015</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C18" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="46">
-        <v>7</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="H18" s="50"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="45">
         <v>-8</v>
       </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
       <c r="N18" s="7">
         <v>0</v>
       </c>
@@ -3756,29 +3770,43 @@
       <c r="Q18" s="7">
         <v>3</v>
       </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="7"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="7">
+        <v>-2</v>
+      </c>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+      <c r="U18" s="45">
+        <v>4</v>
+      </c>
+      <c r="V18" s="7">
+        <v>8</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="46">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="66"/>
+      <c r="Z18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="65"/>
       <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7">
+      <c r="AE18" s="45">
+        <v>-4</v>
+      </c>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="7">
         <v>-2</v>
       </c>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
@@ -3800,32 +3828,32 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f>COUNT(B18:AY18)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="BD18" s="8">
-        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="BE18" s="8">
-        <f>COUNTIF($B18:$AY18, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF18" s="8">
-        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG18" s="8">
-        <f>SUM(BD18*3)+BE18</f>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="BH18" s="8">
-        <f>SUM(B18:AY18)</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>-10</v>
       </c>
       <c r="BI18" s="10">
-        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.48888888888888887</v>
+        <f t="shared" si="6"/>
+        <v>0.43859649122807015</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
@@ -3845,7 +3873,7 @@
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="51"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -3854,14 +3882,14 @@
         <v>1</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>-1</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7">
         <v>-3</v>
       </c>
-      <c r="R19" s="51"/>
+      <c r="R19" s="50"/>
       <c r="S19" s="7">
         <v>2</v>
       </c>
@@ -3878,15 +3906,15 @@
         <v>0</v>
       </c>
       <c r="X19" s="7"/>
-      <c r="Y19" s="46">
+      <c r="Y19" s="45">
         <v>0</v>
       </c>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="51"/>
+      <c r="AA19" s="50"/>
       <c r="AB19" s="7">
         <v>1</v>
       </c>
-      <c r="AC19" s="66"/>
+      <c r="AC19" s="65"/>
       <c r="AD19" s="7">
         <v>0</v>
       </c>
@@ -3915,31 +3943,31 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f>COUNT(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="BD19" s="8">
-        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE19" s="8">
-        <f>COUNTIF($B19:$AY19, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF19" s="8">
-        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BG19" s="8">
-        <f>SUM(BD19*3)+BE19</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="BH19" s="8">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BI19" s="10">
-        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
+        <f t="shared" si="6"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="BJ19" s="10"/>
@@ -3954,12 +3982,12 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
         <v>-8</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="45">
         <v>0</v>
       </c>
       <c r="L20" s="7"/>
@@ -3972,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="7"/>
-      <c r="R20" s="51"/>
+      <c r="R20" s="50"/>
       <c r="S20" s="7">
         <v>2</v>
       </c>
@@ -3987,24 +4015,24 @@
       <c r="X20" s="7">
         <v>5</v>
       </c>
-      <c r="Y20" s="46">
+      <c r="Y20" s="45">
         <v>0</v>
       </c>
       <c r="Z20" s="7">
         <v>2</v>
       </c>
-      <c r="AA20" s="51"/>
+      <c r="AA20" s="50"/>
       <c r="AB20" s="7">
         <v>-1</v>
       </c>
-      <c r="AC20" s="66"/>
+      <c r="AC20" s="65"/>
       <c r="AD20" s="7">
         <v>0</v>
       </c>
       <c r="AE20" s="7">
         <v>4</v>
       </c>
-      <c r="AF20" s="46">
+      <c r="AF20" s="45">
         <v>-2</v>
       </c>
       <c r="AG20" s="7">
@@ -4032,31 +4060,31 @@
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f>COUNT(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="BD20" s="8">
-        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE20" s="8">
-        <f>COUNTIF($B20:$AY20, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF20" s="8">
-        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG20" s="8">
-        <f>SUM(BD20*3)+BE20</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="BH20" s="8">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BI20" s="10">
-        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
+        <f t="shared" si="6"/>
         <v>0.48888888888888887</v>
       </c>
       <c r="BJ20" s="10"/>
@@ -4080,10 +4108,10 @@
       <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="46">
-        <v>0</v>
-      </c>
-      <c r="H21" s="51"/>
+      <c r="G21" s="45">
+        <v>0</v>
+      </c>
+      <c r="H21" s="50"/>
       <c r="I21" s="7">
         <v>-7</v>
       </c>
@@ -4095,8 +4123,8 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="46">
+      <c r="R21" s="50"/>
+      <c r="S21" s="45">
         <v>2</v>
       </c>
       <c r="T21" s="7">
@@ -4118,11 +4146,11 @@
       <c r="Z21" s="7">
         <v>-2</v>
       </c>
-      <c r="AA21" s="51"/>
+      <c r="AA21" s="50"/>
       <c r="AB21" s="7">
         <v>-1</v>
       </c>
-      <c r="AC21" s="66"/>
+      <c r="AC21" s="65"/>
       <c r="AD21" s="7">
         <v>0</v>
       </c>
@@ -4130,7 +4158,7 @@
         <v>4</v>
       </c>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="46">
+      <c r="AG21" s="45">
         <v>5</v>
       </c>
       <c r="AH21" s="7"/>
@@ -4155,31 +4183,31 @@
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f>COUNT(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="BD21" s="8">
-        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE21" s="8">
-        <f>COUNTIF($B21:$AY21, "0")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF21" s="8">
-        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="BG21" s="8">
-        <f>SUM(BD21*3)+BE21</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="BH21" s="8">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="5"/>
         <v>-10</v>
       </c>
       <c r="BI21" s="10">
-        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
+        <f t="shared" si="6"/>
         <v>0.40740740740740738</v>
       </c>
       <c r="BJ21" s="10"/>
@@ -4193,14 +4221,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="46">
+      <c r="E22" s="45">
         <v>1</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="7">
         <v>-7</v>
       </c>
@@ -4214,7 +4242,7 @@
         <v>-2</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="51"/>
+      <c r="R22" s="50"/>
       <c r="S22" s="7">
         <v>2</v>
       </c>
@@ -4226,25 +4254,27 @@
       <c r="W22" s="7">
         <v>0</v>
       </c>
-      <c r="X22" s="46">
+      <c r="X22" s="45">
         <v>5</v>
       </c>
       <c r="Y22" s="7">
         <v>0</v>
       </c>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="51"/>
+      <c r="AA22" s="50"/>
       <c r="AB22" s="7">
         <v>-1</v>
       </c>
-      <c r="AC22" s="66"/>
+      <c r="AC22" s="65"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7">
         <v>-4</v>
       </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
+      <c r="AH22" s="7">
+        <v>-2</v>
+      </c>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
@@ -4266,32 +4296,32 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f>COUNT(B22:AY22)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="BD22" s="8">
-        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE22" s="8">
-        <f>COUNTIF($B22:$AY22, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF22" s="8">
-        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BG22" s="8">
-        <f>SUM(BD22*3)+BE22</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="BH22" s="8">
-        <f>SUM(B22:AY22)</f>
-        <v>-3</v>
+        <f t="shared" si="5"/>
+        <v>-5</v>
       </c>
       <c r="BI22" s="10">
-        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="6"/>
+        <v>0.51282051282051277</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
@@ -4299,10 +4329,10 @@
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="56">
-        <v>1</v>
-      </c>
-      <c r="C23" s="46">
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="45">
         <v>-1</v>
       </c>
       <c r="D23" s="7">
@@ -4315,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7">
         <v>-8</v>
@@ -4330,10 +4360,10 @@
       <c r="P23" s="7">
         <v>-2</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="45">
         <v>-3</v>
       </c>
-      <c r="R23" s="51"/>
+      <c r="R23" s="50"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -4346,11 +4376,11 @@
       <c r="Z23" s="7">
         <v>-2</v>
       </c>
-      <c r="AA23" s="51"/>
+      <c r="AA23" s="50"/>
       <c r="AB23" s="7">
         <v>1</v>
       </c>
-      <c r="AC23" s="66"/>
+      <c r="AC23" s="65"/>
       <c r="AD23" s="7">
         <v>0</v>
       </c>
@@ -4371,7 +4401,7 @@
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
-      <c r="AR23" s="56"/>
+      <c r="AR23" s="55"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -4384,31 +4414,31 @@
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f>COUNT(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="BD23" s="8">
-        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE23" s="8">
-        <f>COUNTIF($B23:$AY23, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF23" s="8">
-        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="BG23" s="8">
-        <f>SUM(BD23*3)+BE23</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="BH23" s="8">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="5"/>
         <v>-21</v>
       </c>
       <c r="BI23" s="10">
-        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ23" s="10"/>
@@ -4423,7 +4453,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -4439,13 +4469,13 @@
       <c r="O24" s="7">
         <v>-1</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="45">
         <v>2</v>
       </c>
       <c r="Q24" s="7">
         <v>-3</v>
       </c>
-      <c r="R24" s="51"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="7">
         <v>2</v>
       </c>
@@ -4457,16 +4487,16 @@
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="46">
+      <c r="X24" s="45">
         <v>-5</v>
       </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7">
         <v>2</v>
       </c>
-      <c r="AA24" s="51"/>
+      <c r="AA24" s="50"/>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="66"/>
+      <c r="AC24" s="65"/>
       <c r="AD24" s="7">
         <v>0</v>
       </c>
@@ -4495,38 +4525,38 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f>COUNT(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="BD24" s="8">
-        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE24" s="8">
-        <f>COUNTIF($B24:$AY24, "0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BF24" s="8">
-        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BG24" s="8">
-        <f>SUM(BD24*3)+BE24</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="BH24" s="8">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="5"/>
         <v>-6</v>
       </c>
       <c r="BI24" s="10">
-        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
+        <f t="shared" si="6"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4534,7 +4564,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -4544,13 +4574,13 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="51"/>
+      <c r="R25" s="50"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7">
-        <v>4</v>
-      </c>
-      <c r="V25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="45">
+        <v>-8</v>
+      </c>
       <c r="W25" s="7">
         <v>0</v>
       </c>
@@ -4558,21 +4588,25 @@
         <v>5</v>
       </c>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="66"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="65"/>
       <c r="AD25" s="7">
         <v>0</v>
       </c>
       <c r="AE25" s="7">
         <v>-4</v>
       </c>
-      <c r="AF25" s="7"/>
+      <c r="AF25" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
+      <c r="AH25" s="7">
+        <v>2</v>
+      </c>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -4594,46 +4628,50 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f>COUNT(B25:AY25)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="BD25" s="8">
-        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="BE25" s="8">
-        <f>COUNTIF($B25:$AY25, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF25" s="8">
-        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="BG25" s="8">
-        <f>SUM(BD25*3)+BE25</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="BH25" s="8">
-        <f>SUM(B25:AY25)</f>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>-6</v>
       </c>
       <c r="BI25" s="10">
-        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="6"/>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <v>9</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -4643,37 +4681,25 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="51"/>
+      <c r="R26" s="50"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="46">
-        <v>-8</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7">
-        <v>5</v>
-      </c>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF26" s="7">
-        <v>-2</v>
-      </c>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
+      <c r="AH26" s="7">
+        <v>2</v>
+      </c>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
@@ -4695,93 +4721,81 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f>COUNT(B26:AY26)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="BD26" s="8">
-        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="BE26" s="8">
-        <f>COUNTIF($B26:$AY26, "0")</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="BF26" s="8">
-        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="BG26" s="8">
-        <f>SUM(BD26*3)+BE26</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="BH26" s="8">
-        <f>SUM(B26:AY26)</f>
-        <v>-8</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="BI26" s="10">
-        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.38095238095238093</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="46">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="51"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="46">
-        <v>-1</v>
-      </c>
+      <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P27" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>3</v>
-      </c>
-      <c r="R27" s="51"/>
-      <c r="S27" s="7">
-        <v>-2</v>
-      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7">
+        <v>4</v>
+      </c>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+      <c r="X27" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="7">
         <v>-4</v>
       </c>
-      <c r="V27" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
@@ -4806,75 +4820,91 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f>COUNT(B27:AY27)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="BD27" s="8">
-        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE27" s="8">
-        <f>COUNTIF($B27:$AY27, "0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BF27" s="8">
-        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BG27" s="8">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="BG27" s="8">
-        <f>SUM(BD27*3)+BE27</f>
-        <v>8</v>
-      </c>
       <c r="BH27" s="8">
-        <f>SUM(B27:AY27)</f>
-        <v>-20</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="BI27" s="10">
-        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
-        <v>0.22222222222222221</v>
+        <f t="shared" si="6"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="51"/>
+      <c r="E28" s="45">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="50"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="45">
+        <v>-1</v>
+      </c>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="51"/>
+      <c r="O28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>3</v>
+      </c>
+      <c r="R28" s="50"/>
       <c r="S28" s="7">
-        <v>2</v>
-      </c>
-      <c r="T28" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U28" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7">
+        <v>-4</v>
+      </c>
       <c r="V28" s="7">
-        <v>8</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
+        <v>-8</v>
+      </c>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>0</v>
+      </c>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="51"/>
+      <c r="AA28" s="50"/>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="66"/>
+      <c r="AC28" s="65"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
@@ -4901,56 +4931,46 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f>COUNT(B28:AY28)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="BD28" s="8">
-        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE28" s="8">
-        <f>COUNTIF($B28:$AY28, "0")</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="BF28" s="8">
-        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="BG28" s="8">
-        <f>SUM(BD28*3)+BE28</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="BH28" s="8">
-        <f>SUM(B28:AY28)</f>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>-20</v>
       </c>
       <c r="BI28" s="10">
-        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="6"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D29" s="46">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7">
-        <v>-1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="51"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -4960,18 +4980,26 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="7">
+        <v>2</v>
+      </c>
+      <c r="T29" s="7">
+        <v>-1</v>
+      </c>
       <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="V29" s="7">
+        <v>8</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="51"/>
+      <c r="AA29" s="50"/>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="66"/>
+      <c r="AC29" s="65"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
@@ -4998,48 +5026,56 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f>COUNT(B29:AY29)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="BD29" s="8">
-        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE29" s="8">
-        <f>COUNTIF($B29:$AY29, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF29" s="8">
-        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BG29" s="8">
-        <f>SUM(BD29*3)+BE29</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH29" s="8">
-        <f>SUM(B29:AY29)</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="BI29" s="10">
-        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="C30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="45">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7">
+        <v>-1</v>
+      </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="51"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="50"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -5049,30 +5085,20 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="51"/>
+      <c r="R30" s="50"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W30" s="7">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7">
-        <v>-5</v>
-      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AA30" s="51"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="50"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="66"/>
+      <c r="AC30" s="65"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="7">
-        <v>4</v>
-      </c>
+      <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
@@ -5097,50 +5123,48 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f>COUNT(B30:AY30)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="BD30" s="8">
-        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE30" s="8">
-        <f>COUNTIF($B30:$AY30, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF30" s="8">
-        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="BG30" s="8">
-        <f>SUM(BD30*3)+BE30</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BH30" s="8">
-        <f>SUM(B30:AY30)</f>
-        <v>-10</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="BI30" s="10">
-        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
-        <v>0.3888888888888889</v>
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="7">
-        <v>9</v>
-      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -5150,20 +5174,30 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="51"/>
+      <c r="R31" s="50"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
+      <c r="V31" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="51"/>
+      <c r="Z31" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AA31" s="50"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="66"/>
+      <c r="AC31" s="65"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
+      <c r="AE31" s="7">
+        <v>4</v>
+      </c>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
@@ -5188,32 +5222,32 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f>COUNT(B31:AY31)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="BD31" s="8">
-        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE31" s="8">
-        <f>COUNTIF($B31:$AY31, "0")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF31" s="8">
-        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="BG31" s="8">
-        <f>SUM(BD31*3)+BE31</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="BH31" s="8">
-        <f>SUM(B31:AY31)</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>-10</v>
       </c>
       <c r="BI31" s="10">
-        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.3888888888888889</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
@@ -5229,7 +5263,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="51"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7">
@@ -5241,7 +5275,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="51"/>
+      <c r="R32" s="50"/>
       <c r="S32" s="7">
         <v>-2</v>
       </c>
@@ -5252,9 +5286,9 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="51"/>
+      <c r="AA32" s="50"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="66"/>
+      <c r="AC32" s="65"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
@@ -5281,31 +5315,31 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f>COUNT(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BD32" s="8">
-        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE32" s="8">
-        <f>COUNTIF($B32:$AY32, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF32" s="8">
-        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG32" s="8">
-        <f>SUM(BD32*3)+BE32</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH32" s="8">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI32" s="10">
-        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ32" s="10"/>
@@ -5320,13 +5354,13 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7">
         <v>0</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="45">
         <v>-2</v>
       </c>
       <c r="M33" s="7">
@@ -5338,7 +5372,7 @@
       <c r="Q33" s="7">
         <v>3</v>
       </c>
-      <c r="R33" s="51"/>
+      <c r="R33" s="50"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -5349,9 +5383,9 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
-      <c r="AA33" s="51"/>
+      <c r="AA33" s="50"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="66"/>
+      <c r="AC33" s="65"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
@@ -5378,31 +5412,31 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f>COUNT(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BD33" s="8">
-        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE33" s="8">
-        <f>COUNTIF($B33:$AY33, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF33" s="8">
-        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG33" s="8">
-        <f>SUM(BD33*3)+BE33</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BH33" s="8">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="5"/>
         <v>-8</v>
       </c>
       <c r="BI33" s="10">
-        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
+        <f t="shared" si="6"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="BJ33" s="10"/>
@@ -5417,7 +5451,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -5427,7 +5461,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="51"/>
+      <c r="R34" s="50"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -5438,9 +5472,9 @@
         <v>0</v>
       </c>
       <c r="Z34" s="7"/>
-      <c r="AA34" s="51"/>
+      <c r="AA34" s="50"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="66"/>
+      <c r="AC34" s="65"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
@@ -5467,31 +5501,31 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f>COUNT(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD34" s="8">
-        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE34" s="8">
-        <f>COUNTIF($B34:$AY34, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF34" s="8">
-        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG34" s="8">
-        <f>SUM(BD34*3)+BE34</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BH34" s="8">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI34" s="10">
-        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ34" s="10"/>
@@ -5506,7 +5540,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="50"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -5516,7 +5550,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="51"/>
+      <c r="R35" s="50"/>
       <c r="S35" s="7">
         <v>-2</v>
       </c>
@@ -5529,9 +5563,9 @@
         <v>0</v>
       </c>
       <c r="Z35" s="7"/>
-      <c r="AA35" s="51"/>
+      <c r="AA35" s="50"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="66"/>
+      <c r="AC35" s="65"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
@@ -5558,31 +5592,31 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f>COUNT(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BD35" s="8">
-        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE35" s="8">
-        <f>COUNTIF($B35:$AY35, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF35" s="8">
-        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG35" s="8">
-        <f>SUM(BD35*3)+BE35</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BH35" s="8">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="BI35" s="10">
-        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="BJ35" s="10"/>
@@ -5597,7 +5631,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -5609,7 +5643,7 @@
       <c r="Q36" s="7">
         <v>-3</v>
       </c>
-      <c r="R36" s="51"/>
+      <c r="R36" s="50"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7">
@@ -5622,9 +5656,9 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
-      <c r="AA36" s="51"/>
+      <c r="AA36" s="50"/>
       <c r="AB36" s="7"/>
-      <c r="AC36" s="66"/>
+      <c r="AC36" s="65"/>
       <c r="AD36" s="7">
         <v>0</v>
       </c>
@@ -5653,31 +5687,31 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f>COUNT(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BD36" s="8">
-        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE36" s="8">
-        <f>COUNTIF($B36:$AY36, "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BF36" s="8">
-        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG36" s="8">
-        <f>SUM(BD36*3)+BE36</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BH36" s="8">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="5"/>
         <v>-15</v>
       </c>
       <c r="BI36" s="10">
-        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="BJ36" s="10"/>
@@ -5692,7 +5726,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -5702,7 +5736,7 @@
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="51"/>
+      <c r="R37" s="50"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7">
         <v>-1</v>
@@ -5713,9 +5747,9 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
-      <c r="AA37" s="51"/>
+      <c r="AA37" s="50"/>
       <c r="AB37" s="7"/>
-      <c r="AC37" s="66"/>
+      <c r="AC37" s="65"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
@@ -5742,31 +5776,31 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f>COUNT(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD37" s="8">
-        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f>COUNTIF($B37:$AY37, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF37" s="8">
-        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f>SUM(BD37*3)+BE37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH37" s="8">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI37" s="10">
-        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="10"/>
@@ -5781,7 +5815,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="51"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -5791,7 +5825,7 @@
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="51"/>
+      <c r="R38" s="50"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7">
         <v>-1</v>
@@ -5802,9 +5836,9 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
-      <c r="AA38" s="51"/>
+      <c r="AA38" s="50"/>
       <c r="AB38" s="7"/>
-      <c r="AC38" s="66"/>
+      <c r="AC38" s="65"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
@@ -5831,31 +5865,31 @@
         <v>34</v>
       </c>
       <c r="BC38" s="8">
-        <f>COUNT(B38:AY38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD38" s="8">
-        <f>COUNTIF($B38:$AY38, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE38" s="8">
-        <f>COUNTIF($B38:$AY38, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF38" s="8">
-        <f>COUNTIF($B38:$AY38, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG38" s="8">
-        <f>SUM(BD38*3)+BE38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH38" s="8">
-        <f>SUM(B38:AY38)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="BI38" s="10">
-        <f>SUM(BD38*3+BE38*1)/SUM(BC38*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ38" s="10"/>
@@ -5866,13 +5900,13 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="46">
+      <c r="D39" s="45">
         <v>-9</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="50"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -5882,7 +5916,7 @@
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="51"/>
+      <c r="R39" s="50"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -5891,9 +5925,9 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
-      <c r="AA39" s="51"/>
+      <c r="AA39" s="50"/>
       <c r="AB39" s="7"/>
-      <c r="AC39" s="66"/>
+      <c r="AC39" s="65"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
@@ -5920,31 +5954,31 @@
         <v>35</v>
       </c>
       <c r="BC39" s="8">
-        <f>COUNT(B39:AY39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BD39" s="8">
-        <f>COUNTIF($B39:$AY39, "&gt;=1")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE39" s="8">
-        <f>COUNTIF($B39:$AY39, "0")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BF39" s="8">
-        <f>COUNTIF($B39:$AY39, "&lt;0")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BG39" s="8">
-        <f>SUM(BD39*3)+BE39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH39" s="8">
-        <f>SUM(B39:AY39)</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="BI39" s="10">
-        <f>SUM(BD39*3+BE39*1)/SUM(BC39*3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ39" s="10"/>
@@ -5954,87 +5988,87 @@
         <v>43</v>
       </c>
       <c r="B40" s="27">
-        <f t="shared" ref="B40:AD40" si="0">COUNT(B5:B39)</f>
+        <f t="shared" ref="B40:AD40" si="7">COUNT(B5:B39)</f>
         <v>16</v>
       </c>
       <c r="C40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="D40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="F40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="G40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="L40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="N40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="O40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="Q40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="T40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="U40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="V40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="W40" s="27">
@@ -6042,115 +6076,115 @@
         <v>20</v>
       </c>
       <c r="X40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Y40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="Z40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AA40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AC40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD40" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AE40" s="27">
-        <f t="shared" ref="AE40:AY40" si="1">COUNT(AE5:AE39)</f>
+        <f t="shared" ref="AE40:AY40" si="8">COUNT(AE5:AE39)</f>
         <v>18</v>
       </c>
       <c r="AF40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AG40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AH40" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="AI40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AV40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY40" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BC40" s="8"/>
@@ -6254,7 +6288,9 @@
       <c r="AG41" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="AH41" s="13"/>
+      <c r="AH41" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
@@ -6284,12 +6320,12 @@
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -6347,7 +6383,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="43"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -6386,8 +6422,8 @@
       <c r="BJ43" s="10"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -6407,17 +6443,17 @@
       <c r="A45" s="11"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="J48" s="42"/>
-      <c r="L48" s="42"/>
+      <c r="J48" s="41"/>
+      <c r="L48" s="41"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L49" s="42"/>
+      <c r="L49" s="41"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J50" s="42"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L51" s="42"/>
+      <c r="L51" s="41"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
@@ -6465,7 +6501,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="41"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
@@ -6492,9 +6528,9 @@
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="41"/>
+      <c r="D62" s="40"/>
       <c r="E62" s="8"/>
-      <c r="G62" s="41"/>
+      <c r="G62" s="40"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="8"/>
@@ -6547,7 +6583,7 @@
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="41"/>
+      <c r="D69" s="40"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -6608,12 +6644,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G27"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -6649,48 +6686,62 @@
       <c r="A3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="62">
         <v>3</v>
       </c>
-      <c r="C3" s="63">
-        <v>2</v>
-      </c>
-      <c r="D3" s="63">
-        <v>1</v>
-      </c>
-      <c r="E3" s="63">
-        <v>0</v>
-      </c>
-      <c r="F3" s="63">
+      <c r="C3" s="62">
+        <v>2</v>
+      </c>
+      <c r="D3" s="62">
+        <v>1</v>
+      </c>
+      <c r="E3" s="62">
+        <v>0</v>
+      </c>
+      <c r="F3" s="62">
         <v>7</v>
       </c>
-      <c r="G3" s="63">
-        <f>SUM(C3*3)+D3</f>
+      <c r="G3" s="62">
+        <f t="shared" ref="G3:G27" si="0">SUM(C3*3)+D3</f>
         <v>7</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3" s="69">
+        <f>K3/B3</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="70">
-        <v>2</v>
-      </c>
-      <c r="D4" s="70">
-        <v>1</v>
-      </c>
-      <c r="E4" s="70">
-        <v>0</v>
-      </c>
-      <c r="F4" s="70">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="70">
-        <f>SUM(C4*3)+D4</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="1">SUM(C4*3)+D4</f>
         <v>7</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="L4" s="69">
+        <f t="shared" ref="L4:L27" si="2">K4/B4</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6713,61 +6764,82 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <f>SUM(C5*3)+D5</f>
+        <f t="shared" si="1"/>
         <v>7</v>
+      </c>
+      <c r="K5">
+        <v>27</v>
+      </c>
+      <c r="L5" s="69">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="63">
+        <v>79</v>
+      </c>
+      <c r="B6" s="62">
         <v>3</v>
       </c>
-      <c r="C6" s="63">
-        <v>2</v>
-      </c>
-      <c r="D6" s="63">
-        <v>0</v>
-      </c>
-      <c r="E6" s="63">
-        <v>1</v>
-      </c>
-      <c r="F6" s="63">
-        <v>10</v>
-      </c>
-      <c r="G6" s="63">
-        <f>SUM(C6*3)+D6</f>
-        <v>6</v>
+      <c r="C6" s="62">
+        <v>2</v>
+      </c>
+      <c r="D6" s="62">
+        <v>1</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0</v>
+      </c>
+      <c r="F6" s="62">
+        <v>3</v>
+      </c>
+      <c r="G6" s="62">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+      <c r="L6" s="69">
+        <f t="shared" si="2"/>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="70">
-        <v>2</v>
-      </c>
-      <c r="C7" s="70">
-        <v>2</v>
-      </c>
-      <c r="D7" s="70">
-        <v>0</v>
-      </c>
-      <c r="E7" s="70">
-        <v>0</v>
-      </c>
-      <c r="F7" s="70">
-        <v>9</v>
-      </c>
-      <c r="G7" s="70">
-        <f>SUM(C7*3)+D7</f>
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7" s="69">
+        <f t="shared" si="2"/>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -6785,13 +6857,20 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <f>SUM(C8*3)+D8</f>
+        <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8" s="69">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6806,50 +6885,64 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G9">
-        <f>SUM(C9*3)+D9</f>
-        <v>6</v>
+      <c r="K9">
+        <v>13</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <f>SUM(C10*3)+D10</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="H10" s="23"/>
+      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="L10" s="69">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6858,8 +6951,15 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>SUM(C11*3)+D11</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>21</v>
+      </c>
+      <c r="L11" s="69">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6882,8 +6982,15 @@
         <v>-4</v>
       </c>
       <c r="G12">
-        <f>SUM(C12*3)+D12</f>
+        <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12" s="69">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6906,10 +7013,17 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <f>SUM(C13*3)+D13</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H13" s="23"/>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="69">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -6931,8 +7045,15 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>SUM(C14*3)+D14</f>
+        <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="L14" s="69">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6955,8 +7076,15 @@
         <v>-3</v>
       </c>
       <c r="G15">
-        <f>SUM(C15*3)+D15</f>
+        <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15" s="69">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6979,11 +7107,18 @@
         <v>-7</v>
       </c>
       <c r="G16">
-        <f>SUM(C16*3)+D16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="L16" s="69">
+        <f t="shared" si="2"/>
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>85</v>
       </c>
@@ -7003,12 +7138,18 @@
         <v>-8</v>
       </c>
       <c r="G17">
-        <f>SUM(C17*3)+D17</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="36">
+        <v>19</v>
+      </c>
+      <c r="L17" s="69">
+        <f t="shared" si="2"/>
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
@@ -7028,12 +7169,18 @@
         <v>-2</v>
       </c>
       <c r="G18">
-        <f>SUM(C18*3)+D18</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K18" s="36">
+        <v>15</v>
+      </c>
+      <c r="L18" s="69">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>107</v>
       </c>
@@ -7053,12 +7200,18 @@
         <v>-1</v>
       </c>
       <c r="G19">
-        <f>SUM(C19*3)+D19</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="36">
+        <v>22</v>
+      </c>
+      <c r="L19" s="69">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>108</v>
       </c>
@@ -7078,17 +7231,23 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <f>SUM(C20*3)+D20</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="68">
+        <v>14</v>
+      </c>
+      <c r="L20" s="69">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -7097,18 +7256,24 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G21">
-        <f>SUM(C21*3)+D21</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="36">
+        <v>25</v>
+      </c>
+      <c r="L21" s="69">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
@@ -7128,12 +7293,18 @@
         <v>-2</v>
       </c>
       <c r="G22">
-        <f>SUM(C22*3)+D22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="36">
+        <v>5</v>
+      </c>
+      <c r="L22" s="69">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -7153,12 +7324,18 @@
         <v>-2</v>
       </c>
       <c r="G23">
-        <f>SUM(C23*3)+D23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="36">
+        <v>12</v>
+      </c>
+      <c r="L23" s="69">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
@@ -7178,12 +7355,18 @@
         <v>-4</v>
       </c>
       <c r="G24">
-        <f>SUM(C24*3)+D24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="36">
+        <v>15</v>
+      </c>
+      <c r="L24" s="69">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -7203,11 +7386,18 @@
         <v>-4</v>
       </c>
       <c r="G25">
-        <f>SUM(C25*3)+D25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>25</v>
+      </c>
+      <c r="L25" s="69">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
@@ -7227,11 +7417,18 @@
         <v>-8</v>
       </c>
       <c r="G26">
-        <f>SUM(C26*3)+D26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="36">
+        <v>8</v>
+      </c>
+      <c r="L26" s="69">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>112</v>
       </c>
@@ -7251,88 +7448,119 @@
         <v>-9</v>
       </c>
       <c r="G27">
-        <f>SUM(C27*3)+D27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="36">
+        <v>1</v>
+      </c>
+      <c r="L27" s="69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G29" si="0">SUM(C28*3)+D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G28:G29" si="3">SUM(C28*3)+D28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="1">SUM(C30*3)+D30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G30:G35" si="4">SUM(C30*3)+D30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>84</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G27">
-    <sortCondition descending="1" ref="G3:G27"/>
-    <sortCondition descending="1" ref="F3:F27"/>
-    <sortCondition ref="B3:B27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G12">
+    <sortCondition descending="1" ref="G4:G12"/>
+    <sortCondition descending="1" ref="F4:F12"/>
+    <sortCondition ref="B4:B12"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7347,7 +7575,7 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3:BC35"/>
@@ -7542,7 +7770,7 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="51"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -7554,7 +7782,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="51"/>
+      <c r="R3" s="50"/>
       <c r="S3" s="7">
         <v>1</v>
       </c>
@@ -7573,11 +7801,11 @@
         <v>3</v>
       </c>
       <c r="Z3" s="7"/>
-      <c r="AA3" s="51"/>
+      <c r="AA3" s="50"/>
       <c r="AB3" s="7">
         <v>1</v>
       </c>
-      <c r="AC3" s="69"/>
+      <c r="AC3" s="67"/>
       <c r="AD3" s="7">
         <v>1</v>
       </c>
@@ -7628,7 +7856,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="51"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -7642,7 +7870,7 @@
       <c r="Q4" s="7">
         <v>3</v>
       </c>
-      <c r="R4" s="51"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7">
         <v>3</v>
@@ -7655,9 +7883,9 @@
         <v>1</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="51"/>
+      <c r="AA4" s="50"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="69"/>
+      <c r="AC4" s="67"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -7690,7 +7918,7 @@
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="7"/>
@@ -7703,7 +7931,7 @@
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7">
@@ -7721,7 +7949,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="51"/>
+      <c r="R5" s="50"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -7732,9 +7960,9 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="51"/>
+      <c r="AA5" s="50"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="69"/>
+      <c r="AC5" s="67"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7">
@@ -7785,7 +8013,7 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7">
@@ -7799,7 +8027,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="51"/>
+      <c r="R6" s="50"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7">
@@ -7816,9 +8044,9 @@
         <v>1</v>
       </c>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="51"/>
+      <c r="AA6" s="50"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="69"/>
+      <c r="AC6" s="67"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7">
         <v>2</v>
@@ -7867,7 +8095,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="51"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -7885,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="7"/>
-      <c r="R7" s="51"/>
+      <c r="R7" s="50"/>
       <c r="S7" s="7">
         <v>3</v>
       </c>
@@ -7900,9 +8128,9 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="51"/>
+      <c r="AA7" s="50"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="69"/>
+      <c r="AC7" s="67"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
@@ -7948,7 +8176,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -7964,7 +8192,7 @@
       <c r="Q8" s="7">
         <v>1</v>
       </c>
-      <c r="R8" s="51"/>
+      <c r="R8" s="50"/>
       <c r="S8" s="7">
         <v>1</v>
       </c>
@@ -7977,11 +8205,11 @@
       <c r="Z8" s="7">
         <v>2</v>
       </c>
-      <c r="AA8" s="51"/>
+      <c r="AA8" s="50"/>
       <c r="AB8" s="7">
         <v>1</v>
       </c>
-      <c r="AC8" s="69"/>
+      <c r="AC8" s="67"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7">
@@ -8030,7 +8258,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7">
         <v>1</v>
@@ -8052,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="51"/>
+      <c r="R9" s="50"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7">
         <v>1</v>
@@ -8067,11 +8295,11 @@
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="51"/>
+      <c r="AA9" s="50"/>
       <c r="AB9" s="7">
         <v>1</v>
       </c>
-      <c r="AC9" s="69"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
@@ -8116,7 +8344,7 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="51"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -8126,7 +8354,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="51"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7">
         <v>1</v>
@@ -8141,9 +8369,9 @@
         <v>1</v>
       </c>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="51"/>
+      <c r="AA10" s="50"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="69"/>
+      <c r="AC10" s="67"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7">
         <v>1</v>
@@ -8189,7 +8417,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="51"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="7">
         <v>1</v>
       </c>
@@ -8207,7 +8435,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="51"/>
+      <c r="R11" s="50"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7">
@@ -8222,9 +8450,9 @@
       <c r="Z11" s="7">
         <v>2</v>
       </c>
-      <c r="AA11" s="51"/>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="69"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7">
         <v>2</v>
@@ -8260,21 +8488,19 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -8284,7 +8510,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="51"/>
+      <c r="R12" s="50"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -8293,16 +8519,16 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="51"/>
+      <c r="AA12" s="50"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="7">
-        <v>1</v>
-      </c>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
+      <c r="AH12" s="7">
+        <v>2</v>
+      </c>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
@@ -8329,21 +8555,27 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12" s="23"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -8351,30 +8583,24 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>2</v>
-      </c>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="51"/>
+      <c r="R13" s="50"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="7">
-        <v>2</v>
-      </c>
-      <c r="X13" s="7">
-        <v>3</v>
-      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="51"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7">
-        <v>1</v>
-      </c>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
@@ -8398,27 +8624,26 @@
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
         <f>SUM(B13:AY13)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB13" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>4</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -8426,22 +8651,30 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7">
+        <v>2</v>
+      </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="51"/>
+      <c r="R14" s="50"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="W14" s="7">
+        <v>2</v>
+      </c>
+      <c r="X14" s="7">
+        <v>3</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="51"/>
+      <c r="AA14" s="50"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="69"/>
+      <c r="AC14" s="67"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="7">
+        <v>1</v>
+      </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
@@ -8465,12 +8698,9 @@
       <c r="AZ14" s="28"/>
       <c r="BA14" s="23">
         <f>SUM(B14:AY14)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -8488,7 +8718,7 @@
       <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="7">
         <v>2</v>
       </c>
@@ -8502,7 +8732,7 @@
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="51"/>
+      <c r="R15" s="50"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -8511,16 +8741,18 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="51"/>
+      <c r="AA15" s="50"/>
       <c r="AB15" s="7">
         <v>1</v>
       </c>
-      <c r="AC15" s="69"/>
+      <c r="AC15" s="67"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
+      <c r="AH15" s="7">
+        <v>1</v>
+      </c>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
@@ -8541,7 +8773,7 @@
       <c r="AZ15" s="28"/>
       <c r="BA15" s="23">
         <f>SUM(B15:AY15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC15" s="8">
         <v>1</v>
@@ -8549,51 +8781,57 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="7"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="7">
-        <v>1</v>
-      </c>
+      <c r="W16" s="7"/>
       <c r="X16" s="7">
         <v>1</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7">
+        <v>1</v>
+      </c>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="51"/>
+      <c r="AA16" s="50"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="69"/>
+      <c r="AC16" s="67"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7">
+        <v>1</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
+      <c r="AH16" s="7">
+        <v>1</v>
+      </c>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
@@ -8614,60 +8852,56 @@
       <c r="AZ16" s="28"/>
       <c r="BA16" s="23">
         <f>SUM(B16:AY16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="51"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
+      <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="7">
-        <v>1</v>
-      </c>
+      <c r="R17" s="50"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>1</v>
-      </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="51"/>
+      <c r="AA17" s="50"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="69"/>
+      <c r="AC17" s="67"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7">
         <v>1</v>
       </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
+      <c r="AH17" s="7">
+        <v>2</v>
+      </c>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
@@ -8690,52 +8924,55 @@
         <f>SUM(B17:AY17)</f>
         <v>7</v>
       </c>
+      <c r="BC17" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7">
-        <v>3</v>
-      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="51"/>
+      <c r="R18" s="50"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+      <c r="W18" s="7">
+        <v>1</v>
+      </c>
+      <c r="X18" s="7">
+        <v>1</v>
+      </c>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="69"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="67"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
-      <c r="AF18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
@@ -8764,47 +9001,49 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="51"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7">
+      <c r="L19" s="7">
         <v>3</v>
       </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="7">
-        <v>1</v>
-      </c>
+      <c r="R19" s="50"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="69"/>
+      <c r="Z19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="67"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7">
+        <v>1</v>
+      </c>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
@@ -8827,52 +9066,51 @@
       <c r="AZ19" s="28"/>
       <c r="BA19" s="23">
         <f>SUM(B19:AY19)</f>
-        <v>6</v>
-      </c>
-      <c r="BB19" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="51"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="7"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="7">
+        <v>1</v>
+      </c>
       <c r="T20" s="7"/>
-      <c r="U20" s="32"/>
+      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="51"/>
+      <c r="AA20" s="50"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="69"/>
+      <c r="AC20" s="67"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="7">
+        <v>1</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
@@ -8896,23 +9134,29 @@
       <c r="AZ20" s="28"/>
       <c r="BA20" s="23">
         <f>SUM(B20:AY20)</f>
-        <v>5</v>
-      </c>
-      <c r="BC20" s="8">
+        <v>6</v>
+      </c>
+      <c r="BB20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="51"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="50"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -8922,24 +9166,18 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="7">
-        <v>2</v>
-      </c>
-      <c r="T21" s="7">
-        <v>1</v>
-      </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7">
-        <v>2</v>
-      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="51"/>
+      <c r="AA21" s="50"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="69"/>
+      <c r="AC21" s="67"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
@@ -8967,49 +9205,48 @@
         <f>SUM(B21:AY21)</f>
         <v>5</v>
       </c>
+      <c r="BC21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7">
-        <v>1</v>
-      </c>
+      <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="7">
+        <v>2</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="51"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="50"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="69"/>
+      <c r="AC22" s="67"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
@@ -9040,46 +9277,46 @@
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="7">
+        <v>1</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="51"/>
+      <c r="R23" s="50"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="7">
-        <v>1</v>
-      </c>
+      <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7">
         <v>1</v>
       </c>
-      <c r="W23" s="7">
-        <v>1</v>
-      </c>
+      <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7">
         <v>1</v>
       </c>
-      <c r="AA23" s="51"/>
+      <c r="AA23" s="50"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="69"/>
+      <c r="AC23" s="67"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
@@ -9110,46 +9347,48 @@
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="51"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
+      <c r="T24" s="7">
+        <v>1</v>
+      </c>
       <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
+      <c r="V24" s="7">
+        <v>1</v>
+      </c>
+      <c r="W24" s="7">
+        <v>1</v>
+      </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="51"/>
+      <c r="Z24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="50"/>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="69"/>
+      <c r="AC24" s="67"/>
       <c r="AD24" s="7"/>
-      <c r="AE24" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
@@ -9178,7 +9417,7 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9186,7 +9425,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -9196,31 +9435,31 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="51"/>
+      <c r="R25" s="50"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="32"/>
+      <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7">
         <v>1</v>
       </c>
       <c r="X25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
+      <c r="AH25" s="7">
+        <v>1</v>
+      </c>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -9241,15 +9480,12 @@
       <c r="AZ25" s="28"/>
       <c r="BA25" s="23">
         <f>SUM(B25:AY25)</f>
-        <v>4</v>
-      </c>
-      <c r="BC25" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -9257,37 +9493,37 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7">
-        <v>1</v>
-      </c>
+      <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
+      <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7">
-        <v>1</v>
-      </c>
-      <c r="R26" s="51"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="50"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7">
-        <v>1</v>
-      </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7">
+        <v>1</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="51"/>
+      <c r="Z26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="50"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="7"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="7">
+        <v>1</v>
+      </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
@@ -9314,10 +9550,13 @@
         <f>SUM(B26:AY26)</f>
         <v>4</v>
       </c>
+      <c r="BC26" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9325,34 +9564,36 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="7">
+        <v>1</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="51"/>
+      <c r="Q27" s="7">
+        <v>1</v>
+      </c>
+      <c r="R27" s="50"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7">
-        <v>1</v>
-      </c>
-      <c r="X27" s="7">
-        <v>2</v>
-      </c>
+      <c r="V27" s="7">
+        <v>1</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="69"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="67"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
@@ -9391,7 +9632,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="51"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="7">
         <v>2</v>
       </c>
@@ -9405,7 +9646,7 @@
       <c r="Q28" s="7">
         <v>1</v>
       </c>
-      <c r="R28" s="51"/>
+      <c r="R28" s="50"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -9414,9 +9655,9 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="51"/>
+      <c r="AA28" s="50"/>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="69"/>
+      <c r="AC28" s="67"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
@@ -9458,7 +9699,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -9470,7 +9711,7 @@
       <c r="Q29" s="7">
         <v>1</v>
       </c>
-      <c r="R29" s="51"/>
+      <c r="R29" s="50"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -9479,9 +9720,9 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="51"/>
+      <c r="AA29" s="50"/>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="69"/>
+      <c r="AC29" s="67"/>
       <c r="AD29" s="7">
         <v>1</v>
       </c>
@@ -9525,7 +9766,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -9535,7 +9776,7 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="51"/>
+      <c r="R30" s="50"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -9546,9 +9787,9 @@
         <v>2</v>
       </c>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="51"/>
+      <c r="AA30" s="50"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="69"/>
+      <c r="AC30" s="67"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
@@ -9587,7 +9828,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -9597,7 +9838,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="51"/>
+      <c r="R31" s="50"/>
       <c r="S31" s="7">
         <v>1</v>
       </c>
@@ -9608,9 +9849,9 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="51"/>
+      <c r="AA31" s="50"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="69"/>
+      <c r="AC31" s="67"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
@@ -9649,7 +9890,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="51"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -9659,7 +9900,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="51"/>
+      <c r="R32" s="50"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -9668,9 +9909,9 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="51"/>
+      <c r="AA32" s="50"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="69"/>
+      <c r="AC32" s="67"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
@@ -9709,7 +9950,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -9719,7 +9960,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="51"/>
+      <c r="R33" s="50"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -9728,9 +9969,9 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
-      <c r="AA33" s="51"/>
+      <c r="AA33" s="50"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="69"/>
+      <c r="AC33" s="67"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
@@ -9769,7 +10010,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -9779,7 +10020,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="51"/>
+      <c r="R34" s="50"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -9788,9 +10029,9 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
-      <c r="AA34" s="51"/>
+      <c r="AA34" s="50"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="69"/>
+      <c r="AC34" s="67"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
@@ -9829,7 +10070,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="50"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -9839,7 +10080,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="51"/>
+      <c r="R35" s="50"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -9848,9 +10089,9 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
-      <c r="AA35" s="51"/>
+      <c r="AA35" s="50"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="69"/>
+      <c r="AC35" s="67"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
@@ -9887,7 +10128,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -9897,7 +10138,7 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="51"/>
+      <c r="R36" s="50"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -9906,9 +10147,9 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
-      <c r="AA36" s="51"/>
+      <c r="AA36" s="50"/>
       <c r="AB36" s="7"/>
-      <c r="AC36" s="69"/>
+      <c r="AC36" s="67"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
@@ -9933,7 +10174,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="23">
-        <f t="shared" ref="BA3:BA36" si="0">SUM(B36:AY36)</f>
+        <f t="shared" ref="BA36" si="0">SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -10071,7 +10312,7 @@
       </c>
       <c r="AH38" s="8">
         <f>'League Table'!AH40</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI38" s="8">
         <f>'League Table'!AI40</f>
@@ -10268,7 +10509,7 @@
       </c>
       <c r="AH40" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI40" s="23">
         <f t="shared" si="1"/>
@@ -10348,10 +10589,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:BA37"/>
+      <selection pane="bottomRight" activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10602,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="49"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="18">
         <v>2</v>
       </c>
@@ -10652,7 +10893,9 @@
       <c r="AG5" s="18">
         <v>3</v>
       </c>
-      <c r="AH5" s="18"/>
+      <c r="AH5" s="18">
+        <v>3</v>
+      </c>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
@@ -10671,30 +10914,30 @@
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="BA5">
-        <f>SUM(B5:AY5)</f>
-        <v>23</v>
+        <f t="shared" ref="BA5:BA38" si="0">SUM(B5:AY5)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="45">
-        <v>2</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45">
+      <c r="B6" s="44">
+        <v>2</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44">
         <v>4</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45">
-        <v>1</v>
-      </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="59">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44">
+        <v>1</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="58">
         <v>2</v>
       </c>
       <c r="L6" s="16">
@@ -10754,12 +10997,12 @@
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="BA6">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="7"/>
@@ -10776,12 +11019,12 @@
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="7">
         <v>3</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="60">
+      <c r="K7" s="59">
         <v>2</v>
       </c>
       <c r="L7" s="7"/>
@@ -10820,7 +11063,9 @@
       <c r="AG7" s="7">
         <v>2</v>
       </c>
-      <c r="AH7" s="7"/>
+      <c r="AH7" s="7">
+        <v>1</v>
+      </c>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
@@ -10839,8 +11084,8 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="BA7">
-        <f>SUM(B7:AY7)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10857,10 +11102,10 @@
       <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="62">
+      <c r="K8" s="61">
         <v>1</v>
       </c>
       <c r="L8" s="18"/>
@@ -10916,7 +11161,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
       <c r="BA8">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -10930,12 +11175,12 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="52"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16">
         <v>2</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="60">
         <v>1</v>
       </c>
       <c r="L9" s="16"/>
@@ -10991,59 +11236,59 @@
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="BA9">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="60"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="7">
-        <v>2</v>
-      </c>
-      <c r="W10" s="7">
-        <v>1</v>
-      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
+      <c r="AD10" s="7">
+        <v>1</v>
+      </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
+      <c r="AH10" s="7">
+        <v>1</v>
+      </c>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
@@ -11062,53 +11307,55 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="BA10">
-        <f>SUM(B10:AY10)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="51"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="60"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="P11" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="V11" s="7">
+        <v>2</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
+      <c r="AA11" s="7">
+        <v>1</v>
+      </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
-      <c r="AD11" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
@@ -11131,7 +11378,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -11153,7 +11400,7 @@
       <c r="G12" s="16">
         <v>1</v>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -11198,7 +11445,7 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f>SUM(B12:AY12)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -11214,7 +11461,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="7">
         <v>2</v>
       </c>
@@ -11246,7 +11493,9 @@
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
+      <c r="AH13" s="7">
+        <v>1</v>
+      </c>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
@@ -11265,13 +11514,13 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f>SUM(B13:AY13)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -11279,43 +11528,39 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7">
+        <v>4</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7">
-        <v>1</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="7">
-        <v>1</v>
-      </c>
+      <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-      <c r="AD14" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
+      <c r="AH14" s="7">
+        <v>2</v>
+      </c>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
@@ -11334,13 +11579,13 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f>SUM(B14:AY14)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -11348,39 +11593,39 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7">
-        <v>1</v>
-      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="7">
+        <v>1</v>
+      </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="7">
+        <v>1</v>
+      </c>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
+      <c r="AD15" s="7">
+        <v>1</v>
+      </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
@@ -11403,54 +11648,54 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="7">
-        <v>1</v>
-      </c>
+      <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="7">
+        <v>1</v>
+      </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-      <c r="AD16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
@@ -11472,32 +11717,32 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>4</v>
-      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
+      <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -11506,14 +11751,20 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
+      <c r="AD17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>1</v>
+      </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
@@ -11535,35 +11786,29 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7">
-        <v>1</v>
-      </c>
+      <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -11571,7 +11816,9 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7">
+        <v>2</v>
+      </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -11581,7 +11828,9 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
+      <c r="AH18" s="7">
+        <v>1</v>
+      </c>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
@@ -11600,28 +11849,28 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f>SUM(B18:AY18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="51"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7">
         <v>1</v>
       </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -11665,13 +11914,13 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f>SUM(B19:AY19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -11679,17 +11928,21 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -11704,9 +11957,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
@@ -11728,13 +11979,13 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f>SUM(B20:AY20)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -11742,13 +11993,15 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="51"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -11758,16 +12011,16 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="7">
-        <v>2</v>
-      </c>
+      <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
+      <c r="AE21" s="7">
+        <v>1</v>
+      </c>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
@@ -11789,7 +12042,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -11805,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -11852,7 +12105,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f>SUM(B22:AY22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -11866,7 +12119,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -11915,7 +12168,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -11929,7 +12182,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -11976,13 +12229,13 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -11990,15 +12243,13 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -12018,7 +12269,9 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
+      <c r="AH25" s="7">
+        <v>1</v>
+      </c>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -12037,13 +12290,13 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -12051,18 +12304,18 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -12098,13 +12351,13 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -12112,18 +12365,18 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7">
-        <v>1</v>
-      </c>
+      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="7">
+        <v>1</v>
+      </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -12159,25 +12412,25 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="51"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -12220,25 +12473,25 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
+      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -12281,13 +12534,13 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -12295,9 +12548,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -12340,8 +12595,8 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f>SUM(B30:AY30)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
@@ -12354,7 +12609,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -12399,7 +12654,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f>SUM(B31:AY31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12413,7 +12668,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="51"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -12458,7 +12713,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12472,7 +12727,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -12517,7 +12772,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12531,7 +12786,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -12576,7 +12831,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12590,7 +12845,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="50"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -12635,7 +12890,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12649,7 +12904,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -12694,7 +12949,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12708,7 +12963,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -12753,7 +13008,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12765,7 +13020,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="51"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -12810,7 +13065,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" ref="BA38" si="0">SUM(B38:AY38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12822,7 +13077,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="54"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -13054,7 +13309,7 @@
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
@@ -13126,13 +13381,13 @@
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA37">
-    <sortCondition descending="1" ref="BA5:BA37"/>
-    <sortCondition ref="A5:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA38">
+    <sortCondition descending="1" ref="BA5:BA38"/>
+    <sortCondition ref="A5:A38"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13147,8 +13402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13455,9 +13710,11 @@
         <v>3</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="8"/>
+        <v>203</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2</v>
+      </c>
       <c r="M13" s="8" t="s">
         <v>121</v>
       </c>
@@ -13489,7 +13746,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8" t="s">
@@ -13516,21 +13773,21 @@
         <v>142</v>
       </c>
       <c r="G15" s="31"/>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="N15" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -13543,10 +13800,10 @@
       <c r="C16" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="57" t="s">
         <v>172</v>
       </c>
       <c r="G16" s="31"/>
@@ -13557,11 +13814,11 @@
         <v>2</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="N16" s="8">
         <v>3</v>
@@ -13591,11 +13848,11 @@
         <v>2</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="N17" s="8">
         <v>3</v>
@@ -13625,7 +13882,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
@@ -13649,8 +13906,11 @@
       <c r="H19" s="8" t="s">
         <v>118</v>
       </c>
+      <c r="I19" s="8">
+        <v>2</v>
+      </c>
       <c r="K19" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
@@ -13678,17 +13938,20 @@
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="8" t="s">
-        <v>122</v>
+        <v>210</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="N20" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -13709,14 +13972,14 @@
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="N21" s="8">
         <v>2</v>
@@ -13738,14 +14001,14 @@
       <c r="E22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="N22" s="8">
         <v>2</v>
@@ -13768,15 +14031,15 @@
         <v>117</v>
       </c>
       <c r="G23" s="31"/>
-      <c r="H23" s="57" t="s">
-        <v>130</v>
+      <c r="H23" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="N23" s="8">
         <v>2</v>
@@ -13799,15 +14062,18 @@
         <v>142</v>
       </c>
       <c r="G24" s="31"/>
-      <c r="H24" s="8" t="s">
-        <v>182</v>
+      <c r="H24" s="56" t="s">
+        <v>130</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>212</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>122</v>
+        <v>210</v>
+      </c>
+      <c r="N24" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -13828,11 +14094,11 @@
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K25" s="8"/>
       <c r="M25" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -13853,11 +14119,11 @@
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -13878,11 +14144,11 @@
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -13901,7 +14167,7 @@
       </c>
       <c r="K28" s="8"/>
       <c r="M28" s="8" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -13922,7 +14188,7 @@
       </c>
       <c r="K29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -13936,7 +14202,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="M30" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -13956,7 +14222,7 @@
         <v>142</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -14017,10 +14283,18 @@
       <c r="A35" s="31">
         <v>33</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="31">
@@ -14168,8 +14442,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N23">
-    <sortCondition descending="1" ref="N9:N23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N31">
+    <sortCondition descending="1" ref="N9:N31"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083BDA5-6D30-7F4F-B79E-AD16E981A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD3933-0587-D841-B170-8C62AF77A272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7120" yWindow="2360" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="219">
   <si>
     <t>WK 1</t>
   </si>
@@ -639,9 +639,6 @@
     <t xml:space="preserve"> 1-1</t>
   </si>
   <si>
-    <t>DAY OFF DICKY</t>
-  </si>
-  <si>
     <t>Flo v Dom</t>
   </si>
   <si>
@@ -694,6 +691,12 @@
   </si>
   <si>
     <t>Matt</t>
+  </si>
+  <si>
+    <t>DAY OFF DICKY / GUEST</t>
+  </si>
+  <si>
+    <t>Carzola - Dwarf</t>
   </si>
 </sst>
 </file>
@@ -1574,10 +1577,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
+      <selection pane="bottomRight" activeCell="AX21" sqref="AX21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2127,43 +2130,43 @@
       </c>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
-        <f t="shared" ref="BC5:BC39" si="0">COUNT(B5:AY5)</f>
+        <f>COUNT(B5:AY5)</f>
         <v>27</v>
       </c>
       <c r="BD5" s="8">
-        <f t="shared" ref="BD5:BD39" si="1">COUNTIF($B5:$AY5, "&gt;=1")</f>
+        <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
         <v>16</v>
       </c>
       <c r="BE5" s="8">
-        <f t="shared" ref="BE5:BE39" si="2">COUNTIF($B5:$AY5, "0")</f>
+        <f>COUNTIF($B5:$AY5, "0")</f>
         <v>5</v>
       </c>
       <c r="BF5" s="8">
-        <f t="shared" ref="BF5:BF39" si="3">COUNTIF($B5:$AY5, "&lt;0")</f>
+        <f>COUNTIF($B5:$AY5, "&lt;0")</f>
         <v>6</v>
       </c>
       <c r="BG5" s="8">
-        <f t="shared" ref="BG5:BG39" si="4">SUM(BD5*3)+BE5</f>
+        <f>SUM(BD5*3)+BE5</f>
         <v>53</v>
       </c>
       <c r="BH5" s="8">
-        <f t="shared" ref="BH5:BH39" si="5">SUM(B5:AY5)</f>
+        <f>SUM(B5:AY5)</f>
         <v>27</v>
       </c>
       <c r="BI5" s="10">
-        <f t="shared" ref="BI5:BI39" si="6">SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
+        <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
         <v>0.65432098765432101</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" s="30">
-        <v>1</v>
-      </c>
-      <c r="C6" s="54">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="30">
@@ -2173,83 +2176,79 @@
         <v>-1</v>
       </c>
       <c r="F6" s="30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6" s="30">
         <v>0</v>
       </c>
       <c r="H6" s="49"/>
-      <c r="I6" s="30">
+      <c r="I6" s="54">
         <v>-7</v>
       </c>
       <c r="J6" s="30">
-        <v>8</v>
-      </c>
-      <c r="K6" s="30"/>
+        <v>-8</v>
+      </c>
+      <c r="K6" s="30">
+        <v>0</v>
+      </c>
       <c r="L6" s="30">
         <v>-2</v>
       </c>
       <c r="M6" s="30">
+        <v>1</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="30">
         <v>-1</v>
       </c>
-      <c r="N6" s="54">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>1</v>
-      </c>
-      <c r="P6" s="30">
-        <v>-2</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>-3</v>
-      </c>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="49"/>
-      <c r="S6" s="30">
-        <v>2</v>
-      </c>
+      <c r="S6" s="30"/>
       <c r="T6" s="30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U6" s="30">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V6" s="30">
         <v>8</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="54">
         <v>0</v>
       </c>
       <c r="X6" s="30">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y6" s="30">
         <v>0</v>
       </c>
       <c r="Z6" s="30">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="49"/>
       <c r="AB6" s="30">
         <v>1</v>
       </c>
       <c r="AC6" s="64"/>
-      <c r="AD6" s="54">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="30">
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="54">
         <v>4</v>
       </c>
       <c r="AF6" s="30">
         <v>2</v>
       </c>
       <c r="AG6" s="30">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="30">
-        <v>2</v>
-      </c>
-      <c r="AI6" s="30"/>
+        <v>-2</v>
+      </c>
+      <c r="AI6" s="30">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="30"/>
       <c r="AK6" s="30"/>
       <c r="AL6" s="30"/>
@@ -2270,43 +2269,43 @@
         <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>COUNT(B6:AY6)</f>
+        <v>26</v>
       </c>
       <c r="BD6" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
+        <v>13</v>
       </c>
       <c r="BE6" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B6:$AY6, "0")</f>
         <v>5</v>
       </c>
       <c r="BF6" s="8">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f>COUNTIF($B6:$AY6, "&lt;0")</f>
+        <v>8</v>
       </c>
       <c r="BG6" s="8">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <f>SUM(BD6*3)+BE6</f>
+        <v>44</v>
       </c>
       <c r="BH6" s="8">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>SUM(B6:AY6)</f>
+        <v>13</v>
       </c>
       <c r="BI6" s="10">
-        <f t="shared" si="6"/>
-        <v>0.48809523809523808</v>
+        <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
+        <v>0.5641025641025641</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="45">
         <v>1</v>
       </c>
       <c r="D7" s="7">
@@ -2316,75 +2315,81 @@
         <v>-1</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="45">
+      <c r="I7" s="7">
         <v>-7</v>
       </c>
       <c r="J7" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7">
         <v>-2</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="45">
         <v>0</v>
       </c>
       <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R7" s="50"/>
+      <c r="S7" s="7">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7">
         <v>-1</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
       <c r="U7" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V7" s="7">
         <v>8</v>
       </c>
-      <c r="W7" s="45">
+      <c r="W7" s="7">
         <v>0</v>
       </c>
       <c r="X7" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA7" s="50"/>
       <c r="AB7" s="7">
         <v>1</v>
       </c>
       <c r="AC7" s="65"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="45">
+      <c r="AD7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
         <v>4</v>
       </c>
       <c r="AF7" s="7">
         <v>2</v>
       </c>
       <c r="AG7" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AH7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
@@ -2407,56 +2412,60 @@
         <v>3</v>
       </c>
       <c r="BC7" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>COUNT(B7:AY7)</f>
+        <v>28</v>
       </c>
       <c r="BD7" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
         <v>12</v>
       </c>
       <c r="BE7" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B7:$AY7, "0")</f>
         <v>5</v>
       </c>
       <c r="BF7" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>COUNTIF($B7:$AY7, "&lt;0")</f>
+        <v>11</v>
       </c>
       <c r="BG7" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD7*3)+BE7</f>
         <v>41</v>
       </c>
       <c r="BH7" s="8">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>SUM(B7:AY7)</f>
+        <v>15</v>
       </c>
       <c r="BI7" s="10">
-        <f t="shared" si="6"/>
-        <v>0.54666666666666663</v>
+        <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
+        <v>0.48809523809523808</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B8" s="18">
         <v>-1</v>
       </c>
       <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
         <v>-1</v>
       </c>
-      <c r="G8" s="46">
+      <c r="D8" s="18">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="18">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="J8" s="18">
         <v>8</v>
@@ -2474,12 +2483,12 @@
         <v>0</v>
       </c>
       <c r="O8" s="18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P8" s="18">
         <v>2</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="46">
         <v>3</v>
       </c>
       <c r="R8" s="48"/>
@@ -2487,43 +2496,39 @@
         <v>-2</v>
       </c>
       <c r="T8" s="18">
-        <v>1</v>
-      </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18">
-        <v>8</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="U8" s="18">
+        <v>-4</v>
+      </c>
+      <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="X8" s="18">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y8" s="18">
         <v>0</v>
       </c>
-      <c r="Z8" s="46">
-        <v>-2</v>
+      <c r="Z8" s="18">
+        <v>2</v>
       </c>
       <c r="AA8" s="48"/>
       <c r="AB8" s="18">
         <v>1</v>
       </c>
       <c r="AC8" s="63"/>
-      <c r="AD8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>-2</v>
-      </c>
+      <c r="AD8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
       <c r="AG8" s="18">
         <v>-5</v>
       </c>
-      <c r="AH8" s="46">
-        <v>-2</v>
-      </c>
-      <c r="AI8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18">
+        <v>1</v>
+      </c>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
       <c r="AL8" s="18"/>
@@ -2544,97 +2549,81 @@
         <v>4</v>
       </c>
       <c r="BC8" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B8:AY8)</f>
         <v>25</v>
       </c>
       <c r="BD8" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
+        <v>11</v>
       </c>
       <c r="BE8" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B8:$AY8, "0")</f>
         <v>5</v>
       </c>
       <c r="BF8" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>COUNTIF($B8:$AY8, "&lt;0")</f>
+        <v>9</v>
       </c>
       <c r="BG8" s="8">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f>SUM(BD8*3)+BE8</f>
+        <v>38</v>
       </c>
       <c r="BH8" s="8">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>SUM(B8:AY8)</f>
+        <v>0</v>
       </c>
       <c r="BI8" s="10">
-        <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
+        <v>0.50666666666666671</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B9" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9" s="16">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
       <c r="G9" s="16">
         <v>0</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="16">
-        <v>7</v>
-      </c>
-      <c r="J9" s="16">
-        <v>8</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>2</v>
-      </c>
-      <c r="M9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>1</v>
-      </c>
-      <c r="P9" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="47">
-        <v>3</v>
-      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="51"/>
       <c r="S9" s="16">
         <v>-2</v>
       </c>
-      <c r="T9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="16">
-        <v>-4</v>
-      </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="T9" s="47">
+        <v>1</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="47">
+        <v>8</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
       <c r="X9" s="16">
         <v>-5</v>
       </c>
@@ -2646,19 +2635,27 @@
       </c>
       <c r="AA9" s="51"/>
       <c r="AB9" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9" s="66"/>
-      <c r="AD9" s="47">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>-4</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>-2</v>
+      </c>
       <c r="AG9" s="16">
-        <v>-5</v>
-      </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>1</v>
+      </c>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
       <c r="AL9" s="16"/>
@@ -2679,111 +2676,125 @@
         <v>5</v>
       </c>
       <c r="BC9" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>COUNT(B9:AY9)</f>
+        <v>20</v>
       </c>
       <c r="BD9" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
+        <v>11</v>
       </c>
       <c r="BE9" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B9:$AY9, "0")</f>
+        <v>4</v>
+      </c>
+      <c r="BF9" s="8">
+        <f>COUNTIF($B9:$AY9, "&lt;0")</f>
         <v>5</v>
       </c>
-      <c r="BF9" s="8">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
       <c r="BG9" s="8">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f>SUM(BD9*3)+BE9</f>
+        <v>37</v>
       </c>
       <c r="BH9" s="8">
-        <f t="shared" si="5"/>
-        <v>-1</v>
+        <f>SUM(B9:AY9)</f>
+        <v>18</v>
       </c>
       <c r="BI9" s="10">
-        <f t="shared" si="6"/>
-        <v>0.4861111111111111</v>
+        <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
+        <v>0.6166666666666667</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B10" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="16">
-        <v>9</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="47">
         <v>0</v>
       </c>
       <c r="H10" s="51"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="I10" s="16">
+        <v>-7</v>
+      </c>
+      <c r="J10" s="16">
+        <v>8</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>2</v>
+      </c>
+      <c r="M10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>3</v>
+      </c>
       <c r="R10" s="51"/>
       <c r="S10" s="16">
         <v>-2</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T10" s="16">
         <v>1</v>
       </c>
       <c r="U10" s="16"/>
-      <c r="V10" s="47">
+      <c r="V10" s="16">
         <v>8</v>
       </c>
-      <c r="W10" s="16">
-        <v>0</v>
-      </c>
+      <c r="W10" s="16"/>
       <c r="X10" s="16">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="16">
         <v>0</v>
       </c>
-      <c r="Z10" s="16">
-        <v>2</v>
+      <c r="Z10" s="47">
+        <v>-2</v>
       </c>
       <c r="AA10" s="51"/>
       <c r="AB10" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="66"/>
       <c r="AD10" s="16">
         <v>0</v>
       </c>
       <c r="AE10" s="16">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AF10" s="16">
         <v>-2</v>
       </c>
       <c r="AG10" s="16">
-        <v>5</v>
-      </c>
-      <c r="AH10" s="16">
-        <v>2</v>
-      </c>
-      <c r="AI10" s="16"/>
+        <v>-5</v>
+      </c>
+      <c r="AH10" s="47">
+        <v>-2</v>
+      </c>
+      <c r="AI10" s="16">
+        <v>-1</v>
+      </c>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
@@ -2804,32 +2815,32 @@
         <v>6</v>
       </c>
       <c r="BC10" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>COUNT(B10:AY10)</f>
+        <v>26</v>
       </c>
       <c r="BD10" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
         <v>10</v>
       </c>
       <c r="BE10" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF($B10:$AY10, "0")</f>
+        <v>5</v>
       </c>
       <c r="BF10" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B10:$AY10, "&lt;0")</f>
+        <v>11</v>
       </c>
       <c r="BG10" s="8">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f>SUM(BD10*3)+BE10</f>
+        <v>35</v>
       </c>
       <c r="BH10" s="8">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>SUM(B10:AY10)</f>
+        <v>10</v>
       </c>
       <c r="BI10" s="10">
-        <f t="shared" si="6"/>
-        <v>0.59649122807017541</v>
+        <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
+        <v>0.44871794871794873</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
@@ -2912,7 +2923,9 @@
       <c r="AH11" s="45">
         <v>2</v>
       </c>
-      <c r="AI11" s="7"/>
+      <c r="AI11" s="7">
+        <v>-1</v>
+      </c>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
@@ -2933,32 +2946,32 @@
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>COUNT(B11:AY11)</f>
+        <v>22</v>
       </c>
       <c r="BD11" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE11" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B11:$AY11, "0")</f>
         <v>5</v>
       </c>
       <c r="BF11" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B11:$AY11, "&lt;0")</f>
+        <v>8</v>
       </c>
       <c r="BG11" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD11*3)+BE11</f>
         <v>32</v>
       </c>
       <c r="BH11" s="8">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>SUM(B11:AY11)</f>
+        <v>2</v>
       </c>
       <c r="BI11" s="10">
-        <f t="shared" si="6"/>
-        <v>0.50793650793650791</v>
+        <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
+        <v>0.48484848484848486</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
@@ -3058,38 +3071,38 @@
         <v>8</v>
       </c>
       <c r="BC12" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B12:AY12)</f>
         <v>19</v>
       </c>
       <c r="BD12" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
         <v>9</v>
       </c>
       <c r="BE12" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B12:$AY12, "0")</f>
         <v>4</v>
       </c>
       <c r="BF12" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B12:$AY12, "&lt;0")</f>
         <v>6</v>
       </c>
       <c r="BG12" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD12*3)+BE12</f>
         <v>31</v>
       </c>
       <c r="BH12" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B12:AY12)</f>
         <v>25</v>
       </c>
       <c r="BI12" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
         <v>0.54385964912280704</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7">
         <v>-1</v>
@@ -3097,9 +3110,11 @@
       <c r="C13" s="7">
         <v>-1</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>-9</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="F13" s="45">
         <v>-1</v>
       </c>
       <c r="G13" s="7">
@@ -3110,37 +3125,41 @@
         <v>7</v>
       </c>
       <c r="J13" s="7">
-        <v>8</v>
-      </c>
-      <c r="K13" s="45">
+        <v>-8</v>
+      </c>
+      <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="L13" s="7">
+        <v>2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="45">
         <v>-2</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="7">
+        <v>-3</v>
+      </c>
       <c r="R13" s="50"/>
       <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="7">
         <v>-1</v>
       </c>
       <c r="U13" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V13" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W13" s="7">
         <v>0</v>
@@ -3148,27 +3167,29 @@
       <c r="X13" s="7">
         <v>5</v>
       </c>
-      <c r="Y13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7">
+        <v>2</v>
+      </c>
       <c r="AA13" s="50"/>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="45">
+        <v>-1</v>
+      </c>
       <c r="AC13" s="65"/>
-      <c r="AD13" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD13" s="7"/>
       <c r="AE13" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AH13" s="7">
         <v>-2</v>
       </c>
-      <c r="AI13" s="7"/>
+      <c r="AI13" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
@@ -3189,38 +3210,38 @@
         <v>9</v>
       </c>
       <c r="BC13" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>COUNT(B13:AY13)</f>
+        <v>26</v>
       </c>
       <c r="BD13" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
+        <v>9</v>
       </c>
       <c r="BE13" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>COUNTIF($B13:$AY13, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF13" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>COUNTIF($B13:$AY13, "&lt;0")</f>
+        <v>13</v>
       </c>
       <c r="BG13" s="8">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>SUM(BD13*3)+BE13</f>
+        <v>31</v>
       </c>
       <c r="BH13" s="8">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f>SUM(B13:AY13)</f>
+        <v>-13</v>
       </c>
       <c r="BI13" s="10">
-        <f t="shared" si="6"/>
-        <v>0.45454545454545453</v>
+        <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
+        <v>0.39743589743589741</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B14" s="7">
         <v>-1</v>
@@ -3228,11 +3249,9 @@
       <c r="C14" s="7">
         <v>-1</v>
       </c>
-      <c r="D14" s="7">
-        <v>-9</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="45">
+      <c r="F14" s="7">
         <v>-1</v>
       </c>
       <c r="G14" s="7">
@@ -3243,13 +3262,13 @@
         <v>7</v>
       </c>
       <c r="J14" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K14" s="7">
+        <v>8</v>
+      </c>
+      <c r="K14" s="45">
         <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3257,27 +3276,23 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="45">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
         <v>-2</v>
       </c>
-      <c r="Q14" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q14" s="7"/>
       <c r="R14" s="50"/>
       <c r="S14" s="7">
         <v>2</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="45">
         <v>-1</v>
       </c>
       <c r="U14" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V14" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="W14" s="7">
         <v>0</v>
@@ -3285,27 +3300,29 @@
       <c r="X14" s="7">
         <v>5</v>
       </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="50"/>
-      <c r="AB14" s="45">
-        <v>-1</v>
-      </c>
+      <c r="AB14" s="7"/>
       <c r="AC14" s="65"/>
-      <c r="AD14" s="7"/>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
       <c r="AE14" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="AH14" s="7">
         <v>-2</v>
       </c>
-      <c r="AI14" s="7"/>
+      <c r="AI14" s="7">
+        <v>-1</v>
+      </c>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
@@ -3326,66 +3343,60 @@
         <v>10</v>
       </c>
       <c r="BC14" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>COUNT(B14:AY14)</f>
+        <v>23</v>
       </c>
       <c r="BD14" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
         <v>8</v>
       </c>
       <c r="BE14" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF($B14:$AY14, "0")</f>
+        <v>6</v>
       </c>
       <c r="BF14" s="8">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f>COUNTIF($B14:$AY14, "&lt;0")</f>
+        <v>9</v>
       </c>
       <c r="BG14" s="8">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f>SUM(BD14*3)+BE14</f>
+        <v>30</v>
       </c>
       <c r="BH14" s="8">
-        <f t="shared" si="5"/>
-        <v>-14</v>
+        <f>SUM(B14:AY14)</f>
+        <v>17</v>
       </c>
       <c r="BI14" s="10">
-        <f t="shared" si="6"/>
-        <v>0.37333333333333335</v>
+        <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
+        <v>0.43478260869565216</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7">
         <v>-1</v>
       </c>
       <c r="C15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="50"/>
-      <c r="I15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="45">
-        <v>2</v>
-      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="45">
+        <v>-8</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="7">
         <v>1</v>
       </c>
@@ -3393,32 +3404,32 @@
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <v>3</v>
+      </c>
       <c r="R15" s="50"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7">
+        <v>-2</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="45">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V15" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W15" s="7">
         <v>0</v>
       </c>
       <c r="X15" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>0</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="Y15" s="7"/>
       <c r="Z15" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA15" s="50"/>
       <c r="AB15" s="7"/>
@@ -3426,19 +3437,19 @@
       <c r="AD15" s="7">
         <v>0</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AE15" s="45">
         <v>-4</v>
       </c>
-      <c r="AF15" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="45">
-        <v>-5</v>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7">
+        <v>5</v>
       </c>
       <c r="AH15" s="7">
         <v>-2</v>
       </c>
-      <c r="AI15" s="7"/>
+      <c r="AI15" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
@@ -3459,49 +3470,49 @@
         <v>11</v>
       </c>
       <c r="BC15" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>COUNT(B15:AY15)</f>
+        <v>20</v>
       </c>
       <c r="BD15" s="8">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
+        <v>8</v>
       </c>
       <c r="BE15" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>COUNTIF($B15:$AY15, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF15" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>COUNTIF($B15:$AY15, "&lt;0")</f>
+        <v>8</v>
       </c>
       <c r="BG15" s="8">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f>SUM(BD15*3)+BE15</f>
+        <v>28</v>
       </c>
       <c r="BH15" s="8">
-        <f t="shared" si="5"/>
-        <v>-19</v>
+        <f>SUM(B15:AY15)</f>
+        <v>-9</v>
       </c>
       <c r="BI15" s="10">
-        <f t="shared" si="6"/>
-        <v>0.39130434782608697</v>
+        <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B16" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="7">
         <v>-1</v>
       </c>
-      <c r="D16" s="7">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="7">
         <v>-1</v>
       </c>
@@ -3509,55 +3520,71 @@
         <v>0</v>
       </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="45">
-        <v>7</v>
-      </c>
-      <c r="J16" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I16" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M16" s="7"/>
+      <c r="L16" s="45">
+        <v>2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
       <c r="N16" s="7">
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7">
-        <v>3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P16" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="50"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
+      <c r="U16" s="45">
+        <v>-4</v>
+      </c>
+      <c r="V16" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>2</v>
+      </c>
       <c r="AA16" s="50"/>
-      <c r="AB16" s="45">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="7"/>
       <c r="AC16" s="65"/>
       <c r="AD16" s="7">
         <v>0</v>
       </c>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF16" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="45">
+        <v>-5</v>
+      </c>
+      <c r="AH16" s="7">
         <v>-2</v>
       </c>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI16" s="7"/>
+      <c r="AI16" s="7">
+        <v>-1</v>
+      </c>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
@@ -3578,51 +3605,49 @@
         <v>12</v>
       </c>
       <c r="BC16" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>COUNT(B16:AY16)</f>
+        <v>24</v>
       </c>
       <c r="BD16" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
         <v>7</v>
       </c>
       <c r="BE16" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF($B16:$AY16, "0")</f>
+        <v>6</v>
       </c>
       <c r="BF16" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B16:$AY16, "&lt;0")</f>
+        <v>11</v>
       </c>
       <c r="BG16" s="8">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f>SUM(BD16*3)+BE16</f>
+        <v>27</v>
       </c>
       <c r="BH16" s="8">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>SUM(B16:AY16)</f>
+        <v>-20</v>
       </c>
       <c r="BI16" s="10">
-        <f t="shared" si="6"/>
-        <v>0.52083333333333337</v>
+        <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
+        <v>0.375</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="45">
-        <v>-1</v>
+        <v>78</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
       </c>
       <c r="C17" s="7">
         <v>-1</v>
       </c>
       <c r="D17" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7">
         <v>-1</v>
       </c>
@@ -3630,58 +3655,54 @@
         <v>0</v>
       </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="I17" s="45">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-8</v>
+      </c>
       <c r="K17" s="7">
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="45">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7">
         <v>-2</v>
       </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7">
         <v>3</v>
       </c>
       <c r="R17" s="50"/>
-      <c r="S17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7">
-        <v>4</v>
-      </c>
-      <c r="V17" s="7">
-        <v>8</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="50"/>
-      <c r="AB17" s="7"/>
+      <c r="AB17" s="45">
+        <v>1</v>
+      </c>
       <c r="AC17" s="65"/>
-      <c r="AD17" s="7"/>
+      <c r="AD17" s="7">
+        <v>0</v>
+      </c>
       <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
+      <c r="AF17" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
+      <c r="AH17" s="7">
+        <v>2</v>
+      </c>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
@@ -3703,70 +3724,76 @@
         <v>13</v>
       </c>
       <c r="BC17" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>COUNT(B17:AY17)</f>
+        <v>16</v>
       </c>
       <c r="BD17" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
         <v>7</v>
       </c>
       <c r="BE17" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B17:$AY17, "0")</f>
         <v>4</v>
       </c>
       <c r="BF17" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>COUNTIF($B17:$AY17, "&lt;0")</f>
+        <v>5</v>
       </c>
       <c r="BG17" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD17*3)+BE17</f>
         <v>25</v>
       </c>
       <c r="BH17" s="8">
-        <f t="shared" si="5"/>
-        <v>-2</v>
+        <f>SUM(B17:AY17)</f>
+        <v>10</v>
       </c>
       <c r="BI17" s="10">
-        <f t="shared" si="6"/>
-        <v>0.43859649122807015</v>
+        <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
+        <v>0.52083333333333337</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="7">
+        <v>106</v>
+      </c>
+      <c r="B18" s="45">
         <v>-1</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="7">
         <v>-9</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-1</v>
+      </c>
       <c r="G18" s="7">
         <v>0</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="45">
-        <v>-8</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2</v>
+      </c>
       <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="45">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q18" s="7">
         <v>3</v>
       </c>
@@ -3774,8 +3801,10 @@
       <c r="S18" s="7">
         <v>-2</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="45">
+      <c r="T18" s="7">
+        <v>1</v>
+      </c>
+      <c r="U18" s="7">
         <v>4</v>
       </c>
       <c r="V18" s="7">
@@ -3787,26 +3816,18 @@
       <c r="X18" s="7">
         <v>-5</v>
       </c>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="50"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="65"/>
-      <c r="AD18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="45">
-        <v>-4</v>
-      </c>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>-2</v>
-      </c>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
@@ -3828,67 +3849,65 @@
         <v>14</v>
       </c>
       <c r="BC18" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B18:AY18)</f>
         <v>19</v>
       </c>
       <c r="BD18" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
         <v>7</v>
       </c>
       <c r="BE18" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B18:$AY18, "0")</f>
         <v>4</v>
       </c>
       <c r="BF18" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B18:$AY18, "&lt;0")</f>
         <v>8</v>
       </c>
       <c r="BG18" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD18*3)+BE18</f>
         <v>25</v>
       </c>
       <c r="BH18" s="8">
-        <f t="shared" si="5"/>
-        <v>-10</v>
+        <f>SUM(B18:AY18)</f>
+        <v>-2</v>
       </c>
       <c r="BI18" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
         <v>0.43859649122807015</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
+      <c r="E19" s="45">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>-7</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
+      <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="45">
-        <v>-1</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>-3</v>
-      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q19" s="7"/>
       <c r="R19" s="50"/>
       <c r="S19" s="7">
         <v>2</v>
@@ -3896,33 +3915,35 @@
       <c r="T19" s="7">
         <v>1</v>
       </c>
-      <c r="U19" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V19" s="7">
-        <v>8</v>
-      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="7">
         <v>0</v>
       </c>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="45">
+      <c r="X19" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="7">
         <v>0</v>
       </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="50"/>
       <c r="AB19" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC19" s="65"/>
-      <c r="AD19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7">
+        <v>-4</v>
+      </c>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
+      <c r="AH19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
@@ -3943,103 +3964,105 @@
         <v>15</v>
       </c>
       <c r="BC19" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B19:AY19)</f>
         <v>14</v>
       </c>
       <c r="BD19" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
+        <v>7</v>
       </c>
       <c r="BE19" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF($B19:$AY19, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF19" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>COUNTIF($B19:$AY19, "&lt;0")</f>
+        <v>5</v>
       </c>
       <c r="BG19" s="8">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f>SUM(BD19*3)+BE19</f>
+        <v>23</v>
       </c>
       <c r="BH19" s="8">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>SUM(B19:AY19)</f>
+        <v>-4</v>
       </c>
       <c r="BI19" s="10">
-        <f t="shared" si="6"/>
-        <v>0.52380952380952384</v>
+        <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
+        <v>0.54761904761904767</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="45">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="50"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
         <v>-8</v>
       </c>
-      <c r="K20" s="45">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7">
-        <v>-1</v>
-      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>2</v>
+      </c>
+      <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>-3</v>
+      </c>
       <c r="R20" s="50"/>
-      <c r="S20" s="7">
-        <v>2</v>
-      </c>
+      <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="7">
-        <v>4</v>
-      </c>
+      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7">
         <v>0</v>
       </c>
-      <c r="X20" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="45">
-        <v>0</v>
-      </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA20" s="50"/>
       <c r="AB20" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="65"/>
       <c r="AD20" s="7">
         <v>0</v>
       </c>
       <c r="AE20" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="45">
-        <v>-2</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>-5</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
+      <c r="AI20" s="45">
+        <v>1</v>
+      </c>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
@@ -4048,7 +4071,7 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
+      <c r="AR20" s="55"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -4056,111 +4079,104 @@
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
+      <c r="AZ20" s="5"/>
       <c r="BA20" s="33">
         <v>16</v>
       </c>
       <c r="BC20" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNT(B20:AY20)</f>
+        <v>16</v>
       </c>
       <c r="BD20" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
+        <v>7</v>
       </c>
       <c r="BE20" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF($B20:$AY20, "0")</f>
+        <v>2</v>
       </c>
       <c r="BF20" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF($B20:$AY20, "&lt;0")</f>
+        <v>7</v>
       </c>
       <c r="BG20" s="8">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f>SUM(BD20*3)+BE20</f>
+        <v>23</v>
       </c>
       <c r="BH20" s="8">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>SUM(B20:AY20)</f>
+        <v>-20</v>
       </c>
       <c r="BI20" s="10">
-        <f t="shared" si="6"/>
-        <v>0.48888888888888887</v>
+        <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
+        <v>0.47916666666666669</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>-9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7">
         <v>-1</v>
       </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="45">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
         <v>0</v>
       </c>
       <c r="H21" s="50"/>
-      <c r="I21" s="7">
-        <v>-7</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="45">
+        <v>-1</v>
+      </c>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="7">
+        <v>-3</v>
+      </c>
       <c r="R21" s="50"/>
-      <c r="S21" s="45">
+      <c r="S21" s="7">
         <v>2</v>
       </c>
       <c r="T21" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U21" s="7">
-        <v>4</v>
-      </c>
-      <c r="V21" s="7"/>
+        <v>-4</v>
+      </c>
+      <c r="V21" s="7">
+        <v>8</v>
+      </c>
       <c r="W21" s="7">
         <v>0</v>
       </c>
-      <c r="X21" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7">
-        <v>-2</v>
-      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7"/>
       <c r="AA21" s="50"/>
       <c r="AB21" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="65"/>
       <c r="AD21" s="7">
         <v>0</v>
       </c>
-      <c r="AE21" s="7">
-        <v>4</v>
-      </c>
+      <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="45">
-        <v>5</v>
-      </c>
+      <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
@@ -4183,98 +4199,102 @@
         <v>17</v>
       </c>
       <c r="BC21" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>COUNT(B21:AY21)</f>
+        <v>14</v>
       </c>
       <c r="BD21" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE21" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B21:$AY21, "0")</f>
         <v>4</v>
       </c>
       <c r="BF21" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>COUNTIF($B21:$AY21, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG21" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD21*3)+BE21</f>
         <v>22</v>
       </c>
       <c r="BH21" s="8">
-        <f t="shared" si="5"/>
-        <v>-10</v>
+        <f>SUM(B21:AY21)</f>
+        <v>5</v>
       </c>
       <c r="BI21" s="10">
-        <f t="shared" si="6"/>
-        <v>0.40740740740740738</v>
+        <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
+        <v>0.52380952380952384</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="45">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="50"/>
-      <c r="I22" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K22" s="45">
+        <v>0</v>
+      </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="7">
+        <v>-1</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="50"/>
       <c r="S22" s="7">
         <v>2</v>
       </c>
-      <c r="T22" s="7">
-        <v>1</v>
-      </c>
-      <c r="U22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7">
+        <v>4</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7">
         <v>0</v>
       </c>
-      <c r="X22" s="45">
+      <c r="X22" s="7">
         <v>5</v>
       </c>
-      <c r="Y22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="7"/>
+      <c r="Y22" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>2</v>
+      </c>
       <c r="AA22" s="50"/>
       <c r="AB22" s="7">
         <v>-1</v>
       </c>
       <c r="AC22" s="65"/>
-      <c r="AD22" s="7"/>
+      <c r="AD22" s="7">
+        <v>0</v>
+      </c>
       <c r="AE22" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="45">
         <v>-2</v>
       </c>
+      <c r="AG22" s="7">
+        <v>-5</v>
+      </c>
+      <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
@@ -4296,101 +4316,107 @@
         <v>18</v>
       </c>
       <c r="BC22" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>COUNT(B22:AY22)</f>
+        <v>15</v>
       </c>
       <c r="BD22" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B22:$AY22, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE22" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B22:$AY22, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF22" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B22:$AY22, "&lt;0")</f>
         <v>5</v>
       </c>
       <c r="BG22" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>SUM(BD22*3)+BE22</f>
+        <v>22</v>
       </c>
       <c r="BH22" s="8">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <f>SUM(B22:AY22)</f>
+        <v>2</v>
       </c>
       <c r="BI22" s="10">
-        <f t="shared" si="6"/>
-        <v>0.51282051282051277</v>
+        <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
+        <v>0.48888888888888887</v>
       </c>
       <c r="BJ22" s="10"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="55">
-        <v>1</v>
-      </c>
-      <c r="C23" s="45">
+        <v>76</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
         <v>-1</v>
       </c>
       <c r="D23" s="7">
         <v>-9</v>
       </c>
       <c r="E23" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
       <c r="H23" s="50"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I23" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7">
-        <v>2</v>
-      </c>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q23" s="45">
-        <v>-3</v>
-      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="50"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
+      <c r="S23" s="45">
+        <v>2</v>
+      </c>
+      <c r="T23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="7">
+        <v>4</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7">
         <v>0</v>
       </c>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="X23" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0</v>
+      </c>
       <c r="Z23" s="7">
         <v>-2</v>
       </c>
       <c r="AA23" s="50"/>
       <c r="AB23" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23" s="65"/>
       <c r="AD23" s="7">
         <v>0</v>
       </c>
       <c r="AE23" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF23" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG23" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="45">
+        <v>5</v>
+      </c>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
@@ -4401,7 +4427,7 @@
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
-      <c r="AR23" s="55"/>
+      <c r="AR23" s="7"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -4409,37 +4435,36 @@
       <c r="AW23" s="7"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
-      <c r="AZ23" s="5"/>
       <c r="BA23" s="33">
         <v>19</v>
       </c>
       <c r="BC23" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNT(B23:AY23)</f>
+        <v>18</v>
       </c>
       <c r="BD23" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
         <v>6</v>
       </c>
       <c r="BE23" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B23:$AY23, "0")</f>
+        <v>4</v>
       </c>
       <c r="BF23" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>COUNTIF($B23:$AY23, "&lt;0")</f>
+        <v>8</v>
       </c>
       <c r="BG23" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>SUM(BD23*3)+BE23</f>
+        <v>22</v>
       </c>
       <c r="BH23" s="8">
-        <f t="shared" si="5"/>
-        <v>-21</v>
+        <f>SUM(B23:AY23)</f>
+        <v>-10</v>
       </c>
       <c r="BI23" s="10">
-        <f t="shared" si="6"/>
-        <v>0.44444444444444442</v>
+        <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
+        <v>0.40740740740740738</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -4525,38 +4550,38 @@
         <v>20</v>
       </c>
       <c r="BC24" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B24:AY24)</f>
         <v>12</v>
       </c>
       <c r="BD24" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
         <v>4</v>
       </c>
       <c r="BE24" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B24:$AY24, "0")</f>
         <v>3</v>
       </c>
       <c r="BF24" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B24:$AY24, "&lt;0")</f>
         <v>5</v>
       </c>
       <c r="BG24" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD24*3)+BE24</f>
         <v>15</v>
       </c>
       <c r="BH24" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B24:AY24)</f>
         <v>-6</v>
       </c>
       <c r="BI24" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4577,10 +4602,10 @@
       <c r="R25" s="50"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="45">
-        <v>-8</v>
-      </c>
+      <c r="U25" s="7">
+        <v>4</v>
+      </c>
+      <c r="V25" s="7"/>
       <c r="W25" s="7">
         <v>0</v>
       </c>
@@ -4588,11 +4613,11 @@
         <v>5</v>
       </c>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
+      <c r="Z25" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA25" s="50"/>
-      <c r="AB25" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="65"/>
       <c r="AD25" s="7">
         <v>0</v>
@@ -4600,14 +4625,12 @@
       <c r="AE25" s="7">
         <v>-4</v>
       </c>
-      <c r="AF25" s="7">
-        <v>-2</v>
-      </c>
+      <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
@@ -4628,48 +4651,44 @@
         <v>21</v>
       </c>
       <c r="BC25" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>COUNT(B25:AY25)</f>
+        <v>7</v>
       </c>
       <c r="BD25" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
         <v>3</v>
       </c>
       <c r="BE25" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B25:$AY25, "0")</f>
         <v>2</v>
       </c>
       <c r="BF25" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B25:$AY25, "&lt;0")</f>
+        <v>2</v>
       </c>
       <c r="BG25" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD25*3)+BE25</f>
         <v>11</v>
       </c>
       <c r="BH25" s="8">
-        <f t="shared" si="5"/>
-        <v>-6</v>
+        <f>SUM(B25:AY25)</f>
+        <v>4</v>
       </c>
       <c r="BI25" s="10">
-        <f t="shared" si="6"/>
-        <v>0.45833333333333331</v>
+        <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
+        <v>0.52380952380952384</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7">
-        <v>9</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="50"/>
       <c r="I26" s="7"/>
@@ -4685,17 +4704,31 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="V26" s="45">
+        <v>-8</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+      <c r="X26" s="7">
+        <v>5</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="50"/>
-      <c r="AB26" s="7"/>
+      <c r="AB26" s="7">
+        <v>1</v>
+      </c>
       <c r="AC26" s="65"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7">
         <v>2</v>
@@ -4721,44 +4754,48 @@
         <v>22</v>
       </c>
       <c r="BC26" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B26:AY26)</f>
+        <v>8</v>
+      </c>
+      <c r="BD26" s="8">
+        <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
         <v>3</v>
       </c>
-      <c r="BD26" s="8">
-        <f t="shared" si="1"/>
+      <c r="BE26" s="8">
+        <f>COUNTIF($B26:$AY26, "0")</f>
+        <v>2</v>
+      </c>
+      <c r="BF26" s="8">
+        <f>COUNTIF($B26:$AY26, "&lt;0")</f>
         <v>3</v>
       </c>
-      <c r="BE26" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BF26" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="BG26" s="8">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>SUM(BD26*3)+BE26</f>
+        <v>11</v>
       </c>
       <c r="BH26" s="8">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>SUM(B26:AY26)</f>
+        <v>-6</v>
       </c>
       <c r="BI26" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7">
+        <v>9</v>
+      </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="50"/>
       <c r="I27" s="7"/>
@@ -4773,33 +4810,25 @@
       <c r="R27" s="50"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7">
-        <v>4</v>
-      </c>
+      <c r="U27" s="7"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="7">
-        <v>0</v>
-      </c>
-      <c r="X27" s="7">
-        <v>5</v>
-      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z27" s="7"/>
       <c r="AA27" s="50"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="65"/>
-      <c r="AD27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="7">
-        <v>-4</v>
-      </c>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
+      <c r="AH27" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="7">
+        <v>-1</v>
+      </c>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
@@ -4820,32 +4849,32 @@
         <v>23</v>
       </c>
       <c r="BC27" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>COUNT(B27:AY27)</f>
+        <v>4</v>
       </c>
       <c r="BD27" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
+        <v>3</v>
       </c>
       <c r="BE27" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>COUNTIF($B27:$AY27, "0")</f>
+        <v>0</v>
       </c>
       <c r="BF27" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF($B27:$AY27, "&lt;0")</f>
+        <v>1</v>
       </c>
       <c r="BG27" s="8">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>SUM(BD27*3)+BE27</f>
+        <v>9</v>
       </c>
       <c r="BH27" s="8">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>SUM(B27:AY27)</f>
+        <v>11</v>
       </c>
       <c r="BI27" s="10">
-        <f t="shared" si="6"/>
-        <v>0.44444444444444442</v>
+        <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
+        <v>0.75</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
@@ -4931,31 +4960,31 @@
         <v>24</v>
       </c>
       <c r="BC28" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B28:AY28)</f>
         <v>12</v>
       </c>
       <c r="BD28" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE28" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B28:$AY28, "0")</f>
         <v>2</v>
       </c>
       <c r="BF28" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B28:$AY28, "&lt;0")</f>
         <v>8</v>
       </c>
       <c r="BG28" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD28*3)+BE28</f>
         <v>8</v>
       </c>
       <c r="BH28" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B28:AY28)</f>
         <v>-20</v>
       </c>
       <c r="BI28" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="BJ28" s="10"/>
@@ -5026,31 +5055,31 @@
         <v>25</v>
       </c>
       <c r="BC29" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B29:AY29)</f>
         <v>4</v>
       </c>
       <c r="BD29" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE29" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B29:$AY29, "0")</f>
         <v>1</v>
       </c>
       <c r="BF29" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B29:$AY29, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG29" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD29*3)+BE29</f>
         <v>7</v>
       </c>
       <c r="BH29" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B29:AY29)</f>
         <v>9</v>
       </c>
       <c r="BI29" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="BJ29" s="10"/>
@@ -5123,31 +5152,31 @@
         <v>26</v>
       </c>
       <c r="BC30" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B30:AY30)</f>
         <v>5</v>
       </c>
       <c r="BD30" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE30" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B30:$AY30, "0")</f>
         <v>1</v>
       </c>
       <c r="BF30" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B30:$AY30, "&lt;0")</f>
         <v>2</v>
       </c>
       <c r="BG30" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD30*3)+BE30</f>
         <v>7</v>
       </c>
       <c r="BH30" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B30:AY30)</f>
         <v>8</v>
       </c>
       <c r="BI30" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="BJ30" s="10"/>
@@ -5222,31 +5251,31 @@
         <v>27</v>
       </c>
       <c r="BC31" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B31:AY31)</f>
         <v>6</v>
       </c>
       <c r="BD31" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
         <v>2</v>
       </c>
       <c r="BE31" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B31:$AY31, "0")</f>
         <v>1</v>
       </c>
       <c r="BF31" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B31:$AY31, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG31" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD31*3)+BE31</f>
         <v>7</v>
       </c>
       <c r="BH31" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B31:AY31)</f>
         <v>-10</v>
       </c>
       <c r="BI31" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
         <v>0.3888888888888889</v>
       </c>
       <c r="BJ31" s="10"/>
@@ -5315,31 +5344,31 @@
         <v>28</v>
       </c>
       <c r="BC32" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B32:AY32)</f>
         <v>3</v>
       </c>
       <c r="BD32" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE32" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B32:$AY32, "0")</f>
         <v>1</v>
       </c>
       <c r="BF32" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B32:$AY32, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG32" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD32*3)+BE32</f>
         <v>4</v>
       </c>
       <c r="BH32" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B32:AY32)</f>
         <v>-1</v>
       </c>
       <c r="BI32" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="BJ32" s="10"/>
@@ -5391,7 +5420,9 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
+      <c r="AI33" s="45">
+        <v>-1</v>
+      </c>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
@@ -5412,38 +5443,38 @@
         <v>29</v>
       </c>
       <c r="BC33" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNT(B33:AY33)</f>
+        <v>6</v>
       </c>
       <c r="BD33" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
         <v>1</v>
       </c>
       <c r="BE33" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B33:$AY33, "0")</f>
         <v>1</v>
       </c>
       <c r="BF33" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>COUNTIF($B33:$AY33, "&lt;0")</f>
+        <v>4</v>
       </c>
       <c r="BG33" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD33*3)+BE33</f>
         <v>4</v>
       </c>
       <c r="BH33" s="8">
-        <f t="shared" si="5"/>
-        <v>-8</v>
+        <f>SUM(B33:AY33)</f>
+        <v>-9</v>
       </c>
       <c r="BI33" s="10">
-        <f t="shared" si="6"/>
-        <v>0.26666666666666666</v>
+        <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BJ33" s="10"/>
     </row>
     <row r="34" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5501,31 +5532,31 @@
         <v>30</v>
       </c>
       <c r="BC34" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B34:AY34)</f>
         <v>1</v>
       </c>
       <c r="BD34" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE34" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B34:$AY34, "0")</f>
         <v>1</v>
       </c>
       <c r="BF34" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B34:$AY34, "&lt;0")</f>
         <v>0</v>
       </c>
       <c r="BG34" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD34*3)+BE34</f>
         <v>1</v>
       </c>
       <c r="BH34" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
       <c r="BI34" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ34" s="10"/>
@@ -5592,31 +5623,31 @@
         <v>31</v>
       </c>
       <c r="BC35" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B35:AY35)</f>
         <v>2</v>
       </c>
       <c r="BD35" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE35" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B35:$AY35, "0")</f>
         <v>1</v>
       </c>
       <c r="BF35" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B35:$AY35, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG35" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD35*3)+BE35</f>
         <v>1</v>
       </c>
       <c r="BH35" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B35:AY35)</f>
         <v>-2</v>
       </c>
       <c r="BI35" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="BJ35" s="10"/>
@@ -5687,31 +5718,31 @@
         <v>32</v>
       </c>
       <c r="BC36" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B36:AY36)</f>
         <v>4</v>
       </c>
       <c r="BD36" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE36" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B36:$AY36, "0")</f>
         <v>1</v>
       </c>
       <c r="BF36" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B36:$AY36, "&lt;0")</f>
         <v>3</v>
       </c>
       <c r="BG36" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD36*3)+BE36</f>
         <v>1</v>
       </c>
       <c r="BH36" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B36:AY36)</f>
         <v>-15</v>
       </c>
       <c r="BI36" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="BJ36" s="10"/>
@@ -5776,31 +5807,31 @@
         <v>33</v>
       </c>
       <c r="BC37" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B37:AY37)</f>
         <v>1</v>
       </c>
       <c r="BD37" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE37" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B37:$AY37, "0")</f>
         <v>0</v>
       </c>
       <c r="BF37" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B37:$AY37, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG37" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD37*3)+BE37</f>
         <v>0</v>
       </c>
       <c r="BH37" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B37:AY37)</f>
         <v>-1</v>
       </c>
       <c r="BI37" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
         <v>0</v>
       </c>
       <c r="BJ37" s="10"/>
@@ -5865,31 +5896,31 @@
         <v>34</v>
       </c>
       <c r="BC38" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B38:AY38)</f>
         <v>1</v>
       </c>
       <c r="BD38" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B38:$AY38, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE38" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B38:$AY38, "0")</f>
         <v>0</v>
       </c>
       <c r="BF38" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B38:$AY38, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG38" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD38*3)+BE38</f>
         <v>0</v>
       </c>
       <c r="BH38" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B38:AY38)</f>
         <v>-1</v>
       </c>
       <c r="BI38" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD38*3+BE38*1)/SUM(BC38*3)</f>
         <v>0</v>
       </c>
       <c r="BJ38" s="10"/>
@@ -5954,31 +5985,31 @@
         <v>35</v>
       </c>
       <c r="BC39" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNT(B39:AY39)</f>
         <v>1</v>
       </c>
       <c r="BD39" s="8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B39:$AY39, "&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="BE39" s="8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B39:$AY39, "0")</f>
         <v>0</v>
       </c>
       <c r="BF39" s="8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B39:$AY39, "&lt;0")</f>
         <v>1</v>
       </c>
       <c r="BG39" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(BD39*3)+BE39</f>
         <v>0</v>
       </c>
       <c r="BH39" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(B39:AY39)</f>
         <v>-9</v>
       </c>
       <c r="BI39" s="10">
-        <f t="shared" si="6"/>
+        <f>SUM(BD39*3+BE39*1)/SUM(BC39*3)</f>
         <v>0</v>
       </c>
       <c r="BJ39" s="10"/>
@@ -5988,87 +6019,87 @@
         <v>43</v>
       </c>
       <c r="B40" s="27">
-        <f t="shared" ref="B40:AD40" si="7">COUNT(B5:B39)</f>
+        <f t="shared" ref="B40:AD40" si="0">COUNT(B5:B39)</f>
         <v>16</v>
       </c>
       <c r="C40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="T40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="U40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="V40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="W40" s="27">
@@ -6076,115 +6107,115 @@
         <v>20</v>
       </c>
       <c r="X40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="Z40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AA40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AC40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AE40" s="27">
-        <f t="shared" ref="AE40:AY40" si="8">COUNT(AE5:AE39)</f>
+        <f t="shared" ref="AE40:AY40" si="1">COUNT(AE5:AE39)</f>
         <v>18</v>
       </c>
       <c r="AF40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AG40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AH40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AI40" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="AJ40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AX40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AY40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BC40" s="8"/>
@@ -6286,12 +6317,14 @@
         <v>157</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH41" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AI41" s="8"/>
+      <c r="AI41" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
@@ -6644,7 +6677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6676,10 +6709,10 @@
         <v>28</v>
       </c>
       <c r="K1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" t="s">
         <v>204</v>
-      </c>
-      <c r="L1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6733,14 +6766,14 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="1">SUM(C4*3)+D4</f>
+        <f>SUM(C4*3)+D4</f>
         <v>7</v>
       </c>
       <c r="K4">
         <v>24</v>
       </c>
       <c r="L4" s="69">
-        <f t="shared" ref="L4:L27" si="2">K4/B4</f>
+        <f t="shared" ref="L4:L27" si="1">K4/B4</f>
         <v>8</v>
       </c>
     </row>
@@ -6764,14 +6797,14 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>SUM(C5*3)+D5</f>
         <v>7</v>
       </c>
       <c r="K5">
         <v>27</v>
       </c>
       <c r="L5" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6795,14 +6828,14 @@
         <v>3</v>
       </c>
       <c r="G6" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(C6*3)+D6</f>
         <v>7</v>
       </c>
       <c r="K6">
         <v>19</v>
       </c>
       <c r="L6" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -6826,14 +6859,14 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>SUM(C7*3)+D7</f>
         <v>6</v>
       </c>
       <c r="K7">
         <v>19</v>
       </c>
       <c r="L7" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -6857,14 +6890,14 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>SUM(C8*3)+D8</f>
         <v>6</v>
       </c>
       <c r="K8">
         <v>16</v>
       </c>
       <c r="L8" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -6888,14 +6921,14 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>SUM(C9*3)+D9</f>
         <v>6</v>
       </c>
       <c r="K9">
         <v>13</v>
       </c>
       <c r="L9" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -6919,7 +6952,7 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>SUM(C10*3)+D10</f>
         <v>6</v>
       </c>
       <c r="H10" s="23"/>
@@ -6927,7 +6960,7 @@
         <v>28</v>
       </c>
       <c r="L10" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -6951,14 +6984,14 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>SUM(C11*3)+D11</f>
         <v>5</v>
       </c>
       <c r="K11">
         <v>21</v>
       </c>
       <c r="L11" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -6982,14 +7015,14 @@
         <v>-4</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>SUM(C12*3)+D12</f>
         <v>4</v>
       </c>
       <c r="K12">
         <v>25</v>
       </c>
       <c r="L12" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -7013,7 +7046,7 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>SUM(C13*3)+D13</f>
         <v>3</v>
       </c>
       <c r="H13" s="23"/>
@@ -7021,7 +7054,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -7045,14 +7078,14 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>SUM(C14*3)+D14</f>
         <v>3</v>
       </c>
       <c r="K14">
         <v>19</v>
       </c>
       <c r="L14" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
@@ -7076,20 +7109,20 @@
         <v>-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>SUM(C15*3)+D15</f>
         <v>3</v>
       </c>
       <c r="K15">
         <v>12</v>
       </c>
       <c r="L15" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -7104,23 +7137,23 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>SUM(C16*3)+D16</f>
         <v>3</v>
       </c>
       <c r="K16">
         <v>23</v>
       </c>
       <c r="L16" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -7135,85 +7168,85 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>SUM(C17*3)+D17</f>
         <v>3</v>
       </c>
       <c r="K17" s="36">
         <v>19</v>
       </c>
       <c r="L17" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(C18*3)+D18</f>
+        <v>3</v>
       </c>
       <c r="K18" s="36">
         <v>15</v>
       </c>
       <c r="L18" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C19*3)+D19</f>
+        <v>2</v>
       </c>
       <c r="K19" s="36">
         <v>22</v>
       </c>
       <c r="L19" s="69">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -7231,23 +7264,23 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f>SUM(C20*3)+D20</f>
         <v>1</v>
       </c>
       <c r="K20" s="68">
         <v>14</v>
       </c>
       <c r="L20" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -7256,52 +7289,52 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>SUM(C21*3)+D21</f>
         <v>1</v>
       </c>
       <c r="K21" s="36">
         <v>25</v>
       </c>
       <c r="L21" s="69">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
+        <f t="shared" si="1"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C22*3)+D22</f>
+        <v>1</v>
       </c>
       <c r="K22" s="36">
         <v>5</v>
       </c>
       <c r="L22" s="69">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -7324,20 +7357,20 @@
         <v>-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f>SUM(C23*3)+D23</f>
         <v>0</v>
       </c>
       <c r="K23" s="36">
         <v>12</v>
       </c>
       <c r="L23" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -7352,17 +7385,17 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f>SUM(C24*3)+D24</f>
         <v>0</v>
       </c>
       <c r="K24" s="36">
         <v>15</v>
       </c>
       <c r="L24" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
@@ -7386,14 +7419,14 @@
         <v>-4</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f>SUM(C25*3)+D25</f>
         <v>0</v>
       </c>
       <c r="K25" s="36">
         <v>25</v>
       </c>
       <c r="L25" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -7417,14 +7450,14 @@
         <v>-8</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f>SUM(C26*3)+D26</f>
         <v>0</v>
       </c>
       <c r="K26" s="36">
         <v>8</v>
       </c>
       <c r="L26" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -7448,14 +7481,14 @@
         <v>-9</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f>SUM(C27*3)+D27</f>
         <v>0</v>
       </c>
       <c r="K27" s="36">
         <v>1</v>
       </c>
       <c r="L27" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7464,7 +7497,7 @@
         <v>75</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G29" si="3">SUM(C28*3)+D28</f>
+        <f t="shared" ref="G28:G29" si="2">SUM(C28*3)+D28</f>
         <v>0</v>
       </c>
       <c r="K28" s="36">
@@ -7476,7 +7509,7 @@
         <v>98</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="36">
@@ -7488,7 +7521,7 @@
         <v>19</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="4">SUM(C30*3)+D30</f>
+        <f t="shared" ref="G30:G35" si="3">SUM(C30*3)+D30</f>
         <v>0</v>
       </c>
       <c r="K30" s="36">
@@ -7500,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K31">
@@ -7512,7 +7545,7 @@
         <v>84</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -7524,7 +7557,7 @@
         <v>101</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K33">
@@ -7536,7 +7569,7 @@
         <v>20</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34">
@@ -7548,7 +7581,7 @@
         <v>100</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K35">
@@ -7557,10 +7590,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G12">
-    <sortCondition descending="1" ref="G4:G12"/>
-    <sortCondition descending="1" ref="F4:F12"/>
-    <sortCondition ref="B4:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G27">
+    <sortCondition descending="1" ref="G4:G27"/>
+    <sortCondition descending="1" ref="F4:F27"/>
+    <sortCondition ref="B4:B27"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7578,7 +7611,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:BC35"/>
+      <selection pane="bottomRight" activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7919,44 +7952,44 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="50"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="7">
-        <v>4</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <v>2</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>3</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="50"/>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7">
+        <v>3</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7">
         <v>1</v>
       </c>
-      <c r="W5" s="7"/>
+      <c r="W5" s="7">
+        <v>3</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -7965,12 +7998,12 @@
       <c r="AC5" s="67"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="7">
-        <v>1</v>
-      </c>
+      <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
+      <c r="AI5" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
@@ -7993,23 +8026,20 @@
         <v>14</v>
       </c>
       <c r="BB5" s="8">
-        <v>2</v>
-      </c>
-      <c r="BC5" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7">
         <v>2</v>
       </c>
@@ -8017,12 +8047,16 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>4</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
       <c r="N6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -8030,31 +8064,23 @@
       <c r="R6" s="50"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7">
-        <v>2</v>
-      </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7">
-        <v>1</v>
-      </c>
-      <c r="X6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>1</v>
-      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="50"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="67"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="7">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -8079,62 +8105,68 @@
         <v>14</v>
       </c>
       <c r="BB6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
       <c r="H7" s="50"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3</v>
-      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="50"/>
-      <c r="S7" s="7">
-        <v>3</v>
-      </c>
+      <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7">
-        <v>1</v>
-      </c>
+      <c r="U7" s="7">
+        <v>2</v>
+      </c>
+      <c r="V7" s="7"/>
       <c r="W7" s="7">
-        <v>3</v>
-      </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="50"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="67"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
+      <c r="AE7" s="7">
+        <v>2</v>
+      </c>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
+      <c r="AG7" s="7">
+        <v>1</v>
+      </c>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
@@ -8156,25 +8188,30 @@
       <c r="AZ7" s="28"/>
       <c r="BA7" s="23">
         <f>SUM(B7:AY7)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB7" s="8">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BC7" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="50"/>
       <c r="I8" s="7"/>
@@ -8182,42 +8219,32 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="50"/>
-      <c r="S8" s="7">
-        <v>1</v>
-      </c>
+      <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z8" s="7"/>
       <c r="AA8" s="50"/>
-      <c r="AB8" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB8" s="7"/>
       <c r="AC8" s="67"/>
-      <c r="AD8" s="7"/>
+      <c r="AD8" s="7">
+        <v>1</v>
+      </c>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="7">
-        <v>3</v>
-      </c>
+      <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
+      <c r="AI8" s="7">
+        <v>4</v>
+      </c>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -8240,7 +8267,7 @@
         <v>13</v>
       </c>
       <c r="BB8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" s="8">
         <v>1</v>
@@ -8248,53 +8275,47 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="50"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
+      <c r="M9" s="7"/>
       <c r="N9" s="7">
         <v>1</v>
       </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
+      <c r="O9" s="7"/>
       <c r="P9" s="7">
         <v>1</v>
       </c>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
       <c r="R9" s="50"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7">
-        <v>1</v>
-      </c>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="7">
-        <v>1</v>
-      </c>
+      <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7">
-        <v>1</v>
-      </c>
+      <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="Z9" s="7">
+        <v>2</v>
+      </c>
       <c r="AA9" s="50"/>
       <c r="AB9" s="7">
         <v>1</v>
@@ -8302,10 +8323,10 @@
       <c r="AC9" s="67"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7">
-        <v>1</v>
-      </c>
+      <c r="AF9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
@@ -8327,12 +8348,18 @@
       <c r="AZ9" s="28"/>
       <c r="BA9" s="23">
         <f>SUM(B9:AY9)</f>
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -8341,47 +8368,59 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="50"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="50"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7">
         <v>1</v>
       </c>
-      <c r="U10" s="7">
-        <v>1</v>
-      </c>
-      <c r="V10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7">
+        <v>1</v>
+      </c>
       <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7">
-        <v>1</v>
-      </c>
+      <c r="X10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="50"/>
-      <c r="AB10" s="7"/>
+      <c r="AB10" s="7">
+        <v>1</v>
+      </c>
       <c r="AC10" s="67"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
+      <c r="AI10" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -8401,64 +8440,59 @@
       <c r="AZ10" s="28"/>
       <c r="BA10" s="23">
         <f>SUM(B10:AY10)</f>
-        <v>10</v>
-      </c>
-      <c r="BB10" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
       <c r="H11" s="50"/>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="50"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="T11" s="7">
+        <v>1</v>
+      </c>
       <c r="U11" s="7">
         <v>1</v>
       </c>
       <c r="V11" s="7"/>
-      <c r="W11" s="7">
-        <v>1</v>
-      </c>
+      <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7">
-        <v>2</v>
-      </c>
+      <c r="Y11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="50"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="67"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
+      <c r="AG11" s="7">
+        <v>4</v>
+      </c>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
@@ -8482,30 +8516,34 @@
         <f>SUM(B11:AY11)</f>
         <v>10</v>
       </c>
-      <c r="BC11" s="8">
-        <v>2</v>
+      <c r="BB11" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>4</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -8513,22 +8551,28 @@
       <c r="R12" s="50"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
+      <c r="U12" s="7">
+        <v>1</v>
+      </c>
       <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7">
+        <v>1</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="7">
+        <v>2</v>
+      </c>
       <c r="AA12" s="50"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="67"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="7">
+        <v>2</v>
+      </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
-      <c r="AH12" s="7">
-        <v>2</v>
-      </c>
+      <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
@@ -8549,10 +8593,7 @@
       <c r="AZ12" s="28"/>
       <c r="BA12" s="23">
         <f>SUM(B12:AY12)</f>
-        <v>9</v>
-      </c>
-      <c r="BB12" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC12" s="8">
         <v>2</v>
@@ -8561,19 +8602,17 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="50"/>
       <c r="I13" s="7"/>
@@ -8583,28 +8622,34 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="50"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
+      <c r="W13" s="7">
+        <v>1</v>
+      </c>
+      <c r="X13" s="7">
+        <v>1</v>
+      </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="50"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="67"/>
-      <c r="AD13" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
+      <c r="AI13" s="7">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
@@ -8624,24 +8669,22 @@
       <c r="AZ13" s="28"/>
       <c r="BA13" s="23">
         <f>SUM(B13:AY13)</f>
-        <v>9</v>
-      </c>
-      <c r="BB13" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="50"/>
       <c r="I14" s="7"/>
@@ -8651,33 +8694,27 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>2</v>
-      </c>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="50"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="7">
-        <v>2</v>
-      </c>
-      <c r="X14" s="7">
-        <v>3</v>
-      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="67"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
+      <c r="AH14" s="7">
+        <v>2</v>
+      </c>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
@@ -8698,61 +8735,60 @@
       <c r="AZ14" s="28"/>
       <c r="BA14" s="23">
         <f>SUM(B14:AY14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB14" s="8">
         <v>1</v>
+      </c>
+      <c r="BC14" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="50"/>
-      <c r="I15" s="7">
-        <v>2</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7">
-        <v>2</v>
-      </c>
-      <c r="P15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
+        <v>2</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="50"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+      <c r="W15" s="7">
+        <v>2</v>
+      </c>
+      <c r="X15" s="7">
+        <v>3</v>
+      </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="50"/>
-      <c r="AB15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="7"/>
       <c r="AC15" s="67"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
+      <c r="AE15" s="7">
+        <v>1</v>
+      </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
@@ -8775,58 +8811,54 @@
         <f>SUM(B15:AY15)</f>
         <v>8</v>
       </c>
-      <c r="BC15" s="8">
+      <c r="BB15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7">
+        <v>2</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="50"/>
-      <c r="S16" s="7">
-        <v>1</v>
-      </c>
+      <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>1</v>
-      </c>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="50"/>
-      <c r="AB16" s="7"/>
+      <c r="AB16" s="7">
+        <v>1</v>
+      </c>
       <c r="AC16" s="67"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7">
@@ -8854,41 +8886,50 @@
         <f>SUM(B16:AY16)</f>
         <v>8</v>
       </c>
+      <c r="BC16" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="50"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="50"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7">
+        <v>1</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>1</v>
+      </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="50"/>
       <c r="AB17" s="7"/>
@@ -8900,7 +8941,7 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
@@ -8922,60 +8963,59 @@
       <c r="AZ17" s="28"/>
       <c r="BA17" s="23">
         <f>SUM(B17:AY17)</f>
-        <v>7</v>
-      </c>
-      <c r="BC17" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>3</v>
-      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="50"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>3</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7">
-        <v>1</v>
-      </c>
+      <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="50"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="7">
-        <v>1</v>
-      </c>
-      <c r="X18" s="7">
-        <v>1</v>
-      </c>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7">
+        <v>1</v>
+      </c>
       <c r="AA18" s="50"/>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="7">
+        <v>1</v>
+      </c>
       <c r="AC18" s="67"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
+      <c r="AF18" s="7">
+        <v>1</v>
+      </c>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
+      <c r="AI18" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
@@ -8995,18 +9035,20 @@
       <c r="AZ18" s="28"/>
       <c r="BA18" s="23">
         <f>SUM(B18:AY18)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF18" s="23"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -9014,10 +9056,10 @@
       <c r="H19" s="50"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7">
-        <v>3</v>
-      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -9031,21 +9073,19 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="50"/>
-      <c r="AB19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="67"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
+      <c r="AH19" s="7">
+        <v>2</v>
+      </c>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
@@ -9067,6 +9107,9 @@
       <c r="BA19" s="23">
         <f>SUM(B19:AY19)</f>
         <v>7</v>
+      </c>
+      <c r="BC19" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
@@ -9758,7 +9801,7 @@
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10174,7 +10217,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="23">
-        <f t="shared" ref="BA36" si="0">SUM(B36:AY36)</f>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -10316,7 +10359,7 @@
       </c>
       <c r="AI38" s="8">
         <f>'League Table'!AI40</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AJ38" s="8">
         <f>'League Table'!AJ40</f>
@@ -10380,199 +10423,199 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="X40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AC40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AF40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AG40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AH40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AI40" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="AJ40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AN40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AO40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AP40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AR40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AS40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC35">
-    <sortCondition descending="1" ref="BA3:BA35"/>
-    <sortCondition descending="1" ref="BB3:BB35"/>
-    <sortCondition descending="1" ref="BC3:BC35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC36">
+    <sortCondition descending="1" ref="BA3:BA36"/>
+    <sortCondition descending="1" ref="BB3:BB36"/>
+    <sortCondition descending="1" ref="BC3:BC36"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10589,10 +10632,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS19" sqref="AS19"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:BA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10914,7 +10957,7 @@
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="BA5">
-        <f t="shared" ref="BA5:BA38" si="0">SUM(B5:AY5)</f>
+        <f>SUM(B5:AY5)</f>
         <v>26</v>
       </c>
     </row>
@@ -10997,7 +11040,7 @@
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="BA6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:AY6)</f>
         <v>21</v>
       </c>
     </row>
@@ -11084,7 +11127,7 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="BA7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:AY7)</f>
         <v>21</v>
       </c>
     </row>
@@ -11161,7 +11204,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
       <c r="BA8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:AY8)</f>
         <v>15</v>
       </c>
     </row>
@@ -11236,7 +11279,7 @@
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="BA9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AY9)</f>
         <v>12</v>
       </c>
     </row>
@@ -11289,7 +11332,9 @@
       <c r="AH10" s="7">
         <v>1</v>
       </c>
-      <c r="AI10" s="7"/>
+      <c r="AI10" s="7">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -11307,8 +11352,8 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="BA10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(B10:AY10)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
@@ -11378,7 +11423,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:AY11)</f>
         <v>8</v>
       </c>
     </row>
@@ -11445,7 +11490,7 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:AY12)</f>
         <v>7</v>
       </c>
     </row>
@@ -11514,7 +11559,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AY13)</f>
         <v>7</v>
       </c>
     </row>
@@ -11579,7 +11624,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AY14)</f>
         <v>7</v>
       </c>
     </row>
@@ -11648,7 +11693,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AY15)</f>
         <v>5</v>
       </c>
     </row>
@@ -11717,7 +11762,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AY16)</f>
         <v>5</v>
       </c>
     </row>
@@ -11786,13 +11831,13 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AY17)</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -11806,7 +11851,9 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -11816,22 +11863,22 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7">
-        <v>2</v>
-      </c>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="7">
+        <v>1</v>
+      </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
-      <c r="AH18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
@@ -11849,35 +11896,29 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:AY18)</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="50"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7">
-        <v>1</v>
-      </c>
+      <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -11885,7 +11926,9 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="7">
+        <v>2</v>
+      </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -11895,7 +11938,9 @@
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
+      <c r="AH19" s="7">
+        <v>1</v>
+      </c>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
@@ -11914,18 +11959,20 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AY19)</f>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="50"/>
@@ -11933,9 +11980,7 @@
       <c r="J20" s="7">
         <v>1</v>
       </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
+      <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -11979,13 +12024,13 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AY20)</f>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -11995,15 +12040,19 @@
       <c r="G21" s="7"/>
       <c r="H21" s="50"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="P21" s="7">
+        <v>1</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -12018,9 +12067,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
-      <c r="AE21" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
@@ -12042,13 +12089,13 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B21:AY21)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -12081,13 +12128,13 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
+      <c r="AI22" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
@@ -12105,19 +12152,21 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:AY22)</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="50"/>
       <c r="I23" s="7"/>
@@ -12128,9 +12177,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -12143,10 +12190,10 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-      <c r="AD23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7">
+        <v>1</v>
+      </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
@@ -12168,13 +12215,13 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AY23)</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -12188,12 +12235,12 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="7">
-        <v>1</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -12206,7 +12253,9 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
+      <c r="AD24" s="7">
+        <v>1</v>
+      </c>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
@@ -12229,13 +12278,13 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B24:AY24)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -12249,7 +12298,9 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -12269,9 +12320,7 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -12290,13 +12339,13 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AY25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -12310,9 +12359,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="7">
-        <v>1</v>
-      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -12332,7 +12379,9 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
+      <c r="AH26" s="7">
+        <v>1</v>
+      </c>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
@@ -12351,13 +12400,13 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AY26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -12371,12 +12420,12 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -12412,13 +12461,13 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AY27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -12428,16 +12477,16 @@
       <c r="G28" s="7"/>
       <c r="H28" s="50"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -12473,25 +12522,25 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AY28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="50"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -12534,7 +12583,7 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AY29)</f>
         <v>1</v>
       </c>
     </row>
@@ -12595,7 +12644,7 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AY30)</f>
         <v>1</v>
       </c>
     </row>
@@ -12654,7 +12703,7 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AY31)</f>
         <v>0</v>
       </c>
     </row>
@@ -12713,7 +12762,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AY32)</f>
         <v>0</v>
       </c>
     </row>
@@ -12772,7 +12821,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AY33)</f>
         <v>0</v>
       </c>
     </row>
@@ -12831,7 +12880,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AY34)</f>
         <v>0</v>
       </c>
     </row>
@@ -12890,7 +12939,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AY35)</f>
         <v>0</v>
       </c>
     </row>
@@ -12949,7 +12998,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f t="shared" si="0"/>
+        <f>SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -13008,7 +13057,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f t="shared" si="0"/>
+        <f>SUM(B37:AY37)</f>
         <v>0</v>
       </c>
     </row>
@@ -13065,7 +13114,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f t="shared" si="0"/>
+        <f>SUM(B38:AY38)</f>
         <v>0</v>
       </c>
     </row>
@@ -13180,208 +13229,208 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="1">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="0">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V41" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X41" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE41" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AI41" s="8">
+        <f t="shared" ref="AI41:AX41" si="1">SUM(AI5:AI39)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="8">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="8">
+      <c r="AP41" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="8">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T41" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V41" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="W41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="X41" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Y41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Z41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA41" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AB41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AE41" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AF41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AG41" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AH41" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="2">SUM(AI5:AI39)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AN41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AO41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AP41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AS41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AT41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AV41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AW41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AX41" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="3">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="2">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -13403,7 +13452,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13710,7 +13759,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L13" s="8">
         <v>2</v>
@@ -13884,7 +13933,9 @@
       <c r="K18" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8">
+        <v>2</v>
+      </c>
       <c r="M18" s="8" t="s">
         <v>197</v>
       </c>
@@ -13938,7 +13989,7 @@
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -13948,7 +13999,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N20" s="8">
         <v>3</v>
@@ -13982,7 +14033,7 @@
         <v>163</v>
       </c>
       <c r="N21" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -14003,6 +14054,9 @@
       <c r="H22" s="8" t="s">
         <v>138</v>
       </c>
+      <c r="I22" s="8">
+        <v>3</v>
+      </c>
       <c r="K22" s="8" t="s">
         <v>190</v>
       </c>
@@ -14066,11 +14120,11 @@
         <v>130</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N24" s="8">
         <v>2</v>
@@ -14106,7 +14160,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>193</v>
@@ -14131,7 +14185,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>159</v>
@@ -14144,7 +14198,7 @@
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K27" s="8"/>
       <c r="M27" s="8" t="s">
@@ -14163,7 +14217,7 @@
       <c r="E28" s="31"/>
       <c r="G28" s="31"/>
       <c r="H28" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K28" s="8"/>
       <c r="M28" s="8" t="s">
@@ -14175,13 +14229,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>197</v>
@@ -14210,7 +14264,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>166</v>
@@ -14230,7 +14284,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>187</v>
@@ -14239,10 +14293,10 @@
         <v>130</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -14250,13 +14304,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>159</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>197</v>
@@ -14267,10 +14321,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>214</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>215</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>131</v>
@@ -14284,13 +14338,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>171</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>118</v>
@@ -14300,10 +14354,18 @@
       <c r="A36" s="31">
         <v>34</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="31">

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD3933-0587-D841-B170-8C62AF77A272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE748385-9343-1C43-957D-F6FF5AF22B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="2360" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Board Room" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Board Room'!$A$1:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Board Room'!$A$1:$F$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Captains!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'League Table'!$A$3:$BJ$40</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="219">
   <si>
     <t>WK 1</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Phantom</t>
   </si>
   <si>
-    <t>NEWMARK</t>
-  </si>
-  <si>
     <t>MOO</t>
   </si>
   <si>
@@ -693,10 +690,13 @@
     <t>Matt</t>
   </si>
   <si>
-    <t>DAY OFF DICKY / GUEST</t>
-  </si>
-  <si>
     <t>Carzola - Dwarf</t>
+  </si>
+  <si>
+    <t>Carlos - Sonesy</t>
+  </si>
+  <si>
+    <t>ROB THE ELDER</t>
   </si>
 </sst>
 </file>
@@ -1577,10 +1577,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX21" sqref="AX21"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2108,7 +2108,9 @@
         <v>2</v>
       </c>
       <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
+      <c r="AJ5" s="18">
+        <v>1</v>
+      </c>
       <c r="AK5" s="18"/>
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
@@ -2131,11 +2133,11 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
         <f>COUNT(B5:AY5)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD5" s="8">
         <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE5" s="8">
         <f>COUNTIF($B5:$AY5, "0")</f>
@@ -2147,15 +2149,15 @@
       </c>
       <c r="BG5" s="8">
         <f>SUM(BD5*3)+BE5</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BH5" s="8">
         <f>SUM(B5:AY5)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BI5" s="10">
         <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.65432098765432101</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -2249,7 +2251,9 @@
       <c r="AI6" s="30">
         <v>1</v>
       </c>
-      <c r="AJ6" s="30"/>
+      <c r="AJ6" s="30">
+        <v>1</v>
+      </c>
       <c r="AK6" s="30"/>
       <c r="AL6" s="30"/>
       <c r="AM6" s="30"/>
@@ -2270,11 +2274,11 @@
       </c>
       <c r="BC6" s="8">
         <f>COUNT(B6:AY6)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD6" s="8">
         <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE6" s="8">
         <f>COUNTIF($B6:$AY6, "0")</f>
@@ -2286,15 +2290,15 @@
       </c>
       <c r="BG6" s="8">
         <f>SUM(BD6*3)+BE6</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BH6" s="8">
         <f>SUM(B6:AY6)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI6" s="10">
         <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.5641025641025641</v>
+        <v>0.58024691358024694</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
@@ -2392,7 +2396,9 @@
         <v>2</v>
       </c>
       <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
+      <c r="AJ7" s="7">
+        <v>-1</v>
+      </c>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
@@ -2413,7 +2419,7 @@
       </c>
       <c r="BC7" s="8">
         <f>COUNT(B7:AY7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD7" s="8">
         <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
@@ -2425,7 +2431,7 @@
       </c>
       <c r="BF7" s="8">
         <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG7" s="8">
         <f>SUM(BD7*3)+BE7</f>
@@ -2433,11 +2439,11 @@
       </c>
       <c r="BH7" s="8">
         <f>SUM(B7:AY7)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BI7" s="10">
         <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.48809523809523808</v>
+        <v>0.47126436781609193</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
@@ -2529,7 +2535,9 @@
       <c r="AI8" s="18">
         <v>1</v>
       </c>
-      <c r="AJ8" s="18"/>
+      <c r="AJ8" s="18">
+        <v>1</v>
+      </c>
       <c r="AK8" s="18"/>
       <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
@@ -2550,11 +2558,11 @@
       </c>
       <c r="BC8" s="8">
         <f>COUNT(B8:AY8)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD8" s="8">
         <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE8" s="8">
         <f>COUNTIF($B8:$AY8, "0")</f>
@@ -2566,97 +2574,111 @@
       </c>
       <c r="BG8" s="8">
         <f>SUM(BD8*3)+BE8</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BH8" s="8">
         <f>SUM(B8:AY8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8" s="10">
         <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.50666666666666671</v>
+        <v>0.52564102564102566</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B9" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="16">
-        <v>9</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="47">
         <v>0</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
+      <c r="I9" s="16">
+        <v>-7</v>
+      </c>
+      <c r="J9" s="16">
+        <v>8</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2</v>
+      </c>
+      <c r="M9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>3</v>
+      </c>
       <c r="R9" s="51"/>
       <c r="S9" s="16">
         <v>-2</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T9" s="16">
         <v>1</v>
       </c>
       <c r="U9" s="16"/>
-      <c r="V9" s="47">
+      <c r="V9" s="16">
         <v>8</v>
       </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
+      <c r="W9" s="16"/>
       <c r="X9" s="16">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="16">
         <v>0</v>
       </c>
-      <c r="Z9" s="16">
-        <v>2</v>
+      <c r="Z9" s="47">
+        <v>-2</v>
       </c>
       <c r="AA9" s="51"/>
       <c r="AB9" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="66"/>
       <c r="AD9" s="16">
         <v>0</v>
       </c>
       <c r="AE9" s="16">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="16">
         <v>-2</v>
       </c>
       <c r="AG9" s="16">
-        <v>5</v>
-      </c>
-      <c r="AH9" s="16">
-        <v>2</v>
+        <v>-5</v>
+      </c>
+      <c r="AH9" s="47">
+        <v>-2</v>
       </c>
       <c r="AI9" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="16"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>1</v>
+      </c>
       <c r="AK9" s="16"/>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
@@ -2677,7 +2699,7 @@
       </c>
       <c r="BC9" s="8">
         <f>COUNT(B9:AY9)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="BD9" s="8">
         <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
@@ -2685,117 +2707,107 @@
       </c>
       <c r="BE9" s="8">
         <f>COUNTIF($B9:$AY9, "0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF9" s="8">
         <f>COUNTIF($B9:$AY9, "&lt;0")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BG9" s="8">
         <f>SUM(BD9*3)+BE9</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BH9" s="8">
         <f>SUM(B9:AY9)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BI9" s="10">
         <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.6166666666666667</v>
+        <v>0.46913580246913578</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B10" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="16">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
       <c r="F10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="47">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
         <v>0</v>
       </c>
       <c r="H10" s="51"/>
-      <c r="I10" s="16">
-        <v>-7</v>
-      </c>
-      <c r="J10" s="16">
-        <v>8</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>2</v>
-      </c>
-      <c r="M10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>3</v>
-      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="51"/>
       <c r="S10" s="16">
         <v>-2</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="47">
         <v>1</v>
       </c>
       <c r="U10" s="16"/>
-      <c r="V10" s="16">
+      <c r="V10" s="47">
         <v>8</v>
       </c>
-      <c r="W10" s="16"/>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
       <c r="X10" s="16">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y10" s="16">
         <v>0</v>
       </c>
-      <c r="Z10" s="47">
-        <v>-2</v>
+      <c r="Z10" s="16">
+        <v>2</v>
       </c>
       <c r="AA10" s="51"/>
       <c r="AB10" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10" s="66"/>
       <c r="AD10" s="16">
         <v>0</v>
       </c>
       <c r="AE10" s="16">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF10" s="16">
         <v>-2</v>
       </c>
       <c r="AG10" s="16">
-        <v>-5</v>
-      </c>
-      <c r="AH10" s="47">
-        <v>-2</v>
+        <v>5</v>
+      </c>
+      <c r="AH10" s="16">
+        <v>2</v>
       </c>
       <c r="AI10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="16">
         <v>-1</v>
       </c>
-      <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
@@ -2816,31 +2828,31 @@
       </c>
       <c r="BC10" s="8">
         <f>COUNT(B10:AY10)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BD10" s="8">
         <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BE10" s="8">
         <f>COUNTIF($B10:$AY10, "0")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF10" s="8">
         <f>COUNTIF($B10:$AY10, "&lt;0")</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BG10" s="8">
         <f>SUM(BD10*3)+BE10</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BH10" s="8">
         <f>SUM(B10:AY10)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BI10" s="10">
         <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.44871794871794873</v>
+        <v>0.58730158730158732</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
@@ -2926,7 +2938,9 @@
       <c r="AI11" s="7">
         <v>-1</v>
       </c>
-      <c r="AJ11" s="7"/>
+      <c r="AJ11" s="7">
+        <v>-1</v>
+      </c>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
@@ -2947,7 +2961,7 @@
       </c>
       <c r="BC11" s="8">
         <f>COUNT(B11:AY11)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD11" s="8">
         <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
@@ -2959,7 +2973,7 @@
       </c>
       <c r="BF11" s="8">
         <f>COUNTIF($B11:$AY11, "&lt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG11" s="8">
         <f>SUM(BD11*3)+BE11</f>
@@ -2967,11 +2981,11 @@
       </c>
       <c r="BH11" s="8">
         <f>SUM(B11:AY11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI11" s="10">
         <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.48484848484848486</v>
+        <v>0.46376811594202899</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
@@ -3051,7 +3065,9 @@
       </c>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
+      <c r="AJ12" s="7">
+        <v>-1</v>
+      </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
@@ -3072,7 +3088,7 @@
       </c>
       <c r="BC12" s="8">
         <f>COUNT(B12:AY12)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" s="8">
         <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
@@ -3084,7 +3100,7 @@
       </c>
       <c r="BF12" s="8">
         <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG12" s="8">
         <f>SUM(BD12*3)+BE12</f>
@@ -3092,11 +3108,11 @@
       </c>
       <c r="BH12" s="8">
         <f>SUM(B12:AY12)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BI12" s="10">
         <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.54385964912280704</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
@@ -3190,7 +3206,9 @@
       <c r="AI13" s="7">
         <v>1</v>
       </c>
-      <c r="AJ13" s="7"/>
+      <c r="AJ13" s="7">
+        <v>-1</v>
+      </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
@@ -3211,7 +3229,7 @@
       </c>
       <c r="BC13" s="8">
         <f>COUNT(B13:AY13)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD13" s="8">
         <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
@@ -3223,7 +3241,7 @@
       </c>
       <c r="BF13" s="8">
         <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG13" s="8">
         <f>SUM(BD13*3)+BE13</f>
@@ -3231,11 +3249,11 @@
       </c>
       <c r="BH13" s="8">
         <f>SUM(B13:AY13)</f>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="BI13" s="10">
         <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.39743589743589741</v>
+        <v>0.38271604938271603</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
@@ -3374,29 +3392,35 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7">
         <v>-1</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-1</v>
+      </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="50"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="45">
-        <v>-8</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="I15" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>2</v>
+      </c>
       <c r="M15" s="7">
         <v>1</v>
       </c>
@@ -3404,32 +3428,32 @@
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <v>3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="50"/>
-      <c r="S15" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="45">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V15" s="7">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="W15" s="7">
         <v>0</v>
       </c>
       <c r="X15" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y15" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0</v>
+      </c>
       <c r="Z15" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA15" s="50"/>
       <c r="AB15" s="7"/>
@@ -3437,20 +3461,24 @@
       <c r="AD15" s="7">
         <v>0</v>
       </c>
-      <c r="AE15" s="45">
+      <c r="AE15" s="7">
         <v>-4</v>
       </c>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7">
-        <v>5</v>
+      <c r="AF15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="45">
+        <v>-5</v>
       </c>
       <c r="AH15" s="7">
         <v>-2</v>
       </c>
       <c r="AI15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>1</v>
+      </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
@@ -3471,7 +3499,7 @@
       </c>
       <c r="BC15" s="8">
         <f>COUNT(B15:AY15)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BD15" s="8">
         <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
@@ -3479,57 +3507,51 @@
       </c>
       <c r="BE15" s="8">
         <f>COUNTIF($B15:$AY15, "0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF15" s="8">
         <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG15" s="8">
         <f>SUM(BD15*3)+BE15</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BH15" s="8">
         <f>SUM(B15:AY15)</f>
-        <v>-9</v>
+        <v>-19</v>
       </c>
       <c r="BI15" s="10">
         <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B16" s="7">
         <v>-1</v>
       </c>
       <c r="C16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="7">
         <v>0</v>
       </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="45">
-        <v>2</v>
-      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="45">
+        <v>-8</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="7">
         <v>1</v>
       </c>
@@ -3537,32 +3559,32 @@
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>3</v>
+      </c>
       <c r="R16" s="50"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="7">
+        <v>-2</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="45">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V16" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W16" s="7">
         <v>0</v>
       </c>
       <c r="X16" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>0</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA16" s="50"/>
       <c r="AB16" s="7"/>
@@ -3570,20 +3592,18 @@
       <c r="AD16" s="7">
         <v>0</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AE16" s="45">
         <v>-4</v>
       </c>
-      <c r="AF16" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG16" s="45">
-        <v>-5</v>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7">
+        <v>5</v>
       </c>
       <c r="AH16" s="7">
         <v>-2</v>
       </c>
       <c r="AI16" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
@@ -3606,31 +3626,31 @@
       </c>
       <c r="BC16" s="8">
         <f>COUNT(B16:AY16)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BD16" s="8">
         <f>COUNTIF($B16:$AY16, "&gt;=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE16" s="8">
         <f>COUNTIF($B16:$AY16, "0")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF16" s="8">
         <f>COUNTIF($B16:$AY16, "&lt;0")</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BG16" s="8">
         <f>SUM(BD16*3)+BE16</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BH16" s="8">
         <f>SUM(B16:AY16)</f>
-        <v>-20</v>
+        <v>-9</v>
       </c>
       <c r="BI16" s="10">
         <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
-        <v>0.375</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ16" s="10"/>
     </row>
@@ -3704,7 +3724,9 @@
         <v>2</v>
       </c>
       <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
+      <c r="AJ17" s="45">
+        <v>-1</v>
+      </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
@@ -3725,7 +3747,7 @@
       </c>
       <c r="BC17" s="8">
         <f>COUNT(B17:AY17)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" s="8">
         <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
@@ -3737,7 +3759,7 @@
       </c>
       <c r="BF17" s="8">
         <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG17" s="8">
         <f>SUM(BD17*3)+BE17</f>
@@ -3745,11 +3767,11 @@
       </c>
       <c r="BH17" s="8">
         <f>SUM(B17:AY17)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI17" s="10">
         <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.52083333333333337</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
@@ -4581,7 +4603,7 @@
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4631,7 +4653,9 @@
       <c r="AI25" s="7">
         <v>1</v>
       </c>
-      <c r="AJ25" s="7"/>
+      <c r="AJ25" s="7">
+        <v>-1</v>
+      </c>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
@@ -4652,7 +4676,7 @@
       </c>
       <c r="BC25" s="8">
         <f>COUNT(B25:AY25)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD25" s="8">
         <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
@@ -4664,7 +4688,7 @@
       </c>
       <c r="BF25" s="8">
         <f>COUNTIF($B25:$AY25, "&lt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG25" s="8">
         <f>SUM(BD25*3)+BE25</f>
@@ -4672,11 +4696,11 @@
       </c>
       <c r="BH25" s="8">
         <f>SUM(B25:AY25)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI25" s="10">
         <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.52380952380952384</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
@@ -4785,17 +4809,15 @@
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="7">
-        <v>9</v>
-      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="50"/>
       <c r="I27" s="7"/>
@@ -4811,25 +4833,33 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
+      <c r="V27" s="7">
+        <v>-8</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+      <c r="X27" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
+      <c r="Z27" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA27" s="50"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="65"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
+      <c r="AE27" s="7">
+        <v>4</v>
+      </c>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI27" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AJ27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="45">
+        <v>1</v>
+      </c>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
@@ -4850,7 +4880,7 @@
       </c>
       <c r="BC27" s="8">
         <f>COUNT(B27:AY27)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD27" s="8">
         <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
@@ -4858,78 +4888,58 @@
       </c>
       <c r="BE27" s="8">
         <f>COUNTIF($B27:$AY27, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="8">
         <f>COUNTIF($B27:$AY27, "&lt;0")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG27" s="8">
         <f>SUM(BD27*3)+BE27</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BH27" s="8">
         <f>SUM(B27:AY27)</f>
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="BI27" s="10">
         <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
-        <v>0.75</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="45">
-        <v>-1</v>
-      </c>
+      <c r="D28" s="7">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="50"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="45">
-        <v>-1</v>
-      </c>
+      <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P28" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>3</v>
-      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
       <c r="R28" s="50"/>
-      <c r="S28" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V28" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>0</v>
-      </c>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="50"/>
       <c r="AB28" s="7"/>
@@ -4938,8 +4948,12 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
+      <c r="AH28" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="7">
+        <v>-1</v>
+      </c>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
@@ -4961,70 +4975,86 @@
       </c>
       <c r="BC28" s="8">
         <f>COUNT(B28:AY28)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BD28" s="8">
         <f>COUNTIF($B28:$AY28, "&gt;=1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE28" s="8">
         <f>COUNTIF($B28:$AY28, "0")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="8">
         <f>COUNTIF($B28:$AY28, "&lt;0")</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BG28" s="8">
         <f>SUM(BD28*3)+BE28</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH28" s="8">
         <f>SUM(B28:AY28)</f>
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="BI28" s="10">
         <f>SUM(BD28*3+BE28*1)/SUM(BC28*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="45">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="50"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="45">
+        <v>-1</v>
+      </c>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="O29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>3</v>
+      </c>
       <c r="R29" s="50"/>
       <c r="S29" s="7">
-        <v>2</v>
-      </c>
-      <c r="T29" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U29" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7">
+        <v>-4</v>
+      </c>
       <c r="V29" s="7">
-        <v>8</v>
-      </c>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
+        <v>-8</v>
+      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7">
+        <v>-5</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>0</v>
+      </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="50"/>
       <c r="AB29" s="7"/>
@@ -5056,7 +5086,7 @@
       </c>
       <c r="BC29" s="8">
         <f>COUNT(B29:AY29)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD29" s="8">
         <f>COUNTIF($B29:$AY29, "&gt;=1")</f>
@@ -5064,46 +5094,36 @@
       </c>
       <c r="BE29" s="8">
         <f>COUNTIF($B29:$AY29, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF29" s="8">
         <f>COUNTIF($B29:$AY29, "&lt;0")</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BG29" s="8">
         <f>SUM(BD29*3)+BE29</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH29" s="8">
         <f>SUM(B29:AY29)</f>
-        <v>9</v>
+        <v>-20</v>
       </c>
       <c r="BI29" s="10">
         <f>SUM(BD29*3+BE29*1)/SUM(BC29*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BJ29" s="10"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D30" s="45">
-        <v>9</v>
-      </c>
-      <c r="E30" s="7">
-        <v>-1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="50"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -5115,11 +5135,19 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="50"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
+      <c r="S30" s="7">
+        <v>2</v>
+      </c>
+      <c r="T30" s="7">
+        <v>-1</v>
+      </c>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
+      <c r="V30" s="7">
+        <v>8</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -5153,7 +5181,7 @@
       </c>
       <c r="BC30" s="8">
         <f>COUNT(B30:AY30)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD30" s="8">
         <f>COUNTIF($B30:$AY30, "&gt;=1")</f>
@@ -5165,7 +5193,7 @@
       </c>
       <c r="BF30" s="8">
         <f>COUNTIF($B30:$AY30, "&lt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG30" s="8">
         <f>SUM(BD30*3)+BE30</f>
@@ -5173,26 +5201,34 @@
       </c>
       <c r="BH30" s="8">
         <f>SUM(B30:AY30)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI30" s="10">
         <f>SUM(BD30*3+BE30*1)/SUM(BC30*3)</f>
-        <v>0.46666666666666667</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BJ30" s="10"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="45">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7">
+        <v>-1</v>
+      </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
       <c r="H31" s="50"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -5207,26 +5243,16 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7">
-        <v>-8</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
-        <v>-5</v>
-      </c>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Z31" s="7"/>
       <c r="AA31" s="50"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="65"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="7">
-        <v>4</v>
-      </c>
+      <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
@@ -5252,7 +5278,7 @@
       </c>
       <c r="BC31" s="8">
         <f>COUNT(B31:AY31)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD31" s="8">
         <f>COUNTIF($B31:$AY31, "&gt;=1")</f>
@@ -5264,7 +5290,7 @@
       </c>
       <c r="BF31" s="8">
         <f>COUNTIF($B31:$AY31, "&lt;0")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG31" s="8">
         <f>SUM(BD31*3)+BE31</f>
@@ -5272,22 +5298,20 @@
       </c>
       <c r="BH31" s="8">
         <f>SUM(B31:AY31)</f>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="BI31" s="10">
         <f>SUM(BD31*3+BE31*1)/SUM(BC31*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ31" s="10"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -5295,9 +5319,7 @@
       <c r="H32" s="50"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
+      <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -5305,9 +5327,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="50"/>
-      <c r="S32" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
@@ -5323,8 +5343,12 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
+      <c r="AI32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="7">
+        <v>1</v>
+      </c>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
@@ -5345,7 +5369,7 @@
       </c>
       <c r="BC32" s="8">
         <f>COUNT(B32:AY32)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD32" s="8">
         <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
@@ -5357,7 +5381,7 @@
       </c>
       <c r="BF32" s="8">
         <f>COUNTIF($B32:$AY32, "&lt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG32" s="8">
         <f>SUM(BD32*3)+BE32</f>
@@ -5365,20 +5389,22 @@
       </c>
       <c r="BH32" s="8">
         <f>SUM(B32:AY32)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI32" s="10">
         <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -5389,25 +5415,19 @@
       <c r="K33" s="7">
         <v>0</v>
       </c>
-      <c r="L33" s="45">
-        <v>-2</v>
-      </c>
-      <c r="M33" s="7">
-        <v>-1</v>
-      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7">
-        <v>3</v>
-      </c>
+      <c r="Q33" s="7"/>
       <c r="R33" s="50"/>
-      <c r="S33" s="7"/>
+      <c r="S33" s="7">
+        <v>-2</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7">
-        <v>-8</v>
-      </c>
+      <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -5420,9 +5440,7 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="45">
-        <v>-1</v>
-      </c>
+      <c r="AI33" s="7"/>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
@@ -5444,7 +5462,7 @@
       </c>
       <c r="BC33" s="8">
         <f>COUNT(B33:AY33)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD33" s="8">
         <f>COUNTIF($B33:$AY33, "&gt;=1")</f>
@@ -5456,7 +5474,7 @@
       </c>
       <c r="BF33" s="8">
         <f>COUNTIF($B33:$AY33, "&lt;0")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BG33" s="8">
         <f>SUM(BD33*3)+BE33</f>
@@ -5464,17 +5482,17 @@
       </c>
       <c r="BH33" s="8">
         <f>SUM(B33:AY33)</f>
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="BI33" s="10">
         <f>SUM(BD33*3+BE33*1)/SUM(BC33*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ33" s="10"/>
     </row>
     <row r="34" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5485,23 +5503,31 @@
       <c r="H34" s="50"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="45">
+        <v>-2</v>
+      </c>
+      <c r="M34" s="7">
+        <v>-1</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
+      <c r="Q34" s="7">
+        <v>3</v>
+      </c>
       <c r="R34" s="50"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
+      <c r="V34" s="7">
+        <v>-8</v>
+      </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="7">
-        <v>0</v>
-      </c>
+      <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="50"/>
       <c r="AB34" s="7"/>
@@ -5511,7 +5537,9 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
+      <c r="AI34" s="45">
+        <v>-1</v>
+      </c>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
@@ -5533,11 +5561,11 @@
       </c>
       <c r="BC34" s="8">
         <f>COUNT(B34:AY34)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BD34" s="8">
         <f>COUNTIF($B34:$AY34, "&gt;=1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE34" s="8">
         <f>COUNTIF($B34:$AY34, "0")</f>
@@ -5545,25 +5573,25 @@
       </c>
       <c r="BF34" s="8">
         <f>COUNTIF($B34:$AY34, "&lt;0")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG34" s="8">
         <f>SUM(BD34*3)+BE34</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH34" s="8">
         <f>SUM(B34:AY34)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="BI34" s="10">
         <f>SUM(BD34*3+BE34*1)/SUM(BC34*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BJ34" s="10"/>
     </row>
     <row r="35" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5580,30 +5608,36 @@
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="Q35" s="7">
+        <v>-3</v>
+      </c>
       <c r="R35" s="50"/>
-      <c r="S35" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S35" s="7"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
+      <c r="U35" s="7">
+        <v>-4</v>
+      </c>
+      <c r="V35" s="7">
+        <v>-8</v>
+      </c>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="7">
-        <v>0</v>
-      </c>
+      <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="50"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="65"/>
-      <c r="AD35" s="7"/>
+      <c r="AD35" s="7">
+        <v>0</v>
+      </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
+      <c r="AJ35" s="7">
+        <v>1</v>
+      </c>
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
@@ -5624,11 +5658,11 @@
       </c>
       <c r="BC35" s="8">
         <f>COUNT(B35:AY35)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BD35" s="8">
         <f>COUNTIF($B35:$AY35, "&gt;=1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35" s="8">
         <f>COUNTIF($B35:$AY35, "0")</f>
@@ -5636,25 +5670,25 @@
       </c>
       <c r="BF35" s="8">
         <f>COUNTIF($B35:$AY35, "&lt;0")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG35" s="8">
         <f>SUM(BD35*3)+BE35</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH35" s="8">
         <f>SUM(B35:AY35)</f>
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="BI35" s="10">
         <f>SUM(BD35*3+BE35*1)/SUM(BC35*3)</f>
-        <v>0.16666666666666666</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="BJ35" s="10"/>
     </row>
     <row r="36" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5671,28 +5705,24 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="7">
-        <v>-3</v>
-      </c>
+      <c r="Q36" s="7"/>
       <c r="R36" s="50"/>
-      <c r="S36" s="7"/>
+      <c r="S36" s="7">
+        <v>-2</v>
+      </c>
       <c r="T36" s="7"/>
-      <c r="U36" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V36" s="7">
-        <v>-8</v>
-      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
+      <c r="Y36" s="7">
+        <v>0</v>
+      </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="50"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="65"/>
-      <c r="AD36" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
@@ -5719,7 +5749,7 @@
       </c>
       <c r="BC36" s="8">
         <f>COUNT(B36:AY36)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD36" s="8">
         <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
@@ -5731,7 +5761,7 @@
       </c>
       <c r="BF36" s="8">
         <f>COUNTIF($B36:$AY36, "&lt;0")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG36" s="8">
         <f>SUM(BD36*3)+BE36</f>
@@ -5739,17 +5769,17 @@
       </c>
       <c r="BH36" s="8">
         <f>SUM(B36:AY36)</f>
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="BI36" s="10">
         <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ36" s="10"/>
     </row>
     <row r="37" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -5838,7 +5868,7 @@
     </row>
     <row r="38" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -5858,9 +5888,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="50"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="7">
-        <v>-1</v>
-      </c>
+      <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -5876,7 +5904,9 @@
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
-      <c r="AJ38" s="7"/>
+      <c r="AJ38" s="7">
+        <v>-1</v>
+      </c>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
@@ -6092,7 +6122,7 @@
       </c>
       <c r="T40" s="27">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U40" s="27">
         <f t="shared" si="0"/>
@@ -6103,7 +6133,7 @@
         <v>18</v>
       </c>
       <c r="W40" s="27">
-        <f>COUNT(W5:W39)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="X40" s="27">
@@ -6112,7 +6142,7 @@
       </c>
       <c r="Y40" s="27">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z40" s="27">
         <f t="shared" si="0"/>
@@ -6152,11 +6182,11 @@
       </c>
       <c r="AI40" s="27">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ40" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK40" s="27">
         <f t="shared" si="1"/>
@@ -6285,19 +6315,19 @@
         <v>179</v>
       </c>
       <c r="U41" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="V41" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="V41" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="W41" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z41" s="13" t="s">
         <v>157</v>
@@ -6311,13 +6341,13 @@
         <v>164</v>
       </c>
       <c r="AE41" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF41" s="13" t="s">
         <v>157</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH41" s="13" t="s">
         <v>169</v>
@@ -6325,7 +6355,9 @@
       <c r="AI41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AJ41" s="8"/>
+      <c r="AJ41" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
@@ -6677,7 +6709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6709,10 +6741,10 @@
         <v>28</v>
       </c>
       <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
         <v>203</v>
-      </c>
-      <c r="L1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6735,7 +6767,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="62">
-        <f t="shared" ref="G3:G27" si="0">SUM(C3*3)+D3</f>
+        <f t="shared" ref="G3" si="0">SUM(C3*3)+D3</f>
         <v>7</v>
       </c>
       <c r="K3">
@@ -6766,14 +6798,14 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f>SUM(C4*3)+D4</f>
+        <f t="shared" ref="G4:G35" si="1">SUM(C4*3)+D4</f>
         <v>7</v>
       </c>
       <c r="K4">
         <v>24</v>
       </c>
       <c r="L4" s="69">
-        <f t="shared" ref="L4:L27" si="1">K4/B4</f>
+        <f t="shared" ref="L4:L27" si="2">K4/B4</f>
         <v>8</v>
       </c>
     </row>
@@ -6797,14 +6829,14 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <f>SUM(C5*3)+D5</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K5">
         <v>27</v>
       </c>
       <c r="L5" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6828,14 +6860,14 @@
         <v>3</v>
       </c>
       <c r="G6" s="62">
-        <f>SUM(C6*3)+D6</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K6">
         <v>19</v>
       </c>
       <c r="L6" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -6859,14 +6891,14 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <f>SUM(C7*3)+D7</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K7">
         <v>19</v>
       </c>
       <c r="L7" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -6890,14 +6922,14 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <f>SUM(C8*3)+D8</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K8">
         <v>16</v>
       </c>
       <c r="L8" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6906,7 +6938,7 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -6915,21 +6947,21 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <f>SUM(C9*3)+D9</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K9">
         <v>13</v>
       </c>
       <c r="L9" s="69">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f t="shared" si="2"/>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6952,7 +6984,7 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <f>SUM(C10*3)+D10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H10" s="23"/>
@@ -6960,7 +6992,7 @@
         <v>28</v>
       </c>
       <c r="L10" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -6984,14 +7016,14 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>SUM(C11*3)+D11</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K11">
         <v>21</v>
       </c>
       <c r="L11" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -7015,14 +7047,14 @@
         <v>-4</v>
       </c>
       <c r="G12">
-        <f>SUM(C12*3)+D12</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K12">
         <v>25</v>
       </c>
       <c r="L12" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -7046,7 +7078,7 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <f>SUM(C13*3)+D13</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H13" s="23"/>
@@ -7054,16 +7086,16 @@
         <v>5</v>
       </c>
       <c r="L13" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7072,26 +7104,26 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <f>SUM(C14*3)+D14</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K14">
         <v>19</v>
       </c>
       <c r="L14" s="69">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7106,26 +7138,26 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <f>SUM(C15*3)+D15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K15">
         <v>12</v>
       </c>
       <c r="L15" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -7134,26 +7166,26 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>-3</v>
       </c>
       <c r="G16">
-        <f>SUM(C16*3)+D16</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K16">
         <v>23</v>
       </c>
       <c r="L16" s="69">
-        <f t="shared" si="1"/>
-        <v>7.666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -7168,23 +7200,23 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G17">
-        <f>SUM(C17*3)+D17</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K17" s="36">
         <v>19</v>
       </c>
       <c r="L17" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7199,85 +7231,85 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G18">
-        <f>SUM(C18*3)+D18</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K18" s="36">
         <v>15</v>
       </c>
       <c r="L18" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="G19">
-        <f>SUM(C19*3)+D19</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="K19" s="36">
         <v>22</v>
       </c>
       <c r="L19" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G20">
-        <f>SUM(C20*3)+D20</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="K20" s="68">
         <v>14</v>
       </c>
       <c r="L20" s="69">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -7295,23 +7327,23 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <f>SUM(C21*3)+D21</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K21" s="36">
         <v>25</v>
       </c>
       <c r="L21" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -7320,57 +7352,57 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G22">
-        <f>SUM(C22*3)+D22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K22" s="36">
         <v>5</v>
       </c>
       <c r="L22" s="69">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G23">
-        <f>SUM(C23*3)+D23</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K23" s="36">
         <v>12</v>
       </c>
       <c r="L23" s="69">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -7385,26 +7417,26 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G24">
-        <f>SUM(C24*3)+D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="36">
         <v>15</v>
       </c>
       <c r="L24" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -7413,29 +7445,29 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G25">
-        <f>SUM(C25*3)+D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="36">
         <v>25</v>
       </c>
       <c r="L25" s="69">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
+        <f t="shared" si="2"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7444,26 +7476,26 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G26">
-        <f>SUM(C26*3)+D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="36">
         <v>8</v>
       </c>
       <c r="L26" s="69">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7478,26 +7510,41 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G27">
-        <f>SUM(C27*3)+D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="36">
         <v>1</v>
       </c>
       <c r="L27" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>-9</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G29" si="2">SUM(C28*3)+D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="36">
@@ -7506,10 +7553,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="36">
@@ -7518,10 +7565,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="3">SUM(C30*3)+D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="36">
@@ -7530,10 +7577,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31">
@@ -7542,10 +7589,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -7554,10 +7601,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33">
@@ -7566,10 +7613,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34">
@@ -7578,10 +7625,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35">
@@ -7590,10 +7637,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{CCA4218F-1ABE-CF4A-906A-71EA404D2B67}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G27">
-    <sortCondition descending="1" ref="G4:G27"/>
-    <sortCondition descending="1" ref="F4:F27"/>
-    <sortCondition ref="B4:B27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G35">
+    <sortCondition descending="1" ref="G4:G35"/>
+    <sortCondition descending="1" ref="F4:F35"/>
+    <sortCondition ref="B4:B35"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7611,7 +7658,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ18" sqref="AQ18"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8746,7 +8793,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8762,35 +8809,33 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
       <c r="R15" s="50"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7">
-        <v>2</v>
-      </c>
-      <c r="X15" s="7">
-        <v>3</v>
-      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="50"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="67"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
+      <c r="AJ15" s="7">
+        <v>7</v>
+      </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
@@ -8809,61 +8854,60 @@
       <c r="AZ15" s="28"/>
       <c r="BA15" s="23">
         <f>SUM(B15:AY15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB15" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7">
-        <v>2</v>
-      </c>
-      <c r="P16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
+        <v>2</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="50"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+      <c r="W16" s="7">
+        <v>2</v>
+      </c>
+      <c r="X16" s="7">
+        <v>3</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="50"/>
-      <c r="AB16" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="7"/>
       <c r="AC16" s="67"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7">
+        <v>1</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
@@ -8886,58 +8930,54 @@
         <f>SUM(B16:AY16)</f>
         <v>8</v>
       </c>
-      <c r="BC16" s="8">
+      <c r="BB16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
+        <v>2</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="50"/>
-      <c r="S17" s="7">
-        <v>1</v>
-      </c>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>1</v>
-      </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="50"/>
-      <c r="AB17" s="7"/>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
       <c r="AC17" s="67"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7">
@@ -8965,57 +9005,64 @@
         <f>SUM(B17:AY17)</f>
         <v>8</v>
       </c>
+      <c r="BC17" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="50"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="7">
-        <v>3</v>
-      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="50"/>
-      <c r="S18" s="7"/>
+      <c r="S18" s="7">
+        <v>1</v>
+      </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7">
-        <v>1</v>
-      </c>
+      <c r="X18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="50"/>
-      <c r="AB18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="7"/>
       <c r="AC18" s="67"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
@@ -9041,14 +9088,12 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -9056,10 +9101,10 @@
       <c r="H19" s="50"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7">
+        <v>3</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -9073,20 +9118,24 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
+      <c r="Z19" s="7">
+        <v>1</v>
+      </c>
       <c r="AA19" s="50"/>
-      <c r="AB19" s="7"/>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
       <c r="AC19" s="67"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7">
+        <v>1</v>
+      </c>
       <c r="AG19" s="7"/>
-      <c r="AH19" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
@@ -9106,18 +9155,19 @@
       <c r="AZ19" s="28"/>
       <c r="BA19" s="23">
         <f>SUM(B19:AY19)</f>
-        <v>7</v>
-      </c>
-      <c r="BC19" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -9125,21 +9175,17 @@
       <c r="H20" s="50"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="50"/>
-      <c r="S20" s="7">
-        <v>1</v>
-      </c>
+      <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -9156,7 +9202,9 @@
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
+      <c r="AH20" s="7">
+        <v>2</v>
+      </c>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
@@ -9177,42 +9225,42 @@
       <c r="AZ20" s="28"/>
       <c r="BA20" s="23">
         <f>SUM(B20:AY20)</f>
-        <v>6</v>
-      </c>
-      <c r="BB20" s="8">
+        <v>7</v>
+      </c>
+      <c r="BC20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="50"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="M21" s="7">
+        <v>3</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="50"/>
-      <c r="S21" s="7"/>
+      <c r="S21" s="7">
+        <v>1</v>
+      </c>
       <c r="T21" s="7"/>
-      <c r="U21" s="32"/>
+      <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -9222,7 +9270,9 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="67"/>
       <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
+      <c r="AE21" s="7">
+        <v>1</v>
+      </c>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
@@ -9246,22 +9296,28 @@
       <c r="AZ21" s="28"/>
       <c r="BA21" s="23">
         <f>SUM(B21:AY21)</f>
-        <v>5</v>
-      </c>
-      <c r="BC21" s="8">
+        <v>6</v>
+      </c>
+      <c r="BB21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
       <c r="H22" s="50"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -9273,16 +9329,10 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="50"/>
-      <c r="S22" s="7">
-        <v>2</v>
-      </c>
-      <c r="T22" s="7">
-        <v>1</v>
-      </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7">
-        <v>2</v>
-      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -9317,42 +9367,41 @@
         <f>SUM(B22:AY22)</f>
         <v>5</v>
       </c>
+      <c r="BC22" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="50"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7">
-        <v>1</v>
-      </c>
+      <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="50"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7">
-        <v>1</v>
-      </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7">
+        <v>1</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7">
         <v>1</v>
@@ -9360,13 +9409,17 @@
       <c r="AA23" s="50"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="67"/>
-      <c r="AD23" s="7"/>
+      <c r="AD23" s="7">
+        <v>1</v>
+      </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+      <c r="AJ23" s="7">
+        <v>1</v>
+      </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
@@ -9387,14 +9440,15 @@
         <f>SUM(B23:AY23)</f>
         <v>5</v>
       </c>
+      <c r="BC23" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -9411,22 +9465,20 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="50"/>
-      <c r="S24" s="7"/>
+      <c r="S24" s="7">
+        <v>2</v>
+      </c>
       <c r="T24" s="7">
         <v>1</v>
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7">
-        <v>1</v>
-      </c>
-      <c r="W24" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="7">
-        <v>1</v>
-      </c>
+      <c r="Z24" s="7"/>
       <c r="AA24" s="50"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="67"/>
@@ -9460,49 +9512,51 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="50"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="50"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7">
-        <v>1</v>
-      </c>
-      <c r="X25" s="7">
-        <v>2</v>
-      </c>
+      <c r="V25" s="7">
+        <v>1</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
+      <c r="Z25" s="7">
+        <v>1</v>
+      </c>
       <c r="AA25" s="50"/>
-      <c r="AB25" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="67"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -9528,9 +9582,11 @@
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -9548,15 +9604,17 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="50"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="7"/>
+      <c r="T26" s="7">
+        <v>1</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7">
+        <v>1</v>
+      </c>
       <c r="W26" s="7">
         <v>1</v>
       </c>
-      <c r="X26" s="7">
-        <v>1</v>
-      </c>
+      <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7">
         <v>1</v>
@@ -9564,9 +9622,7 @@
       <c r="AA26" s="50"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="67"/>
-      <c r="AD26" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
@@ -9591,15 +9647,12 @@
       <c r="AZ26" s="28"/>
       <c r="BA26" s="23">
         <f>SUM(B26:AY26)</f>
-        <v>4</v>
-      </c>
-      <c r="BC26" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9610,38 +9663,38 @@
       <c r="H27" s="50"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7">
-        <v>1</v>
-      </c>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7">
-        <v>1</v>
-      </c>
+      <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="50"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="7">
-        <v>1</v>
-      </c>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7">
+        <v>1</v>
+      </c>
+      <c r="X27" s="7">
+        <v>2</v>
+      </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="50"/>
-      <c r="AB27" s="7"/>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
       <c r="AC27" s="67"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
+      <c r="AH27" s="7">
+        <v>1</v>
+      </c>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
@@ -9662,12 +9715,12 @@
       <c r="AZ27" s="28"/>
       <c r="BA27" s="23">
         <f>SUM(B27:AY27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9676,13 +9729,15 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="7">
-        <v>2</v>
-      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -9693,7 +9748,9 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="V28" s="7">
+        <v>1</v>
+      </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -9726,15 +9783,12 @@
       <c r="AZ28" s="28"/>
       <c r="BA28" s="23">
         <f>SUM(B28:AY28)</f>
-        <v>3</v>
-      </c>
-      <c r="BC28" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -9743,7 +9797,9 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="50"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7">
+        <v>2</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -9766,9 +9822,7 @@
       <c r="AA29" s="50"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="67"/>
-      <c r="AD29" s="7">
-        <v>1</v>
-      </c>
+      <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
@@ -9793,7 +9847,7 @@
       <c r="AZ29" s="28"/>
       <c r="BA29" s="23">
         <f>SUM(B29:AY29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC29" s="8">
         <v>1</v>
@@ -9801,7 +9855,7 @@
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10217,7 +10271,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="23">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" ref="BA3:BA36" si="0">SUM(B36:AY36)</f>
         <v>0</v>
       </c>
     </row>
@@ -10299,7 +10353,7 @@
       </c>
       <c r="T38">
         <f>'League Table'!T40</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U38" s="31">
         <f>'League Table'!U40</f>
@@ -10319,7 +10373,7 @@
       </c>
       <c r="Y38">
         <f>'League Table'!Y40</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z38">
         <f>'League Table'!Z40</f>
@@ -10359,11 +10413,11 @@
       </c>
       <c r="AI38" s="8">
         <f>'League Table'!AI40</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ38" s="8">
         <f>'League Table'!AJ40</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK38" s="8">
         <f>'League Table'!AK40</f>
@@ -10423,199 +10477,199 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:AV40" si="0">SUM(B3:B36)</f>
+        <f t="shared" ref="B40:AV40" si="1">SUM(B3:B36)</f>
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="W40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="X40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AC40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AE40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AF40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AG40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AH40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AI40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AJ40" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="AK40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC36">
-    <sortCondition descending="1" ref="BA3:BA36"/>
-    <sortCondition descending="1" ref="BB3:BB36"/>
-    <sortCondition descending="1" ref="BC3:BC36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC35">
+    <sortCondition descending="1" ref="BA3:BA35"/>
+    <sortCondition descending="1" ref="BB3:BB35"/>
+    <sortCondition descending="1" ref="BC3:BC35"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10632,10 +10686,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:BA38"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10957,7 +11011,7 @@
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="BA5">
-        <f>SUM(B5:AY5)</f>
+        <f t="shared" ref="BA5:BA37" si="0">SUM(B5:AY5)</f>
         <v>26</v>
       </c>
     </row>
@@ -11040,7 +11094,7 @@
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
       <c r="BA6">
-        <f>SUM(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -11127,7 +11181,7 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="BA7">
-        <f>SUM(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -11204,7 +11258,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
       <c r="BA8">
-        <f>SUM(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -11279,7 +11333,7 @@
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="BA9">
-        <f>SUM(B9:AY9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -11352,7 +11406,7 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="BA10">
-        <f>SUM(B10:AY10)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -11423,38 +11477,38 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BA11">
-        <f>SUM(B11:AY11)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="16">
-        <v>4</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="16">
+        <v>2</v>
+      </c>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
@@ -11471,9 +11525,13 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
+      <c r="AH12" s="16">
+        <v>1</v>
+      </c>
       <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
+      <c r="AJ12" s="16">
+        <v>1</v>
+      </c>
       <c r="AK12" s="16"/>
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
@@ -11490,38 +11548,38 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="BA12">
-        <f>SUM(B12:AY12)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
       <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
       <c r="H13" s="50"/>
-      <c r="I13" s="7">
-        <v>2</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7">
-        <v>2</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -11538,9 +11596,7 @@
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
@@ -11559,7 +11615,7 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="BA13">
-        <f>SUM(B13:AY13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -11624,7 +11680,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="BA14">
-        <f>SUM(B14:AY14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -11693,7 +11749,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="BA15">
-        <f>SUM(B15:AY15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -11762,7 +11818,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="BA16">
-        <f>SUM(B16:AY16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -11831,13 +11887,13 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="BA17">
-        <f>SUM(B17:AY17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -11847,15 +11903,19 @@
       <c r="G18" s="7"/>
       <c r="H18" s="50"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -11870,16 +11930,14 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7">
+        <v>1</v>
+      </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
@@ -11896,13 +11954,13 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="BA18">
-        <f>SUM(B18:AY18)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -11919,30 +11977,32 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7">
-        <v>2</v>
-      </c>
+      <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
+      <c r="AD19" s="7">
+        <v>1</v>
+      </c>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
-      <c r="AH19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
+      <c r="AJ19" s="7">
+        <v>2</v>
+      </c>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
@@ -11959,35 +12019,31 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="BA19">
-        <f>SUM(B19:AY19)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="50"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
       <c r="O20" s="7"/>
-      <c r="P20" s="7">
-        <v>1</v>
-      </c>
+      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -12002,11 +12058,15 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="7">
+        <v>1</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
+      <c r="AI20" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
@@ -12024,13 +12084,13 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="BA20">
-        <f>SUM(B20:AY20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -12040,19 +12100,13 @@
       <c r="G21" s="7"/>
       <c r="H21" s="50"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7">
-        <v>1</v>
-      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -12060,7 +12114,9 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="7">
+        <v>2</v>
+      </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -12070,7 +12126,9 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
+      <c r="AH21" s="7">
+        <v>1</v>
+      </c>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
@@ -12089,31 +12147,35 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="BA21">
-        <f>SUM(B21:AY21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="50"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="7">
+        <v>1</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -12132,9 +12194,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="7">
-        <v>1</v>
-      </c>
+      <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
@@ -12152,13 +12212,13 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="BA22">
-        <f>SUM(B22:AY22)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -12191,13 +12251,13 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
-      <c r="AE23" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
+      <c r="AI23" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
@@ -12215,19 +12275,21 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="BA23">
-        <f>SUM(B23:AY23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="50"/>
       <c r="I24" s="7"/>
@@ -12238,9 +12300,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -12253,10 +12313,10 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-      <c r="AD24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7">
+        <v>1</v>
+      </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
@@ -12278,7 +12338,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="BA24">
-        <f>SUM(B24:AY24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -12339,7 +12399,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="BA25">
-        <f>SUM(B25:AY25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12400,7 +12460,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="BA26">
-        <f>SUM(B26:AY26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12461,7 +12521,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27">
-        <f>SUM(B27:AY27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12522,7 +12582,7 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="BA28">
-        <f>SUM(B28:AY28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12583,13 +12643,13 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="BA29">
-        <f>SUM(B29:AY29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -12599,9 +12659,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="50"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7">
-        <v>1</v>
-      </c>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -12627,7 +12685,9 @@
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
+      <c r="AJ30" s="7">
+        <v>1</v>
+      </c>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
@@ -12644,13 +12704,13 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="BA30">
-        <f>SUM(B30:AY30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -12660,7 +12720,9 @@
       <c r="G31" s="7"/>
       <c r="H31" s="50"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -12703,8 +12765,8 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="BA31">
-        <f>SUM(B31:AY31)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.2">
@@ -12762,7 +12824,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="BA32">
-        <f>SUM(B32:AY32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12821,7 +12883,7 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="BA33">
-        <f>SUM(B33:AY33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12880,7 +12942,7 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="BA34">
-        <f>SUM(B34:AY34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12939,7 +13001,7 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="BA35">
-        <f>SUM(B35:AY35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12998,7 +13060,7 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="BA36">
-        <f>SUM(B36:AY36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13057,7 +13119,7 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="BA37">
-        <f>SUM(B37:AY37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13114,7 +13176,7 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="BA38">
-        <f>SUM(B38:AY38)</f>
+        <f t="shared" ref="BA38" si="1">SUM(B38:AY38)</f>
         <v>0</v>
       </c>
     </row>
@@ -13229,214 +13291,214 @@
         <v>73</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" ref="B41:AH41" si="0">SUM(B5:B39)</f>
+        <f t="shared" ref="B41:AH41" si="2">SUM(B5:B39)</f>
         <v>5</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" ref="AI41:AX41" si="1">SUM(AI5:AI39)</f>
+        <f t="shared" ref="AI41:AX41" si="3">SUM(AI5:AI39)</f>
         <v>5</v>
       </c>
       <c r="AJ41" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AV41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AX41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY41" s="8">
-        <f t="shared" ref="AY41" si="2">SUM(AY5:AY39)</f>
+        <f t="shared" ref="AY41" si="4">SUM(AY5:AY39)</f>
         <v>0</v>
       </c>
       <c r="BA41">
         <f>SUM(B41:AZ41)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA38">
-    <sortCondition descending="1" ref="BA5:BA38"/>
-    <sortCondition ref="A5:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA37">
+    <sortCondition descending="1" ref="BA5:BA37"/>
+    <sortCondition ref="A5:A37"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13451,8 +13513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13608,10 +13670,10 @@
       <c r="E9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I9" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>118</v>
@@ -13644,7 +13706,7 @@
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I10" s="8">
         <v>5</v>
@@ -13680,7 +13742,7 @@
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="8">
         <v>5</v>
@@ -13695,7 +13757,7 @@
         <v>131</v>
       </c>
       <c r="N11" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -13728,10 +13790,10 @@
         <v>2</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -13753,19 +13815,19 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I13" s="8">
         <v>3</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L13" s="8">
         <v>2</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N13" s="8">
         <v>4</v>
@@ -13795,11 +13857,13 @@
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="L14" s="8">
+        <v>2</v>
+      </c>
       <c r="M14" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N14" s="8">
         <v>4</v>
@@ -13822,18 +13886,18 @@
         <v>142</v>
       </c>
       <c r="G15" s="31"/>
-      <c r="H15" s="56" t="s">
-        <v>132</v>
+      <c r="H15" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="I15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N15" s="8">
         <v>4</v>
@@ -13856,14 +13920,14 @@
         <v>172</v>
       </c>
       <c r="G16" s="31"/>
-      <c r="H16" s="8" t="s">
-        <v>168</v>
+      <c r="H16" s="56" t="s">
+        <v>132</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8" t="s">
@@ -13891,13 +13955,13 @@
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="8" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
@@ -13925,19 +13989,17 @@
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="8">
-        <v>2</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N18" s="8">
         <v>3</v>
@@ -13955,7 +14017,7 @@
       <c r="E19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I19" s="8">
         <v>2</v>
@@ -13989,7 +14051,7 @@
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="8" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -13999,7 +14061,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N20" s="8">
         <v>3</v>
@@ -14023,7 +14085,10 @@
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="8" t="s">
-        <v>122</v>
+        <v>208</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>117</v>
@@ -14041,10 +14106,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>186</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>187</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>132</v>
@@ -14052,13 +14117,10 @@
       <c r="E22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="8">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
@@ -14073,10 +14135,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>190</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>191</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>123</v>
@@ -14104,10 +14166,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>192</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>193</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>142</v>
@@ -14120,11 +14182,11 @@
         <v>130</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N24" s="8">
         <v>2</v>
@@ -14135,13 +14197,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="D25" s="31" t="s">
         <v>196</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>197</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>119</v>
@@ -14150,9 +14212,14 @@
       <c r="H25" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="M25" s="8" t="s">
         <v>122</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -14160,10 +14227,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>142</v>
@@ -14177,7 +14244,10 @@
       </c>
       <c r="K26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>127</v>
+        <v>178</v>
+      </c>
+      <c r="N26" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -14185,7 +14255,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>159</v>
@@ -14198,11 +14268,11 @@
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -14217,11 +14287,11 @@
       <c r="E28" s="31"/>
       <c r="G28" s="31"/>
       <c r="H28" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" s="8"/>
       <c r="M28" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -14229,20 +14299,20 @@
         <v>27</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -14264,7 +14334,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>166</v>
@@ -14276,7 +14346,7 @@
         <v>142</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -14284,19 +14354,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>130</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -14304,16 +14374,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>159</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -14321,10 +14391,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>213</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>131</v>
@@ -14338,13 +14408,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>171</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>118</v>
@@ -14355,7 +14425,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>116</v>
@@ -14371,10 +14441,18 @@
       <c r="A37" s="31">
         <v>35</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="31">
@@ -14503,9 +14581,9 @@
       <c r="A59" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N31">
-    <sortCondition descending="1" ref="N9:N31"/>
+  <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:N26">
+    <sortCondition descending="1" ref="N9:N26"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/latest_data.xlsx
+++ b/data/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsmith/Desktop/Home Desktop – Carl’s iMac /Football/Season 2024 Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE748385-9343-1C43-957D-F6FF5AF22B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6EA730-471E-154C-AE96-C13FB59B3DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="221">
   <si>
     <t>WK 1</t>
   </si>
@@ -697,6 +697,12 @@
   </si>
   <si>
     <t>ROB THE ELDER</t>
+  </si>
+  <si>
+    <t>Moo - Duncan</t>
+  </si>
+  <si>
+    <t>Moo</t>
   </si>
 </sst>
 </file>
@@ -1576,11 +1582,11 @@
   </sheetPr>
   <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2111,7 +2117,9 @@
       <c r="AJ5" s="18">
         <v>1</v>
       </c>
-      <c r="AK5" s="18"/>
+      <c r="AK5" s="18">
+        <v>-1</v>
+      </c>
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
@@ -2133,7 +2141,7 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8">
         <f>COUNT(B5:AY5)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD5" s="8">
         <f>COUNTIF($B5:$AY5, "&gt;=1")</f>
@@ -2145,7 +2153,7 @@
       </c>
       <c r="BF5" s="8">
         <f>COUNTIF($B5:$AY5, "&lt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG5" s="8">
         <f>SUM(BD5*3)+BE5</f>
@@ -2153,11 +2161,11 @@
       </c>
       <c r="BH5" s="8">
         <f>SUM(B5:AY5)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BI5" s="10">
         <f>SUM(BD5*3+BE5*1)/SUM(BC5*3)</f>
-        <v>0.66666666666666663</v>
+        <v>0.64367816091954022</v>
       </c>
       <c r="BJ5" s="10"/>
     </row>
@@ -2254,7 +2262,9 @@
       <c r="AJ6" s="30">
         <v>1</v>
       </c>
-      <c r="AK6" s="30"/>
+      <c r="AK6" s="30">
+        <v>-1</v>
+      </c>
       <c r="AL6" s="30"/>
       <c r="AM6" s="30"/>
       <c r="AN6" s="30"/>
@@ -2274,7 +2284,7 @@
       </c>
       <c r="BC6" s="8">
         <f>COUNT(B6:AY6)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD6" s="8">
         <f>COUNTIF($B6:$AY6, "&gt;=1")</f>
@@ -2286,7 +2296,7 @@
       </c>
       <c r="BF6" s="8">
         <f>COUNTIF($B6:$AY6, "&lt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG6" s="8">
         <f>SUM(BD6*3)+BE6</f>
@@ -2294,65 +2304,67 @@
       </c>
       <c r="BH6" s="8">
         <f>SUM(B6:AY6)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BI6" s="10">
         <f>SUM(BD6*3+BE6*1)/SUM(BC6*3)</f>
-        <v>0.58024691358024694</v>
+        <v>0.55952380952380953</v>
       </c>
       <c r="BJ6" s="10"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="45">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>-1</v>
       </c>
       <c r="D7" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="45">
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="7">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="J7" s="7">
         <v>8</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
       <c r="L7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M7" s="7">
         <v>-1</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="7">
         <v>0</v>
       </c>
       <c r="O7" s="7">
         <v>1</v>
       </c>
       <c r="P7" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>-3</v>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>3</v>
       </c>
       <c r="R7" s="50"/>
       <c r="S7" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T7" s="7">
         <v>-1</v>
@@ -2360,20 +2372,16 @@
       <c r="U7" s="7">
         <v>-4</v>
       </c>
-      <c r="V7" s="7">
-        <v>8</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="50"/>
       <c r="AB7" s="7">
@@ -2383,23 +2391,21 @@
       <c r="AD7" s="45">
         <v>0</v>
       </c>
-      <c r="AE7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>2</v>
-      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
       <c r="AG7" s="7">
         <v>-5</v>
       </c>
-      <c r="AH7" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AK7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>1</v>
+      </c>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
@@ -2419,11 +2425,11 @@
       </c>
       <c r="BC7" s="8">
         <f>COUNT(B7:AY7)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD7" s="8">
         <f>COUNTIF($B7:$AY7, "&gt;=1")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BE7" s="8">
         <f>COUNTIF($B7:$AY7, "0")</f>
@@ -2431,75 +2437,73 @@
       </c>
       <c r="BF7" s="8">
         <f>COUNTIF($B7:$AY7, "&lt;0")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BG7" s="8">
         <f>SUM(BD7*3)+BE7</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BH7" s="8">
         <f>SUM(B7:AY7)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BI7" s="10">
         <f>SUM(BD7*3+BE7*1)/SUM(BC7*3)</f>
-        <v>0.47126436781609193</v>
+        <v>0.54320987654320985</v>
       </c>
       <c r="BJ7" s="10"/>
     </row>
     <row r="8" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="46">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18">
         <v>-1</v>
       </c>
-      <c r="C8" s="18">
+      <c r="F8" s="18">
         <v>-1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46">
-        <v>1</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="18">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="J8" s="18">
         <v>8</v>
       </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M8" s="18">
         <v>-1</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="46">
         <v>0</v>
       </c>
       <c r="O8" s="18">
         <v>1</v>
       </c>
       <c r="P8" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="46">
-        <v>3</v>
+        <v>-2</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>-3</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T8" s="18">
         <v>-1</v>
@@ -2507,16 +2511,20 @@
       <c r="U8" s="18">
         <v>-4</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="V8" s="18">
+        <v>8</v>
+      </c>
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
       <c r="X8" s="18">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="18">
         <v>0</v>
       </c>
       <c r="Z8" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA8" s="48"/>
       <c r="AB8" s="18">
@@ -2526,19 +2534,25 @@
       <c r="AD8" s="46">
         <v>0</v>
       </c>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
+      <c r="AE8" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>2</v>
+      </c>
       <c r="AG8" s="18">
         <v>-5</v>
       </c>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18">
-        <v>1</v>
-      </c>
+      <c r="AH8" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="18"/>
       <c r="AJ8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="18"/>
+        <v>-1</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>-1</v>
+      </c>
       <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
       <c r="AN8" s="18"/>
@@ -2558,7 +2572,7 @@
       </c>
       <c r="BC8" s="8">
         <f>COUNT(B8:AY8)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BD8" s="8">
         <f>COUNTIF($B8:$AY8, "&gt;=1")</f>
@@ -2570,7 +2584,7 @@
       </c>
       <c r="BF8" s="8">
         <f>COUNTIF($B8:$AY8, "&lt;0")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BG8" s="8">
         <f>SUM(BD8*3)+BE8</f>
@@ -2578,11 +2592,11 @@
       </c>
       <c r="BH8" s="8">
         <f>SUM(B8:AY8)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BI8" s="10">
         <f>SUM(BD8*3+BE8*1)/SUM(BC8*3)</f>
-        <v>0.52564102564102566</v>
+        <v>0.45555555555555555</v>
       </c>
       <c r="BJ8" s="10"/>
     </row>
@@ -2679,7 +2693,9 @@
       <c r="AJ9" s="16">
         <v>1</v>
       </c>
-      <c r="AK9" s="16"/>
+      <c r="AK9" s="16">
+        <v>1</v>
+      </c>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
       <c r="AN9" s="16"/>
@@ -2699,11 +2715,11 @@
       </c>
       <c r="BC9" s="8">
         <f>COUNT(B9:AY9)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD9" s="8">
         <f>COUNTIF($B9:$AY9, "&gt;=1")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE9" s="8">
         <f>COUNTIF($B9:$AY9, "0")</f>
@@ -2715,15 +2731,15 @@
       </c>
       <c r="BG9" s="8">
         <f>SUM(BD9*3)+BE9</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BH9" s="8">
         <f>SUM(B9:AY9)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI9" s="10">
         <f>SUM(BD9*3+BE9*1)/SUM(BC9*3)</f>
-        <v>0.46913580246913578</v>
+        <v>0.48809523809523808</v>
       </c>
       <c r="BJ9" s="10"/>
     </row>
@@ -2808,7 +2824,9 @@
       <c r="AJ10" s="16">
         <v>-1</v>
       </c>
-      <c r="AK10" s="16"/>
+      <c r="AK10" s="16">
+        <v>1</v>
+      </c>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
       <c r="AN10" s="16"/>
@@ -2828,11 +2846,11 @@
       </c>
       <c r="BC10" s="8">
         <f>COUNT(B10:AY10)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD10" s="8">
         <f>COUNTIF($B10:$AY10, "&gt;=1")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE10" s="8">
         <f>COUNTIF($B10:$AY10, "0")</f>
@@ -2844,15 +2862,15 @@
       </c>
       <c r="BG10" s="8">
         <f>SUM(BD10*3)+BE10</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BH10" s="8">
         <f>SUM(B10:AY10)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI10" s="10">
         <f>SUM(BD10*3+BE10*1)/SUM(BC10*3)</f>
-        <v>0.58730158730158732</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="BJ10" s="10"/>
     </row>
@@ -2941,7 +2959,9 @@
       <c r="AJ11" s="7">
         <v>-1</v>
       </c>
-      <c r="AK11" s="7"/>
+      <c r="AK11" s="7">
+        <v>1</v>
+      </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
@@ -2961,11 +2981,11 @@
       </c>
       <c r="BC11" s="8">
         <f>COUNT(B11:AY11)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD11" s="8">
         <f>COUNTIF($B11:$AY11, "&gt;=1")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE11" s="8">
         <f>COUNTIF($B11:$AY11, "0")</f>
@@ -2977,31 +2997,33 @@
       </c>
       <c r="BG11" s="8">
         <f>SUM(BD11*3)+BE11</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BH11" s="8">
         <f>SUM(B11:AY11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI11" s="10">
         <f>SUM(BD11*3+BE11*1)/SUM(BC11*3)</f>
-        <v>0.46376811594202899</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="B12" s="7">
+        <v>-1</v>
+      </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>-1</v>
+      </c>
       <c r="G12" s="7">
         <v>0</v>
       </c>
@@ -3009,47 +3031,51 @@
       <c r="I12" s="7">
         <v>7</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="7">
         <v>8</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
       <c r="L12" s="7">
         <v>-2</v>
       </c>
       <c r="M12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="50"/>
-      <c r="S12" s="45">
-        <v>-2</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1</v>
+      <c r="S12" s="7">
+        <v>2</v>
+      </c>
+      <c r="T12" s="45">
+        <v>-1</v>
       </c>
       <c r="U12" s="7">
         <v>4</v>
       </c>
-      <c r="V12" s="7"/>
+      <c r="V12" s="7">
+        <v>-8</v>
+      </c>
       <c r="W12" s="7">
         <v>0</v>
       </c>
-      <c r="X12" s="7"/>
+      <c r="X12" s="7">
+        <v>5</v>
+      </c>
       <c r="Y12" s="7">
         <v>0</v>
       </c>
-      <c r="Z12" s="45">
-        <v>2</v>
-      </c>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="50"/>
-      <c r="AB12" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AB12" s="7"/>
       <c r="AC12" s="65"/>
       <c r="AD12" s="7">
         <v>0</v>
@@ -3057,25 +3083,27 @@
       <c r="AE12" s="7">
         <v>4</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="7">
         <v>-2</v>
       </c>
-      <c r="AG12" s="7">
-        <v>-5</v>
-      </c>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7">
+      <c r="AI12" s="7">
         <v>-1</v>
       </c>
-      <c r="AK12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7">
+        <v>1</v>
+      </c>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
-      <c r="AR12" s="55"/>
+      <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -3088,7 +3116,7 @@
       </c>
       <c r="BC12" s="8">
         <f>COUNT(B12:AY12)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BD12" s="8">
         <f>COUNTIF($B12:$AY12, "&gt;=1")</f>
@@ -3096,43 +3124,39 @@
       </c>
       <c r="BE12" s="8">
         <f>COUNTIF($B12:$AY12, "0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF12" s="8">
         <f>COUNTIF($B12:$AY12, "&lt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG12" s="8">
         <f>SUM(BD12*3)+BE12</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BH12" s="8">
         <f>SUM(B12:AY12)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BI12" s="10">
         <f>SUM(BD12*3+BE12*1)/SUM(BC12*3)</f>
-        <v>0.51666666666666672</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7">
-        <v>-1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B13" s="55"/>
       <c r="C13" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="45">
-        <v>-1</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
@@ -3140,72 +3164,62 @@
       <c r="I13" s="7">
         <v>7</v>
       </c>
-      <c r="J13" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
+      <c r="J13" s="45">
+        <v>8</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="45">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="45">
         <v>-2</v>
       </c>
-      <c r="Q13" s="7">
-        <v>-3</v>
-      </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="7">
-        <v>2</v>
-      </c>
       <c r="T13" s="7">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7">
+        <v>4</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="7">
         <v>-1</v>
       </c>
-      <c r="U13" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V13" s="7">
-        <v>8</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="45">
-        <v>-1</v>
-      </c>
       <c r="AC13" s="65"/>
-      <c r="AD13" s="7"/>
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
       <c r="AE13" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF13" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG13" s="7">
         <v>-5</v>
       </c>
-      <c r="AH13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI13" s="7">
-        <v>1</v>
-      </c>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
       <c r="AJ13" s="7">
         <v>-1</v>
       </c>
@@ -3216,7 +3230,7 @@
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
+      <c r="AR13" s="55"/>
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
@@ -3229,7 +3243,7 @@
       </c>
       <c r="BC13" s="8">
         <f>COUNT(B13:AY13)</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="BD13" s="8">
         <f>COUNTIF($B13:$AY13, "&gt;=1")</f>
@@ -3241,7 +3255,7 @@
       </c>
       <c r="BF13" s="8">
         <f>COUNTIF($B13:$AY13, "&lt;0")</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BG13" s="8">
         <f>SUM(BD13*3)+BE13</f>
@@ -3249,17 +3263,17 @@
       </c>
       <c r="BH13" s="8">
         <f>SUM(B13:AY13)</f>
-        <v>-14</v>
+        <v>24</v>
       </c>
       <c r="BI13" s="10">
         <f>SUM(BD13*3+BE13*1)/SUM(BC13*3)</f>
-        <v>0.38271604938271603</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7">
         <v>-1</v>
@@ -3267,9 +3281,11 @@
       <c r="C14" s="7">
         <v>-1</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>-9</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="F14" s="45">
         <v>-1</v>
       </c>
       <c r="G14" s="7">
@@ -3280,37 +3296,41 @@
         <v>7</v>
       </c>
       <c r="J14" s="7">
-        <v>8</v>
-      </c>
-      <c r="K14" s="45">
+        <v>-8</v>
+      </c>
+      <c r="K14" s="7">
         <v>0</v>
       </c>
       <c r="L14" s="7">
+        <v>2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="45">
         <v>-2</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="7">
+        <v>-3</v>
+      </c>
       <c r="R14" s="50"/>
       <c r="S14" s="7">
         <v>2</v>
       </c>
-      <c r="T14" s="45">
+      <c r="T14" s="7">
         <v>-1</v>
       </c>
       <c r="U14" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V14" s="7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="W14" s="7">
         <v>0</v>
@@ -3318,31 +3338,35 @@
       <c r="X14" s="7">
         <v>5</v>
       </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7">
+        <v>2</v>
+      </c>
       <c r="AA14" s="50"/>
-      <c r="AB14" s="7"/>
+      <c r="AB14" s="45">
+        <v>-1</v>
+      </c>
       <c r="AC14" s="65"/>
-      <c r="AD14" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="7"/>
       <c r="AE14" s="7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AH14" s="7">
         <v>-2</v>
       </c>
       <c r="AI14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="7">
         <v>-1</v>
       </c>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
+      <c r="AK14" s="7">
+        <v>-1</v>
+      </c>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
@@ -3362,31 +3386,31 @@
       </c>
       <c r="BC14" s="8">
         <f>COUNT(B14:AY14)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BD14" s="8">
         <f>COUNTIF($B14:$AY14, "&gt;=1")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE14" s="8">
         <f>COUNTIF($B14:$AY14, "0")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF14" s="8">
         <f>COUNTIF($B14:$AY14, "&lt;0")</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG14" s="8">
         <f>SUM(BD14*3)+BE14</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH14" s="8">
         <f>SUM(B14:AY14)</f>
-        <v>17</v>
+        <v>-15</v>
       </c>
       <c r="BI14" s="10">
         <f>SUM(BD14*3+BE14*1)/SUM(BC14*3)</f>
-        <v>0.43478260869565216</v>
+        <v>0.36904761904761907</v>
       </c>
       <c r="BJ14" s="10"/>
     </row>
@@ -3479,7 +3503,9 @@
       <c r="AJ15" s="7">
         <v>1</v>
       </c>
-      <c r="AK15" s="7"/>
+      <c r="AK15" s="7">
+        <v>-1</v>
+      </c>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
@@ -3499,7 +3525,7 @@
       </c>
       <c r="BC15" s="8">
         <f>COUNT(B15:AY15)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD15" s="8">
         <f>COUNTIF($B15:$AY15, "&gt;=1")</f>
@@ -3511,7 +3537,7 @@
       </c>
       <c r="BF15" s="8">
         <f>COUNTIF($B15:$AY15, "&lt;0")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG15" s="8">
         <f>SUM(BD15*3)+BE15</f>
@@ -3519,49 +3545,55 @@
       </c>
       <c r="BH15" s="8">
         <f>SUM(B15:AY15)</f>
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="BI15" s="10">
         <f>SUM(BD15*3+BE15*1)/SUM(BC15*3)</f>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="BJ15" s="10"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="7">
+        <v>106</v>
+      </c>
+      <c r="B16" s="45">
         <v>-1</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="7">
         <v>-9</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>-1</v>
+      </c>
       <c r="G16" s="7">
         <v>0</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="45">
-        <v>-8</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2</v>
+      </c>
       <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="45">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
+        <v>-2</v>
+      </c>
       <c r="Q16" s="7">
         <v>3</v>
       </c>
@@ -3569,8 +3601,10 @@
       <c r="S16" s="7">
         <v>-2</v>
       </c>
-      <c r="T16" s="7"/>
-      <c r="U16" s="45">
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7">
         <v>4</v>
       </c>
       <c r="V16" s="7">
@@ -3582,31 +3616,23 @@
       <c r="X16" s="7">
         <v>-5</v>
       </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7">
-        <v>-2</v>
-      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="50"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="65"/>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="45">
-        <v>-4</v>
-      </c>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>-2</v>
-      </c>
-      <c r="AI16" s="7">
-        <v>1</v>
-      </c>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
+      <c r="AK16" s="45">
+        <v>1</v>
+      </c>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
@@ -3646,7 +3672,7 @@
       </c>
       <c r="BH16" s="8">
         <f>SUM(B16:AY16)</f>
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="BI16" s="10">
         <f>SUM(BD16*3+BE16*1)/SUM(BC16*3)</f>
@@ -3656,38 +3682,32 @@
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B17" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C17" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>-1</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="45">
-        <v>7</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="I17" s="7"/>
+      <c r="J17" s="45">
         <v>-8</v>
       </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
       <c r="N17" s="7">
         <v>0</v>
       </c>
@@ -3699,34 +3719,46 @@
         <v>3</v>
       </c>
       <c r="R17" s="50"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7">
+        <v>-2</v>
+      </c>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="U17" s="45">
+        <v>4</v>
+      </c>
+      <c r="V17" s="7">
+        <v>8</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>-5</v>
+      </c>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
+      <c r="Z17" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA17" s="50"/>
-      <c r="AB17" s="45">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="65"/>
       <c r="AD17" s="7">
         <v>0</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7">
+      <c r="AE17" s="45">
+        <v>-4</v>
+      </c>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="7">
         <v>-2</v>
       </c>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="45">
-        <v>-1</v>
-      </c>
+      <c r="AI17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
@@ -3747,11 +3779,11 @@
       </c>
       <c r="BC17" s="8">
         <f>COUNT(B17:AY17)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD17" s="8">
         <f>COUNTIF($B17:$AY17, "&gt;=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE17" s="8">
         <f>COUNTIF($B17:$AY17, "0")</f>
@@ -3759,38 +3791,36 @@
       </c>
       <c r="BF17" s="8">
         <f>COUNTIF($B17:$AY17, "&lt;0")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG17" s="8">
         <f>SUM(BD17*3)+BE17</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BH17" s="8">
         <f>SUM(B17:AY17)</f>
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="BI17" s="10">
         <f>SUM(BD17*3+BE17*1)/SUM(BC17*3)</f>
-        <v>0.49019607843137253</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="45">
-        <v>-1</v>
+        <v>78</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
       </c>
       <c r="C18" s="7">
         <v>-1</v>
       </c>
       <c r="D18" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="7">
         <v>-1</v>
       </c>
@@ -3798,60 +3828,58 @@
         <v>0</v>
       </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="I18" s="45">
+        <v>7</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-8</v>
+      </c>
       <c r="K18" s="7">
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <v>2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="45">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7">
         <v>-2</v>
       </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7"/>
       <c r="Q18" s="7">
         <v>3</v>
       </c>
       <c r="R18" s="50"/>
-      <c r="S18" s="7">
-        <v>-2</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1</v>
-      </c>
-      <c r="U18" s="7">
-        <v>4</v>
-      </c>
-      <c r="V18" s="7">
-        <v>8</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <v>-5</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>0</v>
-      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="50"/>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="45">
+        <v>1</v>
+      </c>
       <c r="AC18" s="65"/>
-      <c r="AD18" s="7"/>
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
       <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
+      <c r="AF18" s="7">
+        <v>-2</v>
+      </c>
       <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
+      <c r="AH18" s="7">
+        <v>2</v>
+      </c>
       <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
+      <c r="AJ18" s="45">
+        <v>-1</v>
+      </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
@@ -3872,7 +3900,7 @@
       </c>
       <c r="BC18" s="8">
         <f>COUNT(B18:AY18)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD18" s="8">
         <f>COUNTIF($B18:$AY18, "&gt;=1")</f>
@@ -3884,7 +3912,7 @@
       </c>
       <c r="BF18" s="8">
         <f>COUNTIF($B18:$AY18, "&lt;0")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG18" s="8">
         <f>SUM(BD18*3)+BE18</f>
@@ -3892,82 +3920,86 @@
       </c>
       <c r="BH18" s="8">
         <f>SUM(B18:AY18)</f>
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="BI18" s="10">
         <f>SUM(BD18*3+BE18*1)/SUM(BC18*3)</f>
-        <v>0.43859649122807015</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="45">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="7">
-        <v>-7</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>-8</v>
+      </c>
+      <c r="K19" s="45">
+        <v>0</v>
+      </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="7">
+        <v>-1</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="50"/>
       <c r="S19" s="7">
         <v>2</v>
       </c>
-      <c r="T19" s="7">
-        <v>1</v>
-      </c>
-      <c r="U19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7">
+        <v>4</v>
+      </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7">
         <v>0</v>
       </c>
-      <c r="X19" s="45">
+      <c r="X19" s="7">
         <v>5</v>
       </c>
-      <c r="Y19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7"/>
+      <c r="Y19" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>2</v>
+      </c>
       <c r="AA19" s="50"/>
       <c r="AB19" s="7">
         <v>-1</v>
       </c>
       <c r="AC19" s="65"/>
-      <c r="AD19" s="7"/>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
       <c r="AE19" s="7">
-        <v>-4</v>
-      </c>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF19" s="45">
         <v>-2</v>
       </c>
-      <c r="AI19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AG19" s="7">
+        <v>-5</v>
+      </c>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
+      <c r="AK19" s="7">
+        <v>1</v>
+      </c>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
@@ -3987,7 +4019,7 @@
       </c>
       <c r="BC19" s="8">
         <f>COUNT(B19:AY19)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD19" s="8">
         <f>COUNTIF($B19:$AY19, "&gt;=1")</f>
@@ -3995,7 +4027,7 @@
       </c>
       <c r="BE19" s="8">
         <f>COUNTIF($B19:$AY19, "0")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF19" s="8">
         <f>COUNTIF($B19:$AY19, "&lt;0")</f>
@@ -4003,32 +4035,28 @@
       </c>
       <c r="BG19" s="8">
         <f>SUM(BD19*3)+BE19</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BH19" s="8">
         <f>SUM(B19:AY19)</f>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="BI19" s="10">
         <f>SUM(BD19*3+BE19*1)/SUM(BC19*3)</f>
-        <v>0.54761904761904767</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="55">
-        <v>1</v>
-      </c>
-      <c r="C20" s="45">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-9</v>
-      </c>
-      <c r="E20" s="7">
+        <v>111</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="45">
         <v>1</v>
       </c>
       <c r="F20" s="7">
@@ -4036,64 +4064,66 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7">
-        <v>-8</v>
-      </c>
+      <c r="I20" s="7">
+        <v>-7</v>
+      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7">
-        <v>2</v>
-      </c>
+      <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7">
         <v>-2</v>
       </c>
-      <c r="Q20" s="45">
-        <v>-3</v>
-      </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="50"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
+      <c r="S20" s="7">
+        <v>2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7">
         <v>0</v>
       </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7">
-        <v>-2</v>
-      </c>
+      <c r="X20" s="45">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="50"/>
       <c r="AB20" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20" s="65"/>
-      <c r="AD20" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD20" s="7"/>
       <c r="AE20" s="7">
         <v>-4</v>
       </c>
-      <c r="AF20" s="7">
-        <v>2</v>
-      </c>
+      <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="45">
+      <c r="AH20" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AI20" s="7">
         <v>1</v>
       </c>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
+      <c r="AK20" s="7">
+        <v>-1</v>
+      </c>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
-      <c r="AR20" s="55"/>
+      <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -4101,13 +4131,12 @@
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
-      <c r="AZ20" s="5"/>
       <c r="BA20" s="33">
         <v>16</v>
       </c>
       <c r="BC20" s="8">
         <f>COUNT(B20:AY20)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" s="8">
         <f>COUNTIF($B20:$AY20, "&gt;=1")</f>
@@ -4119,7 +4148,7 @@
       </c>
       <c r="BF20" s="8">
         <f>COUNTIF($B20:$AY20, "&lt;0")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG20" s="8">
         <f>SUM(BD20*3)+BE20</f>
@@ -4127,67 +4156,65 @@
       </c>
       <c r="BH20" s="8">
         <f>SUM(B20:AY20)</f>
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="BI20" s="10">
         <f>SUM(BD20*3+BE20*1)/SUM(BC20*3)</f>
-        <v>0.47916666666666669</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="BJ20" s="10"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="45">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-9</v>
+      </c>
       <c r="E21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="50"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <v>-8</v>
+      </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7">
-        <v>1</v>
-      </c>
+      <c r="L21" s="7">
+        <v>2</v>
+      </c>
+      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="45">
-        <v>-1</v>
-      </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Q21" s="45">
         <v>-3</v>
       </c>
       <c r="R21" s="50"/>
-      <c r="S21" s="7">
-        <v>2</v>
-      </c>
-      <c r="T21" s="7">
-        <v>1</v>
-      </c>
-      <c r="U21" s="7">
-        <v>-4</v>
-      </c>
-      <c r="V21" s="7">
-        <v>8</v>
-      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
       <c r="W21" s="7">
         <v>0</v>
       </c>
       <c r="X21" s="7"/>
-      <c r="Y21" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA21" s="50"/>
       <c r="AB21" s="7">
         <v>1</v>
@@ -4196,11 +4223,17 @@
       <c r="AD21" s="7">
         <v>0</v>
       </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
+      <c r="AE21" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>2</v>
+      </c>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
+      <c r="AI21" s="45">
+        <v>1</v>
+      </c>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
@@ -4209,7 +4242,7 @@
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
+      <c r="AR21" s="55"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -4217,109 +4250,110 @@
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
+      <c r="AZ21" s="5"/>
       <c r="BA21" s="33">
         <v>17</v>
       </c>
       <c r="BC21" s="8">
         <f>COUNT(B21:AY21)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD21" s="8">
         <f>COUNTIF($B21:$AY21, "&gt;=1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE21" s="8">
         <f>COUNTIF($B21:$AY21, "0")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF21" s="8">
         <f>COUNTIF($B21:$AY21, "&lt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG21" s="8">
         <f>SUM(BD21*3)+BE21</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH21" s="8">
         <f>SUM(B21:AY21)</f>
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="BI21" s="10">
         <f>SUM(BD21*3+BE21*1)/SUM(BC21*3)</f>
-        <v>0.52380952380952384</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="BJ21" s="10"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="7">
+        <v>-1</v>
+      </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
       <c r="H22" s="50"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K22" s="45">
-        <v>0</v>
-      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="45">
         <v>-1</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7">
+        <v>-3</v>
+      </c>
       <c r="R22" s="50"/>
       <c r="S22" s="7">
         <v>2</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
       <c r="U22" s="7">
-        <v>4</v>
-      </c>
-      <c r="V22" s="7"/>
+        <v>-4</v>
+      </c>
+      <c r="V22" s="7">
+        <v>8</v>
+      </c>
       <c r="W22" s="7">
         <v>0</v>
       </c>
-      <c r="X22" s="7">
-        <v>5</v>
-      </c>
+      <c r="X22" s="7"/>
       <c r="Y22" s="45">
         <v>0</v>
       </c>
-      <c r="Z22" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z22" s="7"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="65"/>
       <c r="AD22" s="7">
         <v>0</v>
       </c>
-      <c r="AE22" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF22" s="45">
-        <v>-2</v>
-      </c>
-      <c r="AG22" s="7">
-        <v>-5</v>
-      </c>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
+      <c r="AK22" s="7">
+        <v>-1</v>
+      </c>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
@@ -4359,7 +4393,7 @@
       </c>
       <c r="BH22" s="8">
         <f>SUM(B22:AY22)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI22" s="10">
         <f>SUM(BD22*3+BE22*1)/SUM(BC22*3)</f>
@@ -4442,7 +4476,9 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
+      <c r="AK23" s="7">
+        <v>-1</v>
+      </c>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
@@ -4462,7 +4498,7 @@
       </c>
       <c r="BC23" s="8">
         <f>COUNT(B23:AY23)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD23" s="8">
         <f>COUNTIF($B23:$AY23, "&gt;=1")</f>
@@ -4474,7 +4510,7 @@
       </c>
       <c r="BF23" s="8">
         <f>COUNTIF($B23:$AY23, "&lt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG23" s="8">
         <f>SUM(BD23*3)+BE23</f>
@@ -4482,11 +4518,11 @@
       </c>
       <c r="BH23" s="8">
         <f>SUM(B23:AY23)</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="BI23" s="10">
         <f>SUM(BD23*3+BE23*1)/SUM(BC23*3)</f>
-        <v>0.40740740740740738</v>
+        <v>0.38596491228070173</v>
       </c>
       <c r="BJ23" s="10"/>
     </row>
@@ -4553,7 +4589,9 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
+      <c r="AK24" s="7">
+        <v>1</v>
+      </c>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
@@ -4573,11 +4611,11 @@
       </c>
       <c r="BC24" s="8">
         <f>COUNT(B24:AY24)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD24" s="8">
         <f>COUNTIF($B24:$AY24, "&gt;=1")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE24" s="8">
         <f>COUNTIF($B24:$AY24, "0")</f>
@@ -4589,23 +4627,25 @@
       </c>
       <c r="BG24" s="8">
         <f>SUM(BD24*3)+BE24</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BH24" s="8">
         <f>SUM(B24:AY24)</f>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="BI24" s="10">
         <f>SUM(BD24*3+BE24*1)/SUM(BC24*3)</f>
-        <v>0.41666666666666669</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -4624,15 +4664,15 @@
       <c r="R25" s="50"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7">
-        <v>4</v>
-      </c>
-      <c r="V25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7">
+        <v>-8</v>
+      </c>
       <c r="W25" s="7">
         <v>0</v>
       </c>
       <c r="X25" s="7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7">
@@ -4641,22 +4681,20 @@
       <c r="AA25" s="50"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="65"/>
-      <c r="AD25" s="7">
-        <v>0</v>
-      </c>
+      <c r="AD25" s="7"/>
       <c r="AE25" s="7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AK25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>1</v>
+      </c>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
@@ -4680,11 +4718,11 @@
       </c>
       <c r="BD25" s="8">
         <f>COUNTIF($B25:$AY25, "&gt;=1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE25" s="8">
         <f>COUNTIF($B25:$AY25, "0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="8">
         <f>COUNTIF($B25:$AY25, "&lt;0")</f>
@@ -4692,21 +4730,21 @@
       </c>
       <c r="BG25" s="8">
         <f>SUM(BD25*3)+BE25</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BH25" s="8">
         <f>SUM(B25:AY25)</f>
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="BI25" s="10">
         <f>SUM(BD25*3+BE25*1)/SUM(BC25*3)</f>
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="BJ25" s="10"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4727,10 +4765,10 @@
       <c r="R26" s="50"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="45">
-        <v>-8</v>
-      </c>
+      <c r="U26" s="7">
+        <v>4</v>
+      </c>
+      <c r="V26" s="7"/>
       <c r="W26" s="7">
         <v>0</v>
       </c>
@@ -4738,11 +4776,11 @@
         <v>5</v>
       </c>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="7">
+        <v>-2</v>
+      </c>
       <c r="AA26" s="50"/>
-      <c r="AB26" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB26" s="7"/>
       <c r="AC26" s="65"/>
       <c r="AD26" s="7">
         <v>0</v>
@@ -4750,16 +4788,18 @@
       <c r="AE26" s="7">
         <v>-4</v>
       </c>
-      <c r="AF26" s="7">
-        <v>-2</v>
-      </c>
+      <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
-      <c r="AH26" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AK26" s="45">
+        <v>-1</v>
+      </c>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
@@ -4779,7 +4819,7 @@
       </c>
       <c r="BC26" s="8">
         <f>COUNT(B26:AY26)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD26" s="8">
         <f>COUNTIF($B26:$AY26, "&gt;=1")</f>
@@ -4791,7 +4831,7 @@
       </c>
       <c r="BF26" s="8">
         <f>COUNTIF($B26:$AY26, "&lt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG26" s="8">
         <f>SUM(BD26*3)+BE26</f>
@@ -4799,21 +4839,19 @@
       </c>
       <c r="BH26" s="8">
         <f>SUM(B26:AY26)</f>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="BI26" s="10">
         <f>SUM(BD26*3+BE26*1)/SUM(BC26*3)</f>
-        <v>0.45833333333333331</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4833,33 +4871,37 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="7">
+      <c r="V27" s="45">
         <v>-8</v>
       </c>
       <c r="W27" s="7">
         <v>0</v>
       </c>
       <c r="X27" s="7">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="7">
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF27" s="7">
         <v>-2</v>
       </c>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
+      <c r="AH27" s="7">
+        <v>2</v>
+      </c>
       <c r="AI27" s="7"/>
-      <c r="AJ27" s="45">
-        <v>1</v>
-      </c>
+      <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
@@ -4880,7 +4922,7 @@
       </c>
       <c r="BC27" s="8">
         <f>COUNT(B27:AY27)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD27" s="8">
         <f>COUNTIF($B27:$AY27, "&gt;=1")</f>
@@ -4888,7 +4930,7 @@
       </c>
       <c r="BE27" s="8">
         <f>COUNTIF($B27:$AY27, "0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF27" s="8">
         <f>COUNTIF($B27:$AY27, "&lt;0")</f>
@@ -4896,15 +4938,15 @@
       </c>
       <c r="BG27" s="8">
         <f>SUM(BD27*3)+BE27</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH27" s="8">
         <f>SUM(B27:AY27)</f>
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="BI27" s="10">
         <f>SUM(BD27*3+BE27*1)/SUM(BC27*3)</f>
-        <v>0.47619047619047616</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ27" s="10"/>
     </row>
@@ -5349,7 +5391,9 @@
       <c r="AJ32" s="7">
         <v>1</v>
       </c>
-      <c r="AK32" s="7"/>
+      <c r="AK32" s="7">
+        <v>-1</v>
+      </c>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
@@ -5369,7 +5413,7 @@
       </c>
       <c r="BC32" s="8">
         <f>COUNT(B32:AY32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD32" s="8">
         <f>COUNTIF($B32:$AY32, "&gt;=1")</f>
@@ -5381,7 +5425,7 @@
       </c>
       <c r="BF32" s="8">
         <f>COUNTIF($B32:$AY32, "&lt;0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG32" s="8">
         <f>SUM(BD32*3)+BE32</f>
@@ -5389,11 +5433,11 @@
       </c>
       <c r="BH32" s="8">
         <f>SUM(B32:AY32)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32" s="10">
         <f>SUM(BD32*3+BE32*1)/SUM(BC32*3)</f>
-        <v>0.66666666666666663</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="BJ32" s="10"/>
     </row>
@@ -5688,7 +5732,7 @@
     </row>
     <row r="36" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -5707,17 +5751,13 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="50"/>
-      <c r="S36" s="7">
-        <v>-2</v>
-      </c>
+      <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="7">
-        <v>0</v>
-      </c>
+      <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="50"/>
       <c r="AB36" s="7"/>
@@ -5728,8 +5768,12 @@
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
-      <c r="AJ36" s="7"/>
-      <c r="AK36" s="7"/>
+      <c r="AJ36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AK36" s="7">
+        <v>1</v>
+      </c>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
@@ -5753,11 +5797,11 @@
       </c>
       <c r="BD36" s="8">
         <f>COUNTIF($B36:$AY36, "&gt;=1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE36" s="8">
         <f>COUNTIF($B36:$AY36, "0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="8">
         <f>COUNTIF($B36:$AY36, "&lt;0")</f>
@@ -5765,21 +5809,21 @@
       </c>
       <c r="BG36" s="8">
         <f>SUM(BD36*3)+BE36</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH36" s="8">
         <f>SUM(B36:AY36)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="BI36" s="10">
         <f>SUM(BD36*3+BE36*1)/SUM(BC36*3)</f>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="BJ36" s="10"/>
     </row>
     <row r="37" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -5798,15 +5842,17 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="50"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7">
-        <v>-1</v>
-      </c>
+      <c r="S37" s="7">
+        <v>-2</v>
+      </c>
+      <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
+      <c r="Y37" s="7">
+        <v>0</v>
+      </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="50"/>
       <c r="AB37" s="7"/>
@@ -5838,7 +5884,7 @@
       </c>
       <c r="BC37" s="8">
         <f>COUNT(B37:AY37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD37" s="8">
         <f>COUNTIF($B37:$AY37, "&gt;=1")</f>
@@ -5846,7 +5892,7 @@
       </c>
       <c r="BE37" s="8">
         <f>COUNTIF($B37:$AY37, "0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF37" s="8">
         <f>COUNTIF($B37:$AY37, "&lt;0")</f>
@@ -5854,21 +5900,21 @@
       </c>
       <c r="BG37" s="8">
         <f>SUM(BD37*3)+BE37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH37" s="8">
         <f>SUM(B37:AY37)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="BI37" s="10">
         <f>SUM(BD37*3+BE37*1)/SUM(BC37*3)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ37" s="10"/>
     </row>
     <row r="38" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -5888,7 +5934,9 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="50"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="T38" s="7">
+        <v>-1</v>
+      </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -5904,9 +5952,7 @@
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
-      <c r="AJ38" s="7">
-        <v>-1</v>
-      </c>
+      <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
@@ -6190,7 +6236,7 @@
       </c>
       <c r="AK40" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL40" s="27">
         <f t="shared" si="1"/>
@@ -6358,7 +6404,9 @@
       <c r="AJ41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AK41" s="8"/>
+      <c r="AK41" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
       <c r="AN41" s="8"/>
@@ -6709,7 +6757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6798,14 +6846,14 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G35" si="1">SUM(C4*3)+D4</f>
+        <f>SUM(C4*3)+D4</f>
         <v>7</v>
       </c>
       <c r="K4">
         <v>24</v>
       </c>
       <c r="L4" s="69">
-        <f t="shared" ref="L4:L27" si="2">K4/B4</f>
+        <f t="shared" ref="L4:L27" si="1">K4/B4</f>
         <v>8</v>
       </c>
     </row>
@@ -6829,14 +6877,14 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>SUM(C5*3)+D5</f>
         <v>7</v>
       </c>
       <c r="K5">
         <v>27</v>
       </c>
       <c r="L5" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6860,14 +6908,14 @@
         <v>3</v>
       </c>
       <c r="G6" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(C6*3)+D6</f>
         <v>7</v>
       </c>
       <c r="K6">
         <v>19</v>
       </c>
       <c r="L6" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -6891,14 +6939,14 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>SUM(C7*3)+D7</f>
         <v>6</v>
       </c>
       <c r="K7">
         <v>19</v>
       </c>
       <c r="L7" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -6922,14 +6970,14 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>SUM(C8*3)+D8</f>
         <v>6</v>
       </c>
       <c r="K8">
         <v>16</v>
       </c>
       <c r="L8" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -6953,14 +7001,14 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>SUM(C9*3)+D9</f>
         <v>6</v>
       </c>
       <c r="K9">
         <v>13</v>
       </c>
       <c r="L9" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -6984,7 +7032,7 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>SUM(C10*3)+D10</f>
         <v>6</v>
       </c>
       <c r="H10" s="23"/>
@@ -6992,44 +7040,44 @@
         <v>28</v>
       </c>
       <c r="L10" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>SUM(C11*3)+D11</f>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>21</v>
       </c>
       <c r="L11" s="69">
-        <f t="shared" si="2"/>
+        <f t="shar